--- a/前端工程师班.xlsx
+++ b/前端工程师班.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yacon\Desktop\前端随堂笔记\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD20B794-AB56-4659-BCAF-18D6798380F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A17B85E-4BF0-4739-B9F9-EEDC5378B9D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="19188" windowHeight="12816" activeTab="1" xr2:uid="{F18D4CDB-7335-4D71-A58E-AC92FD55C192}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="22068" windowHeight="13176" activeTab="3" xr2:uid="{F18D4CDB-7335-4D71-A58E-AC92FD55C192}"/>
   </bookViews>
   <sheets>
     <sheet name="异常记录" sheetId="1" r:id="rId1"/>
@@ -735,7 +735,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="52">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1524,11 +1524,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C8AE620-962B-4850-8EC1-28D9C57566DF}">
   <dimension ref="A1:W50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J3" sqref="J3"/>
+      <selection pane="bottomRight" activeCell="AB11" sqref="AB11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.399999999999999" x14ac:dyDescent="0.25"/>
@@ -1592,7 +1592,7 @@
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
-        <f t="shared" ref="A2:A24" si="0">SUM(C28:W28)</f>
+        <f>SUM(C28:W28)</f>
         <v>13</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -1638,7 +1638,7 @@
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
-        <f t="shared" si="0"/>
+        <f>SUM(C29:W29)</f>
         <v>15</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -1684,7 +1684,7 @@
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
-        <f t="shared" si="0"/>
+        <f>SUM(C30:W30)</f>
         <v>18</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -1730,7 +1730,7 @@
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
-        <f t="shared" si="0"/>
+        <f>SUM(C31:W31)</f>
         <v>20</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -1776,35 +1776,35 @@
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
-        <f t="shared" si="0"/>
-        <v>26</v>
+        <f>SUM(C32:W32)</f>
+        <v>25</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>36</v>
       </c>
       <c r="F6" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J6" s="5" t="s">
         <v>34</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>33</v>
       </c>
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
@@ -1822,32 +1822,32 @@
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
-        <f t="shared" si="0"/>
+        <f>SUM(C33:W33)</f>
         <v>25</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C7" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>33</v>
-      </c>
       <c r="E7" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="J7" s="5" t="s">
         <v>34</v>
@@ -1868,35 +1868,35 @@
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
-        <f t="shared" si="0"/>
-        <v>25</v>
+        <f>SUM(C34:W34)</f>
+        <v>26</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C8" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>35</v>
-      </c>
       <c r="E8" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>34</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
@@ -1914,20 +1914,20 @@
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
-        <f t="shared" si="0"/>
-        <v>27</v>
+        <f>SUM(C35:W35)</f>
+        <v>26</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>33</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>35</v>
@@ -1939,10 +1939,10 @@
         <v>33</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="K9" s="5"/>
       <c r="L9" s="5"/>
@@ -1960,20 +1960,20 @@
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
-        <f t="shared" si="0"/>
+        <f>SUM(C36:W36)</f>
+        <v>27</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>14</v>
-      </c>
       <c r="C10" s="5" t="s">
         <v>33</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>35</v>
@@ -1985,10 +1985,10 @@
         <v>33</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
@@ -2006,7 +2006,7 @@
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
-        <f t="shared" si="0"/>
+        <f>SUM(C37:W37)</f>
         <v>27</v>
       </c>
       <c r="B11" s="5" t="s">
@@ -2052,7 +2052,7 @@
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
-        <f t="shared" si="0"/>
+        <f>SUM(C38:W38)</f>
         <v>31</v>
       </c>
       <c r="B12" s="5" t="s">
@@ -2098,7 +2098,7 @@
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
-        <f t="shared" si="0"/>
+        <f>SUM(C39:W39)</f>
         <v>31</v>
       </c>
       <c r="B13" s="5" t="s">
@@ -2144,7 +2144,7 @@
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
-        <f t="shared" si="0"/>
+        <f>SUM(C40:W40)</f>
         <v>32</v>
       </c>
       <c r="B14" s="5" t="s">
@@ -2190,7 +2190,7 @@
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
-        <f t="shared" si="0"/>
+        <f>SUM(C41:W41)</f>
         <v>34</v>
       </c>
       <c r="B15" s="5" t="s">
@@ -2236,35 +2236,35 @@
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
-        <f t="shared" si="0"/>
-        <v>36</v>
+        <f>SUM(C42:W42)</f>
+        <v>35</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>33</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H16" s="5" t="s">
         <v>33</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
@@ -2282,35 +2282,35 @@
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" s="10">
-        <f t="shared" si="0"/>
-        <v>35</v>
+        <f>SUM(C43:W43)</f>
+        <v>36</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F17" s="5" t="s">
         <v>33</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H17" s="5" t="s">
         <v>33</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
@@ -2328,7 +2328,7 @@
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" s="10">
-        <f t="shared" si="0"/>
+        <f>SUM(C44:W44)</f>
         <v>36</v>
       </c>
       <c r="B18" s="5" t="s">
@@ -2374,7 +2374,7 @@
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" s="10">
-        <f t="shared" si="0"/>
+        <f>SUM(C45:W45)</f>
         <v>37</v>
       </c>
       <c r="B19" s="5" t="s">
@@ -2420,7 +2420,7 @@
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" s="10">
-        <f t="shared" si="0"/>
+        <f>SUM(C46:W46)</f>
         <v>37</v>
       </c>
       <c r="B20" s="5" t="s">
@@ -2466,7 +2466,7 @@
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" s="10">
-        <f t="shared" si="0"/>
+        <f>SUM(C47:W47)</f>
         <v>38</v>
       </c>
       <c r="B21" s="5" t="s">
@@ -2512,7 +2512,7 @@
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" s="10">
-        <f t="shared" si="0"/>
+        <f>SUM(C48:W48)</f>
         <v>38</v>
       </c>
       <c r="B22" s="5" t="s">
@@ -2558,7 +2558,7 @@
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" s="10">
-        <f t="shared" si="0"/>
+        <f>SUM(C49:W49)</f>
         <v>40</v>
       </c>
       <c r="B23" s="5" t="s">
@@ -2604,7 +2604,7 @@
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" s="10">
-        <f t="shared" si="0"/>
+        <f>SUM(C50:W50)</f>
         <v>40</v>
       </c>
       <c r="B24" s="5" t="s">
@@ -2746,87 +2746,87 @@
         <v>4</v>
       </c>
       <c r="C28" s="5">
-        <f t="shared" ref="C28:W28" si="1">IF(C2="A",5,IF(C2="b",4,IF(C2="C",2,IF(C2="D",1,0))))</f>
+        <f t="shared" ref="C28:W28" si="0">IF(C2="A",5,IF(C2="b",4,IF(C2="C",2,IF(C2="D",1,0))))</f>
         <v>2</v>
       </c>
       <c r="D28" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="E28" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F28" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G28" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H28" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="I28" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J28" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="K28" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L28" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M28" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N28" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O28" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P28" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q28" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R28" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S28" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="T28" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U28" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="V28" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="W28" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2836,87 +2836,87 @@
         <v>5</v>
       </c>
       <c r="C29" s="5">
-        <f t="shared" ref="C29:W29" si="2">IF(C3="A",5,IF(C3="b",4,IF(C3="C",2,IF(C3="D",1,0))))</f>
+        <f t="shared" ref="C29:W29" si="1">IF(C3="A",5,IF(C3="b",4,IF(C3="C",2,IF(C3="D",1,0))))</f>
         <v>4</v>
       </c>
       <c r="D29" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="E29" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="F29" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G29" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H29" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="I29" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="J29" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K29" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L29" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M29" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N29" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O29" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P29" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q29" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R29" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S29" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T29" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="U29" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="V29" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="W29" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2926,87 +2926,87 @@
         <v>6</v>
       </c>
       <c r="C30" s="5">
-        <f t="shared" ref="C30:W30" si="3">IF(C4="A",5,IF(C4="b",4,IF(C4="C",2,IF(C4="D",1,0))))</f>
+        <f t="shared" ref="C30:W30" si="2">IF(C4="A",5,IF(C4="b",4,IF(C4="C",2,IF(C4="D",1,0))))</f>
         <v>5</v>
       </c>
       <c r="D30" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="E30" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F30" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="G30" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H30" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="I30" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J30" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="K30" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L30" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M30" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N30" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O30" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P30" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q30" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R30" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S30" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T30" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U30" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="V30" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W30" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -3016,87 +3016,87 @@
         <v>7</v>
       </c>
       <c r="C31" s="5">
-        <f t="shared" ref="C31:W31" si="4">IF(C5="A",5,IF(C5="b",4,IF(C5="C",2,IF(C5="D",1,0))))</f>
+        <f t="shared" ref="C31:W31" si="3">IF(C5="A",5,IF(C5="b",4,IF(C5="C",2,IF(C5="D",1,0))))</f>
         <v>5</v>
       </c>
       <c r="D31" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="E31" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="F31" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="G31" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="H31" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="I31" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="J31" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="K31" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L31" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M31" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N31" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O31" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P31" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q31" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R31" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S31" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="T31" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U31" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V31" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="W31" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3106,87 +3106,87 @@
         <v>8</v>
       </c>
       <c r="C32" s="5">
-        <f t="shared" ref="C32:W32" si="5">IF(C6="A",5,IF(C6="b",4,IF(C6="C",2,IF(C6="D",1,0))))</f>
-        <v>5</v>
+        <f t="shared" ref="C32:W32" si="4">IF(C6="A",5,IF(C6="b",4,IF(C6="C",2,IF(C6="D",1,0))))</f>
+        <v>2</v>
       </c>
       <c r="D32" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="E32" s="5">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="F32" s="5">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G32" s="5">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="H32" s="5">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="I32" s="5">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="J32" s="5">
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="E32" s="5">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="F32" s="5">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="G32" s="5">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="H32" s="5">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="I32" s="5">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="J32" s="5">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
       <c r="K32" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L32" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M32" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N32" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O32" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P32" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q32" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="R32" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S32" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="T32" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="U32" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="V32" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W32" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3196,87 +3196,87 @@
         <v>9</v>
       </c>
       <c r="C33" s="5">
-        <f t="shared" ref="C33:W33" si="6">IF(C7="A",5,IF(C7="b",4,IF(C7="C",2,IF(C7="D",1,0))))</f>
+        <f t="shared" ref="C33:W33" si="5">IF(C7="A",5,IF(C7="b",4,IF(C7="C",2,IF(C7="D",1,0))))</f>
+        <v>4</v>
+      </c>
+      <c r="D33" s="5">
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="D33" s="5">
-        <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
       <c r="E33" s="5">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>2</v>
       </c>
       <c r="F33" s="5">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
       <c r="G33" s="5">
-        <f t="shared" si="6"/>
-        <v>2</v>
+        <f t="shared" si="5"/>
+        <v>5</v>
       </c>
       <c r="H33" s="5">
-        <f t="shared" si="6"/>
-        <v>5</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
       <c r="I33" s="5">
-        <f t="shared" si="6"/>
-        <v>5</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="J33" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="K33" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L33" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M33" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="N33" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O33" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P33" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q33" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R33" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S33" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T33" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U33" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V33" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="W33" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -3286,87 +3286,87 @@
         <v>10</v>
       </c>
       <c r="C34" s="5">
-        <f t="shared" ref="C34:W34" si="7">IF(C8="A",5,IF(C8="b",4,IF(C8="C",2,IF(C8="D",1,0))))</f>
+        <f t="shared" ref="C34:W34" si="6">IF(C8="A",5,IF(C8="b",4,IF(C8="C",2,IF(C8="D",1,0))))</f>
+        <v>5</v>
+      </c>
+      <c r="D34" s="5">
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="D34" s="5">
-        <f t="shared" si="7"/>
+      <c r="E34" s="5">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="F34" s="5">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="G34" s="5">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="H34" s="5">
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="E34" s="5">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="F34" s="5">
-        <f t="shared" si="7"/>
-        <v>4</v>
-      </c>
-      <c r="G34" s="5">
-        <f t="shared" si="7"/>
-        <v>5</v>
-      </c>
-      <c r="H34" s="5">
-        <f t="shared" si="7"/>
-        <v>4</v>
-      </c>
       <c r="I34" s="5">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="J34" s="5">
-        <f t="shared" si="7"/>
-        <v>4</v>
+        <f t="shared" si="6"/>
+        <v>5</v>
       </c>
       <c r="K34" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L34" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="M34" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N34" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O34" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P34" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q34" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R34" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S34" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T34" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U34" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V34" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W34" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -3376,87 +3376,87 @@
         <v>11</v>
       </c>
       <c r="C35" s="5">
-        <f t="shared" ref="C35:W35" si="8">IF(C9="A",5,IF(C9="b",4,IF(C9="C",2,IF(C9="D",1,0))))</f>
+        <f t="shared" ref="C35:W35" si="7">IF(C9="A",5,IF(C9="b",4,IF(C9="C",2,IF(C9="D",1,0))))</f>
         <v>5</v>
       </c>
       <c r="D35" s="5">
-        <f t="shared" si="8"/>
-        <v>4</v>
+        <f t="shared" si="7"/>
+        <v>5</v>
       </c>
       <c r="E35" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="F35" s="5">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="G35" s="5">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="F35" s="5">
-        <f t="shared" si="8"/>
-        <v>2</v>
-      </c>
-      <c r="G35" s="5">
-        <f t="shared" si="8"/>
+      <c r="H35" s="5">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="I35" s="5">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="J35" s="5">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="H35" s="5">
-        <f t="shared" si="8"/>
-        <v>5</v>
-      </c>
-      <c r="I35" s="5">
-        <f t="shared" si="8"/>
-        <v>4</v>
-      </c>
-      <c r="J35" s="5">
-        <f t="shared" si="8"/>
-        <v>5</v>
-      </c>
       <c r="K35" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="L35" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M35" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="N35" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O35" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P35" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q35" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="R35" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="S35" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="T35" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="U35" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V35" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="W35" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -3466,87 +3466,87 @@
         <v>12</v>
       </c>
       <c r="C36" s="5">
-        <f t="shared" ref="C36:W36" si="9">IF(C10="A",5,IF(C10="b",4,IF(C10="C",2,IF(C10="D",1,0))))</f>
+        <f t="shared" ref="C36:W36" si="8">IF(C10="A",5,IF(C10="b",4,IF(C10="C",2,IF(C10="D",1,0))))</f>
         <v>5</v>
       </c>
       <c r="D36" s="5">
-        <f t="shared" si="9"/>
-        <v>5</v>
+        <f t="shared" si="8"/>
+        <v>4</v>
       </c>
       <c r="E36" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="F36" s="5">
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
-      <c r="F36" s="5">
-        <f t="shared" si="9"/>
-        <v>2</v>
-      </c>
       <c r="G36" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="H36" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="I36" s="5">
-        <f t="shared" si="9"/>
-        <v>5</v>
+        <f t="shared" si="8"/>
+        <v>4</v>
       </c>
       <c r="J36" s="5">
-        <f t="shared" si="9"/>
-        <v>1</v>
+        <f t="shared" si="8"/>
+        <v>5</v>
       </c>
       <c r="K36" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L36" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="M36" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="N36" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O36" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="P36" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Q36" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="R36" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="S36" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="T36" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="U36" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="V36" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="W36" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -3556,87 +3556,87 @@
         <v>13</v>
       </c>
       <c r="C37" s="5">
-        <f t="shared" ref="C37:W37" si="10">IF(C11="A",5,IF(C11="b",4,IF(C11="C",2,IF(C11="D",1,0))))</f>
+        <f t="shared" ref="C37:W37" si="9">IF(C11="A",5,IF(C11="b",4,IF(C11="C",2,IF(C11="D",1,0))))</f>
         <v>5</v>
       </c>
       <c r="D37" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="E37" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="F37" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="G37" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="H37" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="I37" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="J37" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="K37" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L37" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M37" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N37" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O37" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="P37" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q37" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="R37" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="S37" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="T37" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="U37" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="V37" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W37" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -3646,87 +3646,87 @@
         <v>14</v>
       </c>
       <c r="C38" s="5">
-        <f t="shared" ref="C38:W38" si="11">IF(C12="A",5,IF(C12="b",4,IF(C12="C",2,IF(C12="D",1,0))))</f>
+        <f t="shared" ref="C38:W38" si="10">IF(C12="A",5,IF(C12="b",4,IF(C12="C",2,IF(C12="D",1,0))))</f>
         <v>5</v>
       </c>
       <c r="D38" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="E38" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="F38" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="G38" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="H38" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="I38" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="J38" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="K38" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L38" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M38" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N38" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O38" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="P38" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Q38" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="R38" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="S38" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="T38" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U38" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="V38" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="W38" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -3736,87 +3736,87 @@
         <v>15</v>
       </c>
       <c r="C39" s="5">
-        <f t="shared" ref="C39:W39" si="12">IF(C13="A",5,IF(C13="b",4,IF(C13="C",2,IF(C13="D",1,0))))</f>
+        <f t="shared" ref="C39:W39" si="11">IF(C13="A",5,IF(C13="b",4,IF(C13="C",2,IF(C13="D",1,0))))</f>
         <v>4</v>
       </c>
       <c r="D39" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="E39" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="F39" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="G39" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="H39" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="I39" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="J39" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="K39" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="L39" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="M39" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N39" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O39" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="P39" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Q39" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R39" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="S39" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="T39" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U39" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="V39" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="W39" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -3826,87 +3826,87 @@
         <v>16</v>
       </c>
       <c r="C40" s="5">
-        <f t="shared" ref="C40:W40" si="13">IF(C14="A",5,IF(C14="b",4,IF(C14="C",2,IF(C14="D",1,0))))</f>
+        <f t="shared" ref="C40:W40" si="12">IF(C14="A",5,IF(C14="b",4,IF(C14="C",2,IF(C14="D",1,0))))</f>
         <v>5</v>
       </c>
       <c r="D40" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="E40" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="F40" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
       <c r="G40" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="H40" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
       <c r="I40" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
       <c r="J40" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="K40" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L40" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="M40" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="N40" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O40" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="P40" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q40" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="R40" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="S40" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="T40" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="U40" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V40" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="W40" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -3916,87 +3916,87 @@
         <v>17</v>
       </c>
       <c r="C41" s="5">
-        <f t="shared" ref="C41:W41" si="14">IF(C15="A",5,IF(C15="b",4,IF(C15="C",2,IF(C15="D",1,0))))</f>
+        <f t="shared" ref="C41:W41" si="13">IF(C15="A",5,IF(C15="b",4,IF(C15="C",2,IF(C15="D",1,0))))</f>
         <v>5</v>
       </c>
       <c r="D41" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="E41" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="F41" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="G41" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="H41" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="I41" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="J41" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="K41" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L41" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="M41" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="N41" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="O41" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P41" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Q41" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="R41" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="S41" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="T41" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U41" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="V41" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="W41" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -4006,87 +4006,87 @@
         <v>18</v>
       </c>
       <c r="C42" s="5">
-        <f t="shared" ref="C42:W42" si="15">IF(C16="A",5,IF(C16="b",4,IF(C16="C",2,IF(C16="D",1,0))))</f>
-        <v>5</v>
+        <f t="shared" ref="C42:W42" si="14">IF(C16="A",5,IF(C16="b",4,IF(C16="C",2,IF(C16="D",1,0))))</f>
+        <v>4</v>
       </c>
       <c r="D42" s="5">
-        <f t="shared" si="15"/>
-        <v>5</v>
+        <f t="shared" si="14"/>
+        <v>4</v>
       </c>
       <c r="E42" s="5">
-        <f t="shared" si="15"/>
-        <v>5</v>
+        <f t="shared" si="14"/>
+        <v>4</v>
       </c>
       <c r="F42" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>5</v>
       </c>
       <c r="G42" s="5">
-        <f t="shared" si="15"/>
-        <v>1</v>
+        <f t="shared" si="14"/>
+        <v>5</v>
       </c>
       <c r="H42" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>5</v>
       </c>
       <c r="I42" s="5">
-        <f t="shared" si="15"/>
-        <v>5</v>
+        <f t="shared" si="14"/>
+        <v>4</v>
       </c>
       <c r="J42" s="5">
-        <f t="shared" si="15"/>
-        <v>5</v>
+        <f t="shared" si="14"/>
+        <v>4</v>
       </c>
       <c r="K42" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="L42" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="M42" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="N42" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="O42" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="P42" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Q42" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="R42" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="S42" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="T42" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="U42" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="V42" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W42" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -4096,87 +4096,87 @@
         <v>19</v>
       </c>
       <c r="C43" s="5">
-        <f t="shared" ref="C43:W43" si="16">IF(C17="A",5,IF(C17="b",4,IF(C17="C",2,IF(C17="D",1,0))))</f>
-        <v>4</v>
+        <f t="shared" ref="C43:W43" si="15">IF(C17="A",5,IF(C17="b",4,IF(C17="C",2,IF(C17="D",1,0))))</f>
+        <v>5</v>
       </c>
       <c r="D43" s="5">
-        <f t="shared" si="16"/>
-        <v>4</v>
+        <f t="shared" si="15"/>
+        <v>5</v>
       </c>
       <c r="E43" s="5">
-        <f t="shared" si="16"/>
-        <v>4</v>
+        <f t="shared" si="15"/>
+        <v>5</v>
       </c>
       <c r="F43" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>5</v>
       </c>
       <c r="G43" s="5">
-        <f t="shared" si="16"/>
-        <v>5</v>
+        <f t="shared" si="15"/>
+        <v>1</v>
       </c>
       <c r="H43" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>5</v>
       </c>
       <c r="I43" s="5">
-        <f t="shared" si="16"/>
-        <v>4</v>
+        <f t="shared" si="15"/>
+        <v>5</v>
       </c>
       <c r="J43" s="5">
-        <f t="shared" si="16"/>
-        <v>4</v>
+        <f t="shared" si="15"/>
+        <v>5</v>
       </c>
       <c r="K43" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="L43" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="M43" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="N43" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="O43" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="P43" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="Q43" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R43" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="S43" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="T43" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="U43" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="V43" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="W43" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -4186,87 +4186,87 @@
         <v>20</v>
       </c>
       <c r="C44" s="5">
-        <f t="shared" ref="C44:W44" si="17">IF(C18="A",5,IF(C18="b",4,IF(C18="C",2,IF(C18="D",1,0))))</f>
+        <f t="shared" ref="C44:W44" si="16">IF(C18="A",5,IF(C18="b",4,IF(C18="C",2,IF(C18="D",1,0))))</f>
         <v>5</v>
       </c>
       <c r="D44" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>5</v>
       </c>
       <c r="E44" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>5</v>
       </c>
       <c r="F44" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>5</v>
       </c>
       <c r="G44" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>5</v>
       </c>
       <c r="H44" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
       <c r="I44" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>4</v>
       </c>
       <c r="J44" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>5</v>
       </c>
       <c r="K44" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="L44" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="M44" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="N44" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O44" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="P44" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="Q44" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="R44" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="S44" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="T44" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="U44" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="V44" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="W44" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -4276,87 +4276,87 @@
         <v>21</v>
       </c>
       <c r="C45" s="5">
-        <f t="shared" ref="C45:W45" si="18">IF(C19="A",5,IF(C19="b",4,IF(C19="C",2,IF(C19="D",1,0))))</f>
+        <f t="shared" ref="C45:W45" si="17">IF(C19="A",5,IF(C19="b",4,IF(C19="C",2,IF(C19="D",1,0))))</f>
         <v>5</v>
       </c>
       <c r="D45" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>5</v>
       </c>
       <c r="E45" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>5</v>
       </c>
       <c r="F45" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>5</v>
       </c>
       <c r="G45" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
       <c r="H45" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>5</v>
       </c>
       <c r="I45" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>5</v>
       </c>
       <c r="J45" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>5</v>
       </c>
       <c r="K45" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="L45" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="M45" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="N45" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="O45" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="P45" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="Q45" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="R45" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="S45" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="T45" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="U45" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="V45" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="W45" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -4366,87 +4366,87 @@
         <v>22</v>
       </c>
       <c r="C46" s="5">
-        <f t="shared" ref="C46:W46" si="19">IF(C20="A",5,IF(C20="b",4,IF(C20="C",2,IF(C20="D",1,0))))</f>
+        <f t="shared" ref="C46:W46" si="18">IF(C20="A",5,IF(C20="b",4,IF(C20="C",2,IF(C20="D",1,0))))</f>
         <v>5</v>
       </c>
       <c r="D46" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>5</v>
       </c>
       <c r="E46" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>2</v>
       </c>
       <c r="F46" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>5</v>
       </c>
       <c r="G46" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>5</v>
       </c>
       <c r="H46" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>5</v>
       </c>
       <c r="I46" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>5</v>
       </c>
       <c r="J46" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>5</v>
       </c>
       <c r="K46" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L46" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="M46" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="N46" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="O46" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="P46" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="Q46" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="R46" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="S46" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="T46" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="U46" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="V46" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="W46" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -4456,87 +4456,87 @@
         <v>23</v>
       </c>
       <c r="C47" s="5">
-        <f t="shared" ref="C47:W47" si="20">IF(C21="A",5,IF(C21="b",4,IF(C21="C",2,IF(C21="D",1,0))))</f>
+        <f t="shared" ref="C47:W47" si="19">IF(C21="A",5,IF(C21="b",4,IF(C21="C",2,IF(C21="D",1,0))))</f>
         <v>5</v>
       </c>
       <c r="D47" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>5</v>
       </c>
       <c r="E47" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>4</v>
       </c>
       <c r="F47" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>5</v>
       </c>
       <c r="G47" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>5</v>
       </c>
       <c r="H47" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>4</v>
       </c>
       <c r="I47" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>5</v>
       </c>
       <c r="J47" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>5</v>
       </c>
       <c r="K47" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="L47" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="M47" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="N47" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="O47" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="P47" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="Q47" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="R47" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="S47" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="T47" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="U47" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="V47" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="W47" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -4546,87 +4546,87 @@
         <v>24</v>
       </c>
       <c r="C48" s="5">
-        <f t="shared" ref="C48:W48" si="21">IF(C22="A",5,IF(C22="b",4,IF(C22="C",2,IF(C22="D",1,0))))</f>
+        <f t="shared" ref="C48:W48" si="20">IF(C22="A",5,IF(C22="b",4,IF(C22="C",2,IF(C22="D",1,0))))</f>
         <v>5</v>
       </c>
       <c r="D48" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>5</v>
       </c>
       <c r="E48" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>5</v>
       </c>
       <c r="F48" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>5</v>
       </c>
       <c r="G48" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>4</v>
       </c>
       <c r="H48" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>5</v>
       </c>
       <c r="I48" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>5</v>
       </c>
       <c r="J48" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>4</v>
       </c>
       <c r="K48" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="L48" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="M48" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="N48" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="O48" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="P48" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="Q48" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="R48" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="S48" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="T48" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="U48" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="V48" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="W48" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -4636,87 +4636,87 @@
         <v>25</v>
       </c>
       <c r="C49" s="5">
-        <f t="shared" ref="C49:W49" si="22">IF(C23="A",5,IF(C23="b",4,IF(C23="C",2,IF(C23="D",1,0))))</f>
+        <f t="shared" ref="C49:W49" si="21">IF(C23="A",5,IF(C23="b",4,IF(C23="C",2,IF(C23="D",1,0))))</f>
         <v>5</v>
       </c>
       <c r="D49" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>5</v>
       </c>
       <c r="E49" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>5</v>
       </c>
       <c r="F49" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>5</v>
       </c>
       <c r="G49" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>5</v>
       </c>
       <c r="H49" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>5</v>
       </c>
       <c r="I49" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>5</v>
       </c>
       <c r="J49" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>5</v>
       </c>
       <c r="K49" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="L49" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="M49" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="N49" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="O49" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="P49" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="Q49" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="R49" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="S49" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="T49" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="U49" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="V49" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="W49" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -4726,87 +4726,87 @@
         <v>26</v>
       </c>
       <c r="C50" s="5">
-        <f t="shared" ref="C50:W50" si="23">IF(C24="A",5,IF(C24="b",4,IF(C24="C",2,IF(C24="D",1,0))))</f>
+        <f t="shared" ref="C50:W50" si="22">IF(C24="A",5,IF(C24="b",4,IF(C24="C",2,IF(C24="D",1,0))))</f>
         <v>5</v>
       </c>
       <c r="D50" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>5</v>
       </c>
       <c r="E50" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>5</v>
       </c>
       <c r="F50" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>5</v>
       </c>
       <c r="G50" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>5</v>
       </c>
       <c r="H50" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>5</v>
       </c>
       <c r="I50" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>5</v>
       </c>
       <c r="J50" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>5</v>
       </c>
       <c r="K50" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="L50" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="M50" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="N50" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="O50" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="P50" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="Q50" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="R50" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="S50" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="T50" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="U50" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="V50" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="W50" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -5210,8 +5210,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CB0362E-C2C0-4BA5-A5D9-D95E9D8C264A}">
   <dimension ref="A1:A7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -5242,14 +5242,10 @@
       </c>
     </row>
     <row r="6" spans="1:1" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>12</v>
-      </c>
+      <c r="A6" s="5"/>
     </row>
     <row r="7" spans="1:1" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>10</v>
-      </c>
+      <c r="A7" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/前端工程师班.xlsx
+++ b/前端工程师班.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yacon\Desktop\前端随堂笔记\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A17B85E-4BF0-4739-B9F9-EEDC5378B9D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19BC3799-AB0D-4238-9BF3-517B71FEDD1F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="22068" windowHeight="13176" activeTab="3" xr2:uid="{F18D4CDB-7335-4D71-A58E-AC92FD55C192}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="19188" windowHeight="12816" activeTab="2" xr2:uid="{F18D4CDB-7335-4D71-A58E-AC92FD55C192}"/>
   </bookViews>
   <sheets>
     <sheet name="异常记录" sheetId="1" r:id="rId1"/>
     <sheet name="日常考核" sheetId="2" r:id="rId2"/>
     <sheet name="表达训练" sheetId="3" r:id="rId3"/>
-    <sheet name="生命之轮" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -735,7 +734,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="53">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -921,6 +920,10 @@
   </si>
   <si>
     <t>CSS默写3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄羽</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1525,10 +1528,10 @@
   <dimension ref="A1:W50"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="J17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AB11" sqref="AB11"/>
+      <selection pane="bottomRight" activeCell="AB13" sqref="AB13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.399999999999999" x14ac:dyDescent="0.25"/>
@@ -1592,7 +1595,7 @@
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
-        <f>SUM(C28:W28)</f>
+        <f t="shared" ref="A2:A24" si="0">SUM(C28:W28)</f>
         <v>13</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -1638,7 +1641,7 @@
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
-        <f>SUM(C29:W29)</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -1684,7 +1687,7 @@
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
-        <f>SUM(C30:W30)</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -1730,7 +1733,7 @@
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
-        <f>SUM(C31:W31)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -1776,7 +1779,7 @@
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
-        <f>SUM(C32:W32)</f>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -1822,7 +1825,7 @@
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
-        <f>SUM(C33:W33)</f>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="B7" s="5" t="s">
@@ -1868,7 +1871,7 @@
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
-        <f>SUM(C34:W34)</f>
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -1914,7 +1917,7 @@
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
-        <f>SUM(C35:W35)</f>
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="B9" s="5" t="s">
@@ -1960,7 +1963,7 @@
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
-        <f>SUM(C36:W36)</f>
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="B10" s="5" t="s">
@@ -2006,7 +2009,7 @@
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
-        <f>SUM(C37:W37)</f>
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="B11" s="5" t="s">
@@ -2052,7 +2055,7 @@
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
-        <f>SUM(C38:W38)</f>
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="B12" s="5" t="s">
@@ -2098,7 +2101,7 @@
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
-        <f>SUM(C39:W39)</f>
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="B13" s="5" t="s">
@@ -2144,7 +2147,7 @@
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
-        <f>SUM(C40:W40)</f>
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="B14" s="5" t="s">
@@ -2190,7 +2193,7 @@
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
-        <f>SUM(C41:W41)</f>
+        <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="B15" s="5" t="s">
@@ -2236,7 +2239,7 @@
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
-        <f>SUM(C42:W42)</f>
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="B16" s="5" t="s">
@@ -2282,7 +2285,7 @@
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" s="10">
-        <f>SUM(C43:W43)</f>
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="B17" s="5" t="s">
@@ -2328,7 +2331,7 @@
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" s="10">
-        <f>SUM(C44:W44)</f>
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="B18" s="5" t="s">
@@ -2374,7 +2377,7 @@
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" s="10">
-        <f>SUM(C45:W45)</f>
+        <f t="shared" si="0"/>
         <v>37</v>
       </c>
       <c r="B19" s="5" t="s">
@@ -2420,7 +2423,7 @@
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" s="10">
-        <f>SUM(C46:W46)</f>
+        <f t="shared" si="0"/>
         <v>37</v>
       </c>
       <c r="B20" s="5" t="s">
@@ -2466,7 +2469,7 @@
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" s="10">
-        <f>SUM(C47:W47)</f>
+        <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="B21" s="5" t="s">
@@ -2512,7 +2515,7 @@
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" s="10">
-        <f>SUM(C48:W48)</f>
+        <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="B22" s="5" t="s">
@@ -2558,7 +2561,7 @@
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" s="10">
-        <f>SUM(C49:W49)</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="B23" s="5" t="s">
@@ -2604,7 +2607,7 @@
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" s="10">
-        <f>SUM(C50:W50)</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="B24" s="5" t="s">
@@ -2746,87 +2749,87 @@
         <v>4</v>
       </c>
       <c r="C28" s="5">
-        <f t="shared" ref="C28:W28" si="0">IF(C2="A",5,IF(C2="b",4,IF(C2="C",2,IF(C2="D",1,0))))</f>
+        <f t="shared" ref="C28:W28" si="1">IF(C2="A",5,IF(C2="b",4,IF(C2="C",2,IF(C2="D",1,0))))</f>
         <v>2</v>
       </c>
       <c r="D28" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="E28" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="F28" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G28" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H28" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="I28" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J28" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="K28" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L28" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M28" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N28" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O28" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P28" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q28" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R28" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S28" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T28" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="U28" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="V28" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="W28" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2836,87 +2839,87 @@
         <v>5</v>
       </c>
       <c r="C29" s="5">
-        <f t="shared" ref="C29:W29" si="1">IF(C3="A",5,IF(C3="b",4,IF(C3="C",2,IF(C3="D",1,0))))</f>
+        <f t="shared" ref="C29:W29" si="2">IF(C3="A",5,IF(C3="b",4,IF(C3="C",2,IF(C3="D",1,0))))</f>
         <v>4</v>
       </c>
       <c r="D29" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="E29" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F29" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G29" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H29" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="I29" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="J29" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K29" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L29" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M29" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N29" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O29" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P29" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q29" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R29" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S29" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T29" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U29" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="V29" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W29" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2926,87 +2929,87 @@
         <v>6</v>
       </c>
       <c r="C30" s="5">
-        <f t="shared" ref="C30:W30" si="2">IF(C4="A",5,IF(C4="b",4,IF(C4="C",2,IF(C4="D",1,0))))</f>
+        <f t="shared" ref="C30:W30" si="3">IF(C4="A",5,IF(C4="b",4,IF(C4="C",2,IF(C4="D",1,0))))</f>
         <v>5</v>
       </c>
       <c r="D30" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="E30" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="F30" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="G30" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H30" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I30" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J30" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="K30" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L30" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M30" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N30" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O30" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P30" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q30" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R30" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S30" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="T30" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U30" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V30" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="W30" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3016,87 +3019,87 @@
         <v>7</v>
       </c>
       <c r="C31" s="5">
-        <f t="shared" ref="C31:W31" si="3">IF(C5="A",5,IF(C5="b",4,IF(C5="C",2,IF(C5="D",1,0))))</f>
+        <f t="shared" ref="C31:W31" si="4">IF(C5="A",5,IF(C5="b",4,IF(C5="C",2,IF(C5="D",1,0))))</f>
         <v>5</v>
       </c>
       <c r="D31" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="E31" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="F31" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="G31" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="H31" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="I31" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="J31" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="K31" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L31" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M31" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N31" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O31" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P31" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q31" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="R31" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S31" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="T31" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="U31" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="V31" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W31" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3106,87 +3109,87 @@
         <v>8</v>
       </c>
       <c r="C32" s="5">
-        <f t="shared" ref="C32:W32" si="4">IF(C6="A",5,IF(C6="b",4,IF(C6="C",2,IF(C6="D",1,0))))</f>
+        <f t="shared" ref="C32:W32" si="5">IF(C6="A",5,IF(C6="b",4,IF(C6="C",2,IF(C6="D",1,0))))</f>
         <v>2</v>
       </c>
       <c r="D32" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="E32" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="F32" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="G32" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="H32" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="I32" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="J32" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="K32" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L32" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M32" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="N32" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O32" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P32" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q32" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R32" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S32" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T32" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U32" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V32" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="W32" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -3196,87 +3199,87 @@
         <v>9</v>
       </c>
       <c r="C33" s="5">
-        <f t="shared" ref="C33:W33" si="5">IF(C7="A",5,IF(C7="b",4,IF(C7="C",2,IF(C7="D",1,0))))</f>
+        <f t="shared" ref="C33:W33" si="6">IF(C7="A",5,IF(C7="b",4,IF(C7="C",2,IF(C7="D",1,0))))</f>
         <v>4</v>
       </c>
       <c r="D33" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="E33" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="F33" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="G33" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="H33" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="I33" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J33" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="K33" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L33" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="M33" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N33" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O33" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P33" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q33" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R33" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S33" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T33" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U33" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V33" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W33" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -3286,87 +3289,87 @@
         <v>10</v>
       </c>
       <c r="C34" s="5">
-        <f t="shared" ref="C34:W34" si="6">IF(C8="A",5,IF(C8="b",4,IF(C8="C",2,IF(C8="D",1,0))))</f>
+        <f t="shared" ref="C34:W34" si="7">IF(C8="A",5,IF(C8="b",4,IF(C8="C",2,IF(C8="D",1,0))))</f>
         <v>5</v>
       </c>
       <c r="D34" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="E34" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="F34" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="G34" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="H34" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="I34" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="J34" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="K34" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="L34" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M34" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="N34" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O34" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P34" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q34" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="R34" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="S34" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="T34" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="U34" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V34" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="W34" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -3376,87 +3379,87 @@
         <v>11</v>
       </c>
       <c r="C35" s="5">
-        <f t="shared" ref="C35:W35" si="7">IF(C9="A",5,IF(C9="b",4,IF(C9="C",2,IF(C9="D",1,0))))</f>
+        <f t="shared" ref="C35:W35" si="8">IF(C9="A",5,IF(C9="b",4,IF(C9="C",2,IF(C9="D",1,0))))</f>
         <v>5</v>
       </c>
       <c r="D35" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="E35" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="F35" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="G35" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="H35" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="I35" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="J35" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="K35" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L35" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="M35" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="N35" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O35" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="P35" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Q35" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="R35" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="S35" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="T35" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="U35" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="V35" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="W35" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -3466,87 +3469,87 @@
         <v>12</v>
       </c>
       <c r="C36" s="5">
-        <f t="shared" ref="C36:W36" si="8">IF(C10="A",5,IF(C10="b",4,IF(C10="C",2,IF(C10="D",1,0))))</f>
+        <f t="shared" ref="C36:W36" si="9">IF(C10="A",5,IF(C10="b",4,IF(C10="C",2,IF(C10="D",1,0))))</f>
         <v>5</v>
       </c>
       <c r="D36" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="E36" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="F36" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="G36" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="H36" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="I36" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="J36" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="K36" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L36" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M36" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N36" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O36" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="P36" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q36" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="R36" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="S36" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="T36" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="U36" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="V36" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W36" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -3556,87 +3559,87 @@
         <v>13</v>
       </c>
       <c r="C37" s="5">
-        <f t="shared" ref="C37:W37" si="9">IF(C11="A",5,IF(C11="b",4,IF(C11="C",2,IF(C11="D",1,0))))</f>
+        <f t="shared" ref="C37:W37" si="10">IF(C11="A",5,IF(C11="b",4,IF(C11="C",2,IF(C11="D",1,0))))</f>
         <v>5</v>
       </c>
       <c r="D37" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="E37" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="F37" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="G37" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="H37" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="I37" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="J37" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="K37" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L37" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M37" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N37" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O37" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="P37" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Q37" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="R37" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="S37" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="T37" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U37" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="V37" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="W37" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -3646,87 +3649,87 @@
         <v>14</v>
       </c>
       <c r="C38" s="5">
-        <f t="shared" ref="C38:W38" si="10">IF(C12="A",5,IF(C12="b",4,IF(C12="C",2,IF(C12="D",1,0))))</f>
+        <f t="shared" ref="C38:W38" si="11">IF(C12="A",5,IF(C12="b",4,IF(C12="C",2,IF(C12="D",1,0))))</f>
         <v>5</v>
       </c>
       <c r="D38" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="E38" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="F38" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="G38" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="H38" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="I38" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="J38" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="K38" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="L38" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="M38" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N38" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O38" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="P38" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Q38" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R38" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="S38" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="T38" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U38" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="V38" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="W38" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -3736,87 +3739,87 @@
         <v>15</v>
       </c>
       <c r="C39" s="5">
-        <f t="shared" ref="C39:W39" si="11">IF(C13="A",5,IF(C13="b",4,IF(C13="C",2,IF(C13="D",1,0))))</f>
+        <f t="shared" ref="C39:W39" si="12">IF(C13="A",5,IF(C13="b",4,IF(C13="C",2,IF(C13="D",1,0))))</f>
         <v>4</v>
       </c>
       <c r="D39" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="E39" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="F39" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
       <c r="G39" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="H39" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
       <c r="I39" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="J39" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="K39" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L39" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="M39" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="N39" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O39" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="P39" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q39" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="R39" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="S39" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="T39" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="U39" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V39" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="W39" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -3826,87 +3829,87 @@
         <v>16</v>
       </c>
       <c r="C40" s="5">
-        <f t="shared" ref="C40:W40" si="12">IF(C14="A",5,IF(C14="b",4,IF(C14="C",2,IF(C14="D",1,0))))</f>
+        <f t="shared" ref="C40:W40" si="13">IF(C14="A",5,IF(C14="b",4,IF(C14="C",2,IF(C14="D",1,0))))</f>
         <v>5</v>
       </c>
       <c r="D40" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="E40" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="F40" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="G40" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="H40" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="I40" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="J40" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="K40" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L40" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="M40" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="N40" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="O40" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P40" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Q40" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="R40" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="S40" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="T40" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U40" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="V40" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="W40" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -3916,87 +3919,87 @@
         <v>17</v>
       </c>
       <c r="C41" s="5">
-        <f t="shared" ref="C41:W41" si="13">IF(C15="A",5,IF(C15="b",4,IF(C15="C",2,IF(C15="D",1,0))))</f>
+        <f t="shared" ref="C41:W41" si="14">IF(C15="A",5,IF(C15="b",4,IF(C15="C",2,IF(C15="D",1,0))))</f>
         <v>5</v>
       </c>
       <c r="D41" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>5</v>
       </c>
       <c r="E41" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="F41" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>4</v>
       </c>
       <c r="G41" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>4</v>
       </c>
       <c r="H41" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>5</v>
       </c>
       <c r="I41" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>5</v>
       </c>
       <c r="J41" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>5</v>
       </c>
       <c r="K41" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="L41" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="M41" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="N41" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="O41" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="P41" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Q41" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="R41" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="S41" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="T41" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="U41" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="V41" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W41" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -4006,87 +4009,87 @@
         <v>18</v>
       </c>
       <c r="C42" s="5">
-        <f t="shared" ref="C42:W42" si="14">IF(C16="A",5,IF(C16="b",4,IF(C16="C",2,IF(C16="D",1,0))))</f>
+        <f t="shared" ref="C42:W42" si="15">IF(C16="A",5,IF(C16="b",4,IF(C16="C",2,IF(C16="D",1,0))))</f>
         <v>4</v>
       </c>
       <c r="D42" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>4</v>
       </c>
       <c r="E42" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>4</v>
       </c>
       <c r="F42" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>5</v>
       </c>
       <c r="G42" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>5</v>
       </c>
       <c r="H42" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>5</v>
       </c>
       <c r="I42" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>4</v>
       </c>
       <c r="J42" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>4</v>
       </c>
       <c r="K42" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="L42" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="M42" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="N42" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="O42" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="P42" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="Q42" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R42" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="S42" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="T42" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="U42" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="V42" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="W42" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -4096,87 +4099,87 @@
         <v>19</v>
       </c>
       <c r="C43" s="5">
-        <f t="shared" ref="C43:W43" si="15">IF(C17="A",5,IF(C17="b",4,IF(C17="C",2,IF(C17="D",1,0))))</f>
+        <f t="shared" ref="C43:W43" si="16">IF(C17="A",5,IF(C17="b",4,IF(C17="C",2,IF(C17="D",1,0))))</f>
         <v>5</v>
       </c>
       <c r="D43" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>5</v>
       </c>
       <c r="E43" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>5</v>
       </c>
       <c r="F43" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>5</v>
       </c>
       <c r="G43" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="H43" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>5</v>
       </c>
       <c r="I43" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>5</v>
       </c>
       <c r="J43" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>5</v>
       </c>
       <c r="K43" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="L43" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="M43" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="N43" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O43" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="P43" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="Q43" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="R43" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="S43" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="T43" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="U43" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="V43" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="W43" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -4186,87 +4189,87 @@
         <v>20</v>
       </c>
       <c r="C44" s="5">
-        <f t="shared" ref="C44:W44" si="16">IF(C18="A",5,IF(C18="b",4,IF(C18="C",2,IF(C18="D",1,0))))</f>
+        <f t="shared" ref="C44:W44" si="17">IF(C18="A",5,IF(C18="b",4,IF(C18="C",2,IF(C18="D",1,0))))</f>
         <v>5</v>
       </c>
       <c r="D44" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>5</v>
       </c>
       <c r="E44" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>5</v>
       </c>
       <c r="F44" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>5</v>
       </c>
       <c r="G44" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>5</v>
       </c>
       <c r="H44" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
       <c r="I44" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>4</v>
       </c>
       <c r="J44" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>5</v>
       </c>
       <c r="K44" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="L44" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="M44" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="N44" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="O44" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="P44" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="Q44" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="R44" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="S44" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="T44" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="U44" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="V44" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="W44" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -4276,87 +4279,87 @@
         <v>21</v>
       </c>
       <c r="C45" s="5">
-        <f t="shared" ref="C45:W45" si="17">IF(C19="A",5,IF(C19="b",4,IF(C19="C",2,IF(C19="D",1,0))))</f>
+        <f t="shared" ref="C45:W45" si="18">IF(C19="A",5,IF(C19="b",4,IF(C19="C",2,IF(C19="D",1,0))))</f>
         <v>5</v>
       </c>
       <c r="D45" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>5</v>
       </c>
       <c r="E45" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>5</v>
       </c>
       <c r="F45" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>5</v>
       </c>
       <c r="G45" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>2</v>
       </c>
       <c r="H45" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>5</v>
       </c>
       <c r="I45" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>5</v>
       </c>
       <c r="J45" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>5</v>
       </c>
       <c r="K45" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L45" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="M45" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="N45" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="O45" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="P45" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="Q45" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="R45" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="S45" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="T45" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="U45" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="V45" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="W45" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -4366,87 +4369,87 @@
         <v>22</v>
       </c>
       <c r="C46" s="5">
-        <f t="shared" ref="C46:W46" si="18">IF(C20="A",5,IF(C20="b",4,IF(C20="C",2,IF(C20="D",1,0))))</f>
+        <f t="shared" ref="C46:W46" si="19">IF(C20="A",5,IF(C20="b",4,IF(C20="C",2,IF(C20="D",1,0))))</f>
         <v>5</v>
       </c>
       <c r="D46" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>5</v>
       </c>
       <c r="E46" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>2</v>
       </c>
       <c r="F46" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>5</v>
       </c>
       <c r="G46" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>5</v>
       </c>
       <c r="H46" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>5</v>
       </c>
       <c r="I46" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>5</v>
       </c>
       <c r="J46" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>5</v>
       </c>
       <c r="K46" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="L46" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="M46" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="N46" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="O46" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="P46" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="Q46" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="R46" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="S46" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="T46" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="U46" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="V46" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="W46" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -4456,87 +4459,87 @@
         <v>23</v>
       </c>
       <c r="C47" s="5">
-        <f t="shared" ref="C47:W47" si="19">IF(C21="A",5,IF(C21="b",4,IF(C21="C",2,IF(C21="D",1,0))))</f>
+        <f t="shared" ref="C47:W47" si="20">IF(C21="A",5,IF(C21="b",4,IF(C21="C",2,IF(C21="D",1,0))))</f>
         <v>5</v>
       </c>
       <c r="D47" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>5</v>
       </c>
       <c r="E47" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>4</v>
       </c>
       <c r="F47" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>5</v>
       </c>
       <c r="G47" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>5</v>
       </c>
       <c r="H47" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>4</v>
       </c>
       <c r="I47" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>5</v>
       </c>
       <c r="J47" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>5</v>
       </c>
       <c r="K47" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="L47" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="M47" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="N47" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="O47" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="P47" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="Q47" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="R47" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="S47" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="T47" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="U47" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="V47" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="W47" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -4546,87 +4549,87 @@
         <v>24</v>
       </c>
       <c r="C48" s="5">
-        <f t="shared" ref="C48:W48" si="20">IF(C22="A",5,IF(C22="b",4,IF(C22="C",2,IF(C22="D",1,0))))</f>
+        <f t="shared" ref="C48:W48" si="21">IF(C22="A",5,IF(C22="b",4,IF(C22="C",2,IF(C22="D",1,0))))</f>
         <v>5</v>
       </c>
       <c r="D48" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>5</v>
       </c>
       <c r="E48" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>5</v>
       </c>
       <c r="F48" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>5</v>
       </c>
       <c r="G48" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>4</v>
       </c>
       <c r="H48" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>5</v>
       </c>
       <c r="I48" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>5</v>
       </c>
       <c r="J48" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>4</v>
       </c>
       <c r="K48" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="L48" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="M48" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="N48" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="O48" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="P48" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="Q48" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="R48" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="S48" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="T48" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="U48" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="V48" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="W48" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -4636,87 +4639,87 @@
         <v>25</v>
       </c>
       <c r="C49" s="5">
-        <f t="shared" ref="C49:W49" si="21">IF(C23="A",5,IF(C23="b",4,IF(C23="C",2,IF(C23="D",1,0))))</f>
+        <f t="shared" ref="C49:W49" si="22">IF(C23="A",5,IF(C23="b",4,IF(C23="C",2,IF(C23="D",1,0))))</f>
         <v>5</v>
       </c>
       <c r="D49" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>5</v>
       </c>
       <c r="E49" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>5</v>
       </c>
       <c r="F49" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>5</v>
       </c>
       <c r="G49" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>5</v>
       </c>
       <c r="H49" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>5</v>
       </c>
       <c r="I49" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>5</v>
       </c>
       <c r="J49" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>5</v>
       </c>
       <c r="K49" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="L49" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="M49" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="N49" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="O49" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="P49" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="Q49" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="R49" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="S49" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="T49" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="U49" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="V49" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="W49" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -4726,87 +4729,87 @@
         <v>26</v>
       </c>
       <c r="C50" s="5">
-        <f t="shared" ref="C50:W50" si="22">IF(C24="A",5,IF(C24="b",4,IF(C24="C",2,IF(C24="D",1,0))))</f>
+        <f t="shared" ref="C50:W50" si="23">IF(C24="A",5,IF(C24="b",4,IF(C24="C",2,IF(C24="D",1,0))))</f>
         <v>5</v>
       </c>
       <c r="D50" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>5</v>
       </c>
       <c r="E50" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>5</v>
       </c>
       <c r="F50" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>5</v>
       </c>
       <c r="G50" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>5</v>
       </c>
       <c r="H50" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>5</v>
       </c>
       <c r="I50" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>5</v>
       </c>
       <c r="J50" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>5</v>
       </c>
       <c r="K50" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="L50" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="M50" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="N50" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="O50" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="P50" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="Q50" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="R50" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="S50" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="T50" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="U50" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="V50" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="W50" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -4912,10 +4915,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF578CAD-DA7B-483D-BDEF-C637B7FABB3A}">
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B15" sqref="A15:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.8" x14ac:dyDescent="0.25"/>
@@ -5132,61 +5135,66 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="9" t="s">
         <v>9</v>
       </c>
     </row>
@@ -5196,7 +5204,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B7 B8:B151" xr:uid="{5B0EBA74-538C-4016-8DD6-F93ADC8D85FF}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B7 B8:B152" xr:uid="{5B0EBA74-538C-4016-8DD6-F93ADC8D85FF}">
       <formula1>"完成"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5204,51 +5212,4 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CB0362E-C2C0-4BA5-A5D9-D95E9D8C264A}">
-  <dimension ref="A1:A7"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-    </row>
-    <row r="7" spans="1:1" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/前端工程师班.xlsx
+++ b/前端工程师班.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yacon\Desktop\前端随堂笔记\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19BC3799-AB0D-4238-9BF3-517B71FEDD1F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79E29F11-238A-4F91-A8CD-00715651D483}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="19188" windowHeight="12816" activeTab="2" xr2:uid="{F18D4CDB-7335-4D71-A58E-AC92FD55C192}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="22068" windowHeight="13176" activeTab="1" xr2:uid="{F18D4CDB-7335-4D71-A58E-AC92FD55C192}"/>
   </bookViews>
   <sheets>
     <sheet name="异常记录" sheetId="1" r:id="rId1"/>
@@ -599,17 +599,7 @@
         </r>
       </text>
     </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Yacon</author>
-  </authors>
-  <commentList>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{678D0CBB-E649-410D-9541-D3F10720E5BF}">
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{AF83CF87-CE82-4110-AEC3-2425F4A74C86}">
       <text>
         <r>
           <rPr>
@@ -617,7 +607,6 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Yacon:</t>
@@ -627,26 +616,10 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-有点紧张</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{2FD7B4EC-4E76-4613-A991-1536C4BBB30B}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>Yacon:</t>
+20</t>
         </r>
         <r>
           <rPr>
@@ -656,76 +629,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">
-自己的话术太少，PPT读的太多</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B5" authorId="0" shapeId="0" xr:uid="{65710252-94ED-4B57-AD8A-6E590B0E7969}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>Yacon:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-紧张</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B6" authorId="0" shapeId="0" xr:uid="{B5D6FB70-19EE-4167-8285-6EE18C2B6A94}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>Yacon:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-读PPT</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B8" authorId="0" shapeId="0" xr:uid="{773043AF-3111-469F-824D-EB497A3FF776}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>Yacon:
-优秀</t>
+          <t>20/1/4</t>
         </r>
       </text>
     </comment>
@@ -734,7 +638,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="51">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -844,10 +748,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>完成情况</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>A</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -866,9 +766,6 @@
   <si>
     <t>高科</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成</t>
   </si>
   <si>
     <t>指数</t>
@@ -923,7 +820,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>黄羽</t>
+    <t>JS考核2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -931,7 +828,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1007,13 +904,43 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF0070C0"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -1045,15 +972,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1079,10 +1000,25 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1407,111 +1343,111 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="22.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="8.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.5546875" style="4"/>
+    <col min="1" max="1" width="11.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="8.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.5546875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="2">
         <v>2</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="2">
         <v>1</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="2">
         <v>1</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B9" s="4">
+      <c r="A9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B10" s="4">
+      <c r="A10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B11" s="4">
+      <c r="A11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="2">
         <v>1</v>
       </c>
     </row>
@@ -1527,3288 +1463,3290 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C8AE620-962B-4850-8EC1-28D9C57566DF}">
   <dimension ref="A1:W50"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="J17" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AB13" sqref="AB13"/>
+      <selection pane="bottomRight" activeCell="Z10" sqref="Z10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.399999999999999" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.77734375" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="14.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.77734375" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="23" width="3.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="8.88671875" style="3"/>
+    <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="23" width="3.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="5" t="s">
+      <c r="A1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="G1" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="H1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="G1" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5"/>
-      <c r="W1" s="5"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="10">
+      <c r="A2" s="8">
         <f t="shared" ref="A2:A24" si="0">SUM(C28:W28)</f>
         <v>13</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="F2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H2" s="5" t="s">
+      <c r="I2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="I2" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
-      <c r="U2" s="5"/>
-      <c r="V2" s="5"/>
-      <c r="W2" s="5"/>
+      <c r="J2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="10">
+      <c r="A3" s="8">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="E3" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H3" s="5" t="s">
+      <c r="F3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="I3" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="5"/>
-      <c r="U3" s="5"/>
-      <c r="V3" s="5"/>
-      <c r="W3" s="5"/>
+      <c r="J3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="10">
+      <c r="A4" s="8">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
-      <c r="T4" s="5"/>
-      <c r="U4" s="5"/>
-      <c r="V4" s="5"/>
-      <c r="W4" s="5"/>
+      <c r="G4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="10">
+      <c r="A5" s="8">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" s="5" t="s">
+      <c r="C5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
-      <c r="S5" s="5"/>
-      <c r="T5" s="5"/>
-      <c r="U5" s="5"/>
-      <c r="V5" s="5"/>
-      <c r="W5" s="5"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" s="10">
+      <c r="A6" s="8">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="F6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J6" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
-      <c r="T6" s="5"/>
-      <c r="U6" s="5"/>
-      <c r="V6" s="5"/>
-      <c r="W6" s="5"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" s="10">
+      <c r="A7" s="8">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" s="5" t="s">
+      <c r="E7" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="F7" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
-      <c r="S7" s="5"/>
-      <c r="T7" s="5"/>
-      <c r="U7" s="5"/>
-      <c r="V7" s="5"/>
-      <c r="W7" s="5"/>
+      <c r="G7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A8" s="10">
+      <c r="A8" s="8">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="E8" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="H8" s="5" t="s">
+      <c r="I8" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="I8" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="5"/>
-      <c r="S8" s="5"/>
-      <c r="T8" s="5"/>
-      <c r="U8" s="5"/>
-      <c r="V8" s="5"/>
-      <c r="W8" s="5"/>
+      <c r="J8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A9" s="10">
+      <c r="A9" s="8">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" s="5" t="s">
+      <c r="C9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="H9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J9" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="G9" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="J9" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="5"/>
-      <c r="S9" s="5"/>
-      <c r="T9" s="5"/>
-      <c r="U9" s="5"/>
-      <c r="V9" s="5"/>
-      <c r="W9" s="5"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
+      <c r="W9" s="3"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A10" s="10">
+      <c r="A10" s="8">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="E10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="F10" s="5" t="s">
+      <c r="G10" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="G10" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H10" s="5" t="s">
+      <c r="H10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I10" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="I10" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="J10" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="5"/>
-      <c r="S10" s="5"/>
-      <c r="T10" s="5"/>
-      <c r="U10" s="5"/>
-      <c r="V10" s="5"/>
-      <c r="W10" s="5"/>
+      <c r="J10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
+      <c r="W10" s="3"/>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A11" s="10">
+      <c r="A11" s="8">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I11" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I11" s="5" t="s">
+      <c r="J11" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="J11" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="5"/>
-      <c r="S11" s="5"/>
-      <c r="T11" s="5"/>
-      <c r="U11" s="5"/>
-      <c r="V11" s="5"/>
-      <c r="W11" s="5"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A12" s="10">
+      <c r="A12" s="8">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="E12" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="F12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="H12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I12" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G12" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="J12" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="5"/>
-      <c r="R12" s="5"/>
-      <c r="S12" s="5"/>
-      <c r="T12" s="5"/>
-      <c r="U12" s="5"/>
-      <c r="V12" s="5"/>
-      <c r="W12" s="5"/>
+      <c r="J12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="3"/>
+      <c r="W12" s="3"/>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A13" s="10">
+      <c r="A13" s="8">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="3"/>
+      <c r="W13" s="3"/>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A14" s="8">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="F14" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E13" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F13" s="5" t="s">
+      <c r="H14" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J14" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G13" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="J13" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="5"/>
-      <c r="S13" s="5"/>
-      <c r="T13" s="5"/>
-      <c r="U13" s="5"/>
-      <c r="V13" s="5"/>
-      <c r="W13" s="5"/>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A14" s="10">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="J14" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="5"/>
-      <c r="S14" s="5"/>
-      <c r="T14" s="5"/>
-      <c r="U14" s="5"/>
-      <c r="V14" s="5"/>
-      <c r="W14" s="5"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A15" s="10">
+      <c r="A15" s="8">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="G15" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E15" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="J15" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="5"/>
-      <c r="R15" s="5"/>
-      <c r="S15" s="5"/>
-      <c r="T15" s="5"/>
-      <c r="U15" s="5"/>
-      <c r="V15" s="5"/>
-      <c r="W15" s="5"/>
+      <c r="H15" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3"/>
+      <c r="W15" s="3"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A16" s="10">
+      <c r="A16" s="8">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F16" s="5" t="s">
+      <c r="B16" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="D16" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="H16" s="5" t="s">
+      <c r="E16" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="I16" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="J16" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="5"/>
-      <c r="R16" s="5"/>
-      <c r="S16" s="5"/>
-      <c r="T16" s="5"/>
-      <c r="U16" s="5"/>
-      <c r="V16" s="5"/>
-      <c r="W16" s="5"/>
+      <c r="F16" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A17" s="10">
+      <c r="A17" s="8">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="J17" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="5"/>
-      <c r="R17" s="5"/>
-      <c r="S17" s="5"/>
-      <c r="T17" s="5"/>
-      <c r="U17" s="5"/>
-      <c r="V17" s="5"/>
-      <c r="W17" s="5"/>
+      <c r="C17" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3"/>
+      <c r="W17" s="3"/>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A18" s="10">
+      <c r="A18" s="8">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I18" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="J18" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
-      <c r="P18" s="5"/>
-      <c r="Q18" s="5"/>
-      <c r="R18" s="5"/>
-      <c r="S18" s="5"/>
-      <c r="T18" s="5"/>
-      <c r="U18" s="5"/>
-      <c r="V18" s="5"/>
-      <c r="W18" s="5"/>
+      <c r="J18" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="3"/>
+      <c r="V18" s="3"/>
+      <c r="W18" s="3"/>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A19" s="10">
+      <c r="A19" s="8">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="J19" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="5"/>
-      <c r="P19" s="5"/>
-      <c r="Q19" s="5"/>
-      <c r="R19" s="5"/>
-      <c r="S19" s="5"/>
-      <c r="T19" s="5"/>
-      <c r="U19" s="5"/>
-      <c r="V19" s="5"/>
-      <c r="W19" s="5"/>
+      <c r="C19" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A20" s="10">
+      <c r="A20" s="8">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I20" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="J20" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="5"/>
-      <c r="P20" s="5"/>
-      <c r="Q20" s="5"/>
-      <c r="R20" s="5"/>
-      <c r="S20" s="5"/>
-      <c r="T20" s="5"/>
-      <c r="U20" s="5"/>
-      <c r="V20" s="5"/>
-      <c r="W20" s="5"/>
+      <c r="C20" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="3"/>
+      <c r="U20" s="3"/>
+      <c r="V20" s="3"/>
+      <c r="W20" s="3"/>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A21" s="10">
+      <c r="A21" s="8">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="F21" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H21" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E21" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="I21" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="J21" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="5"/>
-      <c r="P21" s="5"/>
-      <c r="Q21" s="5"/>
-      <c r="R21" s="5"/>
-      <c r="S21" s="5"/>
-      <c r="T21" s="5"/>
-      <c r="U21" s="5"/>
-      <c r="V21" s="5"/>
-      <c r="W21" s="5"/>
+      <c r="I21" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="3"/>
+      <c r="U21" s="3"/>
+      <c r="V21" s="3"/>
+      <c r="W21" s="3"/>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A22" s="10">
+      <c r="A22" s="8">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G22" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="H22" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J22" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E22" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="H22" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I22" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="J22" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
-      <c r="O22" s="5"/>
-      <c r="P22" s="5"/>
-      <c r="Q22" s="5"/>
-      <c r="R22" s="5"/>
-      <c r="S22" s="5"/>
-      <c r="T22" s="5"/>
-      <c r="U22" s="5"/>
-      <c r="V22" s="5"/>
-      <c r="W22" s="5"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="3"/>
+      <c r="U22" s="3"/>
+      <c r="V22" s="3"/>
+      <c r="W22" s="3"/>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A23" s="10">
+      <c r="A23" s="8">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C23" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="H23" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I23" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="J23" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="5"/>
-      <c r="O23" s="5"/>
-      <c r="P23" s="5"/>
-      <c r="Q23" s="5"/>
-      <c r="R23" s="5"/>
-      <c r="S23" s="5"/>
-      <c r="T23" s="5"/>
-      <c r="U23" s="5"/>
-      <c r="V23" s="5"/>
-      <c r="W23" s="5"/>
+      <c r="C23" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="3"/>
+      <c r="U23" s="3"/>
+      <c r="V23" s="3"/>
+      <c r="W23" s="3"/>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A24" s="10">
+      <c r="A24" s="8">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="H24" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I24" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="J24" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="5"/>
-      <c r="O24" s="5"/>
-      <c r="P24" s="5"/>
-      <c r="Q24" s="5"/>
-      <c r="R24" s="5"/>
-      <c r="S24" s="5"/>
-      <c r="T24" s="5"/>
-      <c r="U24" s="5"/>
-      <c r="V24" s="5"/>
-      <c r="W24" s="5"/>
+      <c r="C24" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="3"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="3"/>
+      <c r="U24" s="3"/>
+      <c r="V24" s="3"/>
+      <c r="W24" s="3"/>
     </row>
     <row r="25" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="3">
+      <c r="A25" s="1">
         <f>SUM(C25:W25)</f>
         <v>0</v>
       </c>
-      <c r="B25" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C25" s="5">
-        <v>0</v>
-      </c>
-      <c r="D25" s="5">
-        <v>0</v>
-      </c>
-      <c r="E25" s="5">
-        <v>0</v>
-      </c>
-      <c r="F25" s="5">
-        <v>0</v>
-      </c>
-      <c r="G25" s="5">
-        <v>0</v>
-      </c>
-      <c r="H25" s="5">
-        <v>0</v>
-      </c>
-      <c r="I25" s="5">
-        <v>0</v>
-      </c>
-      <c r="J25" s="5">
-        <v>0</v>
-      </c>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
-      <c r="N25" s="5"/>
-      <c r="O25" s="5"/>
-      <c r="P25" s="5"/>
-      <c r="Q25" s="5"/>
-      <c r="R25" s="5"/>
-      <c r="S25" s="5"/>
-      <c r="T25" s="5"/>
-      <c r="U25" s="5"/>
-      <c r="V25" s="5"/>
-      <c r="W25" s="5"/>
+      <c r="B25" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="3">
+        <v>0</v>
+      </c>
+      <c r="D25" s="3">
+        <v>0</v>
+      </c>
+      <c r="E25" s="3">
+        <v>0</v>
+      </c>
+      <c r="F25" s="3">
+        <v>0</v>
+      </c>
+      <c r="G25" s="3">
+        <v>0</v>
+      </c>
+      <c r="H25" s="3">
+        <v>0</v>
+      </c>
+      <c r="I25" s="3">
+        <v>0</v>
+      </c>
+      <c r="J25" s="3">
+        <v>0</v>
+      </c>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="3"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="3"/>
+      <c r="U25" s="3"/>
+      <c r="V25" s="3"/>
+      <c r="W25" s="3"/>
     </row>
     <row r="26" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="3">
+      <c r="A26" s="1">
         <f>SUM(C26:W26)</f>
         <v>40</v>
       </c>
-      <c r="B26" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C26" s="5">
-        <v>5</v>
-      </c>
-      <c r="D26" s="5">
-        <v>5</v>
-      </c>
-      <c r="E26" s="5">
-        <v>5</v>
-      </c>
-      <c r="F26" s="5">
-        <v>5</v>
-      </c>
-      <c r="G26" s="5">
-        <v>5</v>
-      </c>
-      <c r="H26" s="5">
-        <v>5</v>
-      </c>
-      <c r="I26" s="5">
-        <v>5</v>
-      </c>
-      <c r="J26" s="5">
-        <v>5</v>
-      </c>
-      <c r="K26" s="5"/>
-      <c r="L26" s="5"/>
-      <c r="M26" s="5"/>
-      <c r="N26" s="5"/>
-      <c r="O26" s="5"/>
-      <c r="P26" s="5"/>
-      <c r="Q26" s="5"/>
-      <c r="R26" s="5"/>
-      <c r="S26" s="5"/>
-      <c r="T26" s="5"/>
-      <c r="U26" s="5"/>
-      <c r="V26" s="5"/>
-      <c r="W26" s="5"/>
+      <c r="B26" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" s="3">
+        <v>5</v>
+      </c>
+      <c r="D26" s="3">
+        <v>5</v>
+      </c>
+      <c r="E26" s="3">
+        <v>5</v>
+      </c>
+      <c r="F26" s="3">
+        <v>5</v>
+      </c>
+      <c r="G26" s="3">
+        <v>5</v>
+      </c>
+      <c r="H26" s="3">
+        <v>5</v>
+      </c>
+      <c r="I26" s="3">
+        <v>5</v>
+      </c>
+      <c r="J26" s="3">
+        <v>5</v>
+      </c>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="3"/>
+      <c r="S26" s="3"/>
+      <c r="T26" s="3"/>
+      <c r="U26" s="3"/>
+      <c r="V26" s="3"/>
+      <c r="W26" s="3"/>
     </row>
     <row r="28" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="10"/>
-      <c r="B28" s="5" t="s">
+      <c r="A28" s="8"/>
+      <c r="B28" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C28" s="5">
+      <c r="C28" s="3">
         <f t="shared" ref="C28:W28" si="1">IF(C2="A",5,IF(C2="b",4,IF(C2="C",2,IF(C2="D",1,0))))</f>
         <v>2</v>
       </c>
-      <c r="D28" s="5">
+      <c r="D28" s="3">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="E28" s="5">
+      <c r="E28" s="3">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="F28" s="5">
+      <c r="F28" s="3">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G28" s="5">
+      <c r="G28" s="3">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H28" s="5">
+      <c r="H28" s="3">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="I28" s="5">
+      <c r="I28" s="3">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="J28" s="5">
+      <c r="J28" s="3">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="K28" s="5">
+      <c r="K28" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L28" s="5">
+      <c r="L28" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M28" s="5">
+      <c r="M28" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N28" s="5">
+      <c r="N28" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O28" s="5">
+      <c r="O28" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P28" s="5">
+      <c r="P28" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q28" s="5">
+      <c r="Q28" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R28" s="5">
+      <c r="R28" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S28" s="5">
+      <c r="S28" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T28" s="5">
+      <c r="T28" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U28" s="5">
+      <c r="U28" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V28" s="5">
+      <c r="V28" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="W28" s="5">
+      <c r="W28" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="10"/>
-      <c r="B29" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C29" s="5">
+      <c r="A29" s="8"/>
+      <c r="B29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="3">
         <f t="shared" ref="C29:W29" si="2">IF(C3="A",5,IF(C3="b",4,IF(C3="C",2,IF(C3="D",1,0))))</f>
         <v>4</v>
       </c>
-      <c r="D29" s="5">
+      <c r="D29" s="3">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="E29" s="5">
+      <c r="E29" s="3">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="F29" s="5">
+      <c r="F29" s="3">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G29" s="5">
+      <c r="G29" s="3">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="H29" s="5">
+      <c r="H29" s="3">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="I29" s="5">
+      <c r="I29" s="3">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="J29" s="5">
+      <c r="J29" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K29" s="5">
+      <c r="K29" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L29" s="5">
+      <c r="L29" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M29" s="5">
+      <c r="M29" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N29" s="5">
+      <c r="N29" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O29" s="5">
+      <c r="O29" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P29" s="5">
+      <c r="P29" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q29" s="5">
+      <c r="Q29" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R29" s="5">
+      <c r="R29" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="S29" s="5">
+      <c r="S29" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T29" s="5">
+      <c r="T29" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U29" s="5">
+      <c r="U29" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="V29" s="5">
+      <c r="V29" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="W29" s="5">
+      <c r="W29" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="10"/>
-      <c r="B30" s="5" t="s">
+      <c r="A30" s="8"/>
+      <c r="B30" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C30" s="5">
+      <c r="C30" s="3">
         <f t="shared" ref="C30:W30" si="3">IF(C4="A",5,IF(C4="b",4,IF(C4="C",2,IF(C4="D",1,0))))</f>
         <v>5</v>
       </c>
-      <c r="D30" s="5">
+      <c r="D30" s="3">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="E30" s="5">
+      <c r="E30" s="3">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="F30" s="5">
+      <c r="F30" s="3">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="G30" s="5">
+      <c r="G30" s="3">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="H30" s="5">
+      <c r="H30" s="3">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="I30" s="5">
+      <c r="I30" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J30" s="5">
+      <c r="J30" s="3">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="K30" s="5">
+      <c r="K30" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L30" s="5">
+      <c r="L30" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M30" s="5">
+      <c r="M30" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N30" s="5">
+      <c r="N30" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O30" s="5">
+      <c r="O30" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P30" s="5">
+      <c r="P30" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q30" s="5">
+      <c r="Q30" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="R30" s="5">
+      <c r="R30" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="S30" s="5">
+      <c r="S30" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="T30" s="5">
+      <c r="T30" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="U30" s="5">
+      <c r="U30" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V30" s="5">
+      <c r="V30" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="W30" s="5">
+      <c r="W30" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="10"/>
-      <c r="B31" s="5" t="s">
+      <c r="A31" s="8"/>
+      <c r="B31" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C31" s="5">
+      <c r="C31" s="3">
         <f t="shared" ref="C31:W31" si="4">IF(C5="A",5,IF(C5="b",4,IF(C5="C",2,IF(C5="D",1,0))))</f>
         <v>5</v>
       </c>
-      <c r="D31" s="5">
+      <c r="D31" s="3">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="E31" s="5">
+      <c r="E31" s="3">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="F31" s="5">
+      <c r="F31" s="3">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="G31" s="5">
+      <c r="G31" s="3">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="H31" s="5">
+      <c r="H31" s="3">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="I31" s="5">
+      <c r="I31" s="3">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="J31" s="5">
+      <c r="J31" s="3">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="K31" s="5">
+      <c r="K31" s="3">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L31" s="5">
+      <c r="L31" s="3">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M31" s="5">
+      <c r="M31" s="3">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N31" s="5">
+      <c r="N31" s="3">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O31" s="5">
+      <c r="O31" s="3">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P31" s="5">
+      <c r="P31" s="3">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q31" s="5">
+      <c r="Q31" s="3">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R31" s="5">
+      <c r="R31" s="3">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S31" s="5">
+      <c r="S31" s="3">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="T31" s="5">
+      <c r="T31" s="3">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U31" s="5">
+      <c r="U31" s="3">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="V31" s="5">
+      <c r="V31" s="3">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W31" s="5">
+      <c r="W31" s="3">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="10"/>
-      <c r="B32" s="5" t="s">
+      <c r="A32" s="8"/>
+      <c r="B32" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C32" s="5">
+      <c r="C32" s="3">
         <f t="shared" ref="C32:W32" si="5">IF(C6="A",5,IF(C6="b",4,IF(C6="C",2,IF(C6="D",1,0))))</f>
         <v>2</v>
       </c>
-      <c r="D32" s="5">
+      <c r="D32" s="3">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="E32" s="5">
+      <c r="E32" s="3">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="F32" s="5">
+      <c r="F32" s="3">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="G32" s="5">
+      <c r="G32" s="3">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="H32" s="5">
+      <c r="H32" s="3">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="I32" s="5">
+      <c r="I32" s="3">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="J32" s="5">
+      <c r="J32" s="3">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="K32" s="5">
+      <c r="K32" s="3">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L32" s="5">
+      <c r="L32" s="3">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="M32" s="5">
+      <c r="M32" s="3">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N32" s="5">
+      <c r="N32" s="3">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O32" s="5">
+      <c r="O32" s="3">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P32" s="5">
+      <c r="P32" s="3">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Q32" s="5">
+      <c r="Q32" s="3">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R32" s="5">
+      <c r="R32" s="3">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="S32" s="5">
+      <c r="S32" s="3">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="T32" s="5">
+      <c r="T32" s="3">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U32" s="5">
+      <c r="U32" s="3">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="V32" s="5">
+      <c r="V32" s="3">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="W32" s="5">
+      <c r="W32" s="3">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="10"/>
-      <c r="B33" s="5" t="s">
+      <c r="A33" s="8"/>
+      <c r="B33" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C33" s="5">
+      <c r="C33" s="3">
         <f t="shared" ref="C33:W33" si="6">IF(C7="A",5,IF(C7="b",4,IF(C7="C",2,IF(C7="D",1,0))))</f>
         <v>4</v>
       </c>
-      <c r="D33" s="5">
+      <c r="D33" s="3">
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="E33" s="5">
+      <c r="E33" s="3">
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="F33" s="5">
+      <c r="F33" s="3">
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="G33" s="5">
+      <c r="G33" s="3">
         <f t="shared" si="6"/>
         <v>5</v>
       </c>
-      <c r="H33" s="5">
+      <c r="H33" s="3">
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="I33" s="5">
+      <c r="I33" s="3">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="J33" s="5">
+      <c r="J33" s="3">
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="K33" s="5">
+      <c r="K33" s="3">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L33" s="5">
+      <c r="L33" s="3">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="M33" s="5">
+      <c r="M33" s="3">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="N33" s="5">
+      <c r="N33" s="3">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O33" s="5">
+      <c r="O33" s="3">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P33" s="5">
+      <c r="P33" s="3">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Q33" s="5">
+      <c r="Q33" s="3">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R33" s="5">
+      <c r="R33" s="3">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="S33" s="5">
+      <c r="S33" s="3">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="T33" s="5">
+      <c r="T33" s="3">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="U33" s="5">
+      <c r="U33" s="3">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="V33" s="5">
+      <c r="V33" s="3">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="W33" s="5">
+      <c r="W33" s="3">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="10"/>
-      <c r="B34" s="5" t="s">
+      <c r="A34" s="8"/>
+      <c r="B34" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C34" s="5">
+      <c r="C34" s="3">
         <f t="shared" ref="C34:W34" si="7">IF(C8="A",5,IF(C8="b",4,IF(C8="C",2,IF(C8="D",1,0))))</f>
         <v>5</v>
       </c>
-      <c r="D34" s="5">
+      <c r="D34" s="3">
         <f t="shared" si="7"/>
         <v>4</v>
       </c>
-      <c r="E34" s="5">
+      <c r="E34" s="3">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="F34" s="5">
+      <c r="F34" s="3">
         <f t="shared" si="7"/>
         <v>4</v>
       </c>
-      <c r="G34" s="5">
+      <c r="G34" s="3">
         <f t="shared" si="7"/>
         <v>4</v>
       </c>
-      <c r="H34" s="5">
+      <c r="H34" s="3">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="I34" s="5">
+      <c r="I34" s="3">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="J34" s="5">
+      <c r="J34" s="3">
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
-      <c r="K34" s="5">
+      <c r="K34" s="3">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L34" s="5">
+      <c r="L34" s="3">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M34" s="5">
+      <c r="M34" s="3">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="N34" s="5">
+      <c r="N34" s="3">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="O34" s="5">
+      <c r="O34" s="3">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="P34" s="5">
+      <c r="P34" s="3">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Q34" s="5">
+      <c r="Q34" s="3">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="R34" s="5">
+      <c r="R34" s="3">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="S34" s="5">
+      <c r="S34" s="3">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="T34" s="5">
+      <c r="T34" s="3">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="U34" s="5">
+      <c r="U34" s="3">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="V34" s="5">
+      <c r="V34" s="3">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W34" s="5">
+      <c r="W34" s="3">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="10"/>
-      <c r="B35" s="5" t="s">
+      <c r="A35" s="8"/>
+      <c r="B35" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C35" s="5">
+      <c r="C35" s="3">
         <f t="shared" ref="C35:W35" si="8">IF(C9="A",5,IF(C9="b",4,IF(C9="C",2,IF(C9="D",1,0))))</f>
         <v>5</v>
       </c>
-      <c r="D35" s="5">
+      <c r="D35" s="3">
         <f t="shared" si="8"/>
         <v>5</v>
       </c>
-      <c r="E35" s="5">
+      <c r="E35" s="3">
         <f t="shared" si="8"/>
         <v>2</v>
       </c>
-      <c r="F35" s="5">
+      <c r="F35" s="3">
         <f t="shared" si="8"/>
         <v>2</v>
       </c>
-      <c r="G35" s="5">
+      <c r="G35" s="3">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="H35" s="5">
+      <c r="H35" s="3">
         <f t="shared" si="8"/>
         <v>5</v>
       </c>
-      <c r="I35" s="5">
+      <c r="I35" s="3">
         <f t="shared" si="8"/>
         <v>5</v>
       </c>
-      <c r="J35" s="5">
+      <c r="J35" s="3">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="K35" s="5">
+      <c r="K35" s="3">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="L35" s="5">
+      <c r="L35" s="3">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="M35" s="5">
+      <c r="M35" s="3">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="N35" s="5">
+      <c r="N35" s="3">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="O35" s="5">
+      <c r="O35" s="3">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="P35" s="5">
+      <c r="P35" s="3">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="Q35" s="5">
+      <c r="Q35" s="3">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="R35" s="5">
+      <c r="R35" s="3">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="S35" s="5">
+      <c r="S35" s="3">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="T35" s="5">
+      <c r="T35" s="3">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="U35" s="5">
+      <c r="U35" s="3">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="V35" s="5">
+      <c r="V35" s="3">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="W35" s="5">
+      <c r="W35" s="3">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="10"/>
-      <c r="B36" s="5" t="s">
+      <c r="A36" s="8"/>
+      <c r="B36" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C36" s="5">
+      <c r="C36" s="3">
         <f t="shared" ref="C36:W36" si="9">IF(C10="A",5,IF(C10="b",4,IF(C10="C",2,IF(C10="D",1,0))))</f>
         <v>5</v>
       </c>
-      <c r="D36" s="5">
+      <c r="D36" s="3">
         <f t="shared" si="9"/>
         <v>4</v>
       </c>
-      <c r="E36" s="5">
+      <c r="E36" s="3">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="F36" s="5">
+      <c r="F36" s="3">
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="G36" s="5">
+      <c r="G36" s="3">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="H36" s="5">
+      <c r="H36" s="3">
         <f t="shared" si="9"/>
         <v>5</v>
       </c>
-      <c r="I36" s="5">
+      <c r="I36" s="3">
         <f t="shared" si="9"/>
         <v>4</v>
       </c>
-      <c r="J36" s="5">
+      <c r="J36" s="3">
         <f t="shared" si="9"/>
         <v>5</v>
       </c>
-      <c r="K36" s="5">
+      <c r="K36" s="3">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L36" s="5">
+      <c r="L36" s="3">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="M36" s="5">
+      <c r="M36" s="3">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="N36" s="5">
+      <c r="N36" s="3">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="O36" s="5">
+      <c r="O36" s="3">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="P36" s="5">
+      <c r="P36" s="3">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Q36" s="5">
+      <c r="Q36" s="3">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="R36" s="5">
+      <c r="R36" s="3">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="S36" s="5">
+      <c r="S36" s="3">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="T36" s="5">
+      <c r="T36" s="3">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="U36" s="5">
+      <c r="U36" s="3">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="V36" s="5">
+      <c r="V36" s="3">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="W36" s="5">
+      <c r="W36" s="3">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="10"/>
-      <c r="B37" s="5" t="s">
+      <c r="A37" s="8"/>
+      <c r="B37" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C37" s="5">
+      <c r="C37" s="3">
         <f t="shared" ref="C37:W37" si="10">IF(C11="A",5,IF(C11="b",4,IF(C11="C",2,IF(C11="D",1,0))))</f>
         <v>5</v>
       </c>
-      <c r="D37" s="5">
+      <c r="D37" s="3">
         <f t="shared" si="10"/>
         <v>5</v>
       </c>
-      <c r="E37" s="5">
+      <c r="E37" s="3">
         <f t="shared" si="10"/>
         <v>2</v>
       </c>
-      <c r="F37" s="5">
+      <c r="F37" s="3">
         <f t="shared" si="10"/>
         <v>2</v>
       </c>
-      <c r="G37" s="5">
+      <c r="G37" s="3">
         <f t="shared" si="10"/>
         <v>2</v>
       </c>
-      <c r="H37" s="5">
+      <c r="H37" s="3">
         <f t="shared" si="10"/>
         <v>5</v>
       </c>
-      <c r="I37" s="5">
+      <c r="I37" s="3">
         <f t="shared" si="10"/>
         <v>4</v>
       </c>
-      <c r="J37" s="5">
+      <c r="J37" s="3">
         <f t="shared" si="10"/>
         <v>2</v>
       </c>
-      <c r="K37" s="5">
+      <c r="K37" s="3">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="L37" s="5">
+      <c r="L37" s="3">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M37" s="5">
+      <c r="M37" s="3">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="N37" s="5">
+      <c r="N37" s="3">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="O37" s="5">
+      <c r="O37" s="3">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P37" s="5">
+      <c r="P37" s="3">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Q37" s="5">
+      <c r="Q37" s="3">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="R37" s="5">
+      <c r="R37" s="3">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="S37" s="5">
+      <c r="S37" s="3">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="T37" s="5">
+      <c r="T37" s="3">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="U37" s="5">
+      <c r="U37" s="3">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="V37" s="5">
+      <c r="V37" s="3">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="W37" s="5">
+      <c r="W37" s="3">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="10"/>
-      <c r="B38" s="5" t="s">
+      <c r="A38" s="8"/>
+      <c r="B38" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C38" s="5">
+      <c r="C38" s="3">
         <f t="shared" ref="C38:W38" si="11">IF(C12="A",5,IF(C12="b",4,IF(C12="C",2,IF(C12="D",1,0))))</f>
         <v>5</v>
       </c>
-      <c r="D38" s="5">
+      <c r="D38" s="3">
         <f t="shared" si="11"/>
         <v>4</v>
       </c>
-      <c r="E38" s="5">
+      <c r="E38" s="3">
         <f t="shared" si="11"/>
         <v>2</v>
       </c>
-      <c r="F38" s="5">
+      <c r="F38" s="3">
         <f t="shared" si="11"/>
         <v>5</v>
       </c>
-      <c r="G38" s="5">
+      <c r="G38" s="3">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="H38" s="5">
+      <c r="H38" s="3">
         <f t="shared" si="11"/>
         <v>5</v>
       </c>
-      <c r="I38" s="5">
+      <c r="I38" s="3">
         <f t="shared" si="11"/>
         <v>4</v>
       </c>
-      <c r="J38" s="5">
+      <c r="J38" s="3">
         <f t="shared" si="11"/>
         <v>5</v>
       </c>
-      <c r="K38" s="5">
+      <c r="K38" s="3">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="L38" s="5">
+      <c r="L38" s="3">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="M38" s="5">
+      <c r="M38" s="3">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N38" s="5">
+      <c r="N38" s="3">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="O38" s="5">
+      <c r="O38" s="3">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="P38" s="5">
+      <c r="P38" s="3">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="Q38" s="5">
+      <c r="Q38" s="3">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="R38" s="5">
+      <c r="R38" s="3">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="S38" s="5">
+      <c r="S38" s="3">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="T38" s="5">
+      <c r="T38" s="3">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="U38" s="5">
+      <c r="U38" s="3">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="V38" s="5">
+      <c r="V38" s="3">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="W38" s="5">
+      <c r="W38" s="3">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="10"/>
-      <c r="B39" s="5" t="s">
+      <c r="A39" s="8"/>
+      <c r="B39" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C39" s="5">
+      <c r="C39" s="3">
         <f t="shared" ref="C39:W39" si="12">IF(C13="A",5,IF(C13="b",4,IF(C13="C",2,IF(C13="D",1,0))))</f>
         <v>4</v>
       </c>
-      <c r="D39" s="5">
+      <c r="D39" s="3">
         <f t="shared" si="12"/>
         <v>4</v>
       </c>
-      <c r="E39" s="5">
+      <c r="E39" s="3">
         <f t="shared" si="12"/>
         <v>4</v>
       </c>
-      <c r="F39" s="5">
+      <c r="F39" s="3">
         <f t="shared" si="12"/>
         <v>5</v>
       </c>
-      <c r="G39" s="5">
+      <c r="G39" s="3">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="H39" s="5">
+      <c r="H39" s="3">
         <f t="shared" si="12"/>
         <v>5</v>
       </c>
-      <c r="I39" s="5">
+      <c r="I39" s="3">
         <f t="shared" si="12"/>
         <v>4</v>
       </c>
-      <c r="J39" s="5">
+      <c r="J39" s="3">
         <f t="shared" si="12"/>
         <v>4</v>
       </c>
-      <c r="K39" s="5">
+      <c r="K39" s="3">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="L39" s="5">
+      <c r="L39" s="3">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="M39" s="5">
+      <c r="M39" s="3">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="N39" s="5">
+      <c r="N39" s="3">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="O39" s="5">
+      <c r="O39" s="3">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="P39" s="5">
+      <c r="P39" s="3">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="Q39" s="5">
+      <c r="Q39" s="3">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="R39" s="5">
+      <c r="R39" s="3">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="S39" s="5">
+      <c r="S39" s="3">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="T39" s="5">
+      <c r="T39" s="3">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="U39" s="5">
+      <c r="U39" s="3">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="V39" s="5">
+      <c r="V39" s="3">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="W39" s="5">
+      <c r="W39" s="3">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="10"/>
-      <c r="B40" s="5" t="s">
+      <c r="A40" s="8"/>
+      <c r="B40" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C40" s="5">
+      <c r="C40" s="3">
         <f t="shared" ref="C40:W40" si="13">IF(C14="A",5,IF(C14="b",4,IF(C14="C",2,IF(C14="D",1,0))))</f>
         <v>5</v>
       </c>
-      <c r="D40" s="5">
+      <c r="D40" s="3">
         <f t="shared" si="13"/>
         <v>4</v>
       </c>
-      <c r="E40" s="5">
+      <c r="E40" s="3">
         <f t="shared" si="13"/>
         <v>2</v>
       </c>
-      <c r="F40" s="5">
+      <c r="F40" s="3">
         <f t="shared" si="13"/>
         <v>5</v>
       </c>
-      <c r="G40" s="5">
+      <c r="G40" s="3">
         <f t="shared" si="13"/>
         <v>2</v>
       </c>
-      <c r="H40" s="5">
+      <c r="H40" s="3">
         <f t="shared" si="13"/>
         <v>5</v>
       </c>
-      <c r="I40" s="5">
+      <c r="I40" s="3">
         <f t="shared" si="13"/>
         <v>5</v>
       </c>
-      <c r="J40" s="5">
+      <c r="J40" s="3">
         <f t="shared" si="13"/>
         <v>4</v>
       </c>
-      <c r="K40" s="5">
+      <c r="K40" s="3">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="L40" s="5">
+      <c r="L40" s="3">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="M40" s="5">
+      <c r="M40" s="3">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="N40" s="5">
+      <c r="N40" s="3">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="O40" s="5">
+      <c r="O40" s="3">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="P40" s="5">
+      <c r="P40" s="3">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="Q40" s="5">
+      <c r="Q40" s="3">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="R40" s="5">
+      <c r="R40" s="3">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="S40" s="5">
+      <c r="S40" s="3">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="T40" s="5">
+      <c r="T40" s="3">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="U40" s="5">
+      <c r="U40" s="3">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="V40" s="5">
+      <c r="V40" s="3">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="W40" s="5">
+      <c r="W40" s="3">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="10"/>
-      <c r="B41" s="5" t="s">
+      <c r="A41" s="8"/>
+      <c r="B41" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C41" s="5">
+      <c r="C41" s="3">
         <f t="shared" ref="C41:W41" si="14">IF(C15="A",5,IF(C15="b",4,IF(C15="C",2,IF(C15="D",1,0))))</f>
         <v>5</v>
       </c>
-      <c r="D41" s="5">
+      <c r="D41" s="3">
         <f t="shared" si="14"/>
         <v>5</v>
       </c>
-      <c r="E41" s="5">
+      <c r="E41" s="3">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="F41" s="5">
+      <c r="F41" s="3">
         <f t="shared" si="14"/>
         <v>4</v>
       </c>
-      <c r="G41" s="5">
+      <c r="G41" s="3">
         <f t="shared" si="14"/>
         <v>4</v>
       </c>
-      <c r="H41" s="5">
+      <c r="H41" s="3">
         <f t="shared" si="14"/>
         <v>5</v>
       </c>
-      <c r="I41" s="5">
+      <c r="I41" s="3">
         <f t="shared" si="14"/>
         <v>5</v>
       </c>
-      <c r="J41" s="5">
+      <c r="J41" s="3">
         <f t="shared" si="14"/>
         <v>5</v>
       </c>
-      <c r="K41" s="5">
+      <c r="K41" s="3">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="L41" s="5">
+      <c r="L41" s="3">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="M41" s="5">
+      <c r="M41" s="3">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="N41" s="5">
+      <c r="N41" s="3">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="O41" s="5">
+      <c r="O41" s="3">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="P41" s="5">
+      <c r="P41" s="3">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="Q41" s="5">
+      <c r="Q41" s="3">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="R41" s="5">
+      <c r="R41" s="3">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="S41" s="5">
+      <c r="S41" s="3">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="T41" s="5">
+      <c r="T41" s="3">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="U41" s="5">
+      <c r="U41" s="3">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="V41" s="5">
+      <c r="V41" s="3">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="W41" s="5">
+      <c r="W41" s="3">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="10"/>
-      <c r="B42" s="5" t="s">
+      <c r="A42" s="8"/>
+      <c r="B42" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C42" s="5">
+      <c r="C42" s="3">
         <f t="shared" ref="C42:W42" si="15">IF(C16="A",5,IF(C16="b",4,IF(C16="C",2,IF(C16="D",1,0))))</f>
         <v>4</v>
       </c>
-      <c r="D42" s="5">
+      <c r="D42" s="3">
         <f t="shared" si="15"/>
         <v>4</v>
       </c>
-      <c r="E42" s="5">
+      <c r="E42" s="3">
         <f t="shared" si="15"/>
         <v>4</v>
       </c>
-      <c r="F42" s="5">
+      <c r="F42" s="3">
         <f t="shared" si="15"/>
         <v>5</v>
       </c>
-      <c r="G42" s="5">
+      <c r="G42" s="3">
         <f t="shared" si="15"/>
         <v>5</v>
       </c>
-      <c r="H42" s="5">
+      <c r="H42" s="3">
         <f t="shared" si="15"/>
         <v>5</v>
       </c>
-      <c r="I42" s="5">
+      <c r="I42" s="3">
         <f t="shared" si="15"/>
         <v>4</v>
       </c>
-      <c r="J42" s="5">
+      <c r="J42" s="3">
         <f t="shared" si="15"/>
         <v>4</v>
       </c>
-      <c r="K42" s="5">
+      <c r="K42" s="3">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="L42" s="5">
+      <c r="L42" s="3">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="M42" s="5">
+      <c r="M42" s="3">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="N42" s="5">
+      <c r="N42" s="3">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="O42" s="5">
+      <c r="O42" s="3">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="P42" s="5">
+      <c r="P42" s="3">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="Q42" s="5">
+      <c r="Q42" s="3">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="R42" s="5">
+      <c r="R42" s="3">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="S42" s="5">
+      <c r="S42" s="3">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="T42" s="5">
+      <c r="T42" s="3">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="U42" s="5">
+      <c r="U42" s="3">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="V42" s="5">
+      <c r="V42" s="3">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="W42" s="5">
+      <c r="W42" s="3">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="10"/>
-      <c r="B43" s="5" t="s">
+      <c r="A43" s="8"/>
+      <c r="B43" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C43" s="5">
+      <c r="C43" s="3">
         <f t="shared" ref="C43:W43" si="16">IF(C17="A",5,IF(C17="b",4,IF(C17="C",2,IF(C17="D",1,0))))</f>
         <v>5</v>
       </c>
-      <c r="D43" s="5">
+      <c r="D43" s="3">
         <f t="shared" si="16"/>
         <v>5</v>
       </c>
-      <c r="E43" s="5">
+      <c r="E43" s="3">
         <f t="shared" si="16"/>
         <v>5</v>
       </c>
-      <c r="F43" s="5">
+      <c r="F43" s="3">
         <f t="shared" si="16"/>
         <v>5</v>
       </c>
-      <c r="G43" s="5">
+      <c r="G43" s="3">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="H43" s="5">
+      <c r="H43" s="3">
         <f t="shared" si="16"/>
         <v>5</v>
       </c>
-      <c r="I43" s="5">
+      <c r="I43" s="3">
         <f t="shared" si="16"/>
         <v>5</v>
       </c>
-      <c r="J43" s="5">
+      <c r="J43" s="3">
         <f t="shared" si="16"/>
         <v>5</v>
       </c>
-      <c r="K43" s="5">
+      <c r="K43" s="3">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="L43" s="5">
+      <c r="L43" s="3">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="M43" s="5">
+      <c r="M43" s="3">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="N43" s="5">
+      <c r="N43" s="3">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="O43" s="5">
+      <c r="O43" s="3">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="P43" s="5">
+      <c r="P43" s="3">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="Q43" s="5">
+      <c r="Q43" s="3">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="R43" s="5">
+      <c r="R43" s="3">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="S43" s="5">
+      <c r="S43" s="3">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="T43" s="5">
+      <c r="T43" s="3">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="U43" s="5">
+      <c r="U43" s="3">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="V43" s="5">
+      <c r="V43" s="3">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="W43" s="5">
+      <c r="W43" s="3">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="10"/>
-      <c r="B44" s="5" t="s">
+      <c r="A44" s="8"/>
+      <c r="B44" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C44" s="5">
+      <c r="C44" s="3">
         <f t="shared" ref="C44:W44" si="17">IF(C18="A",5,IF(C18="b",4,IF(C18="C",2,IF(C18="D",1,0))))</f>
         <v>5</v>
       </c>
-      <c r="D44" s="5">
+      <c r="D44" s="3">
         <f t="shared" si="17"/>
         <v>5</v>
       </c>
-      <c r="E44" s="5">
+      <c r="E44" s="3">
         <f t="shared" si="17"/>
         <v>5</v>
       </c>
-      <c r="F44" s="5">
+      <c r="F44" s="3">
         <f t="shared" si="17"/>
         <v>5</v>
       </c>
-      <c r="G44" s="5">
+      <c r="G44" s="3">
         <f t="shared" si="17"/>
         <v>5</v>
       </c>
-      <c r="H44" s="5">
+      <c r="H44" s="3">
         <f t="shared" si="17"/>
         <v>2</v>
       </c>
-      <c r="I44" s="5">
+      <c r="I44" s="3">
         <f t="shared" si="17"/>
         <v>4</v>
       </c>
-      <c r="J44" s="5">
+      <c r="J44" s="3">
         <f t="shared" si="17"/>
         <v>5</v>
       </c>
-      <c r="K44" s="5">
+      <c r="K44" s="3">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="L44" s="5">
+      <c r="L44" s="3">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="M44" s="5">
+      <c r="M44" s="3">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="N44" s="5">
+      <c r="N44" s="3">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="O44" s="5">
+      <c r="O44" s="3">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="P44" s="5">
+      <c r="P44" s="3">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="Q44" s="5">
+      <c r="Q44" s="3">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="R44" s="5">
+      <c r="R44" s="3">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="S44" s="5">
+      <c r="S44" s="3">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="T44" s="5">
+      <c r="T44" s="3">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="U44" s="5">
+      <c r="U44" s="3">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="V44" s="5">
+      <c r="V44" s="3">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="W44" s="5">
+      <c r="W44" s="3">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="10"/>
-      <c r="B45" s="5" t="s">
+      <c r="A45" s="8"/>
+      <c r="B45" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C45" s="5">
+      <c r="C45" s="3">
         <f t="shared" ref="C45:W45" si="18">IF(C19="A",5,IF(C19="b",4,IF(C19="C",2,IF(C19="D",1,0))))</f>
         <v>5</v>
       </c>
-      <c r="D45" s="5">
+      <c r="D45" s="3">
         <f t="shared" si="18"/>
         <v>5</v>
       </c>
-      <c r="E45" s="5">
+      <c r="E45" s="3">
         <f t="shared" si="18"/>
         <v>5</v>
       </c>
-      <c r="F45" s="5">
+      <c r="F45" s="3">
         <f t="shared" si="18"/>
         <v>5</v>
       </c>
-      <c r="G45" s="5">
+      <c r="G45" s="3">
         <f t="shared" si="18"/>
         <v>2</v>
       </c>
-      <c r="H45" s="5">
+      <c r="H45" s="3">
         <f t="shared" si="18"/>
         <v>5</v>
       </c>
-      <c r="I45" s="5">
+      <c r="I45" s="3">
         <f t="shared" si="18"/>
         <v>5</v>
       </c>
-      <c r="J45" s="5">
+      <c r="J45" s="3">
         <f t="shared" si="18"/>
         <v>5</v>
       </c>
-      <c r="K45" s="5">
+      <c r="K45" s="3">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="L45" s="5">
+      <c r="L45" s="3">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="M45" s="5">
+      <c r="M45" s="3">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="N45" s="5">
+      <c r="N45" s="3">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="O45" s="5">
+      <c r="O45" s="3">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="P45" s="5">
+      <c r="P45" s="3">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="Q45" s="5">
+      <c r="Q45" s="3">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="R45" s="5">
+      <c r="R45" s="3">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="S45" s="5">
+      <c r="S45" s="3">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="T45" s="5">
+      <c r="T45" s="3">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="U45" s="5">
+      <c r="U45" s="3">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="V45" s="5">
+      <c r="V45" s="3">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="W45" s="5">
+      <c r="W45" s="3">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="10"/>
-      <c r="B46" s="5" t="s">
+      <c r="A46" s="8"/>
+      <c r="B46" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C46" s="5">
+      <c r="C46" s="3">
         <f t="shared" ref="C46:W46" si="19">IF(C20="A",5,IF(C20="b",4,IF(C20="C",2,IF(C20="D",1,0))))</f>
         <v>5</v>
       </c>
-      <c r="D46" s="5">
+      <c r="D46" s="3">
         <f t="shared" si="19"/>
         <v>5</v>
       </c>
-      <c r="E46" s="5">
+      <c r="E46" s="3">
         <f t="shared" si="19"/>
         <v>2</v>
       </c>
-      <c r="F46" s="5">
+      <c r="F46" s="3">
         <f t="shared" si="19"/>
         <v>5</v>
       </c>
-      <c r="G46" s="5">
+      <c r="G46" s="3">
         <f t="shared" si="19"/>
         <v>5</v>
       </c>
-      <c r="H46" s="5">
+      <c r="H46" s="3">
         <f t="shared" si="19"/>
         <v>5</v>
       </c>
-      <c r="I46" s="5">
+      <c r="I46" s="3">
         <f t="shared" si="19"/>
         <v>5</v>
       </c>
-      <c r="J46" s="5">
+      <c r="J46" s="3">
         <f t="shared" si="19"/>
         <v>5</v>
       </c>
-      <c r="K46" s="5">
+      <c r="K46" s="3">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="L46" s="5">
+      <c r="L46" s="3">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="M46" s="5">
+      <c r="M46" s="3">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="N46" s="5">
+      <c r="N46" s="3">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="O46" s="5">
+      <c r="O46" s="3">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="P46" s="5">
+      <c r="P46" s="3">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="Q46" s="5">
+      <c r="Q46" s="3">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="R46" s="5">
+      <c r="R46" s="3">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="S46" s="5">
+      <c r="S46" s="3">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="T46" s="5">
+      <c r="T46" s="3">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="U46" s="5">
+      <c r="U46" s="3">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="V46" s="5">
+      <c r="V46" s="3">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="W46" s="5">
+      <c r="W46" s="3">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="10"/>
-      <c r="B47" s="5" t="s">
+      <c r="A47" s="8"/>
+      <c r="B47" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C47" s="5">
+      <c r="C47" s="3">
         <f t="shared" ref="C47:W47" si="20">IF(C21="A",5,IF(C21="b",4,IF(C21="C",2,IF(C21="D",1,0))))</f>
         <v>5</v>
       </c>
-      <c r="D47" s="5">
+      <c r="D47" s="3">
         <f t="shared" si="20"/>
         <v>5</v>
       </c>
-      <c r="E47" s="5">
+      <c r="E47" s="3">
         <f t="shared" si="20"/>
         <v>4</v>
       </c>
-      <c r="F47" s="5">
+      <c r="F47" s="3">
         <f t="shared" si="20"/>
         <v>5</v>
       </c>
-      <c r="G47" s="5">
+      <c r="G47" s="3">
         <f t="shared" si="20"/>
         <v>5</v>
       </c>
-      <c r="H47" s="5">
+      <c r="H47" s="3">
         <f t="shared" si="20"/>
         <v>4</v>
       </c>
-      <c r="I47" s="5">
+      <c r="I47" s="3">
         <f t="shared" si="20"/>
         <v>5</v>
       </c>
-      <c r="J47" s="5">
+      <c r="J47" s="3">
         <f t="shared" si="20"/>
         <v>5</v>
       </c>
-      <c r="K47" s="5">
+      <c r="K47" s="3">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="L47" s="5">
+      <c r="L47" s="3">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="M47" s="5">
+      <c r="M47" s="3">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="N47" s="5">
+      <c r="N47" s="3">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="O47" s="5">
+      <c r="O47" s="3">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="P47" s="5">
+      <c r="P47" s="3">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="Q47" s="5">
+      <c r="Q47" s="3">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="R47" s="5">
+      <c r="R47" s="3">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="S47" s="5">
+      <c r="S47" s="3">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="T47" s="5">
+      <c r="T47" s="3">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="U47" s="5">
+      <c r="U47" s="3">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="V47" s="5">
+      <c r="V47" s="3">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="W47" s="5">
+      <c r="W47" s="3">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="10"/>
-      <c r="B48" s="5" t="s">
+      <c r="A48" s="8"/>
+      <c r="B48" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C48" s="5">
+      <c r="C48" s="3">
         <f t="shared" ref="C48:W48" si="21">IF(C22="A",5,IF(C22="b",4,IF(C22="C",2,IF(C22="D",1,0))))</f>
         <v>5</v>
       </c>
-      <c r="D48" s="5">
+      <c r="D48" s="3">
         <f t="shared" si="21"/>
         <v>5</v>
       </c>
-      <c r="E48" s="5">
+      <c r="E48" s="3">
         <f t="shared" si="21"/>
         <v>5</v>
       </c>
-      <c r="F48" s="5">
+      <c r="F48" s="3">
         <f t="shared" si="21"/>
         <v>5</v>
       </c>
-      <c r="G48" s="5">
+      <c r="G48" s="3">
         <f t="shared" si="21"/>
         <v>4</v>
       </c>
-      <c r="H48" s="5">
+      <c r="H48" s="3">
         <f t="shared" si="21"/>
         <v>5</v>
       </c>
-      <c r="I48" s="5">
+      <c r="I48" s="3">
         <f t="shared" si="21"/>
         <v>5</v>
       </c>
-      <c r="J48" s="5">
+      <c r="J48" s="3">
         <f t="shared" si="21"/>
         <v>4</v>
       </c>
-      <c r="K48" s="5">
+      <c r="K48" s="3">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="L48" s="5">
+      <c r="L48" s="3">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="M48" s="5">
+      <c r="M48" s="3">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="N48" s="5">
+      <c r="N48" s="3">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="O48" s="5">
+      <c r="O48" s="3">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="P48" s="5">
+      <c r="P48" s="3">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="Q48" s="5">
+      <c r="Q48" s="3">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="R48" s="5">
+      <c r="R48" s="3">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="S48" s="5">
+      <c r="S48" s="3">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="T48" s="5">
+      <c r="T48" s="3">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="U48" s="5">
+      <c r="U48" s="3">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="V48" s="5">
+      <c r="V48" s="3">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="W48" s="5">
+      <c r="W48" s="3">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="10"/>
-      <c r="B49" s="5" t="s">
+      <c r="A49" s="8"/>
+      <c r="B49" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C49" s="5">
+      <c r="C49" s="3">
         <f t="shared" ref="C49:W49" si="22">IF(C23="A",5,IF(C23="b",4,IF(C23="C",2,IF(C23="D",1,0))))</f>
         <v>5</v>
       </c>
-      <c r="D49" s="5">
+      <c r="D49" s="3">
         <f t="shared" si="22"/>
         <v>5</v>
       </c>
-      <c r="E49" s="5">
+      <c r="E49" s="3">
         <f t="shared" si="22"/>
         <v>5</v>
       </c>
-      <c r="F49" s="5">
+      <c r="F49" s="3">
         <f t="shared" si="22"/>
         <v>5</v>
       </c>
-      <c r="G49" s="5">
+      <c r="G49" s="3">
         <f t="shared" si="22"/>
         <v>5</v>
       </c>
-      <c r="H49" s="5">
+      <c r="H49" s="3">
         <f t="shared" si="22"/>
         <v>5</v>
       </c>
-      <c r="I49" s="5">
+      <c r="I49" s="3">
         <f t="shared" si="22"/>
         <v>5</v>
       </c>
-      <c r="J49" s="5">
+      <c r="J49" s="3">
         <f t="shared" si="22"/>
         <v>5</v>
       </c>
-      <c r="K49" s="5">
+      <c r="K49" s="3">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="L49" s="5">
+      <c r="L49" s="3">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="M49" s="5">
+      <c r="M49" s="3">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="N49" s="5">
+      <c r="N49" s="3">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="O49" s="5">
+      <c r="O49" s="3">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="P49" s="5">
+      <c r="P49" s="3">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="Q49" s="5">
+      <c r="Q49" s="3">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="R49" s="5">
+      <c r="R49" s="3">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="S49" s="5">
+      <c r="S49" s="3">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="T49" s="5">
+      <c r="T49" s="3">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="U49" s="5">
+      <c r="U49" s="3">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="V49" s="5">
+      <c r="V49" s="3">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="W49" s="5">
+      <c r="W49" s="3">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="10"/>
-      <c r="B50" s="5" t="s">
+      <c r="A50" s="8"/>
+      <c r="B50" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C50" s="5">
+      <c r="C50" s="3">
         <f t="shared" ref="C50:W50" si="23">IF(C24="A",5,IF(C24="b",4,IF(C24="C",2,IF(C24="D",1,0))))</f>
         <v>5</v>
       </c>
-      <c r="D50" s="5">
+      <c r="D50" s="3">
         <f t="shared" si="23"/>
         <v>5</v>
       </c>
-      <c r="E50" s="5">
+      <c r="E50" s="3">
         <f t="shared" si="23"/>
         <v>5</v>
       </c>
-      <c r="F50" s="5">
+      <c r="F50" s="3">
         <f t="shared" si="23"/>
         <v>5</v>
       </c>
-      <c r="G50" s="5">
+      <c r="G50" s="3">
         <f t="shared" si="23"/>
         <v>5</v>
       </c>
-      <c r="H50" s="5">
+      <c r="H50" s="3">
         <f t="shared" si="23"/>
         <v>5</v>
       </c>
-      <c r="I50" s="5">
+      <c r="I50" s="3">
         <f t="shared" si="23"/>
         <v>5</v>
       </c>
-      <c r="J50" s="5">
+      <c r="J50" s="3">
         <f t="shared" si="23"/>
         <v>5</v>
       </c>
-      <c r="K50" s="5">
+      <c r="K50" s="3">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="L50" s="5">
+      <c r="L50" s="3">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="M50" s="5">
+      <c r="M50" s="3">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="N50" s="5">
+      <c r="N50" s="3">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="O50" s="5">
+      <c r="O50" s="3">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="P50" s="5">
+      <c r="P50" s="3">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="Q50" s="5">
+      <c r="Q50" s="3">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="R50" s="5">
+      <c r="R50" s="3">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="S50" s="5">
+      <c r="S50" s="3">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="T50" s="5">
+      <c r="T50" s="3">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="U50" s="5">
+      <c r="U50" s="3">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="V50" s="5">
+      <c r="V50" s="3">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="W50" s="5">
+      <c r="W50" s="3">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
@@ -4914,39 +4852,72 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF578CAD-DA7B-483D-BDEF-C637B7FABB3A}">
-  <dimension ref="A1:J27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF578CAD-DA7B-483D-BDEF-C637B7FABB3A}">
+  <dimension ref="A1:AL37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B15" sqref="A15:XFD15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B21" sqref="B21:AL21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="22.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="3.77734375" defaultRowHeight="22.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.88671875" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="11.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="10.77734375" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.77734375" style="6"/>
+    <col min="3" max="16384" width="3.77734375" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>28</v>
-      </c>
+    <row r="1" spans="1:38" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="12">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12"/>
+      <c r="S1" s="12"/>
+      <c r="T1" s="12"/>
+      <c r="U1" s="12"/>
+      <c r="V1" s="12"/>
+      <c r="W1" s="12"/>
+      <c r="X1" s="12"/>
+      <c r="Y1" s="12"/>
+      <c r="Z1" s="12"/>
+      <c r="AA1" s="12"/>
+      <c r="AB1" s="12"/>
+      <c r="AC1" s="12"/>
+      <c r="AD1" s="12"/>
+      <c r="AE1" s="12"/>
+      <c r="AF1" s="12"/>
+      <c r="AG1" s="12"/>
+      <c r="AH1" s="12"/>
+      <c r="AI1" s="12"/>
+      <c r="AJ1" s="12"/>
+      <c r="AK1" s="12"/>
+      <c r="AL1" s="12"/>
+    </row>
+    <row r="2" spans="1:38" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="12">
+        <v>1</v>
+      </c>
+      <c r="C2" s="12"/>
       <c r="D2" s="12"/>
       <c r="E2" s="12"/>
       <c r="F2" s="12"/>
@@ -4954,13 +4925,41 @@
       <c r="H2" s="12"/>
       <c r="I2" s="12"/>
       <c r="J2" s="12"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>38</v>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
+      <c r="S2" s="12"/>
+      <c r="T2" s="12"/>
+      <c r="U2" s="12"/>
+      <c r="V2" s="12"/>
+      <c r="W2" s="12"/>
+      <c r="X2" s="12"/>
+      <c r="Y2" s="12"/>
+      <c r="Z2" s="12"/>
+      <c r="AA2" s="12"/>
+      <c r="AB2" s="12"/>
+      <c r="AC2" s="12"/>
+      <c r="AD2" s="12"/>
+      <c r="AE2" s="12"/>
+      <c r="AF2" s="12"/>
+      <c r="AG2" s="12"/>
+      <c r="AH2" s="12"/>
+      <c r="AI2" s="12"/>
+      <c r="AJ2" s="12"/>
+      <c r="AK2" s="12"/>
+      <c r="AL2" s="12"/>
+    </row>
+    <row r="3" spans="1:38" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="12">
+        <v>1</v>
       </c>
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
@@ -4970,246 +4969,1120 @@
       <c r="H3" s="12"/>
       <c r="I3" s="12"/>
       <c r="J3" s="12"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="12"/>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="12"/>
+      <c r="S3" s="12"/>
+      <c r="T3" s="12"/>
+      <c r="U3" s="12"/>
+      <c r="V3" s="12"/>
+      <c r="W3" s="12"/>
+      <c r="X3" s="12"/>
+      <c r="Y3" s="12"/>
+      <c r="Z3" s="12"/>
+      <c r="AA3" s="12"/>
+      <c r="AB3" s="12"/>
+      <c r="AC3" s="12"/>
+      <c r="AD3" s="12"/>
+      <c r="AE3" s="12"/>
+      <c r="AF3" s="12"/>
+      <c r="AG3" s="12"/>
+      <c r="AH3" s="12"/>
+      <c r="AI3" s="12"/>
+      <c r="AJ3" s="12"/>
+      <c r="AK3" s="12"/>
+      <c r="AL3" s="12"/>
+    </row>
+    <row r="4" spans="1:38" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="13"/>
+      <c r="S4" s="13"/>
+      <c r="T4" s="13"/>
+      <c r="U4" s="13"/>
+      <c r="V4" s="13"/>
+      <c r="W4" s="13"/>
+      <c r="X4" s="13"/>
+      <c r="Y4" s="13"/>
+      <c r="Z4" s="13"/>
+      <c r="AA4" s="13"/>
+      <c r="AB4" s="13"/>
+      <c r="AC4" s="13"/>
+      <c r="AD4" s="13"/>
+      <c r="AE4" s="13"/>
+      <c r="AF4" s="13"/>
+      <c r="AG4" s="13"/>
+      <c r="AH4" s="13"/>
+      <c r="AI4" s="13"/>
+      <c r="AJ4" s="13"/>
+      <c r="AK4" s="13"/>
+      <c r="AL4" s="13"/>
+    </row>
+    <row r="5" spans="1:38" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="13"/>
+      <c r="S5" s="13"/>
+      <c r="T5" s="13"/>
+      <c r="U5" s="13"/>
+      <c r="V5" s="13"/>
+      <c r="W5" s="13"/>
+      <c r="X5" s="13"/>
+      <c r="Y5" s="13"/>
+      <c r="Z5" s="13"/>
+      <c r="AA5" s="13"/>
+      <c r="AB5" s="13"/>
+      <c r="AC5" s="13"/>
+      <c r="AD5" s="13"/>
+      <c r="AE5" s="13"/>
+      <c r="AF5" s="13"/>
+      <c r="AG5" s="13"/>
+      <c r="AH5" s="13"/>
+      <c r="AI5" s="13"/>
+      <c r="AJ5" s="13"/>
+      <c r="AK5" s="13"/>
+      <c r="AL5" s="13"/>
+    </row>
+    <row r="6" spans="1:38" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A6" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+      <c r="B6" s="13">
+        <v>2</v>
+      </c>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="13"/>
+      <c r="S6" s="13"/>
+      <c r="T6" s="13"/>
+      <c r="U6" s="13"/>
+      <c r="V6" s="13"/>
+      <c r="W6" s="13"/>
+      <c r="X6" s="13"/>
+      <c r="Y6" s="13"/>
+      <c r="Z6" s="13"/>
+      <c r="AA6" s="13"/>
+      <c r="AB6" s="13"/>
+      <c r="AC6" s="13"/>
+      <c r="AD6" s="13"/>
+      <c r="AE6" s="13"/>
+      <c r="AF6" s="13"/>
+      <c r="AG6" s="13"/>
+      <c r="AH6" s="13"/>
+      <c r="AI6" s="13"/>
+      <c r="AJ6" s="13"/>
+      <c r="AK6" s="13"/>
+      <c r="AL6" s="13"/>
+    </row>
+    <row r="7" spans="1:38" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="13">
+        <v>1</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="13"/>
+      <c r="R7" s="13"/>
+      <c r="S7" s="13"/>
+      <c r="T7" s="13"/>
+      <c r="U7" s="13"/>
+      <c r="V7" s="13"/>
+      <c r="W7" s="13"/>
+      <c r="X7" s="13"/>
+      <c r="Y7" s="13"/>
+      <c r="Z7" s="13"/>
+      <c r="AA7" s="13"/>
+      <c r="AB7" s="13"/>
+      <c r="AC7" s="13"/>
+      <c r="AD7" s="13"/>
+      <c r="AE7" s="13"/>
+      <c r="AF7" s="13"/>
+      <c r="AG7" s="13"/>
+      <c r="AH7" s="13"/>
+      <c r="AI7" s="13"/>
+      <c r="AJ7" s="13"/>
+      <c r="AK7" s="13"/>
+      <c r="AL7" s="13"/>
+    </row>
+    <row r="8" spans="1:38" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A8" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="13">
+        <v>2</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="13"/>
+      <c r="R8" s="13"/>
+      <c r="S8" s="13"/>
+      <c r="T8" s="13"/>
+      <c r="U8" s="13"/>
+      <c r="V8" s="13"/>
+      <c r="W8" s="13"/>
+      <c r="X8" s="13"/>
+      <c r="Y8" s="13"/>
+      <c r="Z8" s="13"/>
+      <c r="AA8" s="13"/>
+      <c r="AB8" s="13"/>
+      <c r="AC8" s="13"/>
+      <c r="AD8" s="13"/>
+      <c r="AE8" s="13"/>
+      <c r="AF8" s="13"/>
+      <c r="AG8" s="13"/>
+      <c r="AH8" s="13"/>
+      <c r="AI8" s="13"/>
+      <c r="AJ8" s="13"/>
+      <c r="AK8" s="13"/>
+      <c r="AL8" s="13"/>
+    </row>
+    <row r="9" spans="1:38" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="13">
+        <v>1</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="13"/>
+      <c r="R9" s="13"/>
+      <c r="S9" s="13"/>
+      <c r="T9" s="13"/>
+      <c r="U9" s="13"/>
+      <c r="V9" s="13"/>
+      <c r="W9" s="13"/>
+      <c r="X9" s="13"/>
+      <c r="Y9" s="13"/>
+      <c r="Z9" s="13"/>
+      <c r="AA9" s="13"/>
+      <c r="AB9" s="13"/>
+      <c r="AC9" s="13"/>
+      <c r="AD9" s="13"/>
+      <c r="AE9" s="13"/>
+      <c r="AF9" s="13"/>
+      <c r="AG9" s="13"/>
+      <c r="AH9" s="13"/>
+      <c r="AI9" s="13"/>
+      <c r="AJ9" s="13"/>
+      <c r="AK9" s="13"/>
+      <c r="AL9" s="13"/>
+    </row>
+    <row r="10" spans="1:38" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="13"/>
+      <c r="R10" s="13"/>
+      <c r="S10" s="13"/>
+      <c r="T10" s="13"/>
+      <c r="U10" s="13"/>
+      <c r="V10" s="13"/>
+      <c r="W10" s="13"/>
+      <c r="X10" s="13"/>
+      <c r="Y10" s="13"/>
+      <c r="Z10" s="13"/>
+      <c r="AA10" s="13"/>
+      <c r="AB10" s="13"/>
+      <c r="AC10" s="13"/>
+      <c r="AD10" s="13"/>
+      <c r="AE10" s="13"/>
+      <c r="AF10" s="13"/>
+      <c r="AG10" s="13"/>
+      <c r="AH10" s="13"/>
+      <c r="AI10" s="13"/>
+      <c r="AJ10" s="13"/>
+      <c r="AK10" s="13"/>
+      <c r="AL10" s="13"/>
+    </row>
+    <row r="11" spans="1:38" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="13">
+        <v>1</v>
+      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="13"/>
+      <c r="R11" s="13"/>
+      <c r="S11" s="13"/>
+      <c r="T11" s="13"/>
+      <c r="U11" s="13"/>
+      <c r="V11" s="13"/>
+      <c r="W11" s="13"/>
+      <c r="X11" s="13"/>
+      <c r="Y11" s="13"/>
+      <c r="Z11" s="13"/>
+      <c r="AA11" s="13"/>
+      <c r="AB11" s="13"/>
+      <c r="AC11" s="13"/>
+      <c r="AD11" s="13"/>
+      <c r="AE11" s="13"/>
+      <c r="AF11" s="13"/>
+      <c r="AG11" s="13"/>
+      <c r="AH11" s="13"/>
+      <c r="AI11" s="13"/>
+      <c r="AJ11" s="13"/>
+      <c r="AK11" s="13"/>
+      <c r="AL11" s="13"/>
+    </row>
+    <row r="12" spans="1:38" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A12" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="13">
+        <v>1</v>
+      </c>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="13"/>
+      <c r="P12" s="13"/>
+      <c r="Q12" s="13"/>
+      <c r="R12" s="13"/>
+      <c r="S12" s="13"/>
+      <c r="T12" s="13"/>
+      <c r="U12" s="13"/>
+      <c r="V12" s="13"/>
+      <c r="W12" s="13"/>
+      <c r="X12" s="13"/>
+      <c r="Y12" s="13"/>
+      <c r="Z12" s="13"/>
+      <c r="AA12" s="13"/>
+      <c r="AB12" s="13"/>
+      <c r="AC12" s="13"/>
+      <c r="AD12" s="13"/>
+      <c r="AE12" s="13"/>
+      <c r="AF12" s="13"/>
+      <c r="AG12" s="13"/>
+      <c r="AH12" s="13"/>
+      <c r="AI12" s="13"/>
+      <c r="AJ12" s="13"/>
+      <c r="AK12" s="13"/>
+      <c r="AL12" s="13"/>
+    </row>
+    <row r="13" spans="1:38" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A13" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="13"/>
+      <c r="P13" s="13"/>
+      <c r="Q13" s="13"/>
+      <c r="R13" s="13"/>
+      <c r="S13" s="13"/>
+      <c r="T13" s="13"/>
+      <c r="U13" s="13"/>
+      <c r="V13" s="13"/>
+      <c r="W13" s="13"/>
+      <c r="X13" s="13"/>
+      <c r="Y13" s="13"/>
+      <c r="Z13" s="13"/>
+      <c r="AA13" s="13"/>
+      <c r="AB13" s="13"/>
+      <c r="AC13" s="13"/>
+      <c r="AD13" s="13"/>
+      <c r="AE13" s="13"/>
+      <c r="AF13" s="13"/>
+      <c r="AG13" s="13"/>
+      <c r="AH13" s="13"/>
+      <c r="AI13" s="13"/>
+      <c r="AJ13" s="13"/>
+      <c r="AK13" s="13"/>
+      <c r="AL13" s="13"/>
+    </row>
+    <row r="14" spans="1:38" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A14" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="13">
+        <v>1</v>
+      </c>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="13"/>
+      <c r="P14" s="13"/>
+      <c r="Q14" s="13"/>
+      <c r="R14" s="13"/>
+      <c r="S14" s="13"/>
+      <c r="T14" s="13"/>
+      <c r="U14" s="13"/>
+      <c r="V14" s="13"/>
+      <c r="W14" s="13"/>
+      <c r="X14" s="13"/>
+      <c r="Y14" s="13"/>
+      <c r="Z14" s="13"/>
+      <c r="AA14" s="13"/>
+      <c r="AB14" s="13"/>
+      <c r="AC14" s="13"/>
+      <c r="AD14" s="13"/>
+      <c r="AE14" s="13"/>
+      <c r="AF14" s="13"/>
+      <c r="AG14" s="13"/>
+      <c r="AH14" s="13"/>
+      <c r="AI14" s="13"/>
+      <c r="AJ14" s="13"/>
+      <c r="AK14" s="13"/>
+      <c r="AL14" s="13"/>
+    </row>
+    <row r="15" spans="1:38" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A15" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="13">
+        <v>2</v>
+      </c>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="13"/>
+      <c r="Q15" s="13"/>
+      <c r="R15" s="13"/>
+      <c r="S15" s="13"/>
+      <c r="T15" s="13"/>
+      <c r="U15" s="13"/>
+      <c r="V15" s="13"/>
+      <c r="W15" s="13"/>
+      <c r="X15" s="13"/>
+      <c r="Y15" s="13"/>
+      <c r="Z15" s="13"/>
+      <c r="AA15" s="13"/>
+      <c r="AB15" s="13"/>
+      <c r="AC15" s="13"/>
+      <c r="AD15" s="13"/>
+      <c r="AE15" s="13"/>
+      <c r="AF15" s="13"/>
+      <c r="AG15" s="13"/>
+      <c r="AH15" s="13"/>
+      <c r="AI15" s="13"/>
+      <c r="AJ15" s="13"/>
+      <c r="AK15" s="13"/>
+      <c r="AL15" s="13"/>
+    </row>
+    <row r="16" spans="1:38" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A16" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="13"/>
+      <c r="Q16" s="13"/>
+      <c r="R16" s="13"/>
+      <c r="S16" s="13"/>
+      <c r="T16" s="13"/>
+      <c r="U16" s="13"/>
+      <c r="V16" s="13"/>
+      <c r="W16" s="13"/>
+      <c r="X16" s="13"/>
+      <c r="Y16" s="13"/>
+      <c r="Z16" s="13"/>
+      <c r="AA16" s="13"/>
+      <c r="AB16" s="13"/>
+      <c r="AC16" s="13"/>
+      <c r="AD16" s="13"/>
+      <c r="AE16" s="13"/>
+      <c r="AF16" s="13"/>
+      <c r="AG16" s="13"/>
+      <c r="AH16" s="13"/>
+      <c r="AI16" s="13"/>
+      <c r="AJ16" s="13"/>
+      <c r="AK16" s="13"/>
+      <c r="AL16" s="13"/>
+    </row>
+    <row r="17" spans="1:38" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A17" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="13">
+        <v>1</v>
+      </c>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="13"/>
+      <c r="P17" s="13"/>
+      <c r="Q17" s="13"/>
+      <c r="R17" s="13"/>
+      <c r="S17" s="13"/>
+      <c r="T17" s="13"/>
+      <c r="U17" s="13"/>
+      <c r="V17" s="13"/>
+      <c r="W17" s="13"/>
+      <c r="X17" s="13"/>
+      <c r="Y17" s="13"/>
+      <c r="Z17" s="13"/>
+      <c r="AA17" s="13"/>
+      <c r="AB17" s="13"/>
+      <c r="AC17" s="13"/>
+      <c r="AD17" s="13"/>
+      <c r="AE17" s="13"/>
+      <c r="AF17" s="13"/>
+      <c r="AG17" s="13"/>
+      <c r="AH17" s="13"/>
+      <c r="AI17" s="13"/>
+      <c r="AJ17" s="13"/>
+      <c r="AK17" s="13"/>
+      <c r="AL17" s="13"/>
+    </row>
+    <row r="18" spans="1:38" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A18" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="13"/>
+      <c r="O18" s="13"/>
+      <c r="P18" s="13"/>
+      <c r="Q18" s="13"/>
+      <c r="R18" s="13"/>
+      <c r="S18" s="13"/>
+      <c r="T18" s="13"/>
+      <c r="U18" s="13"/>
+      <c r="V18" s="13"/>
+      <c r="W18" s="13"/>
+      <c r="X18" s="13"/>
+      <c r="Y18" s="13"/>
+      <c r="Z18" s="13"/>
+      <c r="AA18" s="13"/>
+      <c r="AB18" s="13"/>
+      <c r="AC18" s="13"/>
+      <c r="AD18" s="13"/>
+      <c r="AE18" s="13"/>
+      <c r="AF18" s="13"/>
+      <c r="AG18" s="13"/>
+      <c r="AH18" s="13"/>
+      <c r="AI18" s="13"/>
+      <c r="AJ18" s="13"/>
+      <c r="AK18" s="13"/>
+      <c r="AL18" s="13"/>
+    </row>
+    <row r="19" spans="1:38" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A19" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
+      <c r="B19" s="13">
+        <v>1</v>
+      </c>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="13"/>
+      <c r="O19" s="13"/>
+      <c r="P19" s="13"/>
+      <c r="Q19" s="13"/>
+      <c r="R19" s="13"/>
+      <c r="S19" s="13"/>
+      <c r="T19" s="13"/>
+      <c r="U19" s="13"/>
+      <c r="V19" s="13"/>
+      <c r="W19" s="13"/>
+      <c r="X19" s="13"/>
+      <c r="Y19" s="13"/>
+      <c r="Z19" s="13"/>
+      <c r="AA19" s="13"/>
+      <c r="AB19" s="13"/>
+      <c r="AC19" s="13"/>
+      <c r="AD19" s="13"/>
+      <c r="AE19" s="13"/>
+      <c r="AF19" s="13"/>
+      <c r="AG19" s="13"/>
+      <c r="AH19" s="13"/>
+      <c r="AI19" s="13"/>
+      <c r="AJ19" s="13"/>
+      <c r="AK19" s="13"/>
+      <c r="AL19" s="13"/>
+    </row>
+    <row r="20" spans="1:38" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A20" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="13"/>
+      <c r="O20" s="13"/>
+      <c r="P20" s="13"/>
+      <c r="Q20" s="13"/>
+      <c r="R20" s="13"/>
+      <c r="S20" s="13"/>
+      <c r="T20" s="13"/>
+      <c r="U20" s="13"/>
+      <c r="V20" s="13"/>
+      <c r="W20" s="13"/>
+      <c r="X20" s="13"/>
+      <c r="Y20" s="13"/>
+      <c r="Z20" s="13"/>
+      <c r="AA20" s="13"/>
+      <c r="AB20" s="13"/>
+      <c r="AC20" s="13"/>
+      <c r="AD20" s="13"/>
+      <c r="AE20" s="13"/>
+      <c r="AF20" s="13"/>
+      <c r="AG20" s="13"/>
+      <c r="AH20" s="13"/>
+      <c r="AI20" s="13"/>
+      <c r="AJ20" s="13"/>
+      <c r="AK20" s="13"/>
+      <c r="AL20" s="13"/>
+    </row>
+    <row r="21" spans="1:38" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A21" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="13"/>
+      <c r="O21" s="13"/>
+      <c r="P21" s="13"/>
+      <c r="Q21" s="13"/>
+      <c r="R21" s="13"/>
+      <c r="S21" s="13"/>
+      <c r="T21" s="13"/>
+      <c r="U21" s="13"/>
+      <c r="V21" s="13"/>
+      <c r="W21" s="13"/>
+      <c r="X21" s="13"/>
+      <c r="Y21" s="13"/>
+      <c r="Z21" s="13"/>
+      <c r="AA21" s="13"/>
+      <c r="AB21" s="13"/>
+      <c r="AC21" s="13"/>
+      <c r="AD21" s="13"/>
+      <c r="AE21" s="13"/>
+      <c r="AF21" s="13"/>
+      <c r="AG21" s="13"/>
+      <c r="AH21" s="13"/>
+      <c r="AI21" s="13"/>
+      <c r="AJ21" s="13"/>
+      <c r="AK21" s="13"/>
+      <c r="AL21" s="13"/>
+    </row>
+    <row r="22" spans="1:38" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A22" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="13"/>
+      <c r="O22" s="13"/>
+      <c r="P22" s="13"/>
+      <c r="Q22" s="13"/>
+      <c r="R22" s="13"/>
+      <c r="S22" s="13"/>
+      <c r="T22" s="13"/>
+      <c r="U22" s="13"/>
+      <c r="V22" s="13"/>
+      <c r="W22" s="13"/>
+      <c r="X22" s="13"/>
+      <c r="Y22" s="13"/>
+      <c r="Z22" s="13"/>
+      <c r="AA22" s="13"/>
+      <c r="AB22" s="13"/>
+      <c r="AC22" s="13"/>
+      <c r="AD22" s="13"/>
+      <c r="AE22" s="13"/>
+      <c r="AF22" s="13"/>
+      <c r="AG22" s="13"/>
+      <c r="AH22" s="13"/>
+      <c r="AI22" s="13"/>
+      <c r="AJ22" s="13"/>
+      <c r="AK22" s="13"/>
+      <c r="AL22" s="13"/>
+    </row>
+    <row r="23" spans="1:38" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A23" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="9" t="s">
-        <v>9</v>
-      </c>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="13"/>
+      <c r="O23" s="13"/>
+      <c r="P23" s="13"/>
+      <c r="Q23" s="13"/>
+      <c r="R23" s="13"/>
+      <c r="S23" s="13"/>
+      <c r="T23" s="13"/>
+      <c r="U23" s="13"/>
+      <c r="V23" s="13"/>
+      <c r="W23" s="13"/>
+      <c r="X23" s="13"/>
+      <c r="Y23" s="13"/>
+      <c r="Z23" s="13"/>
+      <c r="AA23" s="13"/>
+      <c r="AB23" s="13"/>
+      <c r="AC23" s="13"/>
+      <c r="AD23" s="13"/>
+      <c r="AE23" s="13"/>
+      <c r="AF23" s="13"/>
+      <c r="AG23" s="13"/>
+      <c r="AH23" s="13"/>
+      <c r="AI23" s="13"/>
+      <c r="AJ23" s="13"/>
+      <c r="AK23" s="13"/>
+      <c r="AL23" s="13"/>
+    </row>
+    <row r="24" spans="1:38" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A24" s="7"/>
+      <c r="B24" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+    </row>
+    <row r="25" spans="1:38" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A25" s="7"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+    </row>
+    <row r="26" spans="1:38" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A26" s="7"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+    </row>
+    <row r="27" spans="1:38" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A27" s="7"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+    </row>
+    <row r="28" spans="1:38" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A28" s="7"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+    </row>
+    <row r="29" spans="1:38" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A29" s="7"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+    </row>
+    <row r="30" spans="1:38" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A30" s="7"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+    </row>
+    <row r="31" spans="1:38" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A31" s="7"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+    </row>
+    <row r="32" spans="1:38" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A32" s="7"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+    </row>
+    <row r="33" spans="1:9" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A33" s="7"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+    </row>
+    <row r="34" spans="1:9" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A34" s="7"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11"/>
+    </row>
+    <row r="35" spans="1:9" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A35" s="7"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+    </row>
+    <row r="36" spans="1:9" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A36" s="7"/>
+      <c r="B36" s="7"/>
+    </row>
+    <row r="37" spans="1:9" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A37" s="7"/>
+      <c r="B37" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="C2:J13"/>
+  <sortState ref="A1:A23">
+    <sortCondition ref="A1"/>
+  </sortState>
+  <mergeCells count="24">
+    <mergeCell ref="B6:AL6"/>
+    <mergeCell ref="B21:AL21"/>
+    <mergeCell ref="B22:AL22"/>
+    <mergeCell ref="B23:AL23"/>
+    <mergeCell ref="B15:AL15"/>
+    <mergeCell ref="B8:AL8"/>
+    <mergeCell ref="B16:AL16"/>
+    <mergeCell ref="B17:AL17"/>
+    <mergeCell ref="B18:AL18"/>
+    <mergeCell ref="B19:AL19"/>
+    <mergeCell ref="B20:AL20"/>
+    <mergeCell ref="B24:I35"/>
+    <mergeCell ref="B1:AL1"/>
+    <mergeCell ref="B2:AL2"/>
+    <mergeCell ref="B3:AL3"/>
+    <mergeCell ref="B4:AL4"/>
+    <mergeCell ref="B5:AL5"/>
+    <mergeCell ref="B7:AL7"/>
+    <mergeCell ref="B9:AL9"/>
+    <mergeCell ref="B10:AL10"/>
+    <mergeCell ref="B11:AL11"/>
+    <mergeCell ref="B12:AL12"/>
+    <mergeCell ref="B13:AL13"/>
+    <mergeCell ref="B14:AL14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B7 B8:B152" xr:uid="{5B0EBA74-538C-4016-8DD6-F93ADC8D85FF}">
-      <formula1>"完成"</formula1>
-    </dataValidation>
-  </dataValidations>
+  <conditionalFormatting sqref="B1:AL23">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{CDD73560-2096-453D-92C7-FD0A7B130A2A}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF0070C0"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{B22DC60B-6FFE-424C-B759-B8C78B034A36}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{CDD73560-2096-453D-92C7-FD0A7B130A2A}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{B22DC60B-6FFE-424C-B759-B8C78B034A36}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>B1:AL23</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/前端工程师班.xlsx
+++ b/前端工程师班.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yacon\Desktop\前端随堂笔记\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79E29F11-238A-4F91-A8CD-00715651D483}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98E43702-73B2-475F-AD1B-8263A69C433D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="22068" windowHeight="13176" activeTab="1" xr2:uid="{F18D4CDB-7335-4D71-A58E-AC92FD55C192}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="19188" windowHeight="12816" activeTab="1" xr2:uid="{F18D4CDB-7335-4D71-A58E-AC92FD55C192}"/>
   </bookViews>
   <sheets>
     <sheet name="异常记录" sheetId="1" r:id="rId1"/>
@@ -599,7 +599,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{AF83CF87-CE82-4110-AEC3-2425F4A74C86}">
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{32CE57A4-C4CE-489D-9435-ABDD55E6B054}">
       <text>
         <r>
           <rPr>
@@ -619,7 +619,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-20</t>
+2</t>
         </r>
         <r>
           <rPr>
@@ -629,7 +629,41 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>20/1/4</t>
+          <t>020/1/4</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{FB7AF203-678A-4A76-A24D-B4EFC2E9B898}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Yacon:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+2</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>020/1/4</t>
         </r>
       </text>
     </comment>
@@ -638,7 +672,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="56">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -820,7 +854,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>JS考核2</t>
+    <t>进度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最低值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JS考核2加分题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JS考核2基础题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -906,14 +960,6 @@
     </font>
     <font>
       <sz val="16"/>
-      <color rgb="FF0070C0"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="16"/>
       <color theme="0"/>
       <name val="等线"/>
       <family val="2"/>
@@ -928,8 +974,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0070C0"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -939,6 +993,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -972,7 +1032,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1003,23 +1063,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1461,13 +1536,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C8AE620-962B-4850-8EC1-28D9C57566DF}">
-  <dimension ref="A1:W50"/>
+  <dimension ref="A1:Y50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Z10" sqref="Z10"/>
+      <selection pane="bottomRight" activeCell="I52" sqref="I52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.399999999999999" x14ac:dyDescent="0.25"/>
@@ -1479,12 +1554,13 @@
     <col min="5" max="7" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="23" width="3.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="21.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="23" width="3.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="24" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>37</v>
       </c>
@@ -1516,9 +1592,11 @@
         <v>44</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="L1" s="3"/>
+        <v>54</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
@@ -1531,19 +1609,19 @@
       <c r="V1" s="3"/>
       <c r="W1" s="3"/>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
-        <f t="shared" ref="A2:A24" si="0">SUM(C28:W28)</f>
-        <v>13</v>
+        <f>SUM(C28:W28)</f>
+        <v>15</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>33</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>35</v>
@@ -1555,16 +1633,20 @@
         <v>35</v>
       </c>
       <c r="H2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="I2" s="3" t="s">
-        <v>35</v>
-      </c>
       <c r="J2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
+        <v>39</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
@@ -1577,19 +1659,19 @@
       <c r="V2" s="3"/>
       <c r="W2" s="3"/>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
-        <f t="shared" si="0"/>
-        <v>15</v>
+        <f>SUM(C29:W29)</f>
+        <v>17</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>34</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>35</v>
@@ -1601,16 +1683,20 @@
         <v>35</v>
       </c>
       <c r="H3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K3" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="I3" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J3" s="3" t="s">
+      <c r="L3" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
@@ -1623,10 +1709,10 @@
       <c r="V3" s="3"/>
       <c r="W3" s="3"/>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
-        <f t="shared" si="0"/>
-        <v>18</v>
+        <f>SUM(C30:W30)</f>
+        <v>23</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>15</v>
@@ -1655,8 +1741,12 @@
       <c r="J4" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
+      <c r="K4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
@@ -1669,10 +1759,10 @@
       <c r="V4" s="3"/>
       <c r="W4" s="3"/>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
-        <f t="shared" si="0"/>
-        <v>20</v>
+        <f>SUM(C31:W31)</f>
+        <v>25</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>20</v>
@@ -1701,8 +1791,12 @@
       <c r="J5" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
+      <c r="K5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
@@ -1715,10 +1809,10 @@
       <c r="V5" s="3"/>
       <c r="W5" s="3"/>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
-        <f t="shared" si="0"/>
-        <v>25</v>
+        <f>SUM(C32:W32)</f>
+        <v>30</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>18</v>
@@ -1747,8 +1841,12 @@
       <c r="J6" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
+      <c r="K6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
@@ -1761,10 +1859,10 @@
       <c r="V6" s="3"/>
       <c r="W6" s="3"/>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
-        <f t="shared" si="0"/>
-        <v>25</v>
+        <f>SUM(C33:W33)</f>
+        <v>30</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>22</v>
@@ -1793,8 +1891,12 @@
       <c r="J7" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
+      <c r="K7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
@@ -1807,40 +1909,44 @@
       <c r="V7" s="3"/>
       <c r="W7" s="3"/>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
-        <f t="shared" si="0"/>
-        <v>26</v>
+        <f>SUM(C34:W34)</f>
+        <v>30</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>32</v>
       </c>
       <c r="D8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K8" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
+      <c r="L8" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
@@ -1853,40 +1959,44 @@
       <c r="V8" s="3"/>
       <c r="W8" s="3"/>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
-        <f t="shared" si="0"/>
-        <v>26</v>
+        <f>SUM(C35:W35)</f>
+        <v>31</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>32</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G9" s="3" t="s">
+      <c r="I9" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="J9" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
+        <v>32</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
@@ -1898,11 +2008,14 @@
       <c r="U9" s="3"/>
       <c r="V9" s="3"/>
       <c r="W9" s="3"/>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y9" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
-        <f t="shared" si="0"/>
-        <v>27</v>
+        <f>SUM(C36:W36)</f>
+        <v>32</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>26</v>
@@ -1931,8 +2044,12 @@
       <c r="J10" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
+      <c r="K10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
@@ -1945,10 +2062,10 @@
       <c r="V10" s="3"/>
       <c r="W10" s="3"/>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
-        <f t="shared" si="0"/>
-        <v>27</v>
+        <f>SUM(C37:W37)</f>
+        <v>32</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>19</v>
@@ -1977,8 +2094,12 @@
       <c r="J11" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
+      <c r="K11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
@@ -1991,10 +2112,10 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
-        <f t="shared" si="0"/>
-        <v>31</v>
+        <f>SUM(C38:W38)</f>
+        <v>36</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>13</v>
@@ -2023,8 +2144,12 @@
       <c r="J12" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
+      <c r="K12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
@@ -2037,10 +2162,10 @@
       <c r="V12" s="3"/>
       <c r="W12" s="3"/>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
-        <f t="shared" si="0"/>
-        <v>31</v>
+        <f>SUM(C39:W39)</f>
+        <v>36</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>6</v>
@@ -2069,8 +2194,12 @@
       <c r="J13" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
+      <c r="K13" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
@@ -2083,28 +2212,28 @@
       <c r="V13" s="3"/>
       <c r="W13" s="3"/>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
-        <f t="shared" si="0"/>
-        <v>32</v>
+        <f>SUM(C40:W40)</f>
+        <v>36</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>32</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>32</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>32</v>
@@ -2113,10 +2242,14 @@
         <v>32</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
+        <v>32</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
@@ -2129,40 +2262,44 @@
       <c r="V14" s="3"/>
       <c r="W14" s="3"/>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
-        <f t="shared" si="0"/>
+        <f>SUM(C41:W41)</f>
+        <v>37</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>35</v>
-      </c>
       <c r="F15" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J15" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
+      <c r="K15" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
@@ -2175,40 +2312,44 @@
       <c r="V15" s="3"/>
       <c r="W15" s="3"/>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
-        <f t="shared" si="0"/>
+        <f>SUM(C42:W42)</f>
+        <v>39</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="3" t="s">
+      <c r="F16" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="G16" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E16" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="H16" s="3" t="s">
         <v>32</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
+        <v>32</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
@@ -2223,38 +2364,42 @@
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
-        <f t="shared" si="0"/>
-        <v>36</v>
+        <f>SUM(C43:W43)</f>
+        <v>40</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>32</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>32</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
+        <v>33</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
@@ -2269,8 +2414,8 @@
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
-        <f t="shared" si="0"/>
-        <v>36</v>
+        <f>SUM(C44:W44)</f>
+        <v>41</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>7</v>
@@ -2299,8 +2444,12 @@
       <c r="J18" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
+      <c r="K18" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
       <c r="O18" s="3"/>
@@ -2315,11 +2464,11 @@
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
-        <f t="shared" si="0"/>
-        <v>37</v>
+        <f>SUM(C45:W45)</f>
+        <v>42</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>32</v>
@@ -2328,13 +2477,13 @@
         <v>32</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>32</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H19" s="3" t="s">
         <v>32</v>
@@ -2345,8 +2494,12 @@
       <c r="J19" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
+      <c r="K19" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
@@ -2361,11 +2514,11 @@
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
-        <f t="shared" si="0"/>
-        <v>37</v>
+        <f>SUM(C46:W46)</f>
+        <v>43</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>32</v>
@@ -2374,7 +2527,7 @@
         <v>32</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>32</v>
@@ -2383,7 +2536,7 @@
         <v>32</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>32</v>
@@ -2391,8 +2544,12 @@
       <c r="J20" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
+      <c r="K20" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
       <c r="O20" s="3"/>
@@ -2407,11 +2564,11 @@
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
-        <f t="shared" si="0"/>
-        <v>38</v>
+        <f>SUM(C47:W47)</f>
+        <v>45</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>32</v>
@@ -2420,7 +2577,7 @@
         <v>32</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>32</v>
@@ -2429,7 +2586,7 @@
         <v>32</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>32</v>
@@ -2437,8 +2594,12 @@
       <c r="J21" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
+      <c r="K21" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
       <c r="O21" s="3"/>
@@ -2453,11 +2614,11 @@
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
-        <f t="shared" si="0"/>
-        <v>38</v>
+        <f>SUM(C48:W48)</f>
+        <v>47</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>32</v>
@@ -2472,7 +2633,7 @@
         <v>32</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>32</v>
@@ -2481,10 +2642,14 @@
         <v>32</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
+        <v>32</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
       <c r="O22" s="3"/>
@@ -2499,11 +2664,11 @@
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
-        <f t="shared" si="0"/>
-        <v>40</v>
+        <f>SUM(C49:W49)</f>
+        <v>47</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>32</v>
@@ -2518,7 +2683,7 @@
         <v>32</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>32</v>
@@ -2527,10 +2692,14 @@
         <v>32</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
+        <v>33</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
       <c r="O23" s="3"/>
@@ -2545,8 +2714,8 @@
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
-        <f t="shared" si="0"/>
-        <v>40</v>
+        <f>SUM(C50:W50)</f>
+        <v>49</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>16</v>
@@ -2575,8 +2744,12 @@
       <c r="J24" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
+      <c r="K24" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
       <c r="O24" s="3"/>
@@ -2590,7 +2763,7 @@
       <c r="W24" s="3"/>
     </row>
     <row r="25" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
+      <c r="A25" s="19">
         <f>SUM(C25:W25)</f>
         <v>0</v>
       </c>
@@ -2621,8 +2794,12 @@
       <c r="J25" s="3">
         <v>0</v>
       </c>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
@@ -2636,9 +2813,9 @@
       <c r="W25" s="3"/>
     </row>
     <row r="26" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
+      <c r="A26" s="20">
         <f>SUM(C26:W26)</f>
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>43</v>
@@ -2667,8 +2844,12 @@
       <c r="J26" s="3">
         <v>5</v>
       </c>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
+      <c r="K26" s="3">
+        <v>5</v>
+      </c>
+      <c r="L26" s="3">
+        <v>5</v>
+      </c>
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
       <c r="O26" s="3"/>
@@ -2687,87 +2868,87 @@
         <v>4</v>
       </c>
       <c r="C28" s="3">
-        <f t="shared" ref="C28:W28" si="1">IF(C2="A",5,IF(C2="b",4,IF(C2="C",2,IF(C2="D",1,0))))</f>
+        <f>IF(C2="A",5,IF(C2="b",4,IF(C2="C",2,IF(C2="D",1,0))))</f>
+        <v>4</v>
+      </c>
+      <c r="D28" s="3">
+        <f>IF(D2="A",5,IF(D2="b",4,IF(D2="C",2,IF(D2="D",1,0))))</f>
         <v>2</v>
       </c>
-      <c r="D28" s="3">
-        <f t="shared" si="1"/>
+      <c r="E28" s="3">
+        <f>IF(E2="A",5,IF(E2="b",4,IF(E2="C",2,IF(E2="D",1,0))))</f>
+        <v>1</v>
+      </c>
+      <c r="F28" s="3">
+        <f>IF(F2="A",5,IF(F2="b",4,IF(F2="C",2,IF(F2="D",1,0))))</f>
+        <v>1</v>
+      </c>
+      <c r="G28" s="3">
+        <f>IF(G2="A",5,IF(G2="b",4,IF(G2="C",2,IF(G2="D",1,0))))</f>
+        <v>1</v>
+      </c>
+      <c r="H28" s="3">
+        <f>IF(H2="A",5,IF(H2="b",4,IF(H2="C",2,IF(H2="D",1,0))))</f>
         <v>4</v>
       </c>
-      <c r="E28" s="3">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="F28" s="3">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="G28" s="3">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="H28" s="3">
-        <f t="shared" si="1"/>
+      <c r="I28" s="3">
+        <f>IF(I2="A",5,IF(I2="b",4,IF(I2="C",2,IF(I2="D",1,0))))</f>
         <v>2</v>
       </c>
-      <c r="I28" s="3">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
       <c r="J28" s="3">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f>IF(J2="A",5,IF(J2="b",4,IF(J2="C",2,IF(J2="D",1,0))))</f>
+        <v>0</v>
       </c>
       <c r="K28" s="3">
-        <f t="shared" si="1"/>
+        <f>IF(K2="A",5,IF(K2="b",4,IF(K2="C",2,IF(K2="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="L28" s="3">
-        <f t="shared" si="1"/>
+        <f>IF(L2="A",5,IF(L2="b",4,IF(L2="C",2,IF(L2="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="M28" s="3">
-        <f t="shared" si="1"/>
+        <f>IF(M2="A",5,IF(M2="b",4,IF(M2="C",2,IF(M2="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="N28" s="3">
-        <f t="shared" si="1"/>
+        <f>IF(N2="A",5,IF(N2="b",4,IF(N2="C",2,IF(N2="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="O28" s="3">
-        <f t="shared" si="1"/>
+        <f>IF(O2="A",5,IF(O2="b",4,IF(O2="C",2,IF(O2="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="P28" s="3">
-        <f t="shared" si="1"/>
+        <f>IF(P2="A",5,IF(P2="b",4,IF(P2="C",2,IF(P2="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="Q28" s="3">
-        <f t="shared" si="1"/>
+        <f>IF(Q2="A",5,IF(Q2="b",4,IF(Q2="C",2,IF(Q2="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="R28" s="3">
-        <f t="shared" si="1"/>
+        <f>IF(R2="A",5,IF(R2="b",4,IF(R2="C",2,IF(R2="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="S28" s="3">
-        <f t="shared" si="1"/>
+        <f>IF(S2="A",5,IF(S2="b",4,IF(S2="C",2,IF(S2="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="T28" s="3">
-        <f t="shared" si="1"/>
+        <f>IF(T2="A",5,IF(T2="b",4,IF(T2="C",2,IF(T2="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="U28" s="3">
-        <f t="shared" si="1"/>
+        <f>IF(U2="A",5,IF(U2="b",4,IF(U2="C",2,IF(U2="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="V28" s="3">
-        <f t="shared" si="1"/>
+        <f>IF(V2="A",5,IF(V2="b",4,IF(V2="C",2,IF(V2="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="W28" s="3">
-        <f t="shared" si="1"/>
+        <f>IF(W2="A",5,IF(W2="b",4,IF(W2="C",2,IF(W2="D",1,0))))</f>
         <v>0</v>
       </c>
     </row>
@@ -2777,87 +2958,87 @@
         <v>5</v>
       </c>
       <c r="C29" s="3">
-        <f t="shared" ref="C29:W29" si="2">IF(C3="A",5,IF(C3="b",4,IF(C3="C",2,IF(C3="D",1,0))))</f>
+        <f>IF(C3="A",5,IF(C3="b",4,IF(C3="C",2,IF(C3="D",1,0))))</f>
+        <v>2</v>
+      </c>
+      <c r="D29" s="3">
+        <f>IF(D3="A",5,IF(D3="b",4,IF(D3="C",2,IF(D3="D",1,0))))</f>
         <v>4</v>
       </c>
-      <c r="D29" s="3">
-        <f t="shared" si="2"/>
+      <c r="E29" s="3">
+        <f>IF(E3="A",5,IF(E3="b",4,IF(E3="C",2,IF(E3="D",1,0))))</f>
+        <v>1</v>
+      </c>
+      <c r="F29" s="3">
+        <f>IF(F3="A",5,IF(F3="b",4,IF(F3="C",2,IF(F3="D",1,0))))</f>
+        <v>1</v>
+      </c>
+      <c r="G29" s="3">
+        <f>IF(G3="A",5,IF(G3="b",4,IF(G3="C",2,IF(G3="D",1,0))))</f>
+        <v>1</v>
+      </c>
+      <c r="H29" s="3">
+        <f>IF(H3="A",5,IF(H3="b",4,IF(H3="C",2,IF(H3="D",1,0))))</f>
         <v>2</v>
       </c>
-      <c r="E29" s="3">
-        <f t="shared" si="2"/>
+      <c r="I29" s="3">
+        <f>IF(I3="A",5,IF(I3="b",4,IF(I3="C",2,IF(I3="D",1,0))))</f>
         <v>1</v>
       </c>
-      <c r="F29" s="3">
-        <f t="shared" si="2"/>
+      <c r="J29" s="3">
+        <f>IF(J3="A",5,IF(J3="b",4,IF(J3="C",2,IF(J3="D",1,0))))</f>
         <v>1</v>
       </c>
-      <c r="G29" s="3">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="H29" s="3">
-        <f t="shared" si="2"/>
+      <c r="K29" s="3">
+        <f>IF(K3="A",5,IF(K3="b",4,IF(K3="C",2,IF(K3="D",1,0))))</f>
         <v>4</v>
       </c>
-      <c r="I29" s="3">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="J29" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K29" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
       <c r="L29" s="3">
-        <f t="shared" si="2"/>
+        <f>IF(L3="A",5,IF(L3="b",4,IF(L3="C",2,IF(L3="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="M29" s="3">
-        <f t="shared" si="2"/>
+        <f>IF(M3="A",5,IF(M3="b",4,IF(M3="C",2,IF(M3="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="N29" s="3">
-        <f t="shared" si="2"/>
+        <f>IF(N3="A",5,IF(N3="b",4,IF(N3="C",2,IF(N3="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="O29" s="3">
-        <f t="shared" si="2"/>
+        <f>IF(O3="A",5,IF(O3="b",4,IF(O3="C",2,IF(O3="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="P29" s="3">
-        <f t="shared" si="2"/>
+        <f>IF(P3="A",5,IF(P3="b",4,IF(P3="C",2,IF(P3="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="Q29" s="3">
-        <f t="shared" si="2"/>
+        <f>IF(Q3="A",5,IF(Q3="b",4,IF(Q3="C",2,IF(Q3="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="R29" s="3">
-        <f t="shared" si="2"/>
+        <f>IF(R3="A",5,IF(R3="b",4,IF(R3="C",2,IF(R3="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="S29" s="3">
-        <f t="shared" si="2"/>
+        <f>IF(S3="A",5,IF(S3="b",4,IF(S3="C",2,IF(S3="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="T29" s="3">
-        <f t="shared" si="2"/>
+        <f>IF(T3="A",5,IF(T3="b",4,IF(T3="C",2,IF(T3="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="U29" s="3">
-        <f t="shared" si="2"/>
+        <f>IF(U3="A",5,IF(U3="b",4,IF(U3="C",2,IF(U3="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="V29" s="3">
-        <f t="shared" si="2"/>
+        <f>IF(V3="A",5,IF(V3="b",4,IF(V3="C",2,IF(V3="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="W29" s="3">
-        <f t="shared" si="2"/>
+        <f>IF(W3="A",5,IF(W3="b",4,IF(W3="C",2,IF(W3="D",1,0))))</f>
         <v>0</v>
       </c>
     </row>
@@ -2867,87 +3048,87 @@
         <v>6</v>
       </c>
       <c r="C30" s="3">
-        <f t="shared" ref="C30:W30" si="3">IF(C4="A",5,IF(C4="b",4,IF(C4="C",2,IF(C4="D",1,0))))</f>
+        <f>IF(C4="A",5,IF(C4="b",4,IF(C4="C",2,IF(C4="D",1,0))))</f>
         <v>5</v>
       </c>
       <c r="D30" s="3">
-        <f t="shared" si="3"/>
+        <f>IF(D4="A",5,IF(D4="b",4,IF(D4="C",2,IF(D4="D",1,0))))</f>
         <v>5</v>
       </c>
       <c r="E30" s="3">
-        <f t="shared" si="3"/>
+        <f>IF(E4="A",5,IF(E4="b",4,IF(E4="C",2,IF(E4="D",1,0))))</f>
         <v>1</v>
       </c>
       <c r="F30" s="3">
-        <f t="shared" si="3"/>
+        <f>IF(F4="A",5,IF(F4="b",4,IF(F4="C",2,IF(F4="D",1,0))))</f>
         <v>4</v>
       </c>
       <c r="G30" s="3">
-        <f t="shared" si="3"/>
+        <f>IF(G4="A",5,IF(G4="b",4,IF(G4="C",2,IF(G4="D",1,0))))</f>
         <v>1</v>
       </c>
       <c r="H30" s="3">
-        <f t="shared" si="3"/>
+        <f>IF(H4="A",5,IF(H4="b",4,IF(H4="C",2,IF(H4="D",1,0))))</f>
         <v>1</v>
       </c>
       <c r="I30" s="3">
-        <f t="shared" si="3"/>
+        <f>IF(I4="A",5,IF(I4="b",4,IF(I4="C",2,IF(I4="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="J30" s="3">
-        <f t="shared" si="3"/>
+        <f>IF(J4="A",5,IF(J4="b",4,IF(J4="C",2,IF(J4="D",1,0))))</f>
         <v>1</v>
       </c>
       <c r="K30" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f>IF(K4="A",5,IF(K4="b",4,IF(K4="C",2,IF(K4="D",1,0))))</f>
+        <v>5</v>
       </c>
       <c r="L30" s="3">
-        <f t="shared" si="3"/>
+        <f>IF(L4="A",5,IF(L4="b",4,IF(L4="C",2,IF(L4="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="M30" s="3">
-        <f t="shared" si="3"/>
+        <f>IF(M4="A",5,IF(M4="b",4,IF(M4="C",2,IF(M4="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="N30" s="3">
-        <f t="shared" si="3"/>
+        <f>IF(N4="A",5,IF(N4="b",4,IF(N4="C",2,IF(N4="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="O30" s="3">
-        <f t="shared" si="3"/>
+        <f>IF(O4="A",5,IF(O4="b",4,IF(O4="C",2,IF(O4="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="P30" s="3">
-        <f t="shared" si="3"/>
+        <f>IF(P4="A",5,IF(P4="b",4,IF(P4="C",2,IF(P4="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="Q30" s="3">
-        <f t="shared" si="3"/>
+        <f>IF(Q4="A",5,IF(Q4="b",4,IF(Q4="C",2,IF(Q4="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="R30" s="3">
-        <f t="shared" si="3"/>
+        <f>IF(R4="A",5,IF(R4="b",4,IF(R4="C",2,IF(R4="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="S30" s="3">
-        <f t="shared" si="3"/>
+        <f>IF(S4="A",5,IF(S4="b",4,IF(S4="C",2,IF(S4="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="T30" s="3">
-        <f t="shared" si="3"/>
+        <f>IF(T4="A",5,IF(T4="b",4,IF(T4="C",2,IF(T4="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="U30" s="3">
-        <f t="shared" si="3"/>
+        <f>IF(U4="A",5,IF(U4="b",4,IF(U4="C",2,IF(U4="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="V30" s="3">
-        <f t="shared" si="3"/>
+        <f>IF(V4="A",5,IF(V4="b",4,IF(V4="C",2,IF(V4="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="W30" s="3">
-        <f t="shared" si="3"/>
+        <f>IF(W4="A",5,IF(W4="b",4,IF(W4="C",2,IF(W4="D",1,0))))</f>
         <v>0</v>
       </c>
     </row>
@@ -2957,87 +3138,87 @@
         <v>7</v>
       </c>
       <c r="C31" s="3">
-        <f t="shared" ref="C31:W31" si="4">IF(C5="A",5,IF(C5="b",4,IF(C5="C",2,IF(C5="D",1,0))))</f>
+        <f>IF(C5="A",5,IF(C5="b",4,IF(C5="C",2,IF(C5="D",1,0))))</f>
         <v>5</v>
       </c>
       <c r="D31" s="3">
-        <f t="shared" si="4"/>
+        <f>IF(D5="A",5,IF(D5="b",4,IF(D5="C",2,IF(D5="D",1,0))))</f>
         <v>5</v>
       </c>
       <c r="E31" s="3">
-        <f t="shared" si="4"/>
+        <f>IF(E5="A",5,IF(E5="b",4,IF(E5="C",2,IF(E5="D",1,0))))</f>
         <v>2</v>
       </c>
       <c r="F31" s="3">
-        <f t="shared" si="4"/>
+        <f>IF(F5="A",5,IF(F5="b",4,IF(F5="C",2,IF(F5="D",1,0))))</f>
         <v>1</v>
       </c>
       <c r="G31" s="3">
-        <f t="shared" si="4"/>
+        <f>IF(G5="A",5,IF(G5="b",4,IF(G5="C",2,IF(G5="D",1,0))))</f>
         <v>2</v>
       </c>
       <c r="H31" s="3">
-        <f t="shared" si="4"/>
+        <f>IF(H5="A",5,IF(H5="b",4,IF(H5="C",2,IF(H5="D",1,0))))</f>
         <v>2</v>
       </c>
       <c r="I31" s="3">
-        <f t="shared" si="4"/>
+        <f>IF(I5="A",5,IF(I5="b",4,IF(I5="C",2,IF(I5="D",1,0))))</f>
         <v>2</v>
       </c>
       <c r="J31" s="3">
-        <f t="shared" si="4"/>
+        <f>IF(J5="A",5,IF(J5="b",4,IF(J5="C",2,IF(J5="D",1,0))))</f>
         <v>1</v>
       </c>
       <c r="K31" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f>IF(K5="A",5,IF(K5="b",4,IF(K5="C",2,IF(K5="D",1,0))))</f>
+        <v>5</v>
       </c>
       <c r="L31" s="3">
-        <f t="shared" si="4"/>
+        <f>IF(L5="A",5,IF(L5="b",4,IF(L5="C",2,IF(L5="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="M31" s="3">
-        <f t="shared" si="4"/>
+        <f>IF(M5="A",5,IF(M5="b",4,IF(M5="C",2,IF(M5="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="N31" s="3">
-        <f t="shared" si="4"/>
+        <f>IF(N5="A",5,IF(N5="b",4,IF(N5="C",2,IF(N5="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="O31" s="3">
-        <f t="shared" si="4"/>
+        <f>IF(O5="A",5,IF(O5="b",4,IF(O5="C",2,IF(O5="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="P31" s="3">
-        <f t="shared" si="4"/>
+        <f>IF(P5="A",5,IF(P5="b",4,IF(P5="C",2,IF(P5="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="Q31" s="3">
-        <f t="shared" si="4"/>
+        <f>IF(Q5="A",5,IF(Q5="b",4,IF(Q5="C",2,IF(Q5="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="R31" s="3">
-        <f t="shared" si="4"/>
+        <f>IF(R5="A",5,IF(R5="b",4,IF(R5="C",2,IF(R5="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="S31" s="3">
-        <f t="shared" si="4"/>
+        <f>IF(S5="A",5,IF(S5="b",4,IF(S5="C",2,IF(S5="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="T31" s="3">
-        <f t="shared" si="4"/>
+        <f>IF(T5="A",5,IF(T5="b",4,IF(T5="C",2,IF(T5="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="U31" s="3">
-        <f t="shared" si="4"/>
+        <f>IF(U5="A",5,IF(U5="b",4,IF(U5="C",2,IF(U5="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="V31" s="3">
-        <f t="shared" si="4"/>
+        <f>IF(V5="A",5,IF(V5="b",4,IF(V5="C",2,IF(V5="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="W31" s="3">
-        <f t="shared" si="4"/>
+        <f>IF(W5="A",5,IF(W5="b",4,IF(W5="C",2,IF(W5="D",1,0))))</f>
         <v>0</v>
       </c>
     </row>
@@ -3047,87 +3228,87 @@
         <v>8</v>
       </c>
       <c r="C32" s="3">
-        <f t="shared" ref="C32:W32" si="5">IF(C6="A",5,IF(C6="b",4,IF(C6="C",2,IF(C6="D",1,0))))</f>
+        <f>IF(C6="A",5,IF(C6="b",4,IF(C6="C",2,IF(C6="D",1,0))))</f>
         <v>2</v>
       </c>
       <c r="D32" s="3">
-        <f t="shared" si="5"/>
+        <f>IF(D6="A",5,IF(D6="b",4,IF(D6="C",2,IF(D6="D",1,0))))</f>
         <v>5</v>
       </c>
       <c r="E32" s="3">
-        <f t="shared" si="5"/>
+        <f>IF(E6="A",5,IF(E6="b",4,IF(E6="C",2,IF(E6="D",1,0))))</f>
         <v>1</v>
       </c>
       <c r="F32" s="3">
-        <f t="shared" si="5"/>
+        <f>IF(F6="A",5,IF(F6="b",4,IF(F6="C",2,IF(F6="D",1,0))))</f>
         <v>1</v>
       </c>
       <c r="G32" s="3">
-        <f t="shared" si="5"/>
+        <f>IF(G6="A",5,IF(G6="b",4,IF(G6="C",2,IF(G6="D",1,0))))</f>
         <v>2</v>
       </c>
       <c r="H32" s="3">
-        <f t="shared" si="5"/>
+        <f>IF(H6="A",5,IF(H6="b",4,IF(H6="C",2,IF(H6="D",1,0))))</f>
         <v>5</v>
       </c>
       <c r="I32" s="3">
-        <f t="shared" si="5"/>
+        <f>IF(I6="A",5,IF(I6="b",4,IF(I6="C",2,IF(I6="D",1,0))))</f>
         <v>5</v>
       </c>
       <c r="J32" s="3">
-        <f t="shared" si="5"/>
+        <f>IF(J6="A",5,IF(J6="b",4,IF(J6="C",2,IF(J6="D",1,0))))</f>
         <v>4</v>
       </c>
       <c r="K32" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f>IF(K6="A",5,IF(K6="b",4,IF(K6="C",2,IF(K6="D",1,0))))</f>
+        <v>5</v>
       </c>
       <c r="L32" s="3">
-        <f t="shared" si="5"/>
+        <f>IF(L6="A",5,IF(L6="b",4,IF(L6="C",2,IF(L6="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="M32" s="3">
-        <f t="shared" si="5"/>
+        <f>IF(M6="A",5,IF(M6="b",4,IF(M6="C",2,IF(M6="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="N32" s="3">
-        <f t="shared" si="5"/>
+        <f>IF(N6="A",5,IF(N6="b",4,IF(N6="C",2,IF(N6="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="O32" s="3">
-        <f t="shared" si="5"/>
+        <f>IF(O6="A",5,IF(O6="b",4,IF(O6="C",2,IF(O6="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="P32" s="3">
-        <f t="shared" si="5"/>
+        <f>IF(P6="A",5,IF(P6="b",4,IF(P6="C",2,IF(P6="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="Q32" s="3">
-        <f t="shared" si="5"/>
+        <f>IF(Q6="A",5,IF(Q6="b",4,IF(Q6="C",2,IF(Q6="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="R32" s="3">
-        <f t="shared" si="5"/>
+        <f>IF(R6="A",5,IF(R6="b",4,IF(R6="C",2,IF(R6="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="S32" s="3">
-        <f t="shared" si="5"/>
+        <f>IF(S6="A",5,IF(S6="b",4,IF(S6="C",2,IF(S6="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="T32" s="3">
-        <f t="shared" si="5"/>
+        <f>IF(T6="A",5,IF(T6="b",4,IF(T6="C",2,IF(T6="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="U32" s="3">
-        <f t="shared" si="5"/>
+        <f>IF(U6="A",5,IF(U6="b",4,IF(U6="C",2,IF(U6="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="V32" s="3">
-        <f t="shared" si="5"/>
+        <f>IF(V6="A",5,IF(V6="b",4,IF(V6="C",2,IF(V6="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="W32" s="3">
-        <f t="shared" si="5"/>
+        <f>IF(W6="A",5,IF(W6="b",4,IF(W6="C",2,IF(W6="D",1,0))))</f>
         <v>0</v>
       </c>
     </row>
@@ -3137,87 +3318,87 @@
         <v>9</v>
       </c>
       <c r="C33" s="3">
-        <f t="shared" ref="C33:W33" si="6">IF(C7="A",5,IF(C7="b",4,IF(C7="C",2,IF(C7="D",1,0))))</f>
+        <f>IF(C7="A",5,IF(C7="b",4,IF(C7="C",2,IF(C7="D",1,0))))</f>
         <v>4</v>
       </c>
       <c r="D33" s="3">
-        <f t="shared" si="6"/>
+        <f>IF(D7="A",5,IF(D7="b",4,IF(D7="C",2,IF(D7="D",1,0))))</f>
         <v>2</v>
       </c>
       <c r="E33" s="3">
-        <f t="shared" si="6"/>
+        <f>IF(E7="A",5,IF(E7="b",4,IF(E7="C",2,IF(E7="D",1,0))))</f>
         <v>2</v>
       </c>
       <c r="F33" s="3">
-        <f t="shared" si="6"/>
+        <f>IF(F7="A",5,IF(F7="b",4,IF(F7="C",2,IF(F7="D",1,0))))</f>
         <v>4</v>
       </c>
       <c r="G33" s="3">
-        <f t="shared" si="6"/>
+        <f>IF(G7="A",5,IF(G7="b",4,IF(G7="C",2,IF(G7="D",1,0))))</f>
         <v>5</v>
       </c>
       <c r="H33" s="3">
-        <f t="shared" si="6"/>
+        <f>IF(H7="A",5,IF(H7="b",4,IF(H7="C",2,IF(H7="D",1,0))))</f>
         <v>4</v>
       </c>
       <c r="I33" s="3">
-        <f t="shared" si="6"/>
+        <f>IF(I7="A",5,IF(I7="b",4,IF(I7="C",2,IF(I7="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="J33" s="3">
-        <f t="shared" si="6"/>
+        <f>IF(J7="A",5,IF(J7="b",4,IF(J7="C",2,IF(J7="D",1,0))))</f>
         <v>4</v>
       </c>
       <c r="K33" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f>IF(K7="A",5,IF(K7="b",4,IF(K7="C",2,IF(K7="D",1,0))))</f>
+        <v>5</v>
       </c>
       <c r="L33" s="3">
-        <f t="shared" si="6"/>
+        <f>IF(L7="A",5,IF(L7="b",4,IF(L7="C",2,IF(L7="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="M33" s="3">
-        <f t="shared" si="6"/>
+        <f>IF(M7="A",5,IF(M7="b",4,IF(M7="C",2,IF(M7="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="N33" s="3">
-        <f t="shared" si="6"/>
+        <f>IF(N7="A",5,IF(N7="b",4,IF(N7="C",2,IF(N7="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="O33" s="3">
-        <f t="shared" si="6"/>
+        <f>IF(O7="A",5,IF(O7="b",4,IF(O7="C",2,IF(O7="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="P33" s="3">
-        <f t="shared" si="6"/>
+        <f>IF(P7="A",5,IF(P7="b",4,IF(P7="C",2,IF(P7="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="Q33" s="3">
-        <f t="shared" si="6"/>
+        <f>IF(Q7="A",5,IF(Q7="b",4,IF(Q7="C",2,IF(Q7="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="R33" s="3">
-        <f t="shared" si="6"/>
+        <f>IF(R7="A",5,IF(R7="b",4,IF(R7="C",2,IF(R7="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="S33" s="3">
-        <f t="shared" si="6"/>
+        <f>IF(S7="A",5,IF(S7="b",4,IF(S7="C",2,IF(S7="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="T33" s="3">
-        <f t="shared" si="6"/>
+        <f>IF(T7="A",5,IF(T7="b",4,IF(T7="C",2,IF(T7="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="U33" s="3">
-        <f t="shared" si="6"/>
+        <f>IF(U7="A",5,IF(U7="b",4,IF(U7="C",2,IF(U7="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="V33" s="3">
-        <f t="shared" si="6"/>
+        <f>IF(V7="A",5,IF(V7="b",4,IF(V7="C",2,IF(V7="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="W33" s="3">
-        <f t="shared" si="6"/>
+        <f>IF(W7="A",5,IF(W7="b",4,IF(W7="C",2,IF(W7="D",1,0))))</f>
         <v>0</v>
       </c>
     </row>
@@ -3227,87 +3408,87 @@
         <v>10</v>
       </c>
       <c r="C34" s="3">
-        <f t="shared" ref="C34:W34" si="7">IF(C8="A",5,IF(C8="b",4,IF(C8="C",2,IF(C8="D",1,0))))</f>
+        <f>IF(C8="A",5,IF(C8="b",4,IF(C8="C",2,IF(C8="D",1,0))))</f>
         <v>5</v>
       </c>
       <c r="D34" s="3">
-        <f t="shared" si="7"/>
+        <f>IF(D8="A",5,IF(D8="b",4,IF(D8="C",2,IF(D8="D",1,0))))</f>
+        <v>5</v>
+      </c>
+      <c r="E34" s="3">
+        <f>IF(E8="A",5,IF(E8="b",4,IF(E8="C",2,IF(E8="D",1,0))))</f>
+        <v>2</v>
+      </c>
+      <c r="F34" s="3">
+        <f>IF(F8="A",5,IF(F8="b",4,IF(F8="C",2,IF(F8="D",1,0))))</f>
+        <v>2</v>
+      </c>
+      <c r="G34" s="3">
+        <f>IF(G8="A",5,IF(G8="b",4,IF(G8="C",2,IF(G8="D",1,0))))</f>
+        <v>1</v>
+      </c>
+      <c r="H34" s="3">
+        <f>IF(H8="A",5,IF(H8="b",4,IF(H8="C",2,IF(H8="D",1,0))))</f>
+        <v>5</v>
+      </c>
+      <c r="I34" s="3">
+        <f>IF(I8="A",5,IF(I8="b",4,IF(I8="C",2,IF(I8="D",1,0))))</f>
+        <v>5</v>
+      </c>
+      <c r="J34" s="3">
+        <f>IF(J8="A",5,IF(J8="b",4,IF(J8="C",2,IF(J8="D",1,0))))</f>
+        <v>1</v>
+      </c>
+      <c r="K34" s="3">
+        <f>IF(K8="A",5,IF(K8="b",4,IF(K8="C",2,IF(K8="D",1,0))))</f>
         <v>4</v>
       </c>
-      <c r="E34" s="3">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="F34" s="3">
-        <f t="shared" si="7"/>
-        <v>4</v>
-      </c>
-      <c r="G34" s="3">
-        <f t="shared" si="7"/>
-        <v>4</v>
-      </c>
-      <c r="H34" s="3">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="I34" s="3">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="J34" s="3">
-        <f t="shared" si="7"/>
-        <v>5</v>
-      </c>
-      <c r="K34" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
       <c r="L34" s="3">
-        <f t="shared" si="7"/>
+        <f>IF(L8="A",5,IF(L8="b",4,IF(L8="C",2,IF(L8="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="M34" s="3">
-        <f t="shared" si="7"/>
+        <f>IF(M8="A",5,IF(M8="b",4,IF(M8="C",2,IF(M8="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="N34" s="3">
-        <f t="shared" si="7"/>
+        <f>IF(N8="A",5,IF(N8="b",4,IF(N8="C",2,IF(N8="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="O34" s="3">
-        <f t="shared" si="7"/>
+        <f>IF(O8="A",5,IF(O8="b",4,IF(O8="C",2,IF(O8="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="P34" s="3">
-        <f t="shared" si="7"/>
+        <f>IF(P8="A",5,IF(P8="b",4,IF(P8="C",2,IF(P8="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="Q34" s="3">
-        <f t="shared" si="7"/>
+        <f>IF(Q8="A",5,IF(Q8="b",4,IF(Q8="C",2,IF(Q8="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="R34" s="3">
-        <f t="shared" si="7"/>
+        <f>IF(R8="A",5,IF(R8="b",4,IF(R8="C",2,IF(R8="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="S34" s="3">
-        <f t="shared" si="7"/>
+        <f>IF(S8="A",5,IF(S8="b",4,IF(S8="C",2,IF(S8="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="T34" s="3">
-        <f t="shared" si="7"/>
+        <f>IF(T8="A",5,IF(T8="b",4,IF(T8="C",2,IF(T8="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="U34" s="3">
-        <f t="shared" si="7"/>
+        <f>IF(U8="A",5,IF(U8="b",4,IF(U8="C",2,IF(U8="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="V34" s="3">
-        <f t="shared" si="7"/>
+        <f>IF(V8="A",5,IF(V8="b",4,IF(V8="C",2,IF(V8="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="W34" s="3">
-        <f t="shared" si="7"/>
+        <f>IF(W8="A",5,IF(W8="b",4,IF(W8="C",2,IF(W8="D",1,0))))</f>
         <v>0</v>
       </c>
     </row>
@@ -3317,87 +3498,87 @@
         <v>11</v>
       </c>
       <c r="C35" s="3">
-        <f t="shared" ref="C35:W35" si="8">IF(C9="A",5,IF(C9="b",4,IF(C9="C",2,IF(C9="D",1,0))))</f>
+        <f>IF(C9="A",5,IF(C9="b",4,IF(C9="C",2,IF(C9="D",1,0))))</f>
         <v>5</v>
       </c>
       <c r="D35" s="3">
-        <f t="shared" si="8"/>
-        <v>5</v>
+        <f>IF(D9="A",5,IF(D9="b",4,IF(D9="C",2,IF(D9="D",1,0))))</f>
+        <v>4</v>
       </c>
       <c r="E35" s="3">
-        <f t="shared" si="8"/>
+        <f>IF(E9="A",5,IF(E9="b",4,IF(E9="C",2,IF(E9="D",1,0))))</f>
+        <v>1</v>
+      </c>
+      <c r="F35" s="3">
+        <f>IF(F9="A",5,IF(F9="b",4,IF(F9="C",2,IF(F9="D",1,0))))</f>
+        <v>4</v>
+      </c>
+      <c r="G35" s="3">
+        <f>IF(G9="A",5,IF(G9="b",4,IF(G9="C",2,IF(G9="D",1,0))))</f>
+        <v>4</v>
+      </c>
+      <c r="H35" s="3">
+        <f>IF(H9="A",5,IF(H9="b",4,IF(H9="C",2,IF(H9="D",1,0))))</f>
         <v>2</v>
       </c>
-      <c r="F35" s="3">
-        <f t="shared" si="8"/>
-        <v>2</v>
-      </c>
-      <c r="G35" s="3">
-        <f t="shared" si="8"/>
+      <c r="I35" s="3">
+        <f>IF(I9="A",5,IF(I9="b",4,IF(I9="C",2,IF(I9="D",1,0))))</f>
         <v>1</v>
       </c>
-      <c r="H35" s="3">
-        <f t="shared" si="8"/>
-        <v>5</v>
-      </c>
-      <c r="I35" s="3">
-        <f t="shared" si="8"/>
-        <v>5</v>
-      </c>
       <c r="J35" s="3">
-        <f t="shared" si="8"/>
-        <v>1</v>
+        <f>IF(J9="A",5,IF(J9="b",4,IF(J9="C",2,IF(J9="D",1,0))))</f>
+        <v>5</v>
       </c>
       <c r="K35" s="3">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f>IF(K9="A",5,IF(K9="b",4,IF(K9="C",2,IF(K9="D",1,0))))</f>
+        <v>5</v>
       </c>
       <c r="L35" s="3">
-        <f t="shared" si="8"/>
+        <f>IF(L9="A",5,IF(L9="b",4,IF(L9="C",2,IF(L9="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="M35" s="3">
-        <f t="shared" si="8"/>
+        <f>IF(M9="A",5,IF(M9="b",4,IF(M9="C",2,IF(M9="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="N35" s="3">
-        <f t="shared" si="8"/>
+        <f>IF(N9="A",5,IF(N9="b",4,IF(N9="C",2,IF(N9="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="O35" s="3">
-        <f t="shared" si="8"/>
+        <f>IF(O9="A",5,IF(O9="b",4,IF(O9="C",2,IF(O9="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="P35" s="3">
-        <f t="shared" si="8"/>
+        <f>IF(P9="A",5,IF(P9="b",4,IF(P9="C",2,IF(P9="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="Q35" s="3">
-        <f t="shared" si="8"/>
+        <f>IF(Q9="A",5,IF(Q9="b",4,IF(Q9="C",2,IF(Q9="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="R35" s="3">
-        <f t="shared" si="8"/>
+        <f>IF(R9="A",5,IF(R9="b",4,IF(R9="C",2,IF(R9="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="S35" s="3">
-        <f t="shared" si="8"/>
+        <f>IF(S9="A",5,IF(S9="b",4,IF(S9="C",2,IF(S9="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="T35" s="3">
-        <f t="shared" si="8"/>
+        <f>IF(T9="A",5,IF(T9="b",4,IF(T9="C",2,IF(T9="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="U35" s="3">
-        <f t="shared" si="8"/>
+        <f>IF(U9="A",5,IF(U9="b",4,IF(U9="C",2,IF(U9="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="V35" s="3">
-        <f t="shared" si="8"/>
+        <f>IF(V9="A",5,IF(V9="b",4,IF(V9="C",2,IF(V9="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="W35" s="3">
-        <f t="shared" si="8"/>
+        <f>IF(W9="A",5,IF(W9="b",4,IF(W9="C",2,IF(W9="D",1,0))))</f>
         <v>0</v>
       </c>
     </row>
@@ -3407,87 +3588,87 @@
         <v>12</v>
       </c>
       <c r="C36" s="3">
-        <f t="shared" ref="C36:W36" si="9">IF(C10="A",5,IF(C10="b",4,IF(C10="C",2,IF(C10="D",1,0))))</f>
+        <f>IF(C10="A",5,IF(C10="b",4,IF(C10="C",2,IF(C10="D",1,0))))</f>
         <v>5</v>
       </c>
       <c r="D36" s="3">
-        <f t="shared" si="9"/>
+        <f>IF(D10="A",5,IF(D10="b",4,IF(D10="C",2,IF(D10="D",1,0))))</f>
         <v>4</v>
       </c>
       <c r="E36" s="3">
-        <f t="shared" si="9"/>
+        <f>IF(E10="A",5,IF(E10="b",4,IF(E10="C",2,IF(E10="D",1,0))))</f>
         <v>1</v>
       </c>
       <c r="F36" s="3">
-        <f t="shared" si="9"/>
+        <f>IF(F10="A",5,IF(F10="b",4,IF(F10="C",2,IF(F10="D",1,0))))</f>
         <v>2</v>
       </c>
       <c r="G36" s="3">
-        <f t="shared" si="9"/>
+        <f>IF(G10="A",5,IF(G10="b",4,IF(G10="C",2,IF(G10="D",1,0))))</f>
         <v>1</v>
       </c>
       <c r="H36" s="3">
-        <f t="shared" si="9"/>
+        <f>IF(H10="A",5,IF(H10="b",4,IF(H10="C",2,IF(H10="D",1,0))))</f>
         <v>5</v>
       </c>
       <c r="I36" s="3">
-        <f t="shared" si="9"/>
+        <f>IF(I10="A",5,IF(I10="b",4,IF(I10="C",2,IF(I10="D",1,0))))</f>
         <v>4</v>
       </c>
       <c r="J36" s="3">
-        <f t="shared" si="9"/>
+        <f>IF(J10="A",5,IF(J10="b",4,IF(J10="C",2,IF(J10="D",1,0))))</f>
         <v>5</v>
       </c>
       <c r="K36" s="3">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f>IF(K10="A",5,IF(K10="b",4,IF(K10="C",2,IF(K10="D",1,0))))</f>
+        <v>5</v>
       </c>
       <c r="L36" s="3">
-        <f t="shared" si="9"/>
+        <f>IF(L10="A",5,IF(L10="b",4,IF(L10="C",2,IF(L10="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="M36" s="3">
-        <f t="shared" si="9"/>
+        <f>IF(M10="A",5,IF(M10="b",4,IF(M10="C",2,IF(M10="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="N36" s="3">
-        <f t="shared" si="9"/>
+        <f>IF(N10="A",5,IF(N10="b",4,IF(N10="C",2,IF(N10="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="O36" s="3">
-        <f t="shared" si="9"/>
+        <f>IF(O10="A",5,IF(O10="b",4,IF(O10="C",2,IF(O10="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="P36" s="3">
-        <f t="shared" si="9"/>
+        <f>IF(P10="A",5,IF(P10="b",4,IF(P10="C",2,IF(P10="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="Q36" s="3">
-        <f t="shared" si="9"/>
+        <f>IF(Q10="A",5,IF(Q10="b",4,IF(Q10="C",2,IF(Q10="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="R36" s="3">
-        <f t="shared" si="9"/>
+        <f>IF(R10="A",5,IF(R10="b",4,IF(R10="C",2,IF(R10="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="S36" s="3">
-        <f t="shared" si="9"/>
+        <f>IF(S10="A",5,IF(S10="b",4,IF(S10="C",2,IF(S10="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="T36" s="3">
-        <f t="shared" si="9"/>
+        <f>IF(T10="A",5,IF(T10="b",4,IF(T10="C",2,IF(T10="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="U36" s="3">
-        <f t="shared" si="9"/>
+        <f>IF(U10="A",5,IF(U10="b",4,IF(U10="C",2,IF(U10="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="V36" s="3">
-        <f t="shared" si="9"/>
+        <f>IF(V10="A",5,IF(V10="b",4,IF(V10="C",2,IF(V10="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="W36" s="3">
-        <f t="shared" si="9"/>
+        <f>IF(W10="A",5,IF(W10="b",4,IF(W10="C",2,IF(W10="D",1,0))))</f>
         <v>0</v>
       </c>
     </row>
@@ -3497,87 +3678,87 @@
         <v>13</v>
       </c>
       <c r="C37" s="3">
-        <f t="shared" ref="C37:W37" si="10">IF(C11="A",5,IF(C11="b",4,IF(C11="C",2,IF(C11="D",1,0))))</f>
+        <f>IF(C11="A",5,IF(C11="b",4,IF(C11="C",2,IF(C11="D",1,0))))</f>
         <v>5</v>
       </c>
       <c r="D37" s="3">
-        <f t="shared" si="10"/>
+        <f>IF(D11="A",5,IF(D11="b",4,IF(D11="C",2,IF(D11="D",1,0))))</f>
         <v>5</v>
       </c>
       <c r="E37" s="3">
-        <f t="shared" si="10"/>
+        <f>IF(E11="A",5,IF(E11="b",4,IF(E11="C",2,IF(E11="D",1,0))))</f>
         <v>2</v>
       </c>
       <c r="F37" s="3">
-        <f t="shared" si="10"/>
+        <f>IF(F11="A",5,IF(F11="b",4,IF(F11="C",2,IF(F11="D",1,0))))</f>
         <v>2</v>
       </c>
       <c r="G37" s="3">
-        <f t="shared" si="10"/>
+        <f>IF(G11="A",5,IF(G11="b",4,IF(G11="C",2,IF(G11="D",1,0))))</f>
         <v>2</v>
       </c>
       <c r="H37" s="3">
-        <f t="shared" si="10"/>
+        <f>IF(H11="A",5,IF(H11="b",4,IF(H11="C",2,IF(H11="D",1,0))))</f>
         <v>5</v>
       </c>
       <c r="I37" s="3">
-        <f t="shared" si="10"/>
+        <f>IF(I11="A",5,IF(I11="b",4,IF(I11="C",2,IF(I11="D",1,0))))</f>
         <v>4</v>
       </c>
       <c r="J37" s="3">
-        <f t="shared" si="10"/>
+        <f>IF(J11="A",5,IF(J11="b",4,IF(J11="C",2,IF(J11="D",1,0))))</f>
         <v>2</v>
       </c>
       <c r="K37" s="3">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f>IF(K11="A",5,IF(K11="b",4,IF(K11="C",2,IF(K11="D",1,0))))</f>
+        <v>5</v>
       </c>
       <c r="L37" s="3">
-        <f t="shared" si="10"/>
+        <f>IF(L11="A",5,IF(L11="b",4,IF(L11="C",2,IF(L11="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="M37" s="3">
-        <f t="shared" si="10"/>
+        <f>IF(M11="A",5,IF(M11="b",4,IF(M11="C",2,IF(M11="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="N37" s="3">
-        <f t="shared" si="10"/>
+        <f>IF(N11="A",5,IF(N11="b",4,IF(N11="C",2,IF(N11="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="O37" s="3">
-        <f t="shared" si="10"/>
+        <f>IF(O11="A",5,IF(O11="b",4,IF(O11="C",2,IF(O11="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="P37" s="3">
-        <f t="shared" si="10"/>
+        <f>IF(P11="A",5,IF(P11="b",4,IF(P11="C",2,IF(P11="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="Q37" s="3">
-        <f t="shared" si="10"/>
+        <f>IF(Q11="A",5,IF(Q11="b",4,IF(Q11="C",2,IF(Q11="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="R37" s="3">
-        <f t="shared" si="10"/>
+        <f>IF(R11="A",5,IF(R11="b",4,IF(R11="C",2,IF(R11="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="S37" s="3">
-        <f t="shared" si="10"/>
+        <f>IF(S11="A",5,IF(S11="b",4,IF(S11="C",2,IF(S11="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="T37" s="3">
-        <f t="shared" si="10"/>
+        <f>IF(T11="A",5,IF(T11="b",4,IF(T11="C",2,IF(T11="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="U37" s="3">
-        <f t="shared" si="10"/>
+        <f>IF(U11="A",5,IF(U11="b",4,IF(U11="C",2,IF(U11="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="V37" s="3">
-        <f t="shared" si="10"/>
+        <f>IF(V11="A",5,IF(V11="b",4,IF(V11="C",2,IF(V11="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="W37" s="3">
-        <f t="shared" si="10"/>
+        <f>IF(W11="A",5,IF(W11="b",4,IF(W11="C",2,IF(W11="D",1,0))))</f>
         <v>0</v>
       </c>
     </row>
@@ -3587,87 +3768,87 @@
         <v>14</v>
       </c>
       <c r="C38" s="3">
-        <f t="shared" ref="C38:W38" si="11">IF(C12="A",5,IF(C12="b",4,IF(C12="C",2,IF(C12="D",1,0))))</f>
+        <f>IF(C12="A",5,IF(C12="b",4,IF(C12="C",2,IF(C12="D",1,0))))</f>
         <v>5</v>
       </c>
       <c r="D38" s="3">
-        <f t="shared" si="11"/>
+        <f>IF(D12="A",5,IF(D12="b",4,IF(D12="C",2,IF(D12="D",1,0))))</f>
         <v>4</v>
       </c>
       <c r="E38" s="3">
-        <f t="shared" si="11"/>
+        <f>IF(E12="A",5,IF(E12="b",4,IF(E12="C",2,IF(E12="D",1,0))))</f>
         <v>2</v>
       </c>
       <c r="F38" s="3">
-        <f t="shared" si="11"/>
+        <f>IF(F12="A",5,IF(F12="b",4,IF(F12="C",2,IF(F12="D",1,0))))</f>
         <v>5</v>
       </c>
       <c r="G38" s="3">
-        <f t="shared" si="11"/>
+        <f>IF(G12="A",5,IF(G12="b",4,IF(G12="C",2,IF(G12="D",1,0))))</f>
         <v>1</v>
       </c>
       <c r="H38" s="3">
-        <f t="shared" si="11"/>
+        <f>IF(H12="A",5,IF(H12="b",4,IF(H12="C",2,IF(H12="D",1,0))))</f>
         <v>5</v>
       </c>
       <c r="I38" s="3">
-        <f t="shared" si="11"/>
+        <f>IF(I12="A",5,IF(I12="b",4,IF(I12="C",2,IF(I12="D",1,0))))</f>
         <v>4</v>
       </c>
       <c r="J38" s="3">
-        <f t="shared" si="11"/>
+        <f>IF(J12="A",5,IF(J12="b",4,IF(J12="C",2,IF(J12="D",1,0))))</f>
         <v>5</v>
       </c>
       <c r="K38" s="3">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f>IF(K12="A",5,IF(K12="b",4,IF(K12="C",2,IF(K12="D",1,0))))</f>
+        <v>5</v>
       </c>
       <c r="L38" s="3">
-        <f t="shared" si="11"/>
+        <f>IF(L12="A",5,IF(L12="b",4,IF(L12="C",2,IF(L12="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="M38" s="3">
-        <f t="shared" si="11"/>
+        <f>IF(M12="A",5,IF(M12="b",4,IF(M12="C",2,IF(M12="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="N38" s="3">
-        <f t="shared" si="11"/>
+        <f>IF(N12="A",5,IF(N12="b",4,IF(N12="C",2,IF(N12="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="O38" s="3">
-        <f t="shared" si="11"/>
+        <f>IF(O12="A",5,IF(O12="b",4,IF(O12="C",2,IF(O12="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="P38" s="3">
-        <f t="shared" si="11"/>
+        <f>IF(P12="A",5,IF(P12="b",4,IF(P12="C",2,IF(P12="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="Q38" s="3">
-        <f t="shared" si="11"/>
+        <f>IF(Q12="A",5,IF(Q12="b",4,IF(Q12="C",2,IF(Q12="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="R38" s="3">
-        <f t="shared" si="11"/>
+        <f>IF(R12="A",5,IF(R12="b",4,IF(R12="C",2,IF(R12="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="S38" s="3">
-        <f t="shared" si="11"/>
+        <f>IF(S12="A",5,IF(S12="b",4,IF(S12="C",2,IF(S12="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="T38" s="3">
-        <f t="shared" si="11"/>
+        <f>IF(T12="A",5,IF(T12="b",4,IF(T12="C",2,IF(T12="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="U38" s="3">
-        <f t="shared" si="11"/>
+        <f>IF(U12="A",5,IF(U12="b",4,IF(U12="C",2,IF(U12="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="V38" s="3">
-        <f t="shared" si="11"/>
+        <f>IF(V12="A",5,IF(V12="b",4,IF(V12="C",2,IF(V12="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="W38" s="3">
-        <f t="shared" si="11"/>
+        <f>IF(W12="A",5,IF(W12="b",4,IF(W12="C",2,IF(W12="D",1,0))))</f>
         <v>0</v>
       </c>
     </row>
@@ -3677,87 +3858,87 @@
         <v>15</v>
       </c>
       <c r="C39" s="3">
-        <f t="shared" ref="C39:W39" si="12">IF(C13="A",5,IF(C13="b",4,IF(C13="C",2,IF(C13="D",1,0))))</f>
+        <f>IF(C13="A",5,IF(C13="b",4,IF(C13="C",2,IF(C13="D",1,0))))</f>
         <v>4</v>
       </c>
       <c r="D39" s="3">
-        <f t="shared" si="12"/>
+        <f>IF(D13="A",5,IF(D13="b",4,IF(D13="C",2,IF(D13="D",1,0))))</f>
         <v>4</v>
       </c>
       <c r="E39" s="3">
-        <f t="shared" si="12"/>
+        <f>IF(E13="A",5,IF(E13="b",4,IF(E13="C",2,IF(E13="D",1,0))))</f>
         <v>4</v>
       </c>
       <c r="F39" s="3">
-        <f t="shared" si="12"/>
+        <f>IF(F13="A",5,IF(F13="b",4,IF(F13="C",2,IF(F13="D",1,0))))</f>
         <v>5</v>
       </c>
       <c r="G39" s="3">
-        <f t="shared" si="12"/>
+        <f>IF(G13="A",5,IF(G13="b",4,IF(G13="C",2,IF(G13="D",1,0))))</f>
         <v>1</v>
       </c>
       <c r="H39" s="3">
-        <f t="shared" si="12"/>
+        <f>IF(H13="A",5,IF(H13="b",4,IF(H13="C",2,IF(H13="D",1,0))))</f>
         <v>5</v>
       </c>
       <c r="I39" s="3">
-        <f t="shared" si="12"/>
+        <f>IF(I13="A",5,IF(I13="b",4,IF(I13="C",2,IF(I13="D",1,0))))</f>
         <v>4</v>
       </c>
       <c r="J39" s="3">
-        <f t="shared" si="12"/>
+        <f>IF(J13="A",5,IF(J13="b",4,IF(J13="C",2,IF(J13="D",1,0))))</f>
         <v>4</v>
       </c>
       <c r="K39" s="3">
-        <f t="shared" si="12"/>
-        <v>0</v>
+        <f>IF(K13="A",5,IF(K13="b",4,IF(K13="C",2,IF(K13="D",1,0))))</f>
+        <v>5</v>
       </c>
       <c r="L39" s="3">
-        <f t="shared" si="12"/>
+        <f>IF(L13="A",5,IF(L13="b",4,IF(L13="C",2,IF(L13="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="M39" s="3">
-        <f t="shared" si="12"/>
+        <f>IF(M13="A",5,IF(M13="b",4,IF(M13="C",2,IF(M13="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="N39" s="3">
-        <f t="shared" si="12"/>
+        <f>IF(N13="A",5,IF(N13="b",4,IF(N13="C",2,IF(N13="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="O39" s="3">
-        <f t="shared" si="12"/>
+        <f>IF(O13="A",5,IF(O13="b",4,IF(O13="C",2,IF(O13="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="P39" s="3">
-        <f t="shared" si="12"/>
+        <f>IF(P13="A",5,IF(P13="b",4,IF(P13="C",2,IF(P13="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="Q39" s="3">
-        <f t="shared" si="12"/>
+        <f>IF(Q13="A",5,IF(Q13="b",4,IF(Q13="C",2,IF(Q13="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="R39" s="3">
-        <f t="shared" si="12"/>
+        <f>IF(R13="A",5,IF(R13="b",4,IF(R13="C",2,IF(R13="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="S39" s="3">
-        <f t="shared" si="12"/>
+        <f>IF(S13="A",5,IF(S13="b",4,IF(S13="C",2,IF(S13="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="T39" s="3">
-        <f t="shared" si="12"/>
+        <f>IF(T13="A",5,IF(T13="b",4,IF(T13="C",2,IF(T13="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="U39" s="3">
-        <f t="shared" si="12"/>
+        <f>IF(U13="A",5,IF(U13="b",4,IF(U13="C",2,IF(U13="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="V39" s="3">
-        <f t="shared" si="12"/>
+        <f>IF(V13="A",5,IF(V13="b",4,IF(V13="C",2,IF(V13="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="W39" s="3">
-        <f t="shared" si="12"/>
+        <f>IF(W13="A",5,IF(W13="b",4,IF(W13="C",2,IF(W13="D",1,0))))</f>
         <v>0</v>
       </c>
     </row>
@@ -3767,87 +3948,87 @@
         <v>16</v>
       </c>
       <c r="C40" s="3">
-        <f t="shared" ref="C40:W40" si="13">IF(C14="A",5,IF(C14="b",4,IF(C14="C",2,IF(C14="D",1,0))))</f>
+        <f>IF(C14="A",5,IF(C14="b",4,IF(C14="C",2,IF(C14="D",1,0))))</f>
         <v>5</v>
       </c>
       <c r="D40" s="3">
-        <f t="shared" si="13"/>
-        <v>4</v>
+        <f>IF(D14="A",5,IF(D14="b",4,IF(D14="C",2,IF(D14="D",1,0))))</f>
+        <v>5</v>
       </c>
       <c r="E40" s="3">
-        <f t="shared" si="13"/>
-        <v>2</v>
+        <f>IF(E14="A",5,IF(E14="b",4,IF(E14="C",2,IF(E14="D",1,0))))</f>
+        <v>5</v>
       </c>
       <c r="F40" s="3">
-        <f t="shared" si="13"/>
+        <f>IF(F14="A",5,IF(F14="b",4,IF(F14="C",2,IF(F14="D",1,0))))</f>
         <v>5</v>
       </c>
       <c r="G40" s="3">
-        <f t="shared" si="13"/>
-        <v>2</v>
+        <f>IF(G14="A",5,IF(G14="b",4,IF(G14="C",2,IF(G14="D",1,0))))</f>
+        <v>1</v>
       </c>
       <c r="H40" s="3">
-        <f t="shared" si="13"/>
+        <f>IF(H14="A",5,IF(H14="b",4,IF(H14="C",2,IF(H14="D",1,0))))</f>
         <v>5</v>
       </c>
       <c r="I40" s="3">
-        <f t="shared" si="13"/>
+        <f>IF(I14="A",5,IF(I14="b",4,IF(I14="C",2,IF(I14="D",1,0))))</f>
         <v>5</v>
       </c>
       <c r="J40" s="3">
-        <f t="shared" si="13"/>
-        <v>4</v>
+        <f>IF(J14="A",5,IF(J14="b",4,IF(J14="C",2,IF(J14="D",1,0))))</f>
+        <v>5</v>
       </c>
       <c r="K40" s="3">
-        <f t="shared" si="13"/>
+        <f>IF(K14="A",5,IF(K14="b",4,IF(K14="C",2,IF(K14="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="L40" s="3">
-        <f t="shared" si="13"/>
+        <f>IF(L14="A",5,IF(L14="b",4,IF(L14="C",2,IF(L14="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="M40" s="3">
-        <f t="shared" si="13"/>
+        <f>IF(M14="A",5,IF(M14="b",4,IF(M14="C",2,IF(M14="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="N40" s="3">
-        <f t="shared" si="13"/>
+        <f>IF(N14="A",5,IF(N14="b",4,IF(N14="C",2,IF(N14="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="O40" s="3">
-        <f t="shared" si="13"/>
+        <f>IF(O14="A",5,IF(O14="b",4,IF(O14="C",2,IF(O14="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="P40" s="3">
-        <f t="shared" si="13"/>
+        <f>IF(P14="A",5,IF(P14="b",4,IF(P14="C",2,IF(P14="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="Q40" s="3">
-        <f t="shared" si="13"/>
+        <f>IF(Q14="A",5,IF(Q14="b",4,IF(Q14="C",2,IF(Q14="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="R40" s="3">
-        <f t="shared" si="13"/>
+        <f>IF(R14="A",5,IF(R14="b",4,IF(R14="C",2,IF(R14="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="S40" s="3">
-        <f t="shared" si="13"/>
+        <f>IF(S14="A",5,IF(S14="b",4,IF(S14="C",2,IF(S14="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="T40" s="3">
-        <f t="shared" si="13"/>
+        <f>IF(T14="A",5,IF(T14="b",4,IF(T14="C",2,IF(T14="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="U40" s="3">
-        <f t="shared" si="13"/>
+        <f>IF(U14="A",5,IF(U14="b",4,IF(U14="C",2,IF(U14="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="V40" s="3">
-        <f t="shared" si="13"/>
+        <f>IF(V14="A",5,IF(V14="b",4,IF(V14="C",2,IF(V14="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="W40" s="3">
-        <f t="shared" si="13"/>
+        <f>IF(W14="A",5,IF(W14="b",4,IF(W14="C",2,IF(W14="D",1,0))))</f>
         <v>0</v>
       </c>
     </row>
@@ -3857,87 +4038,87 @@
         <v>17</v>
       </c>
       <c r="C41" s="3">
-        <f t="shared" ref="C41:W41" si="14">IF(C15="A",5,IF(C15="b",4,IF(C15="C",2,IF(C15="D",1,0))))</f>
+        <f>IF(C15="A",5,IF(C15="b",4,IF(C15="C",2,IF(C15="D",1,0))))</f>
         <v>5</v>
       </c>
       <c r="D41" s="3">
-        <f t="shared" si="14"/>
-        <v>5</v>
+        <f>IF(D15="A",5,IF(D15="b",4,IF(D15="C",2,IF(D15="D",1,0))))</f>
+        <v>4</v>
       </c>
       <c r="E41" s="3">
-        <f t="shared" si="14"/>
-        <v>1</v>
+        <f>IF(E15="A",5,IF(E15="b",4,IF(E15="C",2,IF(E15="D",1,0))))</f>
+        <v>2</v>
       </c>
       <c r="F41" s="3">
-        <f t="shared" si="14"/>
+        <f>IF(F15="A",5,IF(F15="b",4,IF(F15="C",2,IF(F15="D",1,0))))</f>
+        <v>5</v>
+      </c>
+      <c r="G41" s="3">
+        <f>IF(G15="A",5,IF(G15="b",4,IF(G15="C",2,IF(G15="D",1,0))))</f>
+        <v>2</v>
+      </c>
+      <c r="H41" s="3">
+        <f>IF(H15="A",5,IF(H15="b",4,IF(H15="C",2,IF(H15="D",1,0))))</f>
+        <v>5</v>
+      </c>
+      <c r="I41" s="3">
+        <f>IF(I15="A",5,IF(I15="b",4,IF(I15="C",2,IF(I15="D",1,0))))</f>
+        <v>5</v>
+      </c>
+      <c r="J41" s="3">
+        <f>IF(J15="A",5,IF(J15="b",4,IF(J15="C",2,IF(J15="D",1,0))))</f>
         <v>4</v>
       </c>
-      <c r="G41" s="3">
-        <f t="shared" si="14"/>
-        <v>4</v>
-      </c>
-      <c r="H41" s="3">
-        <f t="shared" si="14"/>
-        <v>5</v>
-      </c>
-      <c r="I41" s="3">
-        <f t="shared" si="14"/>
-        <v>5</v>
-      </c>
-      <c r="J41" s="3">
-        <f t="shared" si="14"/>
-        <v>5</v>
-      </c>
       <c r="K41" s="3">
-        <f t="shared" si="14"/>
-        <v>0</v>
+        <f>IF(K15="A",5,IF(K15="b",4,IF(K15="C",2,IF(K15="D",1,0))))</f>
+        <v>5</v>
       </c>
       <c r="L41" s="3">
-        <f t="shared" si="14"/>
+        <f>IF(L15="A",5,IF(L15="b",4,IF(L15="C",2,IF(L15="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="M41" s="3">
-        <f t="shared" si="14"/>
+        <f>IF(M15="A",5,IF(M15="b",4,IF(M15="C",2,IF(M15="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="N41" s="3">
-        <f t="shared" si="14"/>
+        <f>IF(N15="A",5,IF(N15="b",4,IF(N15="C",2,IF(N15="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="O41" s="3">
-        <f t="shared" si="14"/>
+        <f>IF(O15="A",5,IF(O15="b",4,IF(O15="C",2,IF(O15="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="P41" s="3">
-        <f t="shared" si="14"/>
+        <f>IF(P15="A",5,IF(P15="b",4,IF(P15="C",2,IF(P15="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="Q41" s="3">
-        <f t="shared" si="14"/>
+        <f>IF(Q15="A",5,IF(Q15="b",4,IF(Q15="C",2,IF(Q15="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="R41" s="3">
-        <f t="shared" si="14"/>
+        <f>IF(R15="A",5,IF(R15="b",4,IF(R15="C",2,IF(R15="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="S41" s="3">
-        <f t="shared" si="14"/>
+        <f>IF(S15="A",5,IF(S15="b",4,IF(S15="C",2,IF(S15="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="T41" s="3">
-        <f t="shared" si="14"/>
+        <f>IF(T15="A",5,IF(T15="b",4,IF(T15="C",2,IF(T15="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="U41" s="3">
-        <f t="shared" si="14"/>
+        <f>IF(U15="A",5,IF(U15="b",4,IF(U15="C",2,IF(U15="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="V41" s="3">
-        <f t="shared" si="14"/>
+        <f>IF(V15="A",5,IF(V15="b",4,IF(V15="C",2,IF(V15="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="W41" s="3">
-        <f t="shared" si="14"/>
+        <f>IF(W15="A",5,IF(W15="b",4,IF(W15="C",2,IF(W15="D",1,0))))</f>
         <v>0</v>
       </c>
     </row>
@@ -3947,87 +4128,87 @@
         <v>18</v>
       </c>
       <c r="C42" s="3">
-        <f t="shared" ref="C42:W42" si="15">IF(C16="A",5,IF(C16="b",4,IF(C16="C",2,IF(C16="D",1,0))))</f>
+        <f>IF(C16="A",5,IF(C16="b",4,IF(C16="C",2,IF(C16="D",1,0))))</f>
+        <v>5</v>
+      </c>
+      <c r="D42" s="3">
+        <f>IF(D16="A",5,IF(D16="b",4,IF(D16="C",2,IF(D16="D",1,0))))</f>
+        <v>5</v>
+      </c>
+      <c r="E42" s="3">
+        <f>IF(E16="A",5,IF(E16="b",4,IF(E16="C",2,IF(E16="D",1,0))))</f>
+        <v>1</v>
+      </c>
+      <c r="F42" s="3">
+        <f>IF(F16="A",5,IF(F16="b",4,IF(F16="C",2,IF(F16="D",1,0))))</f>
         <v>4</v>
       </c>
-      <c r="D42" s="3">
-        <f t="shared" si="15"/>
+      <c r="G42" s="3">
+        <f>IF(G16="A",5,IF(G16="b",4,IF(G16="C",2,IF(G16="D",1,0))))</f>
         <v>4</v>
       </c>
-      <c r="E42" s="3">
-        <f t="shared" si="15"/>
-        <v>4</v>
-      </c>
-      <c r="F42" s="3">
-        <f t="shared" si="15"/>
-        <v>5</v>
-      </c>
-      <c r="G42" s="3">
-        <f t="shared" si="15"/>
-        <v>5</v>
-      </c>
       <c r="H42" s="3">
-        <f t="shared" si="15"/>
+        <f>IF(H16="A",5,IF(H16="b",4,IF(H16="C",2,IF(H16="D",1,0))))</f>
         <v>5</v>
       </c>
       <c r="I42" s="3">
-        <f t="shared" si="15"/>
-        <v>4</v>
+        <f>IF(I16="A",5,IF(I16="b",4,IF(I16="C",2,IF(I16="D",1,0))))</f>
+        <v>5</v>
       </c>
       <c r="J42" s="3">
-        <f t="shared" si="15"/>
-        <v>4</v>
+        <f>IF(J16="A",5,IF(J16="b",4,IF(J16="C",2,IF(J16="D",1,0))))</f>
+        <v>5</v>
       </c>
       <c r="K42" s="3">
-        <f t="shared" si="15"/>
-        <v>0</v>
+        <f>IF(K16="A",5,IF(K16="b",4,IF(K16="C",2,IF(K16="D",1,0))))</f>
+        <v>5</v>
       </c>
       <c r="L42" s="3">
-        <f t="shared" si="15"/>
+        <f>IF(L16="A",5,IF(L16="b",4,IF(L16="C",2,IF(L16="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="M42" s="3">
-        <f t="shared" si="15"/>
+        <f>IF(M16="A",5,IF(M16="b",4,IF(M16="C",2,IF(M16="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="N42" s="3">
-        <f t="shared" si="15"/>
+        <f>IF(N16="A",5,IF(N16="b",4,IF(N16="C",2,IF(N16="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="O42" s="3">
-        <f t="shared" si="15"/>
+        <f>IF(O16="A",5,IF(O16="b",4,IF(O16="C",2,IF(O16="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="P42" s="3">
-        <f t="shared" si="15"/>
+        <f>IF(P16="A",5,IF(P16="b",4,IF(P16="C",2,IF(P16="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="Q42" s="3">
-        <f t="shared" si="15"/>
+        <f>IF(Q16="A",5,IF(Q16="b",4,IF(Q16="C",2,IF(Q16="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="R42" s="3">
-        <f t="shared" si="15"/>
+        <f>IF(R16="A",5,IF(R16="b",4,IF(R16="C",2,IF(R16="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="S42" s="3">
-        <f t="shared" si="15"/>
+        <f>IF(S16="A",5,IF(S16="b",4,IF(S16="C",2,IF(S16="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="T42" s="3">
-        <f t="shared" si="15"/>
+        <f>IF(T16="A",5,IF(T16="b",4,IF(T16="C",2,IF(T16="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="U42" s="3">
-        <f t="shared" si="15"/>
+        <f>IF(U16="A",5,IF(U16="b",4,IF(U16="C",2,IF(U16="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="V42" s="3">
-        <f t="shared" si="15"/>
+        <f>IF(V16="A",5,IF(V16="b",4,IF(V16="C",2,IF(V16="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="W42" s="3">
-        <f t="shared" si="15"/>
+        <f>IF(W16="A",5,IF(W16="b",4,IF(W16="C",2,IF(W16="D",1,0))))</f>
         <v>0</v>
       </c>
     </row>
@@ -4037,87 +4218,87 @@
         <v>19</v>
       </c>
       <c r="C43" s="3">
-        <f t="shared" ref="C43:W43" si="16">IF(C17="A",5,IF(C17="b",4,IF(C17="C",2,IF(C17="D",1,0))))</f>
-        <v>5</v>
+        <f>IF(C17="A",5,IF(C17="b",4,IF(C17="C",2,IF(C17="D",1,0))))</f>
+        <v>4</v>
       </c>
       <c r="D43" s="3">
-        <f t="shared" si="16"/>
-        <v>5</v>
+        <f>IF(D17="A",5,IF(D17="b",4,IF(D17="C",2,IF(D17="D",1,0))))</f>
+        <v>4</v>
       </c>
       <c r="E43" s="3">
-        <f t="shared" si="16"/>
-        <v>5</v>
+        <f>IF(E17="A",5,IF(E17="b",4,IF(E17="C",2,IF(E17="D",1,0))))</f>
+        <v>4</v>
       </c>
       <c r="F43" s="3">
-        <f t="shared" si="16"/>
+        <f>IF(F17="A",5,IF(F17="b",4,IF(F17="C",2,IF(F17="D",1,0))))</f>
         <v>5</v>
       </c>
       <c r="G43" s="3">
-        <f t="shared" si="16"/>
-        <v>1</v>
+        <f>IF(G17="A",5,IF(G17="b",4,IF(G17="C",2,IF(G17="D",1,0))))</f>
+        <v>5</v>
       </c>
       <c r="H43" s="3">
-        <f t="shared" si="16"/>
+        <f>IF(H17="A",5,IF(H17="b",4,IF(H17="C",2,IF(H17="D",1,0))))</f>
         <v>5</v>
       </c>
       <c r="I43" s="3">
-        <f t="shared" si="16"/>
-        <v>5</v>
+        <f>IF(I17="A",5,IF(I17="b",4,IF(I17="C",2,IF(I17="D",1,0))))</f>
+        <v>4</v>
       </c>
       <c r="J43" s="3">
-        <f t="shared" si="16"/>
-        <v>5</v>
+        <f>IF(J17="A",5,IF(J17="b",4,IF(J17="C",2,IF(J17="D",1,0))))</f>
+        <v>4</v>
       </c>
       <c r="K43" s="3">
-        <f t="shared" si="16"/>
-        <v>0</v>
+        <f>IF(K17="A",5,IF(K17="b",4,IF(K17="C",2,IF(K17="D",1,0))))</f>
+        <v>5</v>
       </c>
       <c r="L43" s="3">
-        <f t="shared" si="16"/>
+        <f>IF(L17="A",5,IF(L17="b",4,IF(L17="C",2,IF(L17="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="M43" s="3">
-        <f t="shared" si="16"/>
+        <f>IF(M17="A",5,IF(M17="b",4,IF(M17="C",2,IF(M17="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="N43" s="3">
-        <f t="shared" si="16"/>
+        <f>IF(N17="A",5,IF(N17="b",4,IF(N17="C",2,IF(N17="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="O43" s="3">
-        <f t="shared" si="16"/>
+        <f>IF(O17="A",5,IF(O17="b",4,IF(O17="C",2,IF(O17="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="P43" s="3">
-        <f t="shared" si="16"/>
+        <f>IF(P17="A",5,IF(P17="b",4,IF(P17="C",2,IF(P17="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="Q43" s="3">
-        <f t="shared" si="16"/>
+        <f>IF(Q17="A",5,IF(Q17="b",4,IF(Q17="C",2,IF(Q17="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="R43" s="3">
-        <f t="shared" si="16"/>
+        <f>IF(R17="A",5,IF(R17="b",4,IF(R17="C",2,IF(R17="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="S43" s="3">
-        <f t="shared" si="16"/>
+        <f>IF(S17="A",5,IF(S17="b",4,IF(S17="C",2,IF(S17="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="T43" s="3">
-        <f t="shared" si="16"/>
+        <f>IF(T17="A",5,IF(T17="b",4,IF(T17="C",2,IF(T17="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="U43" s="3">
-        <f t="shared" si="16"/>
+        <f>IF(U17="A",5,IF(U17="b",4,IF(U17="C",2,IF(U17="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="V43" s="3">
-        <f t="shared" si="16"/>
+        <f>IF(V17="A",5,IF(V17="b",4,IF(V17="C",2,IF(V17="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="W43" s="3">
-        <f t="shared" si="16"/>
+        <f>IF(W17="A",5,IF(W17="b",4,IF(W17="C",2,IF(W17="D",1,0))))</f>
         <v>0</v>
       </c>
     </row>
@@ -4127,87 +4308,87 @@
         <v>20</v>
       </c>
       <c r="C44" s="3">
-        <f t="shared" ref="C44:W44" si="17">IF(C18="A",5,IF(C18="b",4,IF(C18="C",2,IF(C18="D",1,0))))</f>
+        <f>IF(C18="A",5,IF(C18="b",4,IF(C18="C",2,IF(C18="D",1,0))))</f>
         <v>5</v>
       </c>
       <c r="D44" s="3">
-        <f t="shared" si="17"/>
+        <f>IF(D18="A",5,IF(D18="b",4,IF(D18="C",2,IF(D18="D",1,0))))</f>
         <v>5</v>
       </c>
       <c r="E44" s="3">
-        <f t="shared" si="17"/>
+        <f>IF(E18="A",5,IF(E18="b",4,IF(E18="C",2,IF(E18="D",1,0))))</f>
         <v>5</v>
       </c>
       <c r="F44" s="3">
-        <f t="shared" si="17"/>
+        <f>IF(F18="A",5,IF(F18="b",4,IF(F18="C",2,IF(F18="D",1,0))))</f>
         <v>5</v>
       </c>
       <c r="G44" s="3">
-        <f t="shared" si="17"/>
+        <f>IF(G18="A",5,IF(G18="b",4,IF(G18="C",2,IF(G18="D",1,0))))</f>
         <v>5</v>
       </c>
       <c r="H44" s="3">
-        <f t="shared" si="17"/>
+        <f>IF(H18="A",5,IF(H18="b",4,IF(H18="C",2,IF(H18="D",1,0))))</f>
         <v>2</v>
       </c>
       <c r="I44" s="3">
-        <f t="shared" si="17"/>
+        <f>IF(I18="A",5,IF(I18="b",4,IF(I18="C",2,IF(I18="D",1,0))))</f>
         <v>4</v>
       </c>
       <c r="J44" s="3">
-        <f t="shared" si="17"/>
+        <f>IF(J18="A",5,IF(J18="b",4,IF(J18="C",2,IF(J18="D",1,0))))</f>
         <v>5</v>
       </c>
       <c r="K44" s="3">
-        <f t="shared" si="17"/>
-        <v>0</v>
+        <f>IF(K18="A",5,IF(K18="b",4,IF(K18="C",2,IF(K18="D",1,0))))</f>
+        <v>5</v>
       </c>
       <c r="L44" s="3">
-        <f t="shared" si="17"/>
+        <f>IF(L18="A",5,IF(L18="b",4,IF(L18="C",2,IF(L18="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="M44" s="3">
-        <f t="shared" si="17"/>
+        <f>IF(M18="A",5,IF(M18="b",4,IF(M18="C",2,IF(M18="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="N44" s="3">
-        <f t="shared" si="17"/>
+        <f>IF(N18="A",5,IF(N18="b",4,IF(N18="C",2,IF(N18="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="O44" s="3">
-        <f t="shared" si="17"/>
+        <f>IF(O18="A",5,IF(O18="b",4,IF(O18="C",2,IF(O18="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="P44" s="3">
-        <f t="shared" si="17"/>
+        <f>IF(P18="A",5,IF(P18="b",4,IF(P18="C",2,IF(P18="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="Q44" s="3">
-        <f t="shared" si="17"/>
+        <f>IF(Q18="A",5,IF(Q18="b",4,IF(Q18="C",2,IF(Q18="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="R44" s="3">
-        <f t="shared" si="17"/>
+        <f>IF(R18="A",5,IF(R18="b",4,IF(R18="C",2,IF(R18="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="S44" s="3">
-        <f t="shared" si="17"/>
+        <f>IF(S18="A",5,IF(S18="b",4,IF(S18="C",2,IF(S18="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="T44" s="3">
-        <f t="shared" si="17"/>
+        <f>IF(T18="A",5,IF(T18="b",4,IF(T18="C",2,IF(T18="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="U44" s="3">
-        <f t="shared" si="17"/>
+        <f>IF(U18="A",5,IF(U18="b",4,IF(U18="C",2,IF(U18="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="V44" s="3">
-        <f t="shared" si="17"/>
+        <f>IF(V18="A",5,IF(V18="b",4,IF(V18="C",2,IF(V18="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="W44" s="3">
-        <f t="shared" si="17"/>
+        <f>IF(W18="A",5,IF(W18="b",4,IF(W18="C",2,IF(W18="D",1,0))))</f>
         <v>0</v>
       </c>
     </row>
@@ -4217,87 +4398,87 @@
         <v>21</v>
       </c>
       <c r="C45" s="3">
-        <f t="shared" ref="C45:W45" si="18">IF(C19="A",5,IF(C19="b",4,IF(C19="C",2,IF(C19="D",1,0))))</f>
+        <f>IF(C19="A",5,IF(C19="b",4,IF(C19="C",2,IF(C19="D",1,0))))</f>
         <v>5</v>
       </c>
       <c r="D45" s="3">
-        <f t="shared" si="18"/>
+        <f>IF(D19="A",5,IF(D19="b",4,IF(D19="C",2,IF(D19="D",1,0))))</f>
         <v>5</v>
       </c>
       <c r="E45" s="3">
-        <f t="shared" si="18"/>
-        <v>5</v>
+        <f>IF(E19="A",5,IF(E19="b",4,IF(E19="C",2,IF(E19="D",1,0))))</f>
+        <v>2</v>
       </c>
       <c r="F45" s="3">
-        <f t="shared" si="18"/>
+        <f>IF(F19="A",5,IF(F19="b",4,IF(F19="C",2,IF(F19="D",1,0))))</f>
         <v>5</v>
       </c>
       <c r="G45" s="3">
-        <f t="shared" si="18"/>
-        <v>2</v>
+        <f>IF(G19="A",5,IF(G19="b",4,IF(G19="C",2,IF(G19="D",1,0))))</f>
+        <v>5</v>
       </c>
       <c r="H45" s="3">
-        <f t="shared" si="18"/>
+        <f>IF(H19="A",5,IF(H19="b",4,IF(H19="C",2,IF(H19="D",1,0))))</f>
         <v>5</v>
       </c>
       <c r="I45" s="3">
-        <f t="shared" si="18"/>
+        <f>IF(I19="A",5,IF(I19="b",4,IF(I19="C",2,IF(I19="D",1,0))))</f>
         <v>5</v>
       </c>
       <c r="J45" s="3">
-        <f t="shared" si="18"/>
+        <f>IF(J19="A",5,IF(J19="b",4,IF(J19="C",2,IF(J19="D",1,0))))</f>
         <v>5</v>
       </c>
       <c r="K45" s="3">
-        <f t="shared" si="18"/>
-        <v>0</v>
+        <f>IF(K19="A",5,IF(K19="b",4,IF(K19="C",2,IF(K19="D",1,0))))</f>
+        <v>5</v>
       </c>
       <c r="L45" s="3">
-        <f t="shared" si="18"/>
+        <f>IF(L19="A",5,IF(L19="b",4,IF(L19="C",2,IF(L19="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="M45" s="3">
-        <f t="shared" si="18"/>
+        <f>IF(M19="A",5,IF(M19="b",4,IF(M19="C",2,IF(M19="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="N45" s="3">
-        <f t="shared" si="18"/>
+        <f>IF(N19="A",5,IF(N19="b",4,IF(N19="C",2,IF(N19="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="O45" s="3">
-        <f t="shared" si="18"/>
+        <f>IF(O19="A",5,IF(O19="b",4,IF(O19="C",2,IF(O19="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="P45" s="3">
-        <f t="shared" si="18"/>
+        <f>IF(P19="A",5,IF(P19="b",4,IF(P19="C",2,IF(P19="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="Q45" s="3">
-        <f t="shared" si="18"/>
+        <f>IF(Q19="A",5,IF(Q19="b",4,IF(Q19="C",2,IF(Q19="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="R45" s="3">
-        <f t="shared" si="18"/>
+        <f>IF(R19="A",5,IF(R19="b",4,IF(R19="C",2,IF(R19="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="S45" s="3">
-        <f t="shared" si="18"/>
+        <f>IF(S19="A",5,IF(S19="b",4,IF(S19="C",2,IF(S19="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="T45" s="3">
-        <f t="shared" si="18"/>
+        <f>IF(T19="A",5,IF(T19="b",4,IF(T19="C",2,IF(T19="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="U45" s="3">
-        <f t="shared" si="18"/>
+        <f>IF(U19="A",5,IF(U19="b",4,IF(U19="C",2,IF(U19="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="V45" s="3">
-        <f t="shared" si="18"/>
+        <f>IF(V19="A",5,IF(V19="b",4,IF(V19="C",2,IF(V19="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="W45" s="3">
-        <f t="shared" si="18"/>
+        <f>IF(W19="A",5,IF(W19="b",4,IF(W19="C",2,IF(W19="D",1,0))))</f>
         <v>0</v>
       </c>
     </row>
@@ -4307,87 +4488,87 @@
         <v>22</v>
       </c>
       <c r="C46" s="3">
-        <f t="shared" ref="C46:W46" si="19">IF(C20="A",5,IF(C20="b",4,IF(C20="C",2,IF(C20="D",1,0))))</f>
+        <f>IF(C20="A",5,IF(C20="b",4,IF(C20="C",2,IF(C20="D",1,0))))</f>
         <v>5</v>
       </c>
       <c r="D46" s="3">
-        <f t="shared" si="19"/>
+        <f>IF(D20="A",5,IF(D20="b",4,IF(D20="C",2,IF(D20="D",1,0))))</f>
         <v>5</v>
       </c>
       <c r="E46" s="3">
-        <f t="shared" si="19"/>
-        <v>2</v>
+        <f>IF(E20="A",5,IF(E20="b",4,IF(E20="C",2,IF(E20="D",1,0))))</f>
+        <v>4</v>
       </c>
       <c r="F46" s="3">
-        <f t="shared" si="19"/>
+        <f>IF(F20="A",5,IF(F20="b",4,IF(F20="C",2,IF(F20="D",1,0))))</f>
         <v>5</v>
       </c>
       <c r="G46" s="3">
-        <f t="shared" si="19"/>
+        <f>IF(G20="A",5,IF(G20="b",4,IF(G20="C",2,IF(G20="D",1,0))))</f>
         <v>5</v>
       </c>
       <c r="H46" s="3">
-        <f t="shared" si="19"/>
-        <v>5</v>
+        <f>IF(H20="A",5,IF(H20="b",4,IF(H20="C",2,IF(H20="D",1,0))))</f>
+        <v>4</v>
       </c>
       <c r="I46" s="3">
-        <f t="shared" si="19"/>
+        <f>IF(I20="A",5,IF(I20="b",4,IF(I20="C",2,IF(I20="D",1,0))))</f>
         <v>5</v>
       </c>
       <c r="J46" s="3">
-        <f t="shared" si="19"/>
+        <f>IF(J20="A",5,IF(J20="b",4,IF(J20="C",2,IF(J20="D",1,0))))</f>
         <v>5</v>
       </c>
       <c r="K46" s="3">
-        <f t="shared" si="19"/>
-        <v>0</v>
+        <f>IF(K20="A",5,IF(K20="b",4,IF(K20="C",2,IF(K20="D",1,0))))</f>
+        <v>5</v>
       </c>
       <c r="L46" s="3">
-        <f t="shared" si="19"/>
+        <f>IF(L20="A",5,IF(L20="b",4,IF(L20="C",2,IF(L20="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="M46" s="3">
-        <f t="shared" si="19"/>
+        <f>IF(M20="A",5,IF(M20="b",4,IF(M20="C",2,IF(M20="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="N46" s="3">
-        <f t="shared" si="19"/>
+        <f>IF(N20="A",5,IF(N20="b",4,IF(N20="C",2,IF(N20="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="O46" s="3">
-        <f t="shared" si="19"/>
+        <f>IF(O20="A",5,IF(O20="b",4,IF(O20="C",2,IF(O20="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="P46" s="3">
-        <f t="shared" si="19"/>
+        <f>IF(P20="A",5,IF(P20="b",4,IF(P20="C",2,IF(P20="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="Q46" s="3">
-        <f t="shared" si="19"/>
+        <f>IF(Q20="A",5,IF(Q20="b",4,IF(Q20="C",2,IF(Q20="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="R46" s="3">
-        <f t="shared" si="19"/>
+        <f>IF(R20="A",5,IF(R20="b",4,IF(R20="C",2,IF(R20="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="S46" s="3">
-        <f t="shared" si="19"/>
+        <f>IF(S20="A",5,IF(S20="b",4,IF(S20="C",2,IF(S20="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="T46" s="3">
-        <f t="shared" si="19"/>
+        <f>IF(T20="A",5,IF(T20="b",4,IF(T20="C",2,IF(T20="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="U46" s="3">
-        <f t="shared" si="19"/>
+        <f>IF(U20="A",5,IF(U20="b",4,IF(U20="C",2,IF(U20="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="V46" s="3">
-        <f t="shared" si="19"/>
+        <f>IF(V20="A",5,IF(V20="b",4,IF(V20="C",2,IF(V20="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="W46" s="3">
-        <f t="shared" si="19"/>
+        <f>IF(W20="A",5,IF(W20="b",4,IF(W20="C",2,IF(W20="D",1,0))))</f>
         <v>0</v>
       </c>
     </row>
@@ -4397,87 +4578,87 @@
         <v>23</v>
       </c>
       <c r="C47" s="3">
-        <f t="shared" ref="C47:W47" si="20">IF(C21="A",5,IF(C21="b",4,IF(C21="C",2,IF(C21="D",1,0))))</f>
+        <f>IF(C21="A",5,IF(C21="b",4,IF(C21="C",2,IF(C21="D",1,0))))</f>
         <v>5</v>
       </c>
       <c r="D47" s="3">
-        <f t="shared" si="20"/>
+        <f>IF(D21="A",5,IF(D21="b",4,IF(D21="C",2,IF(D21="D",1,0))))</f>
         <v>5</v>
       </c>
       <c r="E47" s="3">
-        <f t="shared" si="20"/>
-        <v>4</v>
+        <f>IF(E21="A",5,IF(E21="b",4,IF(E21="C",2,IF(E21="D",1,0))))</f>
+        <v>5</v>
       </c>
       <c r="F47" s="3">
-        <f t="shared" si="20"/>
+        <f>IF(F21="A",5,IF(F21="b",4,IF(F21="C",2,IF(F21="D",1,0))))</f>
         <v>5</v>
       </c>
       <c r="G47" s="3">
-        <f t="shared" si="20"/>
+        <f>IF(G21="A",5,IF(G21="b",4,IF(G21="C",2,IF(G21="D",1,0))))</f>
         <v>5</v>
       </c>
       <c r="H47" s="3">
-        <f t="shared" si="20"/>
-        <v>4</v>
+        <f>IF(H21="A",5,IF(H21="b",4,IF(H21="C",2,IF(H21="D",1,0))))</f>
+        <v>5</v>
       </c>
       <c r="I47" s="3">
-        <f t="shared" si="20"/>
+        <f>IF(I21="A",5,IF(I21="b",4,IF(I21="C",2,IF(I21="D",1,0))))</f>
         <v>5</v>
       </c>
       <c r="J47" s="3">
-        <f t="shared" si="20"/>
+        <f>IF(J21="A",5,IF(J21="b",4,IF(J21="C",2,IF(J21="D",1,0))))</f>
         <v>5</v>
       </c>
       <c r="K47" s="3">
-        <f t="shared" si="20"/>
-        <v>0</v>
+        <f>IF(K21="A",5,IF(K21="b",4,IF(K21="C",2,IF(K21="D",1,0))))</f>
+        <v>5</v>
       </c>
       <c r="L47" s="3">
-        <f t="shared" si="20"/>
+        <f>IF(L21="A",5,IF(L21="b",4,IF(L21="C",2,IF(L21="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="M47" s="3">
-        <f t="shared" si="20"/>
+        <f>IF(M21="A",5,IF(M21="b",4,IF(M21="C",2,IF(M21="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="N47" s="3">
-        <f t="shared" si="20"/>
+        <f>IF(N21="A",5,IF(N21="b",4,IF(N21="C",2,IF(N21="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="O47" s="3">
-        <f t="shared" si="20"/>
+        <f>IF(O21="A",5,IF(O21="b",4,IF(O21="C",2,IF(O21="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="P47" s="3">
-        <f t="shared" si="20"/>
+        <f>IF(P21="A",5,IF(P21="b",4,IF(P21="C",2,IF(P21="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="Q47" s="3">
-        <f t="shared" si="20"/>
+        <f>IF(Q21="A",5,IF(Q21="b",4,IF(Q21="C",2,IF(Q21="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="R47" s="3">
-        <f t="shared" si="20"/>
+        <f>IF(R21="A",5,IF(R21="b",4,IF(R21="C",2,IF(R21="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="S47" s="3">
-        <f t="shared" si="20"/>
+        <f>IF(S21="A",5,IF(S21="b",4,IF(S21="C",2,IF(S21="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="T47" s="3">
-        <f t="shared" si="20"/>
+        <f>IF(T21="A",5,IF(T21="b",4,IF(T21="C",2,IF(T21="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="U47" s="3">
-        <f t="shared" si="20"/>
+        <f>IF(U21="A",5,IF(U21="b",4,IF(U21="C",2,IF(U21="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="V47" s="3">
-        <f t="shared" si="20"/>
+        <f>IF(V21="A",5,IF(V21="b",4,IF(V21="C",2,IF(V21="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="W47" s="3">
-        <f t="shared" si="20"/>
+        <f>IF(W21="A",5,IF(W21="b",4,IF(W21="C",2,IF(W21="D",1,0))))</f>
         <v>0</v>
       </c>
     </row>
@@ -4487,87 +4668,87 @@
         <v>24</v>
       </c>
       <c r="C48" s="3">
-        <f t="shared" ref="C48:W48" si="21">IF(C22="A",5,IF(C22="b",4,IF(C22="C",2,IF(C22="D",1,0))))</f>
+        <f>IF(C22="A",5,IF(C22="b",4,IF(C22="C",2,IF(C22="D",1,0))))</f>
         <v>5</v>
       </c>
       <c r="D48" s="3">
-        <f t="shared" si="21"/>
+        <f>IF(D22="A",5,IF(D22="b",4,IF(D22="C",2,IF(D22="D",1,0))))</f>
         <v>5</v>
       </c>
       <c r="E48" s="3">
-        <f t="shared" si="21"/>
+        <f>IF(E22="A",5,IF(E22="b",4,IF(E22="C",2,IF(E22="D",1,0))))</f>
         <v>5</v>
       </c>
       <c r="F48" s="3">
-        <f t="shared" si="21"/>
+        <f>IF(F22="A",5,IF(F22="b",4,IF(F22="C",2,IF(F22="D",1,0))))</f>
         <v>5</v>
       </c>
       <c r="G48" s="3">
-        <f t="shared" si="21"/>
-        <v>4</v>
+        <f>IF(G22="A",5,IF(G22="b",4,IF(G22="C",2,IF(G22="D",1,0))))</f>
+        <v>2</v>
       </c>
       <c r="H48" s="3">
-        <f t="shared" si="21"/>
+        <f>IF(H22="A",5,IF(H22="b",4,IF(H22="C",2,IF(H22="D",1,0))))</f>
         <v>5</v>
       </c>
       <c r="I48" s="3">
-        <f t="shared" si="21"/>
+        <f>IF(I22="A",5,IF(I22="b",4,IF(I22="C",2,IF(I22="D",1,0))))</f>
         <v>5</v>
       </c>
       <c r="J48" s="3">
-        <f t="shared" si="21"/>
-        <v>4</v>
+        <f>IF(J22="A",5,IF(J22="b",4,IF(J22="C",2,IF(J22="D",1,0))))</f>
+        <v>5</v>
       </c>
       <c r="K48" s="3">
-        <f t="shared" si="21"/>
-        <v>0</v>
+        <f>IF(K22="A",5,IF(K22="b",4,IF(K22="C",2,IF(K22="D",1,0))))</f>
+        <v>5</v>
       </c>
       <c r="L48" s="3">
-        <f t="shared" si="21"/>
-        <v>0</v>
+        <f>IF(L22="A",5,IF(L22="b",4,IF(L22="C",2,IF(L22="D",1,0))))</f>
+        <v>5</v>
       </c>
       <c r="M48" s="3">
-        <f t="shared" si="21"/>
+        <f>IF(M22="A",5,IF(M22="b",4,IF(M22="C",2,IF(M22="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="N48" s="3">
-        <f t="shared" si="21"/>
+        <f>IF(N22="A",5,IF(N22="b",4,IF(N22="C",2,IF(N22="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="O48" s="3">
-        <f t="shared" si="21"/>
+        <f>IF(O22="A",5,IF(O22="b",4,IF(O22="C",2,IF(O22="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="P48" s="3">
-        <f t="shared" si="21"/>
+        <f>IF(P22="A",5,IF(P22="b",4,IF(P22="C",2,IF(P22="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="Q48" s="3">
-        <f t="shared" si="21"/>
+        <f>IF(Q22="A",5,IF(Q22="b",4,IF(Q22="C",2,IF(Q22="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="R48" s="3">
-        <f t="shared" si="21"/>
+        <f>IF(R22="A",5,IF(R22="b",4,IF(R22="C",2,IF(R22="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="S48" s="3">
-        <f t="shared" si="21"/>
+        <f>IF(S22="A",5,IF(S22="b",4,IF(S22="C",2,IF(S22="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="T48" s="3">
-        <f t="shared" si="21"/>
+        <f>IF(T22="A",5,IF(T22="b",4,IF(T22="C",2,IF(T22="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="U48" s="3">
-        <f t="shared" si="21"/>
+        <f>IF(U22="A",5,IF(U22="b",4,IF(U22="C",2,IF(U22="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="V48" s="3">
-        <f t="shared" si="21"/>
+        <f>IF(V22="A",5,IF(V22="b",4,IF(V22="C",2,IF(V22="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="W48" s="3">
-        <f t="shared" si="21"/>
+        <f>IF(W22="A",5,IF(W22="b",4,IF(W22="C",2,IF(W22="D",1,0))))</f>
         <v>0</v>
       </c>
     </row>
@@ -4577,87 +4758,87 @@
         <v>25</v>
       </c>
       <c r="C49" s="3">
-        <f t="shared" ref="C49:W49" si="22">IF(C23="A",5,IF(C23="b",4,IF(C23="C",2,IF(C23="D",1,0))))</f>
+        <f>IF(C23="A",5,IF(C23="b",4,IF(C23="C",2,IF(C23="D",1,0))))</f>
         <v>5</v>
       </c>
       <c r="D49" s="3">
-        <f t="shared" si="22"/>
+        <f>IF(D23="A",5,IF(D23="b",4,IF(D23="C",2,IF(D23="D",1,0))))</f>
         <v>5</v>
       </c>
       <c r="E49" s="3">
-        <f t="shared" si="22"/>
+        <f>IF(E23="A",5,IF(E23="b",4,IF(E23="C",2,IF(E23="D",1,0))))</f>
         <v>5</v>
       </c>
       <c r="F49" s="3">
-        <f t="shared" si="22"/>
+        <f>IF(F23="A",5,IF(F23="b",4,IF(F23="C",2,IF(F23="D",1,0))))</f>
         <v>5</v>
       </c>
       <c r="G49" s="3">
-        <f t="shared" si="22"/>
-        <v>5</v>
+        <f>IF(G23="A",5,IF(G23="b",4,IF(G23="C",2,IF(G23="D",1,0))))</f>
+        <v>4</v>
       </c>
       <c r="H49" s="3">
-        <f t="shared" si="22"/>
+        <f>IF(H23="A",5,IF(H23="b",4,IF(H23="C",2,IF(H23="D",1,0))))</f>
         <v>5</v>
       </c>
       <c r="I49" s="3">
-        <f t="shared" si="22"/>
+        <f>IF(I23="A",5,IF(I23="b",4,IF(I23="C",2,IF(I23="D",1,0))))</f>
         <v>5</v>
       </c>
       <c r="J49" s="3">
-        <f t="shared" si="22"/>
-        <v>5</v>
+        <f>IF(J23="A",5,IF(J23="b",4,IF(J23="C",2,IF(J23="D",1,0))))</f>
+        <v>4</v>
       </c>
       <c r="K49" s="3">
-        <f t="shared" si="22"/>
-        <v>0</v>
+        <f>IF(K23="A",5,IF(K23="b",4,IF(K23="C",2,IF(K23="D",1,0))))</f>
+        <v>5</v>
       </c>
       <c r="L49" s="3">
-        <f t="shared" si="22"/>
-        <v>0</v>
+        <f>IF(L23="A",5,IF(L23="b",4,IF(L23="C",2,IF(L23="D",1,0))))</f>
+        <v>4</v>
       </c>
       <c r="M49" s="3">
-        <f t="shared" si="22"/>
+        <f>IF(M23="A",5,IF(M23="b",4,IF(M23="C",2,IF(M23="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="N49" s="3">
-        <f t="shared" si="22"/>
+        <f>IF(N23="A",5,IF(N23="b",4,IF(N23="C",2,IF(N23="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="O49" s="3">
-        <f t="shared" si="22"/>
+        <f>IF(O23="A",5,IF(O23="b",4,IF(O23="C",2,IF(O23="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="P49" s="3">
-        <f t="shared" si="22"/>
+        <f>IF(P23="A",5,IF(P23="b",4,IF(P23="C",2,IF(P23="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="Q49" s="3">
-        <f t="shared" si="22"/>
+        <f>IF(Q23="A",5,IF(Q23="b",4,IF(Q23="C",2,IF(Q23="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="R49" s="3">
-        <f t="shared" si="22"/>
+        <f>IF(R23="A",5,IF(R23="b",4,IF(R23="C",2,IF(R23="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="S49" s="3">
-        <f t="shared" si="22"/>
+        <f>IF(S23="A",5,IF(S23="b",4,IF(S23="C",2,IF(S23="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="T49" s="3">
-        <f t="shared" si="22"/>
+        <f>IF(T23="A",5,IF(T23="b",4,IF(T23="C",2,IF(T23="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="U49" s="3">
-        <f t="shared" si="22"/>
+        <f>IF(U23="A",5,IF(U23="b",4,IF(U23="C",2,IF(U23="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="V49" s="3">
-        <f t="shared" si="22"/>
+        <f>IF(V23="A",5,IF(V23="b",4,IF(V23="C",2,IF(V23="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="W49" s="3">
-        <f t="shared" si="22"/>
+        <f>IF(W23="A",5,IF(W23="b",4,IF(W23="C",2,IF(W23="D",1,0))))</f>
         <v>0</v>
       </c>
     </row>
@@ -4667,92 +4848,92 @@
         <v>26</v>
       </c>
       <c r="C50" s="3">
-        <f t="shared" ref="C50:W50" si="23">IF(C24="A",5,IF(C24="b",4,IF(C24="C",2,IF(C24="D",1,0))))</f>
+        <f>IF(C24="A",5,IF(C24="b",4,IF(C24="C",2,IF(C24="D",1,0))))</f>
         <v>5</v>
       </c>
       <c r="D50" s="3">
-        <f t="shared" si="23"/>
+        <f>IF(D24="A",5,IF(D24="b",4,IF(D24="C",2,IF(D24="D",1,0))))</f>
         <v>5</v>
       </c>
       <c r="E50" s="3">
-        <f t="shared" si="23"/>
+        <f>IF(E24="A",5,IF(E24="b",4,IF(E24="C",2,IF(E24="D",1,0))))</f>
         <v>5</v>
       </c>
       <c r="F50" s="3">
-        <f t="shared" si="23"/>
+        <f>IF(F24="A",5,IF(F24="b",4,IF(F24="C",2,IF(F24="D",1,0))))</f>
         <v>5</v>
       </c>
       <c r="G50" s="3">
-        <f t="shared" si="23"/>
+        <f>IF(G24="A",5,IF(G24="b",4,IF(G24="C",2,IF(G24="D",1,0))))</f>
         <v>5</v>
       </c>
       <c r="H50" s="3">
-        <f t="shared" si="23"/>
+        <f>IF(H24="A",5,IF(H24="b",4,IF(H24="C",2,IF(H24="D",1,0))))</f>
         <v>5</v>
       </c>
       <c r="I50" s="3">
-        <f t="shared" si="23"/>
+        <f>IF(I24="A",5,IF(I24="b",4,IF(I24="C",2,IF(I24="D",1,0))))</f>
         <v>5</v>
       </c>
       <c r="J50" s="3">
-        <f t="shared" si="23"/>
+        <f>IF(J24="A",5,IF(J24="b",4,IF(J24="C",2,IF(J24="D",1,0))))</f>
         <v>5</v>
       </c>
       <c r="K50" s="3">
-        <f t="shared" si="23"/>
-        <v>0</v>
+        <f>IF(K24="A",5,IF(K24="b",4,IF(K24="C",2,IF(K24="D",1,0))))</f>
+        <v>5</v>
       </c>
       <c r="L50" s="3">
-        <f t="shared" si="23"/>
-        <v>0</v>
+        <f>IF(L24="A",5,IF(L24="b",4,IF(L24="C",2,IF(L24="D",1,0))))</f>
+        <v>4</v>
       </c>
       <c r="M50" s="3">
-        <f t="shared" si="23"/>
+        <f>IF(M24="A",5,IF(M24="b",4,IF(M24="C",2,IF(M24="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="N50" s="3">
-        <f t="shared" si="23"/>
+        <f>IF(N24="A",5,IF(N24="b",4,IF(N24="C",2,IF(N24="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="O50" s="3">
-        <f t="shared" si="23"/>
+        <f>IF(O24="A",5,IF(O24="b",4,IF(O24="C",2,IF(O24="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="P50" s="3">
-        <f t="shared" si="23"/>
+        <f>IF(P24="A",5,IF(P24="b",4,IF(P24="C",2,IF(P24="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="Q50" s="3">
-        <f t="shared" si="23"/>
+        <f>IF(Q24="A",5,IF(Q24="b",4,IF(Q24="C",2,IF(Q24="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="R50" s="3">
-        <f t="shared" si="23"/>
+        <f>IF(R24="A",5,IF(R24="b",4,IF(R24="C",2,IF(R24="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="S50" s="3">
-        <f t="shared" si="23"/>
+        <f>IF(S24="A",5,IF(S24="b",4,IF(S24="C",2,IF(S24="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="T50" s="3">
-        <f t="shared" si="23"/>
+        <f>IF(T24="A",5,IF(T24="b",4,IF(T24="C",2,IF(T24="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="U50" s="3">
-        <f t="shared" si="23"/>
+        <f>IF(U24="A",5,IF(U24="b",4,IF(U24="C",2,IF(U24="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="V50" s="3">
-        <f t="shared" si="23"/>
+        <f>IF(V24="A",5,IF(V24="b",4,IF(V24="C",2,IF(V24="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="W50" s="3">
-        <f t="shared" si="23"/>
+        <f>IF(W24="A",5,IF(W24="b",4,IF(W24="C",2,IF(W24="D",1,0))))</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:J24">
+  <sortState ref="A2:L24">
     <sortCondition ref="A2"/>
   </sortState>
   <dataConsolidate function="average"/>
@@ -4853,1186 +5034,1298 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF578CAD-DA7B-483D-BDEF-C637B7FABB3A}">
-  <dimension ref="A1:AL37"/>
+  <dimension ref="A1:AP38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21:AL21"/>
+      <selection activeCell="AO16" sqref="AO16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.77734375" defaultRowHeight="22.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.77734375" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="3.77734375" style="6"/>
-    <col min="3" max="16384" width="3.77734375" style="9"/>
+    <col min="3" max="41" width="3.77734375" style="9"/>
+    <col min="42" max="42" width="12.6640625" style="9" customWidth="1"/>
+    <col min="43" max="16384" width="3.77734375" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="14"/>
+      <c r="U1" s="14"/>
+      <c r="V1" s="14"/>
+      <c r="W1" s="14"/>
+      <c r="X1" s="14"/>
+      <c r="Y1" s="14"/>
+      <c r="Z1" s="14"/>
+      <c r="AA1" s="14"/>
+      <c r="AB1" s="14"/>
+      <c r="AC1" s="14"/>
+      <c r="AD1" s="14"/>
+      <c r="AE1" s="14"/>
+      <c r="AF1" s="14"/>
+      <c r="AG1" s="14"/>
+      <c r="AH1" s="14"/>
+      <c r="AI1" s="14"/>
+      <c r="AJ1" s="14"/>
+      <c r="AK1" s="14"/>
+      <c r="AL1" s="14"/>
+    </row>
+    <row r="2" spans="1:42" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="12">
+      <c r="B2" s="17">
         <v>1</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="12"/>
-      <c r="S1" s="12"/>
-      <c r="T1" s="12"/>
-      <c r="U1" s="12"/>
-      <c r="V1" s="12"/>
-      <c r="W1" s="12"/>
-      <c r="X1" s="12"/>
-      <c r="Y1" s="12"/>
-      <c r="Z1" s="12"/>
-      <c r="AA1" s="12"/>
-      <c r="AB1" s="12"/>
-      <c r="AC1" s="12"/>
-      <c r="AD1" s="12"/>
-      <c r="AE1" s="12"/>
-      <c r="AF1" s="12"/>
-      <c r="AG1" s="12"/>
-      <c r="AH1" s="12"/>
-      <c r="AI1" s="12"/>
-      <c r="AJ1" s="12"/>
-      <c r="AK1" s="12"/>
-      <c r="AL1" s="12"/>
-    </row>
-    <row r="2" spans="1:38" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="12">
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17"/>
+      <c r="U2" s="17"/>
+      <c r="V2" s="17"/>
+      <c r="W2" s="17"/>
+      <c r="X2" s="17"/>
+      <c r="Y2" s="17"/>
+      <c r="Z2" s="17"/>
+      <c r="AA2" s="17"/>
+      <c r="AB2" s="17"/>
+      <c r="AC2" s="17"/>
+      <c r="AD2" s="17"/>
+      <c r="AE2" s="17"/>
+      <c r="AF2" s="17"/>
+      <c r="AG2" s="17"/>
+      <c r="AH2" s="17"/>
+      <c r="AI2" s="17"/>
+      <c r="AJ2" s="17"/>
+      <c r="AK2" s="17"/>
+      <c r="AL2" s="17"/>
+      <c r="AO2" s="9">
+        <v>0</v>
+      </c>
+      <c r="AP2" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:42" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="17">
         <v>1</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
-      <c r="S2" s="12"/>
-      <c r="T2" s="12"/>
-      <c r="U2" s="12"/>
-      <c r="V2" s="12"/>
-      <c r="W2" s="12"/>
-      <c r="X2" s="12"/>
-      <c r="Y2" s="12"/>
-      <c r="Z2" s="12"/>
-      <c r="AA2" s="12"/>
-      <c r="AB2" s="12"/>
-      <c r="AC2" s="12"/>
-      <c r="AD2" s="12"/>
-      <c r="AE2" s="12"/>
-      <c r="AF2" s="12"/>
-      <c r="AG2" s="12"/>
-      <c r="AH2" s="12"/>
-      <c r="AI2" s="12"/>
-      <c r="AJ2" s="12"/>
-      <c r="AK2" s="12"/>
-      <c r="AL2" s="12"/>
-    </row>
-    <row r="3" spans="1:38" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="17"/>
+      <c r="R3" s="17"/>
+      <c r="S3" s="17"/>
+      <c r="T3" s="17"/>
+      <c r="U3" s="17"/>
+      <c r="V3" s="17"/>
+      <c r="W3" s="17"/>
+      <c r="X3" s="17"/>
+      <c r="Y3" s="17"/>
+      <c r="Z3" s="17"/>
+      <c r="AA3" s="17"/>
+      <c r="AB3" s="17"/>
+      <c r="AC3" s="17"/>
+      <c r="AD3" s="17"/>
+      <c r="AE3" s="17"/>
+      <c r="AF3" s="17"/>
+      <c r="AG3" s="17"/>
+      <c r="AH3" s="17"/>
+      <c r="AI3" s="17"/>
+      <c r="AJ3" s="17"/>
+      <c r="AK3" s="17"/>
+      <c r="AL3" s="17"/>
+      <c r="AO3" s="9">
+        <v>10</v>
+      </c>
+      <c r="AP3" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:42" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B4" s="17">
         <v>1</v>
       </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="12"/>
-      <c r="S3" s="12"/>
-      <c r="T3" s="12"/>
-      <c r="U3" s="12"/>
-      <c r="V3" s="12"/>
-      <c r="W3" s="12"/>
-      <c r="X3" s="12"/>
-      <c r="Y3" s="12"/>
-      <c r="Z3" s="12"/>
-      <c r="AA3" s="12"/>
-      <c r="AB3" s="12"/>
-      <c r="AC3" s="12"/>
-      <c r="AD3" s="12"/>
-      <c r="AE3" s="12"/>
-      <c r="AF3" s="12"/>
-      <c r="AG3" s="12"/>
-      <c r="AH3" s="12"/>
-      <c r="AI3" s="12"/>
-      <c r="AJ3" s="12"/>
-      <c r="AK3" s="12"/>
-      <c r="AL3" s="12"/>
-    </row>
-    <row r="4" spans="1:38" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="17"/>
+      <c r="S4" s="17"/>
+      <c r="T4" s="17"/>
+      <c r="U4" s="17"/>
+      <c r="V4" s="17"/>
+      <c r="W4" s="17"/>
+      <c r="X4" s="17"/>
+      <c r="Y4" s="17"/>
+      <c r="Z4" s="17"/>
+      <c r="AA4" s="17"/>
+      <c r="AB4" s="17"/>
+      <c r="AC4" s="17"/>
+      <c r="AD4" s="17"/>
+      <c r="AE4" s="17"/>
+      <c r="AF4" s="17"/>
+      <c r="AG4" s="17"/>
+      <c r="AH4" s="17"/>
+      <c r="AI4" s="17"/>
+      <c r="AJ4" s="17"/>
+      <c r="AK4" s="17"/>
+      <c r="AL4" s="17"/>
+    </row>
+    <row r="5" spans="1:42" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="13"/>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="13"/>
-      <c r="R4" s="13"/>
-      <c r="S4" s="13"/>
-      <c r="T4" s="13"/>
-      <c r="U4" s="13"/>
-      <c r="V4" s="13"/>
-      <c r="W4" s="13"/>
-      <c r="X4" s="13"/>
-      <c r="Y4" s="13"/>
-      <c r="Z4" s="13"/>
-      <c r="AA4" s="13"/>
-      <c r="AB4" s="13"/>
-      <c r="AC4" s="13"/>
-      <c r="AD4" s="13"/>
-      <c r="AE4" s="13"/>
-      <c r="AF4" s="13"/>
-      <c r="AG4" s="13"/>
-      <c r="AH4" s="13"/>
-      <c r="AI4" s="13"/>
-      <c r="AJ4" s="13"/>
-      <c r="AK4" s="13"/>
-      <c r="AL4" s="13"/>
-    </row>
-    <row r="5" spans="1:38" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
+      <c r="B5" s="18">
+        <v>1</v>
+      </c>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18"/>
+      <c r="O5" s="18"/>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="18"/>
+      <c r="R5" s="18"/>
+      <c r="S5" s="18"/>
+      <c r="T5" s="18"/>
+      <c r="U5" s="18"/>
+      <c r="V5" s="18"/>
+      <c r="W5" s="18"/>
+      <c r="X5" s="18"/>
+      <c r="Y5" s="18"/>
+      <c r="Z5" s="18"/>
+      <c r="AA5" s="18"/>
+      <c r="AB5" s="18"/>
+      <c r="AC5" s="18"/>
+      <c r="AD5" s="18"/>
+      <c r="AE5" s="18"/>
+      <c r="AF5" s="18"/>
+      <c r="AG5" s="18"/>
+      <c r="AH5" s="18"/>
+      <c r="AI5" s="18"/>
+      <c r="AJ5" s="18"/>
+      <c r="AK5" s="18"/>
+      <c r="AL5" s="18"/>
+    </row>
+    <row r="6" spans="1:42" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="13"/>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="13"/>
-      <c r="R5" s="13"/>
-      <c r="S5" s="13"/>
-      <c r="T5" s="13"/>
-      <c r="U5" s="13"/>
-      <c r="V5" s="13"/>
-      <c r="W5" s="13"/>
-      <c r="X5" s="13"/>
-      <c r="Y5" s="13"/>
-      <c r="Z5" s="13"/>
-      <c r="AA5" s="13"/>
-      <c r="AB5" s="13"/>
-      <c r="AC5" s="13"/>
-      <c r="AD5" s="13"/>
-      <c r="AE5" s="13"/>
-      <c r="AF5" s="13"/>
-      <c r="AG5" s="13"/>
-      <c r="AH5" s="13"/>
-      <c r="AI5" s="13"/>
-      <c r="AJ5" s="13"/>
-      <c r="AK5" s="13"/>
-      <c r="AL5" s="13"/>
-    </row>
-    <row r="6" spans="1:38" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
+      <c r="B6" s="18">
+        <v>1</v>
+      </c>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="18"/>
+      <c r="R6" s="18"/>
+      <c r="S6" s="18"/>
+      <c r="T6" s="18"/>
+      <c r="U6" s="18"/>
+      <c r="V6" s="18"/>
+      <c r="W6" s="18"/>
+      <c r="X6" s="18"/>
+      <c r="Y6" s="18"/>
+      <c r="Z6" s="18"/>
+      <c r="AA6" s="18"/>
+      <c r="AB6" s="18"/>
+      <c r="AC6" s="18"/>
+      <c r="AD6" s="18"/>
+      <c r="AE6" s="18"/>
+      <c r="AF6" s="18"/>
+      <c r="AG6" s="18"/>
+      <c r="AH6" s="18"/>
+      <c r="AI6" s="18"/>
+      <c r="AJ6" s="18"/>
+      <c r="AK6" s="18"/>
+      <c r="AL6" s="18"/>
+    </row>
+    <row r="7" spans="1:42" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="13">
+      <c r="B7" s="18">
         <v>2</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="13"/>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="13"/>
-      <c r="R6" s="13"/>
-      <c r="S6" s="13"/>
-      <c r="T6" s="13"/>
-      <c r="U6" s="13"/>
-      <c r="V6" s="13"/>
-      <c r="W6" s="13"/>
-      <c r="X6" s="13"/>
-      <c r="Y6" s="13"/>
-      <c r="Z6" s="13"/>
-      <c r="AA6" s="13"/>
-      <c r="AB6" s="13"/>
-      <c r="AC6" s="13"/>
-      <c r="AD6" s="13"/>
-      <c r="AE6" s="13"/>
-      <c r="AF6" s="13"/>
-      <c r="AG6" s="13"/>
-      <c r="AH6" s="13"/>
-      <c r="AI6" s="13"/>
-      <c r="AJ6" s="13"/>
-      <c r="AK6" s="13"/>
-      <c r="AL6" s="13"/>
-    </row>
-    <row r="7" spans="1:38" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="18"/>
+      <c r="P7" s="18"/>
+      <c r="Q7" s="18"/>
+      <c r="R7" s="18"/>
+      <c r="S7" s="18"/>
+      <c r="T7" s="18"/>
+      <c r="U7" s="18"/>
+      <c r="V7" s="18"/>
+      <c r="W7" s="18"/>
+      <c r="X7" s="18"/>
+      <c r="Y7" s="18"/>
+      <c r="Z7" s="18"/>
+      <c r="AA7" s="18"/>
+      <c r="AB7" s="18"/>
+      <c r="AC7" s="18"/>
+      <c r="AD7" s="18"/>
+      <c r="AE7" s="18"/>
+      <c r="AF7" s="18"/>
+      <c r="AG7" s="18"/>
+      <c r="AH7" s="18"/>
+      <c r="AI7" s="18"/>
+      <c r="AJ7" s="18"/>
+      <c r="AK7" s="18"/>
+      <c r="AL7" s="18"/>
+      <c r="AM7" s="12"/>
+    </row>
+    <row r="8" spans="1:42" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="13">
+      <c r="B8" s="18">
         <v>1</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="13"/>
-      <c r="P7" s="13"/>
-      <c r="Q7" s="13"/>
-      <c r="R7" s="13"/>
-      <c r="S7" s="13"/>
-      <c r="T7" s="13"/>
-      <c r="U7" s="13"/>
-      <c r="V7" s="13"/>
-      <c r="W7" s="13"/>
-      <c r="X7" s="13"/>
-      <c r="Y7" s="13"/>
-      <c r="Z7" s="13"/>
-      <c r="AA7" s="13"/>
-      <c r="AB7" s="13"/>
-      <c r="AC7" s="13"/>
-      <c r="AD7" s="13"/>
-      <c r="AE7" s="13"/>
-      <c r="AF7" s="13"/>
-      <c r="AG7" s="13"/>
-      <c r="AH7" s="13"/>
-      <c r="AI7" s="13"/>
-      <c r="AJ7" s="13"/>
-      <c r="AK7" s="13"/>
-      <c r="AL7" s="13"/>
-    </row>
-    <row r="8" spans="1:38" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="18"/>
+      <c r="O8" s="18"/>
+      <c r="P8" s="18"/>
+      <c r="Q8" s="18"/>
+      <c r="R8" s="18"/>
+      <c r="S8" s="18"/>
+      <c r="T8" s="18"/>
+      <c r="U8" s="18"/>
+      <c r="V8" s="18"/>
+      <c r="W8" s="18"/>
+      <c r="X8" s="18"/>
+      <c r="Y8" s="18"/>
+      <c r="Z8" s="18"/>
+      <c r="AA8" s="18"/>
+      <c r="AB8" s="18"/>
+      <c r="AC8" s="18"/>
+      <c r="AD8" s="18"/>
+      <c r="AE8" s="18"/>
+      <c r="AF8" s="18"/>
+      <c r="AG8" s="18"/>
+      <c r="AH8" s="18"/>
+      <c r="AI8" s="18"/>
+      <c r="AJ8" s="18"/>
+      <c r="AK8" s="18"/>
+      <c r="AL8" s="18"/>
+      <c r="AM8" s="13"/>
+    </row>
+    <row r="9" spans="1:42" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="13">
+      <c r="B9" s="18">
         <v>2</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="13"/>
-      <c r="P8" s="13"/>
-      <c r="Q8" s="13"/>
-      <c r="R8" s="13"/>
-      <c r="S8" s="13"/>
-      <c r="T8" s="13"/>
-      <c r="U8" s="13"/>
-      <c r="V8" s="13"/>
-      <c r="W8" s="13"/>
-      <c r="X8" s="13"/>
-      <c r="Y8" s="13"/>
-      <c r="Z8" s="13"/>
-      <c r="AA8" s="13"/>
-      <c r="AB8" s="13"/>
-      <c r="AC8" s="13"/>
-      <c r="AD8" s="13"/>
-      <c r="AE8" s="13"/>
-      <c r="AF8" s="13"/>
-      <c r="AG8" s="13"/>
-      <c r="AH8" s="13"/>
-      <c r="AI8" s="13"/>
-      <c r="AJ8" s="13"/>
-      <c r="AK8" s="13"/>
-      <c r="AL8" s="13"/>
-    </row>
-    <row r="9" spans="1:38" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="18"/>
+      <c r="O9" s="18"/>
+      <c r="P9" s="18"/>
+      <c r="Q9" s="18"/>
+      <c r="R9" s="18"/>
+      <c r="S9" s="18"/>
+      <c r="T9" s="18"/>
+      <c r="U9" s="18"/>
+      <c r="V9" s="18"/>
+      <c r="W9" s="18"/>
+      <c r="X9" s="18"/>
+      <c r="Y9" s="18"/>
+      <c r="Z9" s="18"/>
+      <c r="AA9" s="18"/>
+      <c r="AB9" s="18"/>
+      <c r="AC9" s="18"/>
+      <c r="AD9" s="18"/>
+      <c r="AE9" s="18"/>
+      <c r="AF9" s="18"/>
+      <c r="AG9" s="18"/>
+      <c r="AH9" s="18"/>
+      <c r="AI9" s="18"/>
+      <c r="AJ9" s="18"/>
+      <c r="AK9" s="18"/>
+      <c r="AL9" s="18"/>
+    </row>
+    <row r="10" spans="1:42" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="13">
+      <c r="B10" s="18">
         <v>1</v>
       </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="13"/>
-      <c r="P9" s="13"/>
-      <c r="Q9" s="13"/>
-      <c r="R9" s="13"/>
-      <c r="S9" s="13"/>
-      <c r="T9" s="13"/>
-      <c r="U9" s="13"/>
-      <c r="V9" s="13"/>
-      <c r="W9" s="13"/>
-      <c r="X9" s="13"/>
-      <c r="Y9" s="13"/>
-      <c r="Z9" s="13"/>
-      <c r="AA9" s="13"/>
-      <c r="AB9" s="13"/>
-      <c r="AC9" s="13"/>
-      <c r="AD9" s="13"/>
-      <c r="AE9" s="13"/>
-      <c r="AF9" s="13"/>
-      <c r="AG9" s="13"/>
-      <c r="AH9" s="13"/>
-      <c r="AI9" s="13"/>
-      <c r="AJ9" s="13"/>
-      <c r="AK9" s="13"/>
-      <c r="AL9" s="13"/>
-    </row>
-    <row r="10" spans="1:38" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A10" s="15" t="s">
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="18"/>
+      <c r="O10" s="18"/>
+      <c r="P10" s="18"/>
+      <c r="Q10" s="18"/>
+      <c r="R10" s="18"/>
+      <c r="S10" s="18"/>
+      <c r="T10" s="18"/>
+      <c r="U10" s="18"/>
+      <c r="V10" s="18"/>
+      <c r="W10" s="18"/>
+      <c r="X10" s="18"/>
+      <c r="Y10" s="18"/>
+      <c r="Z10" s="18"/>
+      <c r="AA10" s="18"/>
+      <c r="AB10" s="18"/>
+      <c r="AC10" s="18"/>
+      <c r="AD10" s="18"/>
+      <c r="AE10" s="18"/>
+      <c r="AF10" s="18"/>
+      <c r="AG10" s="18"/>
+      <c r="AH10" s="18"/>
+      <c r="AI10" s="18"/>
+      <c r="AJ10" s="18"/>
+      <c r="AK10" s="18"/>
+      <c r="AL10" s="18"/>
+    </row>
+    <row r="11" spans="1:42" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="13"/>
-      <c r="P10" s="13"/>
-      <c r="Q10" s="13"/>
-      <c r="R10" s="13"/>
-      <c r="S10" s="13"/>
-      <c r="T10" s="13"/>
-      <c r="U10" s="13"/>
-      <c r="V10" s="13"/>
-      <c r="W10" s="13"/>
-      <c r="X10" s="13"/>
-      <c r="Y10" s="13"/>
-      <c r="Z10" s="13"/>
-      <c r="AA10" s="13"/>
-      <c r="AB10" s="13"/>
-      <c r="AC10" s="13"/>
-      <c r="AD10" s="13"/>
-      <c r="AE10" s="13"/>
-      <c r="AF10" s="13"/>
-      <c r="AG10" s="13"/>
-      <c r="AH10" s="13"/>
-      <c r="AI10" s="13"/>
-      <c r="AJ10" s="13"/>
-      <c r="AK10" s="13"/>
-      <c r="AL10" s="13"/>
-    </row>
-    <row r="11" spans="1:38" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A11" s="15" t="s">
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="18"/>
+      <c r="O11" s="18"/>
+      <c r="P11" s="18"/>
+      <c r="Q11" s="18"/>
+      <c r="R11" s="18"/>
+      <c r="S11" s="18"/>
+      <c r="T11" s="18"/>
+      <c r="U11" s="18"/>
+      <c r="V11" s="18"/>
+      <c r="W11" s="18"/>
+      <c r="X11" s="18"/>
+      <c r="Y11" s="18"/>
+      <c r="Z11" s="18"/>
+      <c r="AA11" s="18"/>
+      <c r="AB11" s="18"/>
+      <c r="AC11" s="18"/>
+      <c r="AD11" s="18"/>
+      <c r="AE11" s="18"/>
+      <c r="AF11" s="18"/>
+      <c r="AG11" s="18"/>
+      <c r="AH11" s="18"/>
+      <c r="AI11" s="18"/>
+      <c r="AJ11" s="18"/>
+      <c r="AK11" s="18"/>
+      <c r="AL11" s="18"/>
+    </row>
+    <row r="12" spans="1:42" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="13">
+      <c r="B12" s="18">
         <v>1</v>
       </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="13"/>
-      <c r="P11" s="13"/>
-      <c r="Q11" s="13"/>
-      <c r="R11" s="13"/>
-      <c r="S11" s="13"/>
-      <c r="T11" s="13"/>
-      <c r="U11" s="13"/>
-      <c r="V11" s="13"/>
-      <c r="W11" s="13"/>
-      <c r="X11" s="13"/>
-      <c r="Y11" s="13"/>
-      <c r="Z11" s="13"/>
-      <c r="AA11" s="13"/>
-      <c r="AB11" s="13"/>
-      <c r="AC11" s="13"/>
-      <c r="AD11" s="13"/>
-      <c r="AE11" s="13"/>
-      <c r="AF11" s="13"/>
-      <c r="AG11" s="13"/>
-      <c r="AH11" s="13"/>
-      <c r="AI11" s="13"/>
-      <c r="AJ11" s="13"/>
-      <c r="AK11" s="13"/>
-      <c r="AL11" s="13"/>
-    </row>
-    <row r="12" spans="1:38" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A12" s="15" t="s">
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="18"/>
+      <c r="P12" s="18"/>
+      <c r="Q12" s="18"/>
+      <c r="R12" s="18"/>
+      <c r="S12" s="18"/>
+      <c r="T12" s="18"/>
+      <c r="U12" s="18"/>
+      <c r="V12" s="18"/>
+      <c r="W12" s="18"/>
+      <c r="X12" s="18"/>
+      <c r="Y12" s="18"/>
+      <c r="Z12" s="18"/>
+      <c r="AA12" s="18"/>
+      <c r="AB12" s="18"/>
+      <c r="AC12" s="18"/>
+      <c r="AD12" s="18"/>
+      <c r="AE12" s="18"/>
+      <c r="AF12" s="18"/>
+      <c r="AG12" s="18"/>
+      <c r="AH12" s="18"/>
+      <c r="AI12" s="18"/>
+      <c r="AJ12" s="18"/>
+      <c r="AK12" s="18"/>
+      <c r="AL12" s="18"/>
+      <c r="AM12" s="13"/>
+    </row>
+    <row r="13" spans="1:42" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="13">
+      <c r="B13" s="18">
+        <v>2</v>
+      </c>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="18"/>
+      <c r="O13" s="18"/>
+      <c r="P13" s="18"/>
+      <c r="Q13" s="18"/>
+      <c r="R13" s="18"/>
+      <c r="S13" s="18"/>
+      <c r="T13" s="18"/>
+      <c r="U13" s="18"/>
+      <c r="V13" s="18"/>
+      <c r="W13" s="18"/>
+      <c r="X13" s="18"/>
+      <c r="Y13" s="18"/>
+      <c r="Z13" s="18"/>
+      <c r="AA13" s="18"/>
+      <c r="AB13" s="18"/>
+      <c r="AC13" s="18"/>
+      <c r="AD13" s="18"/>
+      <c r="AE13" s="18"/>
+      <c r="AF13" s="18"/>
+      <c r="AG13" s="18"/>
+      <c r="AH13" s="18"/>
+      <c r="AI13" s="18"/>
+      <c r="AJ13" s="18"/>
+      <c r="AK13" s="18"/>
+      <c r="AL13" s="18"/>
+      <c r="AM13" s="13"/>
+    </row>
+    <row r="14" spans="1:42" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="18"/>
+      <c r="O14" s="18"/>
+      <c r="P14" s="18"/>
+      <c r="Q14" s="18"/>
+      <c r="R14" s="18"/>
+      <c r="S14" s="18"/>
+      <c r="T14" s="18"/>
+      <c r="U14" s="18"/>
+      <c r="V14" s="18"/>
+      <c r="W14" s="18"/>
+      <c r="X14" s="18"/>
+      <c r="Y14" s="18"/>
+      <c r="Z14" s="18"/>
+      <c r="AA14" s="18"/>
+      <c r="AB14" s="18"/>
+      <c r="AC14" s="18"/>
+      <c r="AD14" s="18"/>
+      <c r="AE14" s="18"/>
+      <c r="AF14" s="18"/>
+      <c r="AG14" s="18"/>
+      <c r="AH14" s="18"/>
+      <c r="AI14" s="18"/>
+      <c r="AJ14" s="18"/>
+      <c r="AK14" s="18"/>
+      <c r="AL14" s="18"/>
+      <c r="AM14" s="13"/>
+    </row>
+    <row r="15" spans="1:42" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="18">
         <v>1</v>
       </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="13"/>
-      <c r="O12" s="13"/>
-      <c r="P12" s="13"/>
-      <c r="Q12" s="13"/>
-      <c r="R12" s="13"/>
-      <c r="S12" s="13"/>
-      <c r="T12" s="13"/>
-      <c r="U12" s="13"/>
-      <c r="V12" s="13"/>
-      <c r="W12" s="13"/>
-      <c r="X12" s="13"/>
-      <c r="Y12" s="13"/>
-      <c r="Z12" s="13"/>
-      <c r="AA12" s="13"/>
-      <c r="AB12" s="13"/>
-      <c r="AC12" s="13"/>
-      <c r="AD12" s="13"/>
-      <c r="AE12" s="13"/>
-      <c r="AF12" s="13"/>
-      <c r="AG12" s="13"/>
-      <c r="AH12" s="13"/>
-      <c r="AI12" s="13"/>
-      <c r="AJ12" s="13"/>
-      <c r="AK12" s="13"/>
-      <c r="AL12" s="13"/>
-    </row>
-    <row r="13" spans="1:38" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A13" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="13"/>
-      <c r="O13" s="13"/>
-      <c r="P13" s="13"/>
-      <c r="Q13" s="13"/>
-      <c r="R13" s="13"/>
-      <c r="S13" s="13"/>
-      <c r="T13" s="13"/>
-      <c r="U13" s="13"/>
-      <c r="V13" s="13"/>
-      <c r="W13" s="13"/>
-      <c r="X13" s="13"/>
-      <c r="Y13" s="13"/>
-      <c r="Z13" s="13"/>
-      <c r="AA13" s="13"/>
-      <c r="AB13" s="13"/>
-      <c r="AC13" s="13"/>
-      <c r="AD13" s="13"/>
-      <c r="AE13" s="13"/>
-      <c r="AF13" s="13"/>
-      <c r="AG13" s="13"/>
-      <c r="AH13" s="13"/>
-      <c r="AI13" s="13"/>
-      <c r="AJ13" s="13"/>
-      <c r="AK13" s="13"/>
-      <c r="AL13" s="13"/>
-    </row>
-    <row r="14" spans="1:38" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A14" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="13">
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="18"/>
+      <c r="O15" s="18"/>
+      <c r="P15" s="18"/>
+      <c r="Q15" s="18"/>
+      <c r="R15" s="18"/>
+      <c r="S15" s="18"/>
+      <c r="T15" s="18"/>
+      <c r="U15" s="18"/>
+      <c r="V15" s="18"/>
+      <c r="W15" s="18"/>
+      <c r="X15" s="18"/>
+      <c r="Y15" s="18"/>
+      <c r="Z15" s="18"/>
+      <c r="AA15" s="18"/>
+      <c r="AB15" s="18"/>
+      <c r="AC15" s="18"/>
+      <c r="AD15" s="18"/>
+      <c r="AE15" s="18"/>
+      <c r="AF15" s="18"/>
+      <c r="AG15" s="18"/>
+      <c r="AH15" s="18"/>
+      <c r="AI15" s="18"/>
+      <c r="AJ15" s="18"/>
+      <c r="AK15" s="18"/>
+      <c r="AL15" s="18"/>
+      <c r="AM15" s="13"/>
+    </row>
+    <row r="16" spans="1:42" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="18">
+        <v>2</v>
+      </c>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="18"/>
+      <c r="N16" s="18"/>
+      <c r="O16" s="18"/>
+      <c r="P16" s="18"/>
+      <c r="Q16" s="18"/>
+      <c r="R16" s="18"/>
+      <c r="S16" s="18"/>
+      <c r="T16" s="18"/>
+      <c r="U16" s="18"/>
+      <c r="V16" s="18"/>
+      <c r="W16" s="18"/>
+      <c r="X16" s="18"/>
+      <c r="Y16" s="18"/>
+      <c r="Z16" s="18"/>
+      <c r="AA16" s="18"/>
+      <c r="AB16" s="18"/>
+      <c r="AC16" s="18"/>
+      <c r="AD16" s="18"/>
+      <c r="AE16" s="18"/>
+      <c r="AF16" s="18"/>
+      <c r="AG16" s="18"/>
+      <c r="AH16" s="18"/>
+      <c r="AI16" s="18"/>
+      <c r="AJ16" s="18"/>
+      <c r="AK16" s="18"/>
+      <c r="AL16" s="18"/>
+      <c r="AM16" s="13"/>
+    </row>
+    <row r="17" spans="1:39" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="18"/>
+      <c r="M17" s="18"/>
+      <c r="N17" s="18"/>
+      <c r="O17" s="18"/>
+      <c r="P17" s="18"/>
+      <c r="Q17" s="18"/>
+      <c r="R17" s="18"/>
+      <c r="S17" s="18"/>
+      <c r="T17" s="18"/>
+      <c r="U17" s="18"/>
+      <c r="V17" s="18"/>
+      <c r="W17" s="18"/>
+      <c r="X17" s="18"/>
+      <c r="Y17" s="18"/>
+      <c r="Z17" s="18"/>
+      <c r="AA17" s="18"/>
+      <c r="AB17" s="18"/>
+      <c r="AC17" s="18"/>
+      <c r="AD17" s="18"/>
+      <c r="AE17" s="18"/>
+      <c r="AF17" s="18"/>
+      <c r="AG17" s="18"/>
+      <c r="AH17" s="18"/>
+      <c r="AI17" s="18"/>
+      <c r="AJ17" s="18"/>
+      <c r="AK17" s="18"/>
+      <c r="AL17" s="18"/>
+      <c r="AM17" s="13"/>
+    </row>
+    <row r="18" spans="1:39" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="18">
         <v>1</v>
       </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="13"/>
-      <c r="O14" s="13"/>
-      <c r="P14" s="13"/>
-      <c r="Q14" s="13"/>
-      <c r="R14" s="13"/>
-      <c r="S14" s="13"/>
-      <c r="T14" s="13"/>
-      <c r="U14" s="13"/>
-      <c r="V14" s="13"/>
-      <c r="W14" s="13"/>
-      <c r="X14" s="13"/>
-      <c r="Y14" s="13"/>
-      <c r="Z14" s="13"/>
-      <c r="AA14" s="13"/>
-      <c r="AB14" s="13"/>
-      <c r="AC14" s="13"/>
-      <c r="AD14" s="13"/>
-      <c r="AE14" s="13"/>
-      <c r="AF14" s="13"/>
-      <c r="AG14" s="13"/>
-      <c r="AH14" s="13"/>
-      <c r="AI14" s="13"/>
-      <c r="AJ14" s="13"/>
-      <c r="AK14" s="13"/>
-      <c r="AL14" s="13"/>
-    </row>
-    <row r="15" spans="1:38" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A15" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="13">
-        <v>2</v>
-      </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="13"/>
-      <c r="P15" s="13"/>
-      <c r="Q15" s="13"/>
-      <c r="R15" s="13"/>
-      <c r="S15" s="13"/>
-      <c r="T15" s="13"/>
-      <c r="U15" s="13"/>
-      <c r="V15" s="13"/>
-      <c r="W15" s="13"/>
-      <c r="X15" s="13"/>
-      <c r="Y15" s="13"/>
-      <c r="Z15" s="13"/>
-      <c r="AA15" s="13"/>
-      <c r="AB15" s="13"/>
-      <c r="AC15" s="13"/>
-      <c r="AD15" s="13"/>
-      <c r="AE15" s="13"/>
-      <c r="AF15" s="13"/>
-      <c r="AG15" s="13"/>
-      <c r="AH15" s="13"/>
-      <c r="AI15" s="13"/>
-      <c r="AJ15" s="13"/>
-      <c r="AK15" s="13"/>
-      <c r="AL15" s="13"/>
-    </row>
-    <row r="16" spans="1:38" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A16" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="13"/>
-      <c r="N16" s="13"/>
-      <c r="O16" s="13"/>
-      <c r="P16" s="13"/>
-      <c r="Q16" s="13"/>
-      <c r="R16" s="13"/>
-      <c r="S16" s="13"/>
-      <c r="T16" s="13"/>
-      <c r="U16" s="13"/>
-      <c r="V16" s="13"/>
-      <c r="W16" s="13"/>
-      <c r="X16" s="13"/>
-      <c r="Y16" s="13"/>
-      <c r="Z16" s="13"/>
-      <c r="AA16" s="13"/>
-      <c r="AB16" s="13"/>
-      <c r="AC16" s="13"/>
-      <c r="AD16" s="13"/>
-      <c r="AE16" s="13"/>
-      <c r="AF16" s="13"/>
-      <c r="AG16" s="13"/>
-      <c r="AH16" s="13"/>
-      <c r="AI16" s="13"/>
-      <c r="AJ16" s="13"/>
-      <c r="AK16" s="13"/>
-      <c r="AL16" s="13"/>
-    </row>
-    <row r="17" spans="1:38" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A17" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" s="13">
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="18"/>
+      <c r="M18" s="18"/>
+      <c r="N18" s="18"/>
+      <c r="O18" s="18"/>
+      <c r="P18" s="18"/>
+      <c r="Q18" s="18"/>
+      <c r="R18" s="18"/>
+      <c r="S18" s="18"/>
+      <c r="T18" s="18"/>
+      <c r="U18" s="18"/>
+      <c r="V18" s="18"/>
+      <c r="W18" s="18"/>
+      <c r="X18" s="18"/>
+      <c r="Y18" s="18"/>
+      <c r="Z18" s="18"/>
+      <c r="AA18" s="18"/>
+      <c r="AB18" s="18"/>
+      <c r="AC18" s="18"/>
+      <c r="AD18" s="18"/>
+      <c r="AE18" s="18"/>
+      <c r="AF18" s="18"/>
+      <c r="AG18" s="18"/>
+      <c r="AH18" s="18"/>
+      <c r="AI18" s="18"/>
+      <c r="AJ18" s="18"/>
+      <c r="AK18" s="18"/>
+      <c r="AL18" s="18"/>
+      <c r="AM18" s="13"/>
+    </row>
+    <row r="19" spans="1:39" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="18"/>
+      <c r="M19" s="18"/>
+      <c r="N19" s="18"/>
+      <c r="O19" s="18"/>
+      <c r="P19" s="18"/>
+      <c r="Q19" s="18"/>
+      <c r="R19" s="18"/>
+      <c r="S19" s="18"/>
+      <c r="T19" s="18"/>
+      <c r="U19" s="18"/>
+      <c r="V19" s="18"/>
+      <c r="W19" s="18"/>
+      <c r="X19" s="18"/>
+      <c r="Y19" s="18"/>
+      <c r="Z19" s="18"/>
+      <c r="AA19" s="18"/>
+      <c r="AB19" s="18"/>
+      <c r="AC19" s="18"/>
+      <c r="AD19" s="18"/>
+      <c r="AE19" s="18"/>
+      <c r="AF19" s="18"/>
+      <c r="AG19" s="18"/>
+      <c r="AH19" s="18"/>
+      <c r="AI19" s="18"/>
+      <c r="AJ19" s="18"/>
+      <c r="AK19" s="18"/>
+      <c r="AL19" s="18"/>
+      <c r="AM19" s="13"/>
+    </row>
+    <row r="20" spans="1:39" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A20" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="18">
         <v>1</v>
       </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="13"/>
-      <c r="O17" s="13"/>
-      <c r="P17" s="13"/>
-      <c r="Q17" s="13"/>
-      <c r="R17" s="13"/>
-      <c r="S17" s="13"/>
-      <c r="T17" s="13"/>
-      <c r="U17" s="13"/>
-      <c r="V17" s="13"/>
-      <c r="W17" s="13"/>
-      <c r="X17" s="13"/>
-      <c r="Y17" s="13"/>
-      <c r="Z17" s="13"/>
-      <c r="AA17" s="13"/>
-      <c r="AB17" s="13"/>
-      <c r="AC17" s="13"/>
-      <c r="AD17" s="13"/>
-      <c r="AE17" s="13"/>
-      <c r="AF17" s="13"/>
-      <c r="AG17" s="13"/>
-      <c r="AH17" s="13"/>
-      <c r="AI17" s="13"/>
-      <c r="AJ17" s="13"/>
-      <c r="AK17" s="13"/>
-      <c r="AL17" s="13"/>
-    </row>
-    <row r="18" spans="1:38" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A18" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="13"/>
-      <c r="O18" s="13"/>
-      <c r="P18" s="13"/>
-      <c r="Q18" s="13"/>
-      <c r="R18" s="13"/>
-      <c r="S18" s="13"/>
-      <c r="T18" s="13"/>
-      <c r="U18" s="13"/>
-      <c r="V18" s="13"/>
-      <c r="W18" s="13"/>
-      <c r="X18" s="13"/>
-      <c r="Y18" s="13"/>
-      <c r="Z18" s="13"/>
-      <c r="AA18" s="13"/>
-      <c r="AB18" s="13"/>
-      <c r="AC18" s="13"/>
-      <c r="AD18" s="13"/>
-      <c r="AE18" s="13"/>
-      <c r="AF18" s="13"/>
-      <c r="AG18" s="13"/>
-      <c r="AH18" s="13"/>
-      <c r="AI18" s="13"/>
-      <c r="AJ18" s="13"/>
-      <c r="AK18" s="13"/>
-      <c r="AL18" s="13"/>
-    </row>
-    <row r="19" spans="1:38" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A19" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" s="13">
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="18"/>
+      <c r="M20" s="18"/>
+      <c r="N20" s="18"/>
+      <c r="O20" s="18"/>
+      <c r="P20" s="18"/>
+      <c r="Q20" s="18"/>
+      <c r="R20" s="18"/>
+      <c r="S20" s="18"/>
+      <c r="T20" s="18"/>
+      <c r="U20" s="18"/>
+      <c r="V20" s="18"/>
+      <c r="W20" s="18"/>
+      <c r="X20" s="18"/>
+      <c r="Y20" s="18"/>
+      <c r="Z20" s="18"/>
+      <c r="AA20" s="18"/>
+      <c r="AB20" s="18"/>
+      <c r="AC20" s="18"/>
+      <c r="AD20" s="18"/>
+      <c r="AE20" s="18"/>
+      <c r="AF20" s="18"/>
+      <c r="AG20" s="18"/>
+      <c r="AH20" s="18"/>
+      <c r="AI20" s="18"/>
+      <c r="AJ20" s="18"/>
+      <c r="AK20" s="18"/>
+      <c r="AL20" s="18"/>
+    </row>
+    <row r="21" spans="1:39" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A21" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="18"/>
+      <c r="M21" s="18"/>
+      <c r="N21" s="18"/>
+      <c r="O21" s="18"/>
+      <c r="P21" s="18"/>
+      <c r="Q21" s="18"/>
+      <c r="R21" s="18"/>
+      <c r="S21" s="18"/>
+      <c r="T21" s="18"/>
+      <c r="U21" s="18"/>
+      <c r="V21" s="18"/>
+      <c r="W21" s="18"/>
+      <c r="X21" s="18"/>
+      <c r="Y21" s="18"/>
+      <c r="Z21" s="18"/>
+      <c r="AA21" s="18"/>
+      <c r="AB21" s="18"/>
+      <c r="AC21" s="18"/>
+      <c r="AD21" s="18"/>
+      <c r="AE21" s="18"/>
+      <c r="AF21" s="18"/>
+      <c r="AG21" s="18"/>
+      <c r="AH21" s="18"/>
+      <c r="AI21" s="18"/>
+      <c r="AJ21" s="18"/>
+      <c r="AK21" s="18"/>
+      <c r="AL21" s="18"/>
+    </row>
+    <row r="22" spans="1:39" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A22" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="18">
         <v>1</v>
       </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="13"/>
-      <c r="N19" s="13"/>
-      <c r="O19" s="13"/>
-      <c r="P19" s="13"/>
-      <c r="Q19" s="13"/>
-      <c r="R19" s="13"/>
-      <c r="S19" s="13"/>
-      <c r="T19" s="13"/>
-      <c r="U19" s="13"/>
-      <c r="V19" s="13"/>
-      <c r="W19" s="13"/>
-      <c r="X19" s="13"/>
-      <c r="Y19" s="13"/>
-      <c r="Z19" s="13"/>
-      <c r="AA19" s="13"/>
-      <c r="AB19" s="13"/>
-      <c r="AC19" s="13"/>
-      <c r="AD19" s="13"/>
-      <c r="AE19" s="13"/>
-      <c r="AF19" s="13"/>
-      <c r="AG19" s="13"/>
-      <c r="AH19" s="13"/>
-      <c r="AI19" s="13"/>
-      <c r="AJ19" s="13"/>
-      <c r="AK19" s="13"/>
-      <c r="AL19" s="13"/>
-    </row>
-    <row r="20" spans="1:38" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A20" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
-      <c r="M20" s="13"/>
-      <c r="N20" s="13"/>
-      <c r="O20" s="13"/>
-      <c r="P20" s="13"/>
-      <c r="Q20" s="13"/>
-      <c r="R20" s="13"/>
-      <c r="S20" s="13"/>
-      <c r="T20" s="13"/>
-      <c r="U20" s="13"/>
-      <c r="V20" s="13"/>
-      <c r="W20" s="13"/>
-      <c r="X20" s="13"/>
-      <c r="Y20" s="13"/>
-      <c r="Z20" s="13"/>
-      <c r="AA20" s="13"/>
-      <c r="AB20" s="13"/>
-      <c r="AC20" s="13"/>
-      <c r="AD20" s="13"/>
-      <c r="AE20" s="13"/>
-      <c r="AF20" s="13"/>
-      <c r="AG20" s="13"/>
-      <c r="AH20" s="13"/>
-      <c r="AI20" s="13"/>
-      <c r="AJ20" s="13"/>
-      <c r="AK20" s="13"/>
-      <c r="AL20" s="13"/>
-    </row>
-    <row r="21" spans="1:38" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A21" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="13"/>
-      <c r="N21" s="13"/>
-      <c r="O21" s="13"/>
-      <c r="P21" s="13"/>
-      <c r="Q21" s="13"/>
-      <c r="R21" s="13"/>
-      <c r="S21" s="13"/>
-      <c r="T21" s="13"/>
-      <c r="U21" s="13"/>
-      <c r="V21" s="13"/>
-      <c r="W21" s="13"/>
-      <c r="X21" s="13"/>
-      <c r="Y21" s="13"/>
-      <c r="Z21" s="13"/>
-      <c r="AA21" s="13"/>
-      <c r="AB21" s="13"/>
-      <c r="AC21" s="13"/>
-      <c r="AD21" s="13"/>
-      <c r="AE21" s="13"/>
-      <c r="AF21" s="13"/>
-      <c r="AG21" s="13"/>
-      <c r="AH21" s="13"/>
-      <c r="AI21" s="13"/>
-      <c r="AJ21" s="13"/>
-      <c r="AK21" s="13"/>
-      <c r="AL21" s="13"/>
-    </row>
-    <row r="22" spans="1:38" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A22" s="15" t="s">
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="18"/>
+      <c r="M22" s="18"/>
+      <c r="N22" s="18"/>
+      <c r="O22" s="18"/>
+      <c r="P22" s="18"/>
+      <c r="Q22" s="18"/>
+      <c r="R22" s="18"/>
+      <c r="S22" s="18"/>
+      <c r="T22" s="18"/>
+      <c r="U22" s="18"/>
+      <c r="V22" s="18"/>
+      <c r="W22" s="18"/>
+      <c r="X22" s="18"/>
+      <c r="Y22" s="18"/>
+      <c r="Z22" s="18"/>
+      <c r="AA22" s="18"/>
+      <c r="AB22" s="18"/>
+      <c r="AC22" s="18"/>
+      <c r="AD22" s="18"/>
+      <c r="AE22" s="18"/>
+      <c r="AF22" s="18"/>
+      <c r="AG22" s="18"/>
+      <c r="AH22" s="18"/>
+      <c r="AI22" s="18"/>
+      <c r="AJ22" s="18"/>
+      <c r="AK22" s="18"/>
+      <c r="AL22" s="18"/>
+    </row>
+    <row r="23" spans="1:39" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A23" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="13"/>
-      <c r="N22" s="13"/>
-      <c r="O22" s="13"/>
-      <c r="P22" s="13"/>
-      <c r="Q22" s="13"/>
-      <c r="R22" s="13"/>
-      <c r="S22" s="13"/>
-      <c r="T22" s="13"/>
-      <c r="U22" s="13"/>
-      <c r="V22" s="13"/>
-      <c r="W22" s="13"/>
-      <c r="X22" s="13"/>
-      <c r="Y22" s="13"/>
-      <c r="Z22" s="13"/>
-      <c r="AA22" s="13"/>
-      <c r="AB22" s="13"/>
-      <c r="AC22" s="13"/>
-      <c r="AD22" s="13"/>
-      <c r="AE22" s="13"/>
-      <c r="AF22" s="13"/>
-      <c r="AG22" s="13"/>
-      <c r="AH22" s="13"/>
-      <c r="AI22" s="13"/>
-      <c r="AJ22" s="13"/>
-      <c r="AK22" s="13"/>
-      <c r="AL22" s="13"/>
-    </row>
-    <row r="23" spans="1:38" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A23" s="15" t="s">
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="18"/>
+      <c r="M23" s="18"/>
+      <c r="N23" s="18"/>
+      <c r="O23" s="18"/>
+      <c r="P23" s="18"/>
+      <c r="Q23" s="18"/>
+      <c r="R23" s="18"/>
+      <c r="S23" s="18"/>
+      <c r="T23" s="18"/>
+      <c r="U23" s="18"/>
+      <c r="V23" s="18"/>
+      <c r="W23" s="18"/>
+      <c r="X23" s="18"/>
+      <c r="Y23" s="18"/>
+      <c r="Z23" s="18"/>
+      <c r="AA23" s="18"/>
+      <c r="AB23" s="18"/>
+      <c r="AC23" s="18"/>
+      <c r="AD23" s="18"/>
+      <c r="AE23" s="18"/>
+      <c r="AF23" s="18"/>
+      <c r="AG23" s="18"/>
+      <c r="AH23" s="18"/>
+      <c r="AI23" s="18"/>
+      <c r="AJ23" s="18"/>
+      <c r="AK23" s="18"/>
+      <c r="AL23" s="18"/>
+    </row>
+    <row r="24" spans="1:39" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A24" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="13"/>
-      <c r="N23" s="13"/>
-      <c r="O23" s="13"/>
-      <c r="P23" s="13"/>
-      <c r="Q23" s="13"/>
-      <c r="R23" s="13"/>
-      <c r="S23" s="13"/>
-      <c r="T23" s="13"/>
-      <c r="U23" s="13"/>
-      <c r="V23" s="13"/>
-      <c r="W23" s="13"/>
-      <c r="X23" s="13"/>
-      <c r="Y23" s="13"/>
-      <c r="Z23" s="13"/>
-      <c r="AA23" s="13"/>
-      <c r="AB23" s="13"/>
-      <c r="AC23" s="13"/>
-      <c r="AD23" s="13"/>
-      <c r="AE23" s="13"/>
-      <c r="AF23" s="13"/>
-      <c r="AG23" s="13"/>
-      <c r="AH23" s="13"/>
-      <c r="AI23" s="13"/>
-      <c r="AJ23" s="13"/>
-      <c r="AK23" s="13"/>
-      <c r="AL23" s="13"/>
-    </row>
-    <row r="24" spans="1:38" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="18">
+        <v>1</v>
+      </c>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="18"/>
+      <c r="L24" s="18"/>
+      <c r="M24" s="18"/>
+      <c r="N24" s="18"/>
+      <c r="O24" s="18"/>
+      <c r="P24" s="18"/>
+      <c r="Q24" s="18"/>
+      <c r="R24" s="18"/>
+      <c r="S24" s="18"/>
+      <c r="T24" s="18"/>
+      <c r="U24" s="18"/>
+      <c r="V24" s="18"/>
+      <c r="W24" s="18"/>
+      <c r="X24" s="18"/>
+      <c r="Y24" s="18"/>
+      <c r="Z24" s="18"/>
+      <c r="AA24" s="18"/>
+      <c r="AB24" s="18"/>
+      <c r="AC24" s="18"/>
+      <c r="AD24" s="18"/>
+      <c r="AE24" s="18"/>
+      <c r="AF24" s="18"/>
+      <c r="AG24" s="18"/>
+      <c r="AH24" s="18"/>
+      <c r="AI24" s="18"/>
+      <c r="AJ24" s="18"/>
+      <c r="AK24" s="18"/>
+      <c r="AL24" s="18"/>
+      <c r="AM24" s="12"/>
+    </row>
+    <row r="25" spans="1:39" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A25" s="7"/>
+      <c r="B25" s="9"/>
+    </row>
+    <row r="26" spans="1:39" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A26" s="7"/>
+      <c r="B26" s="9"/>
+    </row>
+    <row r="27" spans="1:39" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A27" s="7"/>
+      <c r="B27" s="9"/>
+      <c r="O27" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
-    </row>
-    <row r="25" spans="1:38" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A25" s="7"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-    </row>
-    <row r="26" spans="1:38" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A26" s="7"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-    </row>
-    <row r="27" spans="1:38" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A27" s="7"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
-    </row>
-    <row r="28" spans="1:38" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="P27" s="16"/>
+      <c r="Q27" s="16"/>
+      <c r="R27" s="16"/>
+      <c r="S27" s="16"/>
+      <c r="T27" s="16"/>
+      <c r="U27" s="16"/>
+      <c r="V27" s="16"/>
+    </row>
+    <row r="28" spans="1:39" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A28" s="7"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
-    </row>
-    <row r="29" spans="1:38" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="B28" s="9"/>
+      <c r="O28" s="16"/>
+      <c r="P28" s="16"/>
+      <c r="Q28" s="16"/>
+      <c r="R28" s="16"/>
+      <c r="S28" s="16"/>
+      <c r="T28" s="16"/>
+      <c r="U28" s="16"/>
+      <c r="V28" s="16"/>
+    </row>
+    <row r="29" spans="1:39" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A29" s="7"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11"/>
-    </row>
-    <row r="30" spans="1:38" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="B29" s="9"/>
+      <c r="O29" s="16"/>
+      <c r="P29" s="16"/>
+      <c r="Q29" s="16"/>
+      <c r="R29" s="16"/>
+      <c r="S29" s="16"/>
+      <c r="T29" s="16"/>
+      <c r="U29" s="16"/>
+      <c r="V29" s="16"/>
+    </row>
+    <row r="30" spans="1:39" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11"/>
-    </row>
-    <row r="31" spans="1:38" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="B30" s="9"/>
+      <c r="O30" s="16"/>
+      <c r="P30" s="16"/>
+      <c r="Q30" s="16"/>
+      <c r="R30" s="16"/>
+      <c r="S30" s="16"/>
+      <c r="T30" s="16"/>
+      <c r="U30" s="16"/>
+      <c r="V30" s="16"/>
+    </row>
+    <row r="31" spans="1:39" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11"/>
-    </row>
-    <row r="32" spans="1:38" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="B31" s="9"/>
+      <c r="O31" s="16"/>
+      <c r="P31" s="16"/>
+      <c r="Q31" s="16"/>
+      <c r="R31" s="16"/>
+      <c r="S31" s="16"/>
+      <c r="T31" s="16"/>
+      <c r="U31" s="16"/>
+      <c r="V31" s="16"/>
+    </row>
+    <row r="32" spans="1:39" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="11"/>
-    </row>
-    <row r="33" spans="1:9" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="B32" s="9"/>
+      <c r="O32" s="16"/>
+      <c r="P32" s="16"/>
+      <c r="Q32" s="16"/>
+      <c r="R32" s="16"/>
+      <c r="S32" s="16"/>
+      <c r="T32" s="16"/>
+      <c r="U32" s="16"/>
+      <c r="V32" s="16"/>
+    </row>
+    <row r="33" spans="1:22" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
-      <c r="B33" s="11"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="11"/>
-      <c r="I33" s="11"/>
-    </row>
-    <row r="34" spans="1:9" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="B33" s="9"/>
+      <c r="O33" s="16"/>
+      <c r="P33" s="16"/>
+      <c r="Q33" s="16"/>
+      <c r="R33" s="16"/>
+      <c r="S33" s="16"/>
+      <c r="T33" s="16"/>
+      <c r="U33" s="16"/>
+      <c r="V33" s="16"/>
+    </row>
+    <row r="34" spans="1:22" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
-      <c r="B34" s="11"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="11"/>
-      <c r="I34" s="11"/>
-    </row>
-    <row r="35" spans="1:9" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="B34" s="9"/>
+      <c r="O34" s="16"/>
+      <c r="P34" s="16"/>
+      <c r="Q34" s="16"/>
+      <c r="R34" s="16"/>
+      <c r="S34" s="16"/>
+      <c r="T34" s="16"/>
+      <c r="U34" s="16"/>
+      <c r="V34" s="16"/>
+    </row>
+    <row r="35" spans="1:22" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
-      <c r="B35" s="11"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11"/>
-      <c r="H35" s="11"/>
-      <c r="I35" s="11"/>
-    </row>
-    <row r="36" spans="1:9" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="B35" s="9"/>
+      <c r="O35" s="16"/>
+      <c r="P35" s="16"/>
+      <c r="Q35" s="16"/>
+      <c r="R35" s="16"/>
+      <c r="S35" s="16"/>
+      <c r="T35" s="16"/>
+      <c r="U35" s="16"/>
+      <c r="V35" s="16"/>
+    </row>
+    <row r="36" spans="1:22" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A36" s="7"/>
       <c r="B36" s="7"/>
-    </row>
-    <row r="37" spans="1:9" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="O36" s="16"/>
+      <c r="P36" s="16"/>
+      <c r="Q36" s="16"/>
+      <c r="R36" s="16"/>
+      <c r="S36" s="16"/>
+      <c r="T36" s="16"/>
+      <c r="U36" s="16"/>
+      <c r="V36" s="16"/>
+    </row>
+    <row r="37" spans="1:22" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A37" s="7"/>
       <c r="B37" s="7"/>
+      <c r="O37" s="16"/>
+      <c r="P37" s="16"/>
+      <c r="Q37" s="16"/>
+      <c r="R37" s="16"/>
+      <c r="S37" s="16"/>
+      <c r="T37" s="16"/>
+      <c r="U37" s="16"/>
+      <c r="V37" s="16"/>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="O38" s="16"/>
+      <c r="P38" s="16"/>
+      <c r="Q38" s="16"/>
+      <c r="R38" s="16"/>
+      <c r="S38" s="16"/>
+      <c r="T38" s="16"/>
+      <c r="U38" s="16"/>
+      <c r="V38" s="16"/>
     </row>
   </sheetData>
-  <sortState ref="A1:A23">
-    <sortCondition ref="A1"/>
+  <sortState ref="A2:A24">
+    <sortCondition ref="A2"/>
   </sortState>
-  <mergeCells count="24">
-    <mergeCell ref="B6:AL6"/>
-    <mergeCell ref="B21:AL21"/>
-    <mergeCell ref="B22:AL22"/>
+  <mergeCells count="25">
     <mergeCell ref="B23:AL23"/>
-    <mergeCell ref="B15:AL15"/>
-    <mergeCell ref="B8:AL8"/>
+    <mergeCell ref="B24:AL24"/>
     <mergeCell ref="B16:AL16"/>
+    <mergeCell ref="B9:AL9"/>
     <mergeCell ref="B17:AL17"/>
     <mergeCell ref="B18:AL18"/>
     <mergeCell ref="B19:AL19"/>
     <mergeCell ref="B20:AL20"/>
-    <mergeCell ref="B24:I35"/>
+    <mergeCell ref="B21:AL21"/>
     <mergeCell ref="B1:AL1"/>
+    <mergeCell ref="O27:V38"/>
     <mergeCell ref="B2:AL2"/>
     <mergeCell ref="B3:AL3"/>
     <mergeCell ref="B4:AL4"/>
     <mergeCell ref="B5:AL5"/>
-    <mergeCell ref="B7:AL7"/>
-    <mergeCell ref="B9:AL9"/>
+    <mergeCell ref="B6:AL6"/>
+    <mergeCell ref="B8:AL8"/>
     <mergeCell ref="B10:AL10"/>
     <mergeCell ref="B11:AL11"/>
     <mergeCell ref="B12:AL12"/>
     <mergeCell ref="B13:AL13"/>
     <mergeCell ref="B14:AL14"/>
+    <mergeCell ref="B15:AL15"/>
+    <mergeCell ref="B7:AL7"/>
+    <mergeCell ref="B22:AL22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B1:AL23">
-    <cfRule type="dataBar" priority="2">
+  <conditionalFormatting sqref="B2:AL24">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="num" val="$AO$2"/>
+        <cfvo type="num" val="$AO$3"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{48D060B4-F36D-4395-B4B4-17F9B4625373}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="5">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF0070C0"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{B22DC60B-6FFE-424C-B759-B8C78B034A36}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="6">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6044,15 +6337,17 @@
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="dataBar" priority="1">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:AL24">
+    <cfRule type="dataBar" priority="9">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
-        <color rgb="FF0070C0"/>
+        <color rgb="FF638EC6"/>
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{B22DC60B-6FFE-424C-B759-B8C78B034A36}</x14:id>
+          <x14:id>{84B8732A-7E6A-49B0-B904-62DFF164AB52}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -6063,10 +6358,14 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{CDD73560-2096-453D-92C7-FD0A7B130A2A}">
+          <x14:cfRule type="dataBar" id="{48D060B4-F36D-4395-B4B4-17F9B4625373}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
+              <x14:cfvo type="num">
+                <xm:f>$AO$2</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>$AO$3</xm:f>
+              </x14:cfvo>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
@@ -6079,7 +6378,26 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>B1:AL23</xm:sqref>
+          <x14:cfRule type="dataBar" id="{CDD73560-2096-453D-92C7-FD0A7B130A2A}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>B2:AL24</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{84B8732A-7E6A-49B0-B904-62DFF164AB52}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>B2:AL24</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/前端工程师班.xlsx
+++ b/前端工程师班.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yacon\Desktop\前端随堂笔记\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98E43702-73B2-475F-AD1B-8263A69C433D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{677CAE61-D050-42F8-A090-37A0D914B999}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="19188" windowHeight="12816" activeTab="1" xr2:uid="{F18D4CDB-7335-4D71-A58E-AC92FD55C192}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="19104" windowHeight="12816" activeTab="1" xr2:uid="{F18D4CDB-7335-4D71-A58E-AC92FD55C192}"/>
   </bookViews>
   <sheets>
     <sheet name="异常记录" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,9 @@
           </rPr>
           <t xml:space="preserve">
 2019/12/18
-正课迟到1分钟</t>
+正课迟到1分钟
+2019/1/6
+正课迟到6分钟</t>
         </r>
       </text>
     </comment>
@@ -117,7 +119,7 @@
 2019/12/18 
 练习课看小说
 2019/12/30
-正常吃东西</t>
+正课吃东西</t>
         </r>
       </text>
     </comment>
@@ -252,7 +254,9 @@
           </rPr>
           <t xml:space="preserve">
 2019/12/23
-正课迟到9分钟</t>
+正课迟到9分钟
+2019/1/6
+正课迟到1分钟</t>
         </r>
       </text>
     </comment>
@@ -358,7 +362,9 @@
           </rPr>
           <t xml:space="preserve">
 2019/12/30
-正课迟到3分钟</t>
+正课迟到3分钟
+2019/1/6
+正课迟到2分钟</t>
         </r>
       </text>
     </comment>
@@ -384,6 +390,58 @@
           <t xml:space="preserve">
 2019/12/30
 正常迟到3分钟</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E12" authorId="0" shapeId="0" xr:uid="{43062D26-0DB8-4BEE-9509-069A2E37B77B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Yacon:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+2020/1/4
+练习课病假</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B13" authorId="0" shapeId="0" xr:uid="{6A20091E-7726-4765-9EEC-9CDB5F5A4FF1}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Yacon:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+2020/1/6
+正课迟到</t>
         </r>
       </text>
     </comment>
@@ -667,12 +725,80 @@
         </r>
       </text>
     </comment>
+    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{460CB6AB-6DAF-40F8-A8DD-453BE3D33BA7}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Yacon:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+2</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>020/1/4</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{52F92342-5CDA-4F55-B562-4F7A2447990E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Yacon:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+2</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>020/1/4</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="62">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -877,12 +1003,36 @@
     <t xml:space="preserve"> </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>病假</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王宁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄羽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JS考核3基础题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JS考核3加分题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -982,8 +1132,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -999,6 +1157,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1032,7 +1196,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1075,6 +1239,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1089,12 +1262,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1410,10 +1577,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA0A5D22-6F6C-4A6B-9DB1-CD65D73062C4}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="22.8" x14ac:dyDescent="0.25"/>
@@ -1423,29 +1590,32 @@
     <col min="5" max="16384" width="8.5546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="16" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1453,7 +1623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -1464,7 +1634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>29</v>
       </c>
@@ -1475,7 +1645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
@@ -1483,18 +1653,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B7" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>21</v>
       </c>
@@ -1502,7 +1672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>36</v>
       </c>
@@ -1510,19 +1680,35 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B10" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B11" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" s="2">
         <v>1</v>
       </c>
     </row>
@@ -1539,25 +1725,27 @@
   <dimension ref="A1:Y50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I52" sqref="I52"/>
+      <selection pane="bottomRight" activeCell="X20" sqref="X20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.399999999999999" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="7" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="21.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="23" width="3.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="8.88671875" style="1"/>
+    <col min="11" max="14" width="21.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="23" width="3.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="8.88671875" style="1"/>
+    <col min="25" max="25" width="2.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
@@ -1597,8 +1785,12 @@
       <c r="L1" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
+      <c r="M1" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>61</v>
+      </c>
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
       <c r="Q1" s="3"/>
@@ -1611,7 +1803,7 @@
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
-        <f>SUM(C28:W28)</f>
+        <f t="shared" ref="A2:A24" si="0">SUM(C28:W28)</f>
         <v>15</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -1661,7 +1853,7 @@
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
-        <f>SUM(C29:W29)</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -1711,7 +1903,7 @@
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
-        <f>SUM(C30:W30)</f>
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -1761,7 +1953,7 @@
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
-        <f>SUM(C31:W31)</f>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -1811,7 +2003,7 @@
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
-        <f>SUM(C32:W32)</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -1861,7 +2053,7 @@
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
-        <f>SUM(C33:W33)</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -1911,7 +2103,7 @@
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
-        <f>SUM(C34:W34)</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -1961,7 +2153,7 @@
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
-        <f>SUM(C35:W35)</f>
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -2014,7 +2206,7 @@
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
-        <f>SUM(C36:W36)</f>
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -2064,7 +2256,7 @@
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
-        <f>SUM(C37:W37)</f>
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -2114,7 +2306,7 @@
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
-        <f>SUM(C38:W38)</f>
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -2164,7 +2356,7 @@
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
-        <f>SUM(C39:W39)</f>
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -2214,8 +2406,8 @@
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
-        <f>SUM(C40:W40)</f>
-        <v>36</v>
+        <f t="shared" si="0"/>
+        <v>41</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>25</v>
@@ -2245,13 +2437,17 @@
         <v>32</v>
       </c>
       <c r="K14" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N14" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
       <c r="O14" s="3"/>
       <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
@@ -2264,7 +2460,7 @@
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
-        <f>SUM(C41:W41)</f>
+        <f t="shared" si="0"/>
         <v>37</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -2314,7 +2510,7 @@
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
-        <f>SUM(C42:W42)</f>
+        <f t="shared" si="0"/>
         <v>39</v>
       </c>
       <c r="B16" s="3" t="s">
@@ -2364,7 +2560,7 @@
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
-        <f>SUM(C43:W43)</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -2414,7 +2610,7 @@
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
-        <f>SUM(C44:W44)</f>
+        <f t="shared" si="0"/>
         <v>41</v>
       </c>
       <c r="B18" s="3" t="s">
@@ -2464,7 +2660,7 @@
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
-        <f>SUM(C45:W45)</f>
+        <f t="shared" si="0"/>
         <v>42</v>
       </c>
       <c r="B19" s="3" t="s">
@@ -2514,7 +2710,7 @@
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
-        <f>SUM(C46:W46)</f>
+        <f t="shared" si="0"/>
         <v>43</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -2564,7 +2760,7 @@
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
-        <f>SUM(C47:W47)</f>
+        <f t="shared" si="0"/>
         <v>45</v>
       </c>
       <c r="B21" s="3" t="s">
@@ -2614,8 +2810,8 @@
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
-        <f>SUM(C48:W48)</f>
-        <v>47</v>
+        <f t="shared" si="0"/>
+        <v>57</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>10</v>
@@ -2650,8 +2846,12 @@
       <c r="L22" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
+      <c r="M22" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="O22" s="3"/>
       <c r="P22" s="3"/>
       <c r="Q22" s="3"/>
@@ -2664,8 +2864,8 @@
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
-        <f>SUM(C49:W49)</f>
-        <v>47</v>
+        <f t="shared" si="0"/>
+        <v>52</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>8</v>
@@ -2700,8 +2900,12 @@
       <c r="L23" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
+      <c r="M23" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="O23" s="3"/>
       <c r="P23" s="3"/>
       <c r="Q23" s="3"/>
@@ -2714,8 +2918,8 @@
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
-        <f>SUM(C50:W50)</f>
-        <v>49</v>
+        <f t="shared" si="0"/>
+        <v>53</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>16</v>
@@ -2750,8 +2954,12 @@
       <c r="L24" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
+      <c r="M24" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="O24" s="3"/>
       <c r="P24" s="3"/>
       <c r="Q24" s="3"/>
@@ -2763,7 +2971,7 @@
       <c r="W24" s="3"/>
     </row>
     <row r="25" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="19">
+      <c r="A25" s="14">
         <f>SUM(C25:W25)</f>
         <v>0</v>
       </c>
@@ -2800,8 +3008,12 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
       <c r="O25" s="3"/>
       <c r="P25" s="3"/>
       <c r="Q25" s="3"/>
@@ -2813,9 +3025,9 @@
       <c r="W25" s="3"/>
     </row>
     <row r="26" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="20">
+      <c r="A26" s="15">
         <f>SUM(C26:W26)</f>
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>43</v>
@@ -2850,8 +3062,12 @@
       <c r="L26" s="3">
         <v>5</v>
       </c>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
+      <c r="M26" s="3">
+        <v>5</v>
+      </c>
+      <c r="N26" s="3">
+        <v>5</v>
+      </c>
       <c r="O26" s="3"/>
       <c r="P26" s="3"/>
       <c r="Q26" s="3"/>
@@ -2868,87 +3084,87 @@
         <v>4</v>
       </c>
       <c r="C28" s="3">
-        <f>IF(C2="A",5,IF(C2="b",4,IF(C2="C",2,IF(C2="D",1,0))))</f>
+        <f t="shared" ref="C28:W28" si="1">IF(C2="A",5,IF(C2="b",4,IF(C2="C",2,IF(C2="D",1,0))))</f>
         <v>4</v>
       </c>
       <c r="D28" s="3">
-        <f>IF(D2="A",5,IF(D2="b",4,IF(D2="C",2,IF(D2="D",1,0))))</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="E28" s="3">
-        <f>IF(E2="A",5,IF(E2="b",4,IF(E2="C",2,IF(E2="D",1,0))))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="F28" s="3">
-        <f>IF(F2="A",5,IF(F2="b",4,IF(F2="C",2,IF(F2="D",1,0))))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G28" s="3">
-        <f>IF(G2="A",5,IF(G2="b",4,IF(G2="C",2,IF(G2="D",1,0))))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H28" s="3">
-        <f>IF(H2="A",5,IF(H2="b",4,IF(H2="C",2,IF(H2="D",1,0))))</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="I28" s="3">
-        <f>IF(I2="A",5,IF(I2="b",4,IF(I2="C",2,IF(I2="D",1,0))))</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="J28" s="3">
-        <f>IF(J2="A",5,IF(J2="b",4,IF(J2="C",2,IF(J2="D",1,0))))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K28" s="3">
-        <f>IF(K2="A",5,IF(K2="b",4,IF(K2="C",2,IF(K2="D",1,0))))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L28" s="3">
-        <f>IF(L2="A",5,IF(L2="b",4,IF(L2="C",2,IF(L2="D",1,0))))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M28" s="3">
-        <f>IF(M2="A",5,IF(M2="b",4,IF(M2="C",2,IF(M2="D",1,0))))</f>
+        <f t="shared" ref="M28:N28" si="2">IF(M2="A",5,IF(M2="b",4,IF(M2="C",2,IF(M2="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="N28" s="3">
-        <f>IF(N2="A",5,IF(N2="b",4,IF(N2="C",2,IF(N2="D",1,0))))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O28" s="3">
-        <f>IF(O2="A",5,IF(O2="b",4,IF(O2="C",2,IF(O2="D",1,0))))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P28" s="3">
-        <f>IF(P2="A",5,IF(P2="b",4,IF(P2="C",2,IF(P2="D",1,0))))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q28" s="3">
-        <f>IF(Q2="A",5,IF(Q2="b",4,IF(Q2="C",2,IF(Q2="D",1,0))))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R28" s="3">
-        <f>IF(R2="A",5,IF(R2="b",4,IF(R2="C",2,IF(R2="D",1,0))))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S28" s="3">
-        <f>IF(S2="A",5,IF(S2="b",4,IF(S2="C",2,IF(S2="D",1,0))))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T28" s="3">
-        <f>IF(T2="A",5,IF(T2="b",4,IF(T2="C",2,IF(T2="D",1,0))))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="U28" s="3">
-        <f>IF(U2="A",5,IF(U2="b",4,IF(U2="C",2,IF(U2="D",1,0))))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="V28" s="3">
-        <f>IF(V2="A",5,IF(V2="b",4,IF(V2="C",2,IF(V2="D",1,0))))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="W28" s="3">
-        <f>IF(W2="A",5,IF(W2="b",4,IF(W2="C",2,IF(W2="D",1,0))))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2958,87 +3174,87 @@
         <v>5</v>
       </c>
       <c r="C29" s="3">
-        <f>IF(C3="A",5,IF(C3="b",4,IF(C3="C",2,IF(C3="D",1,0))))</f>
+        <f t="shared" ref="C29:W29" si="3">IF(C3="A",5,IF(C3="b",4,IF(C3="C",2,IF(C3="D",1,0))))</f>
         <v>2</v>
       </c>
       <c r="D29" s="3">
-        <f>IF(D3="A",5,IF(D3="b",4,IF(D3="C",2,IF(D3="D",1,0))))</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="E29" s="3">
-        <f>IF(E3="A",5,IF(E3="b",4,IF(E3="C",2,IF(E3="D",1,0))))</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="F29" s="3">
-        <f>IF(F3="A",5,IF(F3="b",4,IF(F3="C",2,IF(F3="D",1,0))))</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="G29" s="3">
-        <f>IF(G3="A",5,IF(G3="b",4,IF(G3="C",2,IF(G3="D",1,0))))</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H29" s="3">
-        <f>IF(H3="A",5,IF(H3="b",4,IF(H3="C",2,IF(H3="D",1,0))))</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="I29" s="3">
-        <f>IF(I3="A",5,IF(I3="b",4,IF(I3="C",2,IF(I3="D",1,0))))</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J29" s="3">
-        <f>IF(J3="A",5,IF(J3="b",4,IF(J3="C",2,IF(J3="D",1,0))))</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="K29" s="3">
-        <f>IF(K3="A",5,IF(K3="b",4,IF(K3="C",2,IF(K3="D",1,0))))</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="L29" s="3">
-        <f>IF(L3="A",5,IF(L3="b",4,IF(L3="C",2,IF(L3="D",1,0))))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M29" s="3">
-        <f>IF(M3="A",5,IF(M3="b",4,IF(M3="C",2,IF(M3="D",1,0))))</f>
+        <f t="shared" ref="M29:N29" si="4">IF(M3="A",5,IF(M3="b",4,IF(M3="C",2,IF(M3="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="N29" s="3">
-        <f>IF(N3="A",5,IF(N3="b",4,IF(N3="C",2,IF(N3="D",1,0))))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O29" s="3">
-        <f>IF(O3="A",5,IF(O3="b",4,IF(O3="C",2,IF(O3="D",1,0))))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P29" s="3">
-        <f>IF(P3="A",5,IF(P3="b",4,IF(P3="C",2,IF(P3="D",1,0))))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q29" s="3">
-        <f>IF(Q3="A",5,IF(Q3="b",4,IF(Q3="C",2,IF(Q3="D",1,0))))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R29" s="3">
-        <f>IF(R3="A",5,IF(R3="b",4,IF(R3="C",2,IF(R3="D",1,0))))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S29" s="3">
-        <f>IF(S3="A",5,IF(S3="b",4,IF(S3="C",2,IF(S3="D",1,0))))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="T29" s="3">
-        <f>IF(T3="A",5,IF(T3="b",4,IF(T3="C",2,IF(T3="D",1,0))))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U29" s="3">
-        <f>IF(U3="A",5,IF(U3="b",4,IF(U3="C",2,IF(U3="D",1,0))))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V29" s="3">
-        <f>IF(V3="A",5,IF(V3="b",4,IF(V3="C",2,IF(V3="D",1,0))))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="W29" s="3">
-        <f>IF(W3="A",5,IF(W3="b",4,IF(W3="C",2,IF(W3="D",1,0))))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3048,87 +3264,87 @@
         <v>6</v>
       </c>
       <c r="C30" s="3">
-        <f>IF(C4="A",5,IF(C4="b",4,IF(C4="C",2,IF(C4="D",1,0))))</f>
+        <f t="shared" ref="C30:W30" si="5">IF(C4="A",5,IF(C4="b",4,IF(C4="C",2,IF(C4="D",1,0))))</f>
         <v>5</v>
       </c>
       <c r="D30" s="3">
-        <f>IF(D4="A",5,IF(D4="b",4,IF(D4="C",2,IF(D4="D",1,0))))</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="E30" s="3">
-        <f>IF(E4="A",5,IF(E4="b",4,IF(E4="C",2,IF(E4="D",1,0))))</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="F30" s="3">
-        <f>IF(F4="A",5,IF(F4="b",4,IF(F4="C",2,IF(F4="D",1,0))))</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="G30" s="3">
-        <f>IF(G4="A",5,IF(G4="b",4,IF(G4="C",2,IF(G4="D",1,0))))</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H30" s="3">
-        <f>IF(H4="A",5,IF(H4="b",4,IF(H4="C",2,IF(H4="D",1,0))))</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="I30" s="3">
-        <f>IF(I4="A",5,IF(I4="b",4,IF(I4="C",2,IF(I4="D",1,0))))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J30" s="3">
-        <f>IF(J4="A",5,IF(J4="b",4,IF(J4="C",2,IF(J4="D",1,0))))</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="K30" s="3">
-        <f>IF(K4="A",5,IF(K4="b",4,IF(K4="C",2,IF(K4="D",1,0))))</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="L30" s="3">
-        <f>IF(L4="A",5,IF(L4="b",4,IF(L4="C",2,IF(L4="D",1,0))))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M30" s="3">
-        <f>IF(M4="A",5,IF(M4="b",4,IF(M4="C",2,IF(M4="D",1,0))))</f>
+        <f t="shared" ref="M30:N30" si="6">IF(M4="A",5,IF(M4="b",4,IF(M4="C",2,IF(M4="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="N30" s="3">
-        <f>IF(N4="A",5,IF(N4="b",4,IF(N4="C",2,IF(N4="D",1,0))))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O30" s="3">
-        <f>IF(O4="A",5,IF(O4="b",4,IF(O4="C",2,IF(O4="D",1,0))))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P30" s="3">
-        <f>IF(P4="A",5,IF(P4="b",4,IF(P4="C",2,IF(P4="D",1,0))))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q30" s="3">
-        <f>IF(Q4="A",5,IF(Q4="b",4,IF(Q4="C",2,IF(Q4="D",1,0))))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R30" s="3">
-        <f>IF(R4="A",5,IF(R4="b",4,IF(R4="C",2,IF(R4="D",1,0))))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S30" s="3">
-        <f>IF(S4="A",5,IF(S4="b",4,IF(S4="C",2,IF(S4="D",1,0))))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T30" s="3">
-        <f>IF(T4="A",5,IF(T4="b",4,IF(T4="C",2,IF(T4="D",1,0))))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U30" s="3">
-        <f>IF(U4="A",5,IF(U4="b",4,IF(U4="C",2,IF(U4="D",1,0))))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V30" s="3">
-        <f>IF(V4="A",5,IF(V4="b",4,IF(V4="C",2,IF(V4="D",1,0))))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="W30" s="3">
-        <f>IF(W4="A",5,IF(W4="b",4,IF(W4="C",2,IF(W4="D",1,0))))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -3138,87 +3354,87 @@
         <v>7</v>
       </c>
       <c r="C31" s="3">
-        <f>IF(C5="A",5,IF(C5="b",4,IF(C5="C",2,IF(C5="D",1,0))))</f>
+        <f t="shared" ref="C31:W31" si="7">IF(C5="A",5,IF(C5="b",4,IF(C5="C",2,IF(C5="D",1,0))))</f>
         <v>5</v>
       </c>
       <c r="D31" s="3">
-        <f>IF(D5="A",5,IF(D5="b",4,IF(D5="C",2,IF(D5="D",1,0))))</f>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="E31" s="3">
-        <f>IF(E5="A",5,IF(E5="b",4,IF(E5="C",2,IF(E5="D",1,0))))</f>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="F31" s="3">
-        <f>IF(F5="A",5,IF(F5="b",4,IF(F5="C",2,IF(F5="D",1,0))))</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="G31" s="3">
-        <f>IF(G5="A",5,IF(G5="b",4,IF(G5="C",2,IF(G5="D",1,0))))</f>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="H31" s="3">
-        <f>IF(H5="A",5,IF(H5="b",4,IF(H5="C",2,IF(H5="D",1,0))))</f>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="I31" s="3">
-        <f>IF(I5="A",5,IF(I5="b",4,IF(I5="C",2,IF(I5="D",1,0))))</f>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="J31" s="3">
-        <f>IF(J5="A",5,IF(J5="b",4,IF(J5="C",2,IF(J5="D",1,0))))</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K31" s="3">
-        <f>IF(K5="A",5,IF(K5="b",4,IF(K5="C",2,IF(K5="D",1,0))))</f>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="L31" s="3">
-        <f>IF(L5="A",5,IF(L5="b",4,IF(L5="C",2,IF(L5="D",1,0))))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M31" s="3">
-        <f>IF(M5="A",5,IF(M5="b",4,IF(M5="C",2,IF(M5="D",1,0))))</f>
+        <f t="shared" ref="M31:N31" si="8">IF(M5="A",5,IF(M5="b",4,IF(M5="C",2,IF(M5="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="N31" s="3">
-        <f>IF(N5="A",5,IF(N5="b",4,IF(N5="C",2,IF(N5="D",1,0))))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O31" s="3">
-        <f>IF(O5="A",5,IF(O5="b",4,IF(O5="C",2,IF(O5="D",1,0))))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P31" s="3">
-        <f>IF(P5="A",5,IF(P5="b",4,IF(P5="C",2,IF(P5="D",1,0))))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q31" s="3">
-        <f>IF(Q5="A",5,IF(Q5="b",4,IF(Q5="C",2,IF(Q5="D",1,0))))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="R31" s="3">
-        <f>IF(R5="A",5,IF(R5="b",4,IF(R5="C",2,IF(R5="D",1,0))))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="S31" s="3">
-        <f>IF(S5="A",5,IF(S5="b",4,IF(S5="C",2,IF(S5="D",1,0))))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="T31" s="3">
-        <f>IF(T5="A",5,IF(T5="b",4,IF(T5="C",2,IF(T5="D",1,0))))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="U31" s="3">
-        <f>IF(U5="A",5,IF(U5="b",4,IF(U5="C",2,IF(U5="D",1,0))))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V31" s="3">
-        <f>IF(V5="A",5,IF(V5="b",4,IF(V5="C",2,IF(V5="D",1,0))))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="W31" s="3">
-        <f>IF(W5="A",5,IF(W5="b",4,IF(W5="C",2,IF(W5="D",1,0))))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -3228,87 +3444,87 @@
         <v>8</v>
       </c>
       <c r="C32" s="3">
-        <f>IF(C6="A",5,IF(C6="b",4,IF(C6="C",2,IF(C6="D",1,0))))</f>
+        <f t="shared" ref="C32:W32" si="9">IF(C6="A",5,IF(C6="b",4,IF(C6="C",2,IF(C6="D",1,0))))</f>
         <v>2</v>
       </c>
       <c r="D32" s="3">
-        <f>IF(D6="A",5,IF(D6="b",4,IF(D6="C",2,IF(D6="D",1,0))))</f>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="E32" s="3">
-        <f>IF(E6="A",5,IF(E6="b",4,IF(E6="C",2,IF(E6="D",1,0))))</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="F32" s="3">
-        <f>IF(F6="A",5,IF(F6="b",4,IF(F6="C",2,IF(F6="D",1,0))))</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="G32" s="3">
-        <f>IF(G6="A",5,IF(G6="b",4,IF(G6="C",2,IF(G6="D",1,0))))</f>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="H32" s="3">
-        <f>IF(H6="A",5,IF(H6="b",4,IF(H6="C",2,IF(H6="D",1,0))))</f>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="I32" s="3">
-        <f>IF(I6="A",5,IF(I6="b",4,IF(I6="C",2,IF(I6="D",1,0))))</f>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="J32" s="3">
-        <f>IF(J6="A",5,IF(J6="b",4,IF(J6="C",2,IF(J6="D",1,0))))</f>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="K32" s="3">
-        <f>IF(K6="A",5,IF(K6="b",4,IF(K6="C",2,IF(K6="D",1,0))))</f>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="L32" s="3">
-        <f>IF(L6="A",5,IF(L6="b",4,IF(L6="C",2,IF(L6="D",1,0))))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M32" s="3">
-        <f>IF(M6="A",5,IF(M6="b",4,IF(M6="C",2,IF(M6="D",1,0))))</f>
+        <f t="shared" ref="M32:N32" si="10">IF(M6="A",5,IF(M6="b",4,IF(M6="C",2,IF(M6="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="N32" s="3">
-        <f>IF(N6="A",5,IF(N6="b",4,IF(N6="C",2,IF(N6="D",1,0))))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O32" s="3">
-        <f>IF(O6="A",5,IF(O6="b",4,IF(O6="C",2,IF(O6="D",1,0))))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="P32" s="3">
-        <f>IF(P6="A",5,IF(P6="b",4,IF(P6="C",2,IF(P6="D",1,0))))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q32" s="3">
-        <f>IF(Q6="A",5,IF(Q6="b",4,IF(Q6="C",2,IF(Q6="D",1,0))))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="R32" s="3">
-        <f>IF(R6="A",5,IF(R6="b",4,IF(R6="C",2,IF(R6="D",1,0))))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="S32" s="3">
-        <f>IF(S6="A",5,IF(S6="b",4,IF(S6="C",2,IF(S6="D",1,0))))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="T32" s="3">
-        <f>IF(T6="A",5,IF(T6="b",4,IF(T6="C",2,IF(T6="D",1,0))))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="U32" s="3">
-        <f>IF(U6="A",5,IF(U6="b",4,IF(U6="C",2,IF(U6="D",1,0))))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="V32" s="3">
-        <f>IF(V6="A",5,IF(V6="b",4,IF(V6="C",2,IF(V6="D",1,0))))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W32" s="3">
-        <f>IF(W6="A",5,IF(W6="b",4,IF(W6="C",2,IF(W6="D",1,0))))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -3318,87 +3534,87 @@
         <v>9</v>
       </c>
       <c r="C33" s="3">
-        <f>IF(C7="A",5,IF(C7="b",4,IF(C7="C",2,IF(C7="D",1,0))))</f>
+        <f t="shared" ref="C33:W33" si="11">IF(C7="A",5,IF(C7="b",4,IF(C7="C",2,IF(C7="D",1,0))))</f>
         <v>4</v>
       </c>
       <c r="D33" s="3">
-        <f>IF(D7="A",5,IF(D7="b",4,IF(D7="C",2,IF(D7="D",1,0))))</f>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="E33" s="3">
-        <f>IF(E7="A",5,IF(E7="b",4,IF(E7="C",2,IF(E7="D",1,0))))</f>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="F33" s="3">
-        <f>IF(F7="A",5,IF(F7="b",4,IF(F7="C",2,IF(F7="D",1,0))))</f>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="G33" s="3">
-        <f>IF(G7="A",5,IF(G7="b",4,IF(G7="C",2,IF(G7="D",1,0))))</f>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="H33" s="3">
-        <f>IF(H7="A",5,IF(H7="b",4,IF(H7="C",2,IF(H7="D",1,0))))</f>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="I33" s="3">
-        <f>IF(I7="A",5,IF(I7="b",4,IF(I7="C",2,IF(I7="D",1,0))))</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J33" s="3">
-        <f>IF(J7="A",5,IF(J7="b",4,IF(J7="C",2,IF(J7="D",1,0))))</f>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="K33" s="3">
-        <f>IF(K7="A",5,IF(K7="b",4,IF(K7="C",2,IF(K7="D",1,0))))</f>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="L33" s="3">
-        <f>IF(L7="A",5,IF(L7="b",4,IF(L7="C",2,IF(L7="D",1,0))))</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="M33" s="3">
-        <f>IF(M7="A",5,IF(M7="b",4,IF(M7="C",2,IF(M7="D",1,0))))</f>
+        <f t="shared" ref="M33:N33" si="12">IF(M7="A",5,IF(M7="b",4,IF(M7="C",2,IF(M7="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="N33" s="3">
-        <f>IF(N7="A",5,IF(N7="b",4,IF(N7="C",2,IF(N7="D",1,0))))</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O33" s="3">
-        <f>IF(O7="A",5,IF(O7="b",4,IF(O7="C",2,IF(O7="D",1,0))))</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="P33" s="3">
-        <f>IF(P7="A",5,IF(P7="b",4,IF(P7="C",2,IF(P7="D",1,0))))</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Q33" s="3">
-        <f>IF(Q7="A",5,IF(Q7="b",4,IF(Q7="C",2,IF(Q7="D",1,0))))</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R33" s="3">
-        <f>IF(R7="A",5,IF(R7="b",4,IF(R7="C",2,IF(R7="D",1,0))))</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="S33" s="3">
-        <f>IF(S7="A",5,IF(S7="b",4,IF(S7="C",2,IF(S7="D",1,0))))</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="T33" s="3">
-        <f>IF(T7="A",5,IF(T7="b",4,IF(T7="C",2,IF(T7="D",1,0))))</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U33" s="3">
-        <f>IF(U7="A",5,IF(U7="b",4,IF(U7="C",2,IF(U7="D",1,0))))</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="V33" s="3">
-        <f>IF(V7="A",5,IF(V7="b",4,IF(V7="C",2,IF(V7="D",1,0))))</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="W33" s="3">
-        <f>IF(W7="A",5,IF(W7="b",4,IF(W7="C",2,IF(W7="D",1,0))))</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -3408,87 +3624,87 @@
         <v>10</v>
       </c>
       <c r="C34" s="3">
-        <f>IF(C8="A",5,IF(C8="b",4,IF(C8="C",2,IF(C8="D",1,0))))</f>
+        <f t="shared" ref="C34:W34" si="13">IF(C8="A",5,IF(C8="b",4,IF(C8="C",2,IF(C8="D",1,0))))</f>
         <v>5</v>
       </c>
       <c r="D34" s="3">
-        <f>IF(D8="A",5,IF(D8="b",4,IF(D8="C",2,IF(D8="D",1,0))))</f>
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="E34" s="3">
-        <f>IF(E8="A",5,IF(E8="b",4,IF(E8="C",2,IF(E8="D",1,0))))</f>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="F34" s="3">
-        <f>IF(F8="A",5,IF(F8="b",4,IF(F8="C",2,IF(F8="D",1,0))))</f>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="G34" s="3">
-        <f>IF(G8="A",5,IF(G8="b",4,IF(G8="C",2,IF(G8="D",1,0))))</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="H34" s="3">
-        <f>IF(H8="A",5,IF(H8="b",4,IF(H8="C",2,IF(H8="D",1,0))))</f>
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="I34" s="3">
-        <f>IF(I8="A",5,IF(I8="b",4,IF(I8="C",2,IF(I8="D",1,0))))</f>
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="J34" s="3">
-        <f>IF(J8="A",5,IF(J8="b",4,IF(J8="C",2,IF(J8="D",1,0))))</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="K34" s="3">
-        <f>IF(K8="A",5,IF(K8="b",4,IF(K8="C",2,IF(K8="D",1,0))))</f>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="L34" s="3">
-        <f>IF(L8="A",5,IF(L8="b",4,IF(L8="C",2,IF(L8="D",1,0))))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="M34" s="3">
-        <f>IF(M8="A",5,IF(M8="b",4,IF(M8="C",2,IF(M8="D",1,0))))</f>
+        <f t="shared" ref="M34:N34" si="14">IF(M8="A",5,IF(M8="b",4,IF(M8="C",2,IF(M8="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="N34" s="3">
-        <f>IF(N8="A",5,IF(N8="b",4,IF(N8="C",2,IF(N8="D",1,0))))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="O34" s="3">
-        <f>IF(O8="A",5,IF(O8="b",4,IF(O8="C",2,IF(O8="D",1,0))))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P34" s="3">
-        <f>IF(P8="A",5,IF(P8="b",4,IF(P8="C",2,IF(P8="D",1,0))))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Q34" s="3">
-        <f>IF(Q8="A",5,IF(Q8="b",4,IF(Q8="C",2,IF(Q8="D",1,0))))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="R34" s="3">
-        <f>IF(R8="A",5,IF(R8="b",4,IF(R8="C",2,IF(R8="D",1,0))))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="S34" s="3">
-        <f>IF(S8="A",5,IF(S8="b",4,IF(S8="C",2,IF(S8="D",1,0))))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="T34" s="3">
-        <f>IF(T8="A",5,IF(T8="b",4,IF(T8="C",2,IF(T8="D",1,0))))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U34" s="3">
-        <f>IF(U8="A",5,IF(U8="b",4,IF(U8="C",2,IF(U8="D",1,0))))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="V34" s="3">
-        <f>IF(V8="A",5,IF(V8="b",4,IF(V8="C",2,IF(V8="D",1,0))))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="W34" s="3">
-        <f>IF(W8="A",5,IF(W8="b",4,IF(W8="C",2,IF(W8="D",1,0))))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -3498,87 +3714,87 @@
         <v>11</v>
       </c>
       <c r="C35" s="3">
-        <f>IF(C9="A",5,IF(C9="b",4,IF(C9="C",2,IF(C9="D",1,0))))</f>
+        <f t="shared" ref="C35:W35" si="15">IF(C9="A",5,IF(C9="b",4,IF(C9="C",2,IF(C9="D",1,0))))</f>
         <v>5</v>
       </c>
       <c r="D35" s="3">
-        <f>IF(D9="A",5,IF(D9="b",4,IF(D9="C",2,IF(D9="D",1,0))))</f>
+        <f t="shared" si="15"/>
         <v>4</v>
       </c>
       <c r="E35" s="3">
-        <f>IF(E9="A",5,IF(E9="b",4,IF(E9="C",2,IF(E9="D",1,0))))</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="F35" s="3">
-        <f>IF(F9="A",5,IF(F9="b",4,IF(F9="C",2,IF(F9="D",1,0))))</f>
+        <f t="shared" si="15"/>
         <v>4</v>
       </c>
       <c r="G35" s="3">
-        <f>IF(G9="A",5,IF(G9="b",4,IF(G9="C",2,IF(G9="D",1,0))))</f>
+        <f t="shared" si="15"/>
         <v>4</v>
       </c>
       <c r="H35" s="3">
-        <f>IF(H9="A",5,IF(H9="b",4,IF(H9="C",2,IF(H9="D",1,0))))</f>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
       <c r="I35" s="3">
-        <f>IF(I9="A",5,IF(I9="b",4,IF(I9="C",2,IF(I9="D",1,0))))</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="J35" s="3">
-        <f>IF(J9="A",5,IF(J9="b",4,IF(J9="C",2,IF(J9="D",1,0))))</f>
+        <f t="shared" si="15"/>
         <v>5</v>
       </c>
       <c r="K35" s="3">
-        <f>IF(K9="A",5,IF(K9="b",4,IF(K9="C",2,IF(K9="D",1,0))))</f>
+        <f t="shared" si="15"/>
         <v>5</v>
       </c>
       <c r="L35" s="3">
-        <f>IF(L9="A",5,IF(L9="b",4,IF(L9="C",2,IF(L9="D",1,0))))</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="M35" s="3">
-        <f>IF(M9="A",5,IF(M9="b",4,IF(M9="C",2,IF(M9="D",1,0))))</f>
+        <f t="shared" ref="M35:N35" si="16">IF(M9="A",5,IF(M9="b",4,IF(M9="C",2,IF(M9="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="N35" s="3">
-        <f>IF(N9="A",5,IF(N9="b",4,IF(N9="C",2,IF(N9="D",1,0))))</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O35" s="3">
-        <f>IF(O9="A",5,IF(O9="b",4,IF(O9="C",2,IF(O9="D",1,0))))</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="P35" s="3">
-        <f>IF(P9="A",5,IF(P9="b",4,IF(P9="C",2,IF(P9="D",1,0))))</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="Q35" s="3">
-        <f>IF(Q9="A",5,IF(Q9="b",4,IF(Q9="C",2,IF(Q9="D",1,0))))</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R35" s="3">
-        <f>IF(R9="A",5,IF(R9="b",4,IF(R9="C",2,IF(R9="D",1,0))))</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="S35" s="3">
-        <f>IF(S9="A",5,IF(S9="b",4,IF(S9="C",2,IF(S9="D",1,0))))</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="T35" s="3">
-        <f>IF(T9="A",5,IF(T9="b",4,IF(T9="C",2,IF(T9="D",1,0))))</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="U35" s="3">
-        <f>IF(U9="A",5,IF(U9="b",4,IF(U9="C",2,IF(U9="D",1,0))))</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="V35" s="3">
-        <f>IF(V9="A",5,IF(V9="b",4,IF(V9="C",2,IF(V9="D",1,0))))</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="W35" s="3">
-        <f>IF(W9="A",5,IF(W9="b",4,IF(W9="C",2,IF(W9="D",1,0))))</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -3588,87 +3804,87 @@
         <v>12</v>
       </c>
       <c r="C36" s="3">
-        <f>IF(C10="A",5,IF(C10="b",4,IF(C10="C",2,IF(C10="D",1,0))))</f>
+        <f t="shared" ref="C36:W36" si="17">IF(C10="A",5,IF(C10="b",4,IF(C10="C",2,IF(C10="D",1,0))))</f>
         <v>5</v>
       </c>
       <c r="D36" s="3">
-        <f>IF(D10="A",5,IF(D10="b",4,IF(D10="C",2,IF(D10="D",1,0))))</f>
+        <f t="shared" si="17"/>
         <v>4</v>
       </c>
       <c r="E36" s="3">
-        <f>IF(E10="A",5,IF(E10="b",4,IF(E10="C",2,IF(E10="D",1,0))))</f>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="F36" s="3">
-        <f>IF(F10="A",5,IF(F10="b",4,IF(F10="C",2,IF(F10="D",1,0))))</f>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
       <c r="G36" s="3">
-        <f>IF(G10="A",5,IF(G10="b",4,IF(G10="C",2,IF(G10="D",1,0))))</f>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="H36" s="3">
-        <f>IF(H10="A",5,IF(H10="b",4,IF(H10="C",2,IF(H10="D",1,0))))</f>
+        <f t="shared" si="17"/>
         <v>5</v>
       </c>
       <c r="I36" s="3">
-        <f>IF(I10="A",5,IF(I10="b",4,IF(I10="C",2,IF(I10="D",1,0))))</f>
+        <f t="shared" si="17"/>
         <v>4</v>
       </c>
       <c r="J36" s="3">
-        <f>IF(J10="A",5,IF(J10="b",4,IF(J10="C",2,IF(J10="D",1,0))))</f>
+        <f t="shared" si="17"/>
         <v>5</v>
       </c>
       <c r="K36" s="3">
-        <f>IF(K10="A",5,IF(K10="b",4,IF(K10="C",2,IF(K10="D",1,0))))</f>
+        <f t="shared" si="17"/>
         <v>5</v>
       </c>
       <c r="L36" s="3">
-        <f>IF(L10="A",5,IF(L10="b",4,IF(L10="C",2,IF(L10="D",1,0))))</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="M36" s="3">
-        <f>IF(M10="A",5,IF(M10="b",4,IF(M10="C",2,IF(M10="D",1,0))))</f>
+        <f t="shared" ref="M36:N36" si="18">IF(M10="A",5,IF(M10="b",4,IF(M10="C",2,IF(M10="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="N36" s="3">
-        <f>IF(N10="A",5,IF(N10="b",4,IF(N10="C",2,IF(N10="D",1,0))))</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="O36" s="3">
-        <f>IF(O10="A",5,IF(O10="b",4,IF(O10="C",2,IF(O10="D",1,0))))</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="P36" s="3">
-        <f>IF(P10="A",5,IF(P10="b",4,IF(P10="C",2,IF(P10="D",1,0))))</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="Q36" s="3">
-        <f>IF(Q10="A",5,IF(Q10="b",4,IF(Q10="C",2,IF(Q10="D",1,0))))</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="R36" s="3">
-        <f>IF(R10="A",5,IF(R10="b",4,IF(R10="C",2,IF(R10="D",1,0))))</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="S36" s="3">
-        <f>IF(S10="A",5,IF(S10="b",4,IF(S10="C",2,IF(S10="D",1,0))))</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="T36" s="3">
-        <f>IF(T10="A",5,IF(T10="b",4,IF(T10="C",2,IF(T10="D",1,0))))</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="U36" s="3">
-        <f>IF(U10="A",5,IF(U10="b",4,IF(U10="C",2,IF(U10="D",1,0))))</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="V36" s="3">
-        <f>IF(V10="A",5,IF(V10="b",4,IF(V10="C",2,IF(V10="D",1,0))))</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="W36" s="3">
-        <f>IF(W10="A",5,IF(W10="b",4,IF(W10="C",2,IF(W10="D",1,0))))</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -3678,87 +3894,87 @@
         <v>13</v>
       </c>
       <c r="C37" s="3">
-        <f>IF(C11="A",5,IF(C11="b",4,IF(C11="C",2,IF(C11="D",1,0))))</f>
+        <f t="shared" ref="C37:W37" si="19">IF(C11="A",5,IF(C11="b",4,IF(C11="C",2,IF(C11="D",1,0))))</f>
         <v>5</v>
       </c>
       <c r="D37" s="3">
-        <f>IF(D11="A",5,IF(D11="b",4,IF(D11="C",2,IF(D11="D",1,0))))</f>
+        <f t="shared" si="19"/>
         <v>5</v>
       </c>
       <c r="E37" s="3">
-        <f>IF(E11="A",5,IF(E11="b",4,IF(E11="C",2,IF(E11="D",1,0))))</f>
+        <f t="shared" si="19"/>
         <v>2</v>
       </c>
       <c r="F37" s="3">
-        <f>IF(F11="A",5,IF(F11="b",4,IF(F11="C",2,IF(F11="D",1,0))))</f>
+        <f t="shared" si="19"/>
         <v>2</v>
       </c>
       <c r="G37" s="3">
-        <f>IF(G11="A",5,IF(G11="b",4,IF(G11="C",2,IF(G11="D",1,0))))</f>
+        <f t="shared" si="19"/>
         <v>2</v>
       </c>
       <c r="H37" s="3">
-        <f>IF(H11="A",5,IF(H11="b",4,IF(H11="C",2,IF(H11="D",1,0))))</f>
+        <f t="shared" si="19"/>
         <v>5</v>
       </c>
       <c r="I37" s="3">
-        <f>IF(I11="A",5,IF(I11="b",4,IF(I11="C",2,IF(I11="D",1,0))))</f>
+        <f t="shared" si="19"/>
         <v>4</v>
       </c>
       <c r="J37" s="3">
-        <f>IF(J11="A",5,IF(J11="b",4,IF(J11="C",2,IF(J11="D",1,0))))</f>
+        <f t="shared" si="19"/>
         <v>2</v>
       </c>
       <c r="K37" s="3">
-        <f>IF(K11="A",5,IF(K11="b",4,IF(K11="C",2,IF(K11="D",1,0))))</f>
+        <f t="shared" si="19"/>
         <v>5</v>
       </c>
       <c r="L37" s="3">
-        <f>IF(L11="A",5,IF(L11="b",4,IF(L11="C",2,IF(L11="D",1,0))))</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="M37" s="3">
-        <f>IF(M11="A",5,IF(M11="b",4,IF(M11="C",2,IF(M11="D",1,0))))</f>
+        <f t="shared" ref="M37:N37" si="20">IF(M11="A",5,IF(M11="b",4,IF(M11="C",2,IF(M11="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="N37" s="3">
-        <f>IF(N11="A",5,IF(N11="b",4,IF(N11="C",2,IF(N11="D",1,0))))</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="O37" s="3">
-        <f>IF(O11="A",5,IF(O11="b",4,IF(O11="C",2,IF(O11="D",1,0))))</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="P37" s="3">
-        <f>IF(P11="A",5,IF(P11="b",4,IF(P11="C",2,IF(P11="D",1,0))))</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="Q37" s="3">
-        <f>IF(Q11="A",5,IF(Q11="b",4,IF(Q11="C",2,IF(Q11="D",1,0))))</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="R37" s="3">
-        <f>IF(R11="A",5,IF(R11="b",4,IF(R11="C",2,IF(R11="D",1,0))))</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="S37" s="3">
-        <f>IF(S11="A",5,IF(S11="b",4,IF(S11="C",2,IF(S11="D",1,0))))</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="T37" s="3">
-        <f>IF(T11="A",5,IF(T11="b",4,IF(T11="C",2,IF(T11="D",1,0))))</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="U37" s="3">
-        <f>IF(U11="A",5,IF(U11="b",4,IF(U11="C",2,IF(U11="D",1,0))))</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="V37" s="3">
-        <f>IF(V11="A",5,IF(V11="b",4,IF(V11="C",2,IF(V11="D",1,0))))</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="W37" s="3">
-        <f>IF(W11="A",5,IF(W11="b",4,IF(W11="C",2,IF(W11="D",1,0))))</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -3768,87 +3984,87 @@
         <v>14</v>
       </c>
       <c r="C38" s="3">
-        <f>IF(C12="A",5,IF(C12="b",4,IF(C12="C",2,IF(C12="D",1,0))))</f>
+        <f t="shared" ref="C38:W38" si="21">IF(C12="A",5,IF(C12="b",4,IF(C12="C",2,IF(C12="D",1,0))))</f>
         <v>5</v>
       </c>
       <c r="D38" s="3">
-        <f>IF(D12="A",5,IF(D12="b",4,IF(D12="C",2,IF(D12="D",1,0))))</f>
+        <f t="shared" si="21"/>
         <v>4</v>
       </c>
       <c r="E38" s="3">
-        <f>IF(E12="A",5,IF(E12="b",4,IF(E12="C",2,IF(E12="D",1,0))))</f>
+        <f t="shared" si="21"/>
         <v>2</v>
       </c>
       <c r="F38" s="3">
-        <f>IF(F12="A",5,IF(F12="b",4,IF(F12="C",2,IF(F12="D",1,0))))</f>
+        <f t="shared" si="21"/>
         <v>5</v>
       </c>
       <c r="G38" s="3">
-        <f>IF(G12="A",5,IF(G12="b",4,IF(G12="C",2,IF(G12="D",1,0))))</f>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="H38" s="3">
-        <f>IF(H12="A",5,IF(H12="b",4,IF(H12="C",2,IF(H12="D",1,0))))</f>
+        <f t="shared" si="21"/>
         <v>5</v>
       </c>
       <c r="I38" s="3">
-        <f>IF(I12="A",5,IF(I12="b",4,IF(I12="C",2,IF(I12="D",1,0))))</f>
+        <f t="shared" si="21"/>
         <v>4</v>
       </c>
       <c r="J38" s="3">
-        <f>IF(J12="A",5,IF(J12="b",4,IF(J12="C",2,IF(J12="D",1,0))))</f>
+        <f t="shared" si="21"/>
         <v>5</v>
       </c>
       <c r="K38" s="3">
-        <f>IF(K12="A",5,IF(K12="b",4,IF(K12="C",2,IF(K12="D",1,0))))</f>
+        <f t="shared" si="21"/>
         <v>5</v>
       </c>
       <c r="L38" s="3">
-        <f>IF(L12="A",5,IF(L12="b",4,IF(L12="C",2,IF(L12="D",1,0))))</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="M38" s="3">
-        <f>IF(M12="A",5,IF(M12="b",4,IF(M12="C",2,IF(M12="D",1,0))))</f>
+        <f t="shared" ref="M38:N38" si="22">IF(M12="A",5,IF(M12="b",4,IF(M12="C",2,IF(M12="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="N38" s="3">
-        <f>IF(N12="A",5,IF(N12="b",4,IF(N12="C",2,IF(N12="D",1,0))))</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="O38" s="3">
-        <f>IF(O12="A",5,IF(O12="b",4,IF(O12="C",2,IF(O12="D",1,0))))</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="P38" s="3">
-        <f>IF(P12="A",5,IF(P12="b",4,IF(P12="C",2,IF(P12="D",1,0))))</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="Q38" s="3">
-        <f>IF(Q12="A",5,IF(Q12="b",4,IF(Q12="C",2,IF(Q12="D",1,0))))</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="R38" s="3">
-        <f>IF(R12="A",5,IF(R12="b",4,IF(R12="C",2,IF(R12="D",1,0))))</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="S38" s="3">
-        <f>IF(S12="A",5,IF(S12="b",4,IF(S12="C",2,IF(S12="D",1,0))))</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="T38" s="3">
-        <f>IF(T12="A",5,IF(T12="b",4,IF(T12="C",2,IF(T12="D",1,0))))</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="U38" s="3">
-        <f>IF(U12="A",5,IF(U12="b",4,IF(U12="C",2,IF(U12="D",1,0))))</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="V38" s="3">
-        <f>IF(V12="A",5,IF(V12="b",4,IF(V12="C",2,IF(V12="D",1,0))))</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="W38" s="3">
-        <f>IF(W12="A",5,IF(W12="b",4,IF(W12="C",2,IF(W12="D",1,0))))</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -3858,87 +4074,87 @@
         <v>15</v>
       </c>
       <c r="C39" s="3">
-        <f>IF(C13="A",5,IF(C13="b",4,IF(C13="C",2,IF(C13="D",1,0))))</f>
+        <f t="shared" ref="C39:W39" si="23">IF(C13="A",5,IF(C13="b",4,IF(C13="C",2,IF(C13="D",1,0))))</f>
         <v>4</v>
       </c>
       <c r="D39" s="3">
-        <f>IF(D13="A",5,IF(D13="b",4,IF(D13="C",2,IF(D13="D",1,0))))</f>
+        <f t="shared" si="23"/>
         <v>4</v>
       </c>
       <c r="E39" s="3">
-        <f>IF(E13="A",5,IF(E13="b",4,IF(E13="C",2,IF(E13="D",1,0))))</f>
+        <f t="shared" si="23"/>
         <v>4</v>
       </c>
       <c r="F39" s="3">
-        <f>IF(F13="A",5,IF(F13="b",4,IF(F13="C",2,IF(F13="D",1,0))))</f>
+        <f t="shared" si="23"/>
         <v>5</v>
       </c>
       <c r="G39" s="3">
-        <f>IF(G13="A",5,IF(G13="b",4,IF(G13="C",2,IF(G13="D",1,0))))</f>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="H39" s="3">
-        <f>IF(H13="A",5,IF(H13="b",4,IF(H13="C",2,IF(H13="D",1,0))))</f>
+        <f t="shared" si="23"/>
         <v>5</v>
       </c>
       <c r="I39" s="3">
-        <f>IF(I13="A",5,IF(I13="b",4,IF(I13="C",2,IF(I13="D",1,0))))</f>
+        <f t="shared" si="23"/>
         <v>4</v>
       </c>
       <c r="J39" s="3">
-        <f>IF(J13="A",5,IF(J13="b",4,IF(J13="C",2,IF(J13="D",1,0))))</f>
+        <f t="shared" si="23"/>
         <v>4</v>
       </c>
       <c r="K39" s="3">
-        <f>IF(K13="A",5,IF(K13="b",4,IF(K13="C",2,IF(K13="D",1,0))))</f>
+        <f t="shared" si="23"/>
         <v>5</v>
       </c>
       <c r="L39" s="3">
-        <f>IF(L13="A",5,IF(L13="b",4,IF(L13="C",2,IF(L13="D",1,0))))</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="M39" s="3">
-        <f>IF(M13="A",5,IF(M13="b",4,IF(M13="C",2,IF(M13="D",1,0))))</f>
+        <f t="shared" ref="M39:N39" si="24">IF(M13="A",5,IF(M13="b",4,IF(M13="C",2,IF(M13="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="N39" s="3">
-        <f>IF(N13="A",5,IF(N13="b",4,IF(N13="C",2,IF(N13="D",1,0))))</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="O39" s="3">
-        <f>IF(O13="A",5,IF(O13="b",4,IF(O13="C",2,IF(O13="D",1,0))))</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="P39" s="3">
-        <f>IF(P13="A",5,IF(P13="b",4,IF(P13="C",2,IF(P13="D",1,0))))</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="Q39" s="3">
-        <f>IF(Q13="A",5,IF(Q13="b",4,IF(Q13="C",2,IF(Q13="D",1,0))))</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="R39" s="3">
-        <f>IF(R13="A",5,IF(R13="b",4,IF(R13="C",2,IF(R13="D",1,0))))</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="S39" s="3">
-        <f>IF(S13="A",5,IF(S13="b",4,IF(S13="C",2,IF(S13="D",1,0))))</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="T39" s="3">
-        <f>IF(T13="A",5,IF(T13="b",4,IF(T13="C",2,IF(T13="D",1,0))))</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="U39" s="3">
-        <f>IF(U13="A",5,IF(U13="b",4,IF(U13="C",2,IF(U13="D",1,0))))</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="V39" s="3">
-        <f>IF(V13="A",5,IF(V13="b",4,IF(V13="C",2,IF(V13="D",1,0))))</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="W39" s="3">
-        <f>IF(W13="A",5,IF(W13="b",4,IF(W13="C",2,IF(W13="D",1,0))))</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -3948,87 +4164,87 @@
         <v>16</v>
       </c>
       <c r="C40" s="3">
-        <f>IF(C14="A",5,IF(C14="b",4,IF(C14="C",2,IF(C14="D",1,0))))</f>
+        <f t="shared" ref="C40:W40" si="25">IF(C14="A",5,IF(C14="b",4,IF(C14="C",2,IF(C14="D",1,0))))</f>
         <v>5</v>
       </c>
       <c r="D40" s="3">
-        <f>IF(D14="A",5,IF(D14="b",4,IF(D14="C",2,IF(D14="D",1,0))))</f>
+        <f t="shared" si="25"/>
         <v>5</v>
       </c>
       <c r="E40" s="3">
-        <f>IF(E14="A",5,IF(E14="b",4,IF(E14="C",2,IF(E14="D",1,0))))</f>
+        <f t="shared" si="25"/>
         <v>5</v>
       </c>
       <c r="F40" s="3">
-        <f>IF(F14="A",5,IF(F14="b",4,IF(F14="C",2,IF(F14="D",1,0))))</f>
+        <f t="shared" si="25"/>
         <v>5</v>
       </c>
       <c r="G40" s="3">
-        <f>IF(G14="A",5,IF(G14="b",4,IF(G14="C",2,IF(G14="D",1,0))))</f>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="H40" s="3">
-        <f>IF(H14="A",5,IF(H14="b",4,IF(H14="C",2,IF(H14="D",1,0))))</f>
+        <f t="shared" si="25"/>
         <v>5</v>
       </c>
       <c r="I40" s="3">
-        <f>IF(I14="A",5,IF(I14="b",4,IF(I14="C",2,IF(I14="D",1,0))))</f>
+        <f t="shared" si="25"/>
         <v>5</v>
       </c>
       <c r="J40" s="3">
-        <f>IF(J14="A",5,IF(J14="b",4,IF(J14="C",2,IF(J14="D",1,0))))</f>
+        <f t="shared" si="25"/>
         <v>5</v>
       </c>
       <c r="K40" s="3">
-        <f>IF(K14="A",5,IF(K14="b",4,IF(K14="C",2,IF(K14="D",1,0))))</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="L40" s="3">
-        <f>IF(L14="A",5,IF(L14="b",4,IF(L14="C",2,IF(L14="D",1,0))))</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="M40" s="3">
-        <f>IF(M14="A",5,IF(M14="b",4,IF(M14="C",2,IF(M14="D",1,0))))</f>
-        <v>0</v>
+        <f t="shared" ref="M40:N40" si="26">IF(M14="A",5,IF(M14="b",4,IF(M14="C",2,IF(M14="D",1,0))))</f>
+        <v>5</v>
       </c>
       <c r="N40" s="3">
-        <f>IF(N14="A",5,IF(N14="b",4,IF(N14="C",2,IF(N14="D",1,0))))</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="O40" s="3">
-        <f>IF(O14="A",5,IF(O14="b",4,IF(O14="C",2,IF(O14="D",1,0))))</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="P40" s="3">
-        <f>IF(P14="A",5,IF(P14="b",4,IF(P14="C",2,IF(P14="D",1,0))))</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="Q40" s="3">
-        <f>IF(Q14="A",5,IF(Q14="b",4,IF(Q14="C",2,IF(Q14="D",1,0))))</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="R40" s="3">
-        <f>IF(R14="A",5,IF(R14="b",4,IF(R14="C",2,IF(R14="D",1,0))))</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="S40" s="3">
-        <f>IF(S14="A",5,IF(S14="b",4,IF(S14="C",2,IF(S14="D",1,0))))</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="T40" s="3">
-        <f>IF(T14="A",5,IF(T14="b",4,IF(T14="C",2,IF(T14="D",1,0))))</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="U40" s="3">
-        <f>IF(U14="A",5,IF(U14="b",4,IF(U14="C",2,IF(U14="D",1,0))))</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="V40" s="3">
-        <f>IF(V14="A",5,IF(V14="b",4,IF(V14="C",2,IF(V14="D",1,0))))</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="W40" s="3">
-        <f>IF(W14="A",5,IF(W14="b",4,IF(W14="C",2,IF(W14="D",1,0))))</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
@@ -4038,87 +4254,87 @@
         <v>17</v>
       </c>
       <c r="C41" s="3">
-        <f>IF(C15="A",5,IF(C15="b",4,IF(C15="C",2,IF(C15="D",1,0))))</f>
+        <f t="shared" ref="C41:W41" si="27">IF(C15="A",5,IF(C15="b",4,IF(C15="C",2,IF(C15="D",1,0))))</f>
         <v>5</v>
       </c>
       <c r="D41" s="3">
-        <f>IF(D15="A",5,IF(D15="b",4,IF(D15="C",2,IF(D15="D",1,0))))</f>
+        <f t="shared" si="27"/>
         <v>4</v>
       </c>
       <c r="E41" s="3">
-        <f>IF(E15="A",5,IF(E15="b",4,IF(E15="C",2,IF(E15="D",1,0))))</f>
+        <f t="shared" si="27"/>
         <v>2</v>
       </c>
       <c r="F41" s="3">
-        <f>IF(F15="A",5,IF(F15="b",4,IF(F15="C",2,IF(F15="D",1,0))))</f>
+        <f t="shared" si="27"/>
         <v>5</v>
       </c>
       <c r="G41" s="3">
-        <f>IF(G15="A",5,IF(G15="b",4,IF(G15="C",2,IF(G15="D",1,0))))</f>
+        <f t="shared" si="27"/>
         <v>2</v>
       </c>
       <c r="H41" s="3">
-        <f>IF(H15="A",5,IF(H15="b",4,IF(H15="C",2,IF(H15="D",1,0))))</f>
+        <f t="shared" si="27"/>
         <v>5</v>
       </c>
       <c r="I41" s="3">
-        <f>IF(I15="A",5,IF(I15="b",4,IF(I15="C",2,IF(I15="D",1,0))))</f>
+        <f t="shared" si="27"/>
         <v>5</v>
       </c>
       <c r="J41" s="3">
-        <f>IF(J15="A",5,IF(J15="b",4,IF(J15="C",2,IF(J15="D",1,0))))</f>
+        <f t="shared" si="27"/>
         <v>4</v>
       </c>
       <c r="K41" s="3">
-        <f>IF(K15="A",5,IF(K15="b",4,IF(K15="C",2,IF(K15="D",1,0))))</f>
+        <f t="shared" si="27"/>
         <v>5</v>
       </c>
       <c r="L41" s="3">
-        <f>IF(L15="A",5,IF(L15="b",4,IF(L15="C",2,IF(L15="D",1,0))))</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="M41" s="3">
-        <f>IF(M15="A",5,IF(M15="b",4,IF(M15="C",2,IF(M15="D",1,0))))</f>
+        <f t="shared" ref="M41:N41" si="28">IF(M15="A",5,IF(M15="b",4,IF(M15="C",2,IF(M15="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="N41" s="3">
-        <f>IF(N15="A",5,IF(N15="b",4,IF(N15="C",2,IF(N15="D",1,0))))</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="O41" s="3">
-        <f>IF(O15="A",5,IF(O15="b",4,IF(O15="C",2,IF(O15="D",1,0))))</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="P41" s="3">
-        <f>IF(P15="A",5,IF(P15="b",4,IF(P15="C",2,IF(P15="D",1,0))))</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="Q41" s="3">
-        <f>IF(Q15="A",5,IF(Q15="b",4,IF(Q15="C",2,IF(Q15="D",1,0))))</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="R41" s="3">
-        <f>IF(R15="A",5,IF(R15="b",4,IF(R15="C",2,IF(R15="D",1,0))))</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="S41" s="3">
-        <f>IF(S15="A",5,IF(S15="b",4,IF(S15="C",2,IF(S15="D",1,0))))</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="T41" s="3">
-        <f>IF(T15="A",5,IF(T15="b",4,IF(T15="C",2,IF(T15="D",1,0))))</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="U41" s="3">
-        <f>IF(U15="A",5,IF(U15="b",4,IF(U15="C",2,IF(U15="D",1,0))))</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="V41" s="3">
-        <f>IF(V15="A",5,IF(V15="b",4,IF(V15="C",2,IF(V15="D",1,0))))</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="W41" s="3">
-        <f>IF(W15="A",5,IF(W15="b",4,IF(W15="C",2,IF(W15="D",1,0))))</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
@@ -4128,87 +4344,87 @@
         <v>18</v>
       </c>
       <c r="C42" s="3">
-        <f>IF(C16="A",5,IF(C16="b",4,IF(C16="C",2,IF(C16="D",1,0))))</f>
+        <f t="shared" ref="C42:W42" si="29">IF(C16="A",5,IF(C16="b",4,IF(C16="C",2,IF(C16="D",1,0))))</f>
         <v>5</v>
       </c>
       <c r="D42" s="3">
-        <f>IF(D16="A",5,IF(D16="b",4,IF(D16="C",2,IF(D16="D",1,0))))</f>
+        <f t="shared" si="29"/>
         <v>5</v>
       </c>
       <c r="E42" s="3">
-        <f>IF(E16="A",5,IF(E16="b",4,IF(E16="C",2,IF(E16="D",1,0))))</f>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="F42" s="3">
-        <f>IF(F16="A",5,IF(F16="b",4,IF(F16="C",2,IF(F16="D",1,0))))</f>
+        <f t="shared" si="29"/>
         <v>4</v>
       </c>
       <c r="G42" s="3">
-        <f>IF(G16="A",5,IF(G16="b",4,IF(G16="C",2,IF(G16="D",1,0))))</f>
+        <f t="shared" si="29"/>
         <v>4</v>
       </c>
       <c r="H42" s="3">
-        <f>IF(H16="A",5,IF(H16="b",4,IF(H16="C",2,IF(H16="D",1,0))))</f>
+        <f t="shared" si="29"/>
         <v>5</v>
       </c>
       <c r="I42" s="3">
-        <f>IF(I16="A",5,IF(I16="b",4,IF(I16="C",2,IF(I16="D",1,0))))</f>
+        <f t="shared" si="29"/>
         <v>5</v>
       </c>
       <c r="J42" s="3">
-        <f>IF(J16="A",5,IF(J16="b",4,IF(J16="C",2,IF(J16="D",1,0))))</f>
+        <f t="shared" si="29"/>
         <v>5</v>
       </c>
       <c r="K42" s="3">
-        <f>IF(K16="A",5,IF(K16="b",4,IF(K16="C",2,IF(K16="D",1,0))))</f>
+        <f t="shared" si="29"/>
         <v>5</v>
       </c>
       <c r="L42" s="3">
-        <f>IF(L16="A",5,IF(L16="b",4,IF(L16="C",2,IF(L16="D",1,0))))</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="M42" s="3">
-        <f>IF(M16="A",5,IF(M16="b",4,IF(M16="C",2,IF(M16="D",1,0))))</f>
+        <f t="shared" ref="M42:N42" si="30">IF(M16="A",5,IF(M16="b",4,IF(M16="C",2,IF(M16="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="N42" s="3">
-        <f>IF(N16="A",5,IF(N16="b",4,IF(N16="C",2,IF(N16="D",1,0))))</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="O42" s="3">
-        <f>IF(O16="A",5,IF(O16="b",4,IF(O16="C",2,IF(O16="D",1,0))))</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="P42" s="3">
-        <f>IF(P16="A",5,IF(P16="b",4,IF(P16="C",2,IF(P16="D",1,0))))</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="Q42" s="3">
-        <f>IF(Q16="A",5,IF(Q16="b",4,IF(Q16="C",2,IF(Q16="D",1,0))))</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="R42" s="3">
-        <f>IF(R16="A",5,IF(R16="b",4,IF(R16="C",2,IF(R16="D",1,0))))</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="S42" s="3">
-        <f>IF(S16="A",5,IF(S16="b",4,IF(S16="C",2,IF(S16="D",1,0))))</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="T42" s="3">
-        <f>IF(T16="A",5,IF(T16="b",4,IF(T16="C",2,IF(T16="D",1,0))))</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="U42" s="3">
-        <f>IF(U16="A",5,IF(U16="b",4,IF(U16="C",2,IF(U16="D",1,0))))</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="V42" s="3">
-        <f>IF(V16="A",5,IF(V16="b",4,IF(V16="C",2,IF(V16="D",1,0))))</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="W42" s="3">
-        <f>IF(W16="A",5,IF(W16="b",4,IF(W16="C",2,IF(W16="D",1,0))))</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
     </row>
@@ -4218,87 +4434,87 @@
         <v>19</v>
       </c>
       <c r="C43" s="3">
-        <f>IF(C17="A",5,IF(C17="b",4,IF(C17="C",2,IF(C17="D",1,0))))</f>
+        <f t="shared" ref="C43:W43" si="31">IF(C17="A",5,IF(C17="b",4,IF(C17="C",2,IF(C17="D",1,0))))</f>
         <v>4</v>
       </c>
       <c r="D43" s="3">
-        <f>IF(D17="A",5,IF(D17="b",4,IF(D17="C",2,IF(D17="D",1,0))))</f>
+        <f t="shared" si="31"/>
         <v>4</v>
       </c>
       <c r="E43" s="3">
-        <f>IF(E17="A",5,IF(E17="b",4,IF(E17="C",2,IF(E17="D",1,0))))</f>
+        <f t="shared" si="31"/>
         <v>4</v>
       </c>
       <c r="F43" s="3">
-        <f>IF(F17="A",5,IF(F17="b",4,IF(F17="C",2,IF(F17="D",1,0))))</f>
+        <f t="shared" si="31"/>
         <v>5</v>
       </c>
       <c r="G43" s="3">
-        <f>IF(G17="A",5,IF(G17="b",4,IF(G17="C",2,IF(G17="D",1,0))))</f>
+        <f t="shared" si="31"/>
         <v>5</v>
       </c>
       <c r="H43" s="3">
-        <f>IF(H17="A",5,IF(H17="b",4,IF(H17="C",2,IF(H17="D",1,0))))</f>
+        <f t="shared" si="31"/>
         <v>5</v>
       </c>
       <c r="I43" s="3">
-        <f>IF(I17="A",5,IF(I17="b",4,IF(I17="C",2,IF(I17="D",1,0))))</f>
+        <f t="shared" si="31"/>
         <v>4</v>
       </c>
       <c r="J43" s="3">
-        <f>IF(J17="A",5,IF(J17="b",4,IF(J17="C",2,IF(J17="D",1,0))))</f>
+        <f t="shared" si="31"/>
         <v>4</v>
       </c>
       <c r="K43" s="3">
-        <f>IF(K17="A",5,IF(K17="b",4,IF(K17="C",2,IF(K17="D",1,0))))</f>
+        <f t="shared" si="31"/>
         <v>5</v>
       </c>
       <c r="L43" s="3">
-        <f>IF(L17="A",5,IF(L17="b",4,IF(L17="C",2,IF(L17="D",1,0))))</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="M43" s="3">
-        <f>IF(M17="A",5,IF(M17="b",4,IF(M17="C",2,IF(M17="D",1,0))))</f>
+        <f t="shared" ref="M43:N43" si="32">IF(M17="A",5,IF(M17="b",4,IF(M17="C",2,IF(M17="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="N43" s="3">
-        <f>IF(N17="A",5,IF(N17="b",4,IF(N17="C",2,IF(N17="D",1,0))))</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="O43" s="3">
-        <f>IF(O17="A",5,IF(O17="b",4,IF(O17="C",2,IF(O17="D",1,0))))</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="P43" s="3">
-        <f>IF(P17="A",5,IF(P17="b",4,IF(P17="C",2,IF(P17="D",1,0))))</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="Q43" s="3">
-        <f>IF(Q17="A",5,IF(Q17="b",4,IF(Q17="C",2,IF(Q17="D",1,0))))</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="R43" s="3">
-        <f>IF(R17="A",5,IF(R17="b",4,IF(R17="C",2,IF(R17="D",1,0))))</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="S43" s="3">
-        <f>IF(S17="A",5,IF(S17="b",4,IF(S17="C",2,IF(S17="D",1,0))))</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="T43" s="3">
-        <f>IF(T17="A",5,IF(T17="b",4,IF(T17="C",2,IF(T17="D",1,0))))</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="U43" s="3">
-        <f>IF(U17="A",5,IF(U17="b",4,IF(U17="C",2,IF(U17="D",1,0))))</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="V43" s="3">
-        <f>IF(V17="A",5,IF(V17="b",4,IF(V17="C",2,IF(V17="D",1,0))))</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="W43" s="3">
-        <f>IF(W17="A",5,IF(W17="b",4,IF(W17="C",2,IF(W17="D",1,0))))</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
     </row>
@@ -4308,87 +4524,87 @@
         <v>20</v>
       </c>
       <c r="C44" s="3">
-        <f>IF(C18="A",5,IF(C18="b",4,IF(C18="C",2,IF(C18="D",1,0))))</f>
+        <f t="shared" ref="C44:W44" si="33">IF(C18="A",5,IF(C18="b",4,IF(C18="C",2,IF(C18="D",1,0))))</f>
         <v>5</v>
       </c>
       <c r="D44" s="3">
-        <f>IF(D18="A",5,IF(D18="b",4,IF(D18="C",2,IF(D18="D",1,0))))</f>
+        <f t="shared" si="33"/>
         <v>5</v>
       </c>
       <c r="E44" s="3">
-        <f>IF(E18="A",5,IF(E18="b",4,IF(E18="C",2,IF(E18="D",1,0))))</f>
+        <f t="shared" si="33"/>
         <v>5</v>
       </c>
       <c r="F44" s="3">
-        <f>IF(F18="A",5,IF(F18="b",4,IF(F18="C",2,IF(F18="D",1,0))))</f>
+        <f t="shared" si="33"/>
         <v>5</v>
       </c>
       <c r="G44" s="3">
-        <f>IF(G18="A",5,IF(G18="b",4,IF(G18="C",2,IF(G18="D",1,0))))</f>
+        <f t="shared" si="33"/>
         <v>5</v>
       </c>
       <c r="H44" s="3">
-        <f>IF(H18="A",5,IF(H18="b",4,IF(H18="C",2,IF(H18="D",1,0))))</f>
+        <f t="shared" si="33"/>
         <v>2</v>
       </c>
       <c r="I44" s="3">
-        <f>IF(I18="A",5,IF(I18="b",4,IF(I18="C",2,IF(I18="D",1,0))))</f>
+        <f t="shared" si="33"/>
         <v>4</v>
       </c>
       <c r="J44" s="3">
-        <f>IF(J18="A",5,IF(J18="b",4,IF(J18="C",2,IF(J18="D",1,0))))</f>
+        <f t="shared" si="33"/>
         <v>5</v>
       </c>
       <c r="K44" s="3">
-        <f>IF(K18="A",5,IF(K18="b",4,IF(K18="C",2,IF(K18="D",1,0))))</f>
+        <f t="shared" si="33"/>
         <v>5</v>
       </c>
       <c r="L44" s="3">
-        <f>IF(L18="A",5,IF(L18="b",4,IF(L18="C",2,IF(L18="D",1,0))))</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="M44" s="3">
-        <f>IF(M18="A",5,IF(M18="b",4,IF(M18="C",2,IF(M18="D",1,0))))</f>
+        <f t="shared" ref="M44:N44" si="34">IF(M18="A",5,IF(M18="b",4,IF(M18="C",2,IF(M18="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="N44" s="3">
-        <f>IF(N18="A",5,IF(N18="b",4,IF(N18="C",2,IF(N18="D",1,0))))</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="O44" s="3">
-        <f>IF(O18="A",5,IF(O18="b",4,IF(O18="C",2,IF(O18="D",1,0))))</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="P44" s="3">
-        <f>IF(P18="A",5,IF(P18="b",4,IF(P18="C",2,IF(P18="D",1,0))))</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="Q44" s="3">
-        <f>IF(Q18="A",5,IF(Q18="b",4,IF(Q18="C",2,IF(Q18="D",1,0))))</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="R44" s="3">
-        <f>IF(R18="A",5,IF(R18="b",4,IF(R18="C",2,IF(R18="D",1,0))))</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="S44" s="3">
-        <f>IF(S18="A",5,IF(S18="b",4,IF(S18="C",2,IF(S18="D",1,0))))</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="T44" s="3">
-        <f>IF(T18="A",5,IF(T18="b",4,IF(T18="C",2,IF(T18="D",1,0))))</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="U44" s="3">
-        <f>IF(U18="A",5,IF(U18="b",4,IF(U18="C",2,IF(U18="D",1,0))))</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="V44" s="3">
-        <f>IF(V18="A",5,IF(V18="b",4,IF(V18="C",2,IF(V18="D",1,0))))</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="W44" s="3">
-        <f>IF(W18="A",5,IF(W18="b",4,IF(W18="C",2,IF(W18="D",1,0))))</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
     </row>
@@ -4398,87 +4614,87 @@
         <v>21</v>
       </c>
       <c r="C45" s="3">
-        <f>IF(C19="A",5,IF(C19="b",4,IF(C19="C",2,IF(C19="D",1,0))))</f>
+        <f t="shared" ref="C45:W45" si="35">IF(C19="A",5,IF(C19="b",4,IF(C19="C",2,IF(C19="D",1,0))))</f>
         <v>5</v>
       </c>
       <c r="D45" s="3">
-        <f>IF(D19="A",5,IF(D19="b",4,IF(D19="C",2,IF(D19="D",1,0))))</f>
+        <f t="shared" si="35"/>
         <v>5</v>
       </c>
       <c r="E45" s="3">
-        <f>IF(E19="A",5,IF(E19="b",4,IF(E19="C",2,IF(E19="D",1,0))))</f>
+        <f t="shared" si="35"/>
         <v>2</v>
       </c>
       <c r="F45" s="3">
-        <f>IF(F19="A",5,IF(F19="b",4,IF(F19="C",2,IF(F19="D",1,0))))</f>
+        <f t="shared" si="35"/>
         <v>5</v>
       </c>
       <c r="G45" s="3">
-        <f>IF(G19="A",5,IF(G19="b",4,IF(G19="C",2,IF(G19="D",1,0))))</f>
+        <f t="shared" si="35"/>
         <v>5</v>
       </c>
       <c r="H45" s="3">
-        <f>IF(H19="A",5,IF(H19="b",4,IF(H19="C",2,IF(H19="D",1,0))))</f>
+        <f t="shared" si="35"/>
         <v>5</v>
       </c>
       <c r="I45" s="3">
-        <f>IF(I19="A",5,IF(I19="b",4,IF(I19="C",2,IF(I19="D",1,0))))</f>
+        <f t="shared" si="35"/>
         <v>5</v>
       </c>
       <c r="J45" s="3">
-        <f>IF(J19="A",5,IF(J19="b",4,IF(J19="C",2,IF(J19="D",1,0))))</f>
+        <f t="shared" si="35"/>
         <v>5</v>
       </c>
       <c r="K45" s="3">
-        <f>IF(K19="A",5,IF(K19="b",4,IF(K19="C",2,IF(K19="D",1,0))))</f>
+        <f t="shared" si="35"/>
         <v>5</v>
       </c>
       <c r="L45" s="3">
-        <f>IF(L19="A",5,IF(L19="b",4,IF(L19="C",2,IF(L19="D",1,0))))</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="M45" s="3">
-        <f>IF(M19="A",5,IF(M19="b",4,IF(M19="C",2,IF(M19="D",1,0))))</f>
+        <f t="shared" ref="M45:N45" si="36">IF(M19="A",5,IF(M19="b",4,IF(M19="C",2,IF(M19="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="N45" s="3">
-        <f>IF(N19="A",5,IF(N19="b",4,IF(N19="C",2,IF(N19="D",1,0))))</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="O45" s="3">
-        <f>IF(O19="A",5,IF(O19="b",4,IF(O19="C",2,IF(O19="D",1,0))))</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="P45" s="3">
-        <f>IF(P19="A",5,IF(P19="b",4,IF(P19="C",2,IF(P19="D",1,0))))</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="Q45" s="3">
-        <f>IF(Q19="A",5,IF(Q19="b",4,IF(Q19="C",2,IF(Q19="D",1,0))))</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="R45" s="3">
-        <f>IF(R19="A",5,IF(R19="b",4,IF(R19="C",2,IF(R19="D",1,0))))</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="S45" s="3">
-        <f>IF(S19="A",5,IF(S19="b",4,IF(S19="C",2,IF(S19="D",1,0))))</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="T45" s="3">
-        <f>IF(T19="A",5,IF(T19="b",4,IF(T19="C",2,IF(T19="D",1,0))))</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="U45" s="3">
-        <f>IF(U19="A",5,IF(U19="b",4,IF(U19="C",2,IF(U19="D",1,0))))</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="V45" s="3">
-        <f>IF(V19="A",5,IF(V19="b",4,IF(V19="C",2,IF(V19="D",1,0))))</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="W45" s="3">
-        <f>IF(W19="A",5,IF(W19="b",4,IF(W19="C",2,IF(W19="D",1,0))))</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
     </row>
@@ -4488,87 +4704,87 @@
         <v>22</v>
       </c>
       <c r="C46" s="3">
-        <f>IF(C20="A",5,IF(C20="b",4,IF(C20="C",2,IF(C20="D",1,0))))</f>
+        <f t="shared" ref="C46:W46" si="37">IF(C20="A",5,IF(C20="b",4,IF(C20="C",2,IF(C20="D",1,0))))</f>
         <v>5</v>
       </c>
       <c r="D46" s="3">
-        <f>IF(D20="A",5,IF(D20="b",4,IF(D20="C",2,IF(D20="D",1,0))))</f>
+        <f t="shared" si="37"/>
         <v>5</v>
       </c>
       <c r="E46" s="3">
-        <f>IF(E20="A",5,IF(E20="b",4,IF(E20="C",2,IF(E20="D",1,0))))</f>
+        <f t="shared" si="37"/>
         <v>4</v>
       </c>
       <c r="F46" s="3">
-        <f>IF(F20="A",5,IF(F20="b",4,IF(F20="C",2,IF(F20="D",1,0))))</f>
+        <f t="shared" si="37"/>
         <v>5</v>
       </c>
       <c r="G46" s="3">
-        <f>IF(G20="A",5,IF(G20="b",4,IF(G20="C",2,IF(G20="D",1,0))))</f>
+        <f t="shared" si="37"/>
         <v>5</v>
       </c>
       <c r="H46" s="3">
-        <f>IF(H20="A",5,IF(H20="b",4,IF(H20="C",2,IF(H20="D",1,0))))</f>
+        <f t="shared" si="37"/>
         <v>4</v>
       </c>
       <c r="I46" s="3">
-        <f>IF(I20="A",5,IF(I20="b",4,IF(I20="C",2,IF(I20="D",1,0))))</f>
+        <f t="shared" si="37"/>
         <v>5</v>
       </c>
       <c r="J46" s="3">
-        <f>IF(J20="A",5,IF(J20="b",4,IF(J20="C",2,IF(J20="D",1,0))))</f>
+        <f t="shared" si="37"/>
         <v>5</v>
       </c>
       <c r="K46" s="3">
-        <f>IF(K20="A",5,IF(K20="b",4,IF(K20="C",2,IF(K20="D",1,0))))</f>
+        <f t="shared" si="37"/>
         <v>5</v>
       </c>
       <c r="L46" s="3">
-        <f>IF(L20="A",5,IF(L20="b",4,IF(L20="C",2,IF(L20="D",1,0))))</f>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="M46" s="3">
-        <f>IF(M20="A",5,IF(M20="b",4,IF(M20="C",2,IF(M20="D",1,0))))</f>
+        <f t="shared" ref="M46:N46" si="38">IF(M20="A",5,IF(M20="b",4,IF(M20="C",2,IF(M20="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="N46" s="3">
-        <f>IF(N20="A",5,IF(N20="b",4,IF(N20="C",2,IF(N20="D",1,0))))</f>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="O46" s="3">
-        <f>IF(O20="A",5,IF(O20="b",4,IF(O20="C",2,IF(O20="D",1,0))))</f>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="P46" s="3">
-        <f>IF(P20="A",5,IF(P20="b",4,IF(P20="C",2,IF(P20="D",1,0))))</f>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="Q46" s="3">
-        <f>IF(Q20="A",5,IF(Q20="b",4,IF(Q20="C",2,IF(Q20="D",1,0))))</f>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="R46" s="3">
-        <f>IF(R20="A",5,IF(R20="b",4,IF(R20="C",2,IF(R20="D",1,0))))</f>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="S46" s="3">
-        <f>IF(S20="A",5,IF(S20="b",4,IF(S20="C",2,IF(S20="D",1,0))))</f>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="T46" s="3">
-        <f>IF(T20="A",5,IF(T20="b",4,IF(T20="C",2,IF(T20="D",1,0))))</f>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="U46" s="3">
-        <f>IF(U20="A",5,IF(U20="b",4,IF(U20="C",2,IF(U20="D",1,0))))</f>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="V46" s="3">
-        <f>IF(V20="A",5,IF(V20="b",4,IF(V20="C",2,IF(V20="D",1,0))))</f>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="W46" s="3">
-        <f>IF(W20="A",5,IF(W20="b",4,IF(W20="C",2,IF(W20="D",1,0))))</f>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
     </row>
@@ -4578,87 +4794,87 @@
         <v>23</v>
       </c>
       <c r="C47" s="3">
-        <f>IF(C21="A",5,IF(C21="b",4,IF(C21="C",2,IF(C21="D",1,0))))</f>
+        <f t="shared" ref="C47:W47" si="39">IF(C21="A",5,IF(C21="b",4,IF(C21="C",2,IF(C21="D",1,0))))</f>
         <v>5</v>
       </c>
       <c r="D47" s="3">
-        <f>IF(D21="A",5,IF(D21="b",4,IF(D21="C",2,IF(D21="D",1,0))))</f>
+        <f t="shared" si="39"/>
         <v>5</v>
       </c>
       <c r="E47" s="3">
-        <f>IF(E21="A",5,IF(E21="b",4,IF(E21="C",2,IF(E21="D",1,0))))</f>
+        <f t="shared" si="39"/>
         <v>5</v>
       </c>
       <c r="F47" s="3">
-        <f>IF(F21="A",5,IF(F21="b",4,IF(F21="C",2,IF(F21="D",1,0))))</f>
+        <f t="shared" si="39"/>
         <v>5</v>
       </c>
       <c r="G47" s="3">
-        <f>IF(G21="A",5,IF(G21="b",4,IF(G21="C",2,IF(G21="D",1,0))))</f>
+        <f t="shared" si="39"/>
         <v>5</v>
       </c>
       <c r="H47" s="3">
-        <f>IF(H21="A",5,IF(H21="b",4,IF(H21="C",2,IF(H21="D",1,0))))</f>
+        <f t="shared" si="39"/>
         <v>5</v>
       </c>
       <c r="I47" s="3">
-        <f>IF(I21="A",5,IF(I21="b",4,IF(I21="C",2,IF(I21="D",1,0))))</f>
+        <f t="shared" si="39"/>
         <v>5</v>
       </c>
       <c r="J47" s="3">
-        <f>IF(J21="A",5,IF(J21="b",4,IF(J21="C",2,IF(J21="D",1,0))))</f>
+        <f t="shared" si="39"/>
         <v>5</v>
       </c>
       <c r="K47" s="3">
-        <f>IF(K21="A",5,IF(K21="b",4,IF(K21="C",2,IF(K21="D",1,0))))</f>
+        <f t="shared" si="39"/>
         <v>5</v>
       </c>
       <c r="L47" s="3">
-        <f>IF(L21="A",5,IF(L21="b",4,IF(L21="C",2,IF(L21="D",1,0))))</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="M47" s="3">
-        <f>IF(M21="A",5,IF(M21="b",4,IF(M21="C",2,IF(M21="D",1,0))))</f>
+        <f t="shared" ref="M47:N47" si="40">IF(M21="A",5,IF(M21="b",4,IF(M21="C",2,IF(M21="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="N47" s="3">
-        <f>IF(N21="A",5,IF(N21="b",4,IF(N21="C",2,IF(N21="D",1,0))))</f>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="O47" s="3">
-        <f>IF(O21="A",5,IF(O21="b",4,IF(O21="C",2,IF(O21="D",1,0))))</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="P47" s="3">
-        <f>IF(P21="A",5,IF(P21="b",4,IF(P21="C",2,IF(P21="D",1,0))))</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="Q47" s="3">
-        <f>IF(Q21="A",5,IF(Q21="b",4,IF(Q21="C",2,IF(Q21="D",1,0))))</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="R47" s="3">
-        <f>IF(R21="A",5,IF(R21="b",4,IF(R21="C",2,IF(R21="D",1,0))))</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="S47" s="3">
-        <f>IF(S21="A",5,IF(S21="b",4,IF(S21="C",2,IF(S21="D",1,0))))</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="T47" s="3">
-        <f>IF(T21="A",5,IF(T21="b",4,IF(T21="C",2,IF(T21="D",1,0))))</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="U47" s="3">
-        <f>IF(U21="A",5,IF(U21="b",4,IF(U21="C",2,IF(U21="D",1,0))))</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="V47" s="3">
-        <f>IF(V21="A",5,IF(V21="b",4,IF(V21="C",2,IF(V21="D",1,0))))</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="W47" s="3">
-        <f>IF(W21="A",5,IF(W21="b",4,IF(W21="C",2,IF(W21="D",1,0))))</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
     </row>
@@ -4668,87 +4884,87 @@
         <v>24</v>
       </c>
       <c r="C48" s="3">
-        <f>IF(C22="A",5,IF(C22="b",4,IF(C22="C",2,IF(C22="D",1,0))))</f>
+        <f t="shared" ref="C48:W48" si="41">IF(C22="A",5,IF(C22="b",4,IF(C22="C",2,IF(C22="D",1,0))))</f>
         <v>5</v>
       </c>
       <c r="D48" s="3">
-        <f>IF(D22="A",5,IF(D22="b",4,IF(D22="C",2,IF(D22="D",1,0))))</f>
+        <f t="shared" si="41"/>
         <v>5</v>
       </c>
       <c r="E48" s="3">
-        <f>IF(E22="A",5,IF(E22="b",4,IF(E22="C",2,IF(E22="D",1,0))))</f>
+        <f t="shared" si="41"/>
         <v>5</v>
       </c>
       <c r="F48" s="3">
-        <f>IF(F22="A",5,IF(F22="b",4,IF(F22="C",2,IF(F22="D",1,0))))</f>
+        <f t="shared" si="41"/>
         <v>5</v>
       </c>
       <c r="G48" s="3">
-        <f>IF(G22="A",5,IF(G22="b",4,IF(G22="C",2,IF(G22="D",1,0))))</f>
+        <f t="shared" si="41"/>
         <v>2</v>
       </c>
       <c r="H48" s="3">
-        <f>IF(H22="A",5,IF(H22="b",4,IF(H22="C",2,IF(H22="D",1,0))))</f>
+        <f t="shared" si="41"/>
         <v>5</v>
       </c>
       <c r="I48" s="3">
-        <f>IF(I22="A",5,IF(I22="b",4,IF(I22="C",2,IF(I22="D",1,0))))</f>
+        <f t="shared" si="41"/>
         <v>5</v>
       </c>
       <c r="J48" s="3">
-        <f>IF(J22="A",5,IF(J22="b",4,IF(J22="C",2,IF(J22="D",1,0))))</f>
+        <f t="shared" si="41"/>
         <v>5</v>
       </c>
       <c r="K48" s="3">
-        <f>IF(K22="A",5,IF(K22="b",4,IF(K22="C",2,IF(K22="D",1,0))))</f>
+        <f t="shared" si="41"/>
         <v>5</v>
       </c>
       <c r="L48" s="3">
-        <f>IF(L22="A",5,IF(L22="b",4,IF(L22="C",2,IF(L22="D",1,0))))</f>
+        <f t="shared" si="41"/>
         <v>5</v>
       </c>
       <c r="M48" s="3">
-        <f>IF(M22="A",5,IF(M22="b",4,IF(M22="C",2,IF(M22="D",1,0))))</f>
-        <v>0</v>
+        <f t="shared" ref="M48:N48" si="42">IF(M22="A",5,IF(M22="b",4,IF(M22="C",2,IF(M22="D",1,0))))</f>
+        <v>5</v>
       </c>
       <c r="N48" s="3">
-        <f>IF(N22="A",5,IF(N22="b",4,IF(N22="C",2,IF(N22="D",1,0))))</f>
-        <v>0</v>
+        <f t="shared" si="42"/>
+        <v>5</v>
       </c>
       <c r="O48" s="3">
-        <f>IF(O22="A",5,IF(O22="b",4,IF(O22="C",2,IF(O22="D",1,0))))</f>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="P48" s="3">
-        <f>IF(P22="A",5,IF(P22="b",4,IF(P22="C",2,IF(P22="D",1,0))))</f>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="Q48" s="3">
-        <f>IF(Q22="A",5,IF(Q22="b",4,IF(Q22="C",2,IF(Q22="D",1,0))))</f>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="R48" s="3">
-        <f>IF(R22="A",5,IF(R22="b",4,IF(R22="C",2,IF(R22="D",1,0))))</f>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="S48" s="3">
-        <f>IF(S22="A",5,IF(S22="b",4,IF(S22="C",2,IF(S22="D",1,0))))</f>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="T48" s="3">
-        <f>IF(T22="A",5,IF(T22="b",4,IF(T22="C",2,IF(T22="D",1,0))))</f>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="U48" s="3">
-        <f>IF(U22="A",5,IF(U22="b",4,IF(U22="C",2,IF(U22="D",1,0))))</f>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="V48" s="3">
-        <f>IF(V22="A",5,IF(V22="b",4,IF(V22="C",2,IF(V22="D",1,0))))</f>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="W48" s="3">
-        <f>IF(W22="A",5,IF(W22="b",4,IF(W22="C",2,IF(W22="D",1,0))))</f>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
     </row>
@@ -4758,87 +4974,87 @@
         <v>25</v>
       </c>
       <c r="C49" s="3">
-        <f>IF(C23="A",5,IF(C23="b",4,IF(C23="C",2,IF(C23="D",1,0))))</f>
+        <f t="shared" ref="C49:W49" si="43">IF(C23="A",5,IF(C23="b",4,IF(C23="C",2,IF(C23="D",1,0))))</f>
         <v>5</v>
       </c>
       <c r="D49" s="3">
-        <f>IF(D23="A",5,IF(D23="b",4,IF(D23="C",2,IF(D23="D",1,0))))</f>
+        <f t="shared" si="43"/>
         <v>5</v>
       </c>
       <c r="E49" s="3">
-        <f>IF(E23="A",5,IF(E23="b",4,IF(E23="C",2,IF(E23="D",1,0))))</f>
+        <f t="shared" si="43"/>
         <v>5</v>
       </c>
       <c r="F49" s="3">
-        <f>IF(F23="A",5,IF(F23="b",4,IF(F23="C",2,IF(F23="D",1,0))))</f>
+        <f t="shared" si="43"/>
         <v>5</v>
       </c>
       <c r="G49" s="3">
-        <f>IF(G23="A",5,IF(G23="b",4,IF(G23="C",2,IF(G23="D",1,0))))</f>
+        <f t="shared" si="43"/>
         <v>4</v>
       </c>
       <c r="H49" s="3">
-        <f>IF(H23="A",5,IF(H23="b",4,IF(H23="C",2,IF(H23="D",1,0))))</f>
+        <f t="shared" si="43"/>
         <v>5</v>
       </c>
       <c r="I49" s="3">
-        <f>IF(I23="A",5,IF(I23="b",4,IF(I23="C",2,IF(I23="D",1,0))))</f>
+        <f t="shared" si="43"/>
         <v>5</v>
       </c>
       <c r="J49" s="3">
-        <f>IF(J23="A",5,IF(J23="b",4,IF(J23="C",2,IF(J23="D",1,0))))</f>
+        <f t="shared" si="43"/>
         <v>4</v>
       </c>
       <c r="K49" s="3">
-        <f>IF(K23="A",5,IF(K23="b",4,IF(K23="C",2,IF(K23="D",1,0))))</f>
+        <f t="shared" si="43"/>
         <v>5</v>
       </c>
       <c r="L49" s="3">
-        <f>IF(L23="A",5,IF(L23="b",4,IF(L23="C",2,IF(L23="D",1,0))))</f>
+        <f t="shared" si="43"/>
         <v>4</v>
       </c>
       <c r="M49" s="3">
-        <f>IF(M23="A",5,IF(M23="b",4,IF(M23="C",2,IF(M23="D",1,0))))</f>
-        <v>0</v>
+        <f t="shared" ref="M49:N49" si="44">IF(M23="A",5,IF(M23="b",4,IF(M23="C",2,IF(M23="D",1,0))))</f>
+        <v>5</v>
       </c>
       <c r="N49" s="3">
-        <f>IF(N23="A",5,IF(N23="b",4,IF(N23="C",2,IF(N23="D",1,0))))</f>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="O49" s="3">
-        <f>IF(O23="A",5,IF(O23="b",4,IF(O23="C",2,IF(O23="D",1,0))))</f>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="P49" s="3">
-        <f>IF(P23="A",5,IF(P23="b",4,IF(P23="C",2,IF(P23="D",1,0))))</f>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="Q49" s="3">
-        <f>IF(Q23="A",5,IF(Q23="b",4,IF(Q23="C",2,IF(Q23="D",1,0))))</f>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="R49" s="3">
-        <f>IF(R23="A",5,IF(R23="b",4,IF(R23="C",2,IF(R23="D",1,0))))</f>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="S49" s="3">
-        <f>IF(S23="A",5,IF(S23="b",4,IF(S23="C",2,IF(S23="D",1,0))))</f>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="T49" s="3">
-        <f>IF(T23="A",5,IF(T23="b",4,IF(T23="C",2,IF(T23="D",1,0))))</f>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="U49" s="3">
-        <f>IF(U23="A",5,IF(U23="b",4,IF(U23="C",2,IF(U23="D",1,0))))</f>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="V49" s="3">
-        <f>IF(V23="A",5,IF(V23="b",4,IF(V23="C",2,IF(V23="D",1,0))))</f>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="W49" s="3">
-        <f>IF(W23="A",5,IF(W23="b",4,IF(W23="C",2,IF(W23="D",1,0))))</f>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
     </row>
@@ -4848,87 +5064,87 @@
         <v>26</v>
       </c>
       <c r="C50" s="3">
-        <f>IF(C24="A",5,IF(C24="b",4,IF(C24="C",2,IF(C24="D",1,0))))</f>
+        <f t="shared" ref="C50:W50" si="45">IF(C24="A",5,IF(C24="b",4,IF(C24="C",2,IF(C24="D",1,0))))</f>
         <v>5</v>
       </c>
       <c r="D50" s="3">
-        <f>IF(D24="A",5,IF(D24="b",4,IF(D24="C",2,IF(D24="D",1,0))))</f>
+        <f t="shared" si="45"/>
         <v>5</v>
       </c>
       <c r="E50" s="3">
-        <f>IF(E24="A",5,IF(E24="b",4,IF(E24="C",2,IF(E24="D",1,0))))</f>
+        <f t="shared" si="45"/>
         <v>5</v>
       </c>
       <c r="F50" s="3">
-        <f>IF(F24="A",5,IF(F24="b",4,IF(F24="C",2,IF(F24="D",1,0))))</f>
+        <f t="shared" si="45"/>
         <v>5</v>
       </c>
       <c r="G50" s="3">
-        <f>IF(G24="A",5,IF(G24="b",4,IF(G24="C",2,IF(G24="D",1,0))))</f>
+        <f t="shared" si="45"/>
         <v>5</v>
       </c>
       <c r="H50" s="3">
-        <f>IF(H24="A",5,IF(H24="b",4,IF(H24="C",2,IF(H24="D",1,0))))</f>
+        <f t="shared" si="45"/>
         <v>5</v>
       </c>
       <c r="I50" s="3">
-        <f>IF(I24="A",5,IF(I24="b",4,IF(I24="C",2,IF(I24="D",1,0))))</f>
+        <f t="shared" si="45"/>
         <v>5</v>
       </c>
       <c r="J50" s="3">
-        <f>IF(J24="A",5,IF(J24="b",4,IF(J24="C",2,IF(J24="D",1,0))))</f>
+        <f t="shared" si="45"/>
         <v>5</v>
       </c>
       <c r="K50" s="3">
-        <f>IF(K24="A",5,IF(K24="b",4,IF(K24="C",2,IF(K24="D",1,0))))</f>
+        <f t="shared" si="45"/>
         <v>5</v>
       </c>
       <c r="L50" s="3">
-        <f>IF(L24="A",5,IF(L24="b",4,IF(L24="C",2,IF(L24="D",1,0))))</f>
+        <f t="shared" si="45"/>
         <v>4</v>
       </c>
       <c r="M50" s="3">
-        <f>IF(M24="A",5,IF(M24="b",4,IF(M24="C",2,IF(M24="D",1,0))))</f>
-        <v>0</v>
+        <f t="shared" ref="M50:N50" si="46">IF(M24="A",5,IF(M24="b",4,IF(M24="C",2,IF(M24="D",1,0))))</f>
+        <v>4</v>
       </c>
       <c r="N50" s="3">
-        <f>IF(N24="A",5,IF(N24="b",4,IF(N24="C",2,IF(N24="D",1,0))))</f>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="O50" s="3">
-        <f>IF(O24="A",5,IF(O24="b",4,IF(O24="C",2,IF(O24="D",1,0))))</f>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="P50" s="3">
-        <f>IF(P24="A",5,IF(P24="b",4,IF(P24="C",2,IF(P24="D",1,0))))</f>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="Q50" s="3">
-        <f>IF(Q24="A",5,IF(Q24="b",4,IF(Q24="C",2,IF(Q24="D",1,0))))</f>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="R50" s="3">
-        <f>IF(R24="A",5,IF(R24="b",4,IF(R24="C",2,IF(R24="D",1,0))))</f>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="S50" s="3">
-        <f>IF(S24="A",5,IF(S24="b",4,IF(S24="C",2,IF(S24="D",1,0))))</f>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="T50" s="3">
-        <f>IF(T24="A",5,IF(T24="b",4,IF(T24="C",2,IF(T24="D",1,0))))</f>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="U50" s="3">
-        <f>IF(U24="A",5,IF(U24="b",4,IF(U24="C",2,IF(U24="D",1,0))))</f>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="V50" s="3">
-        <f>IF(V24="A",5,IF(V24="b",4,IF(V24="C",2,IF(V24="D",1,0))))</f>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="W50" s="3">
-        <f>IF(W24="A",5,IF(W24="b",4,IF(W24="C",2,IF(W24="D",1,0))))</f>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
     </row>
@@ -5034,1239 +5250,1249 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF578CAD-DA7B-483D-BDEF-C637B7FABB3A}">
-  <dimension ref="A1:AP38"/>
+  <dimension ref="A1:AQ38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AO16" sqref="AO16"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="AP14" sqref="AP14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.77734375" defaultRowHeight="22.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.77734375" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="3.77734375" style="6"/>
-    <col min="3" max="41" width="3.77734375" style="9"/>
-    <col min="42" max="42" width="12.6640625" style="9" customWidth="1"/>
-    <col min="43" max="16384" width="3.77734375" style="9"/>
+    <col min="3" max="42" width="3.77734375" style="9"/>
+    <col min="43" max="43" width="12.6640625" style="9" customWidth="1"/>
+    <col min="44" max="16384" width="3.77734375" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="14"/>
-      <c r="T1" s="14"/>
-      <c r="U1" s="14"/>
-      <c r="V1" s="14"/>
-      <c r="W1" s="14"/>
-      <c r="X1" s="14"/>
-      <c r="Y1" s="14"/>
-      <c r="Z1" s="14"/>
-      <c r="AA1" s="14"/>
-      <c r="AB1" s="14"/>
-      <c r="AC1" s="14"/>
-      <c r="AD1" s="14"/>
-      <c r="AE1" s="14"/>
-      <c r="AF1" s="14"/>
-      <c r="AG1" s="14"/>
-      <c r="AH1" s="14"/>
-      <c r="AI1" s="14"/>
-      <c r="AJ1" s="14"/>
-      <c r="AK1" s="14"/>
-      <c r="AL1" s="14"/>
-    </row>
-    <row r="2" spans="1:42" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
+      <c r="T1" s="17"/>
+      <c r="U1" s="17"/>
+      <c r="V1" s="17"/>
+      <c r="W1" s="17"/>
+      <c r="X1" s="17"/>
+      <c r="Y1" s="17"/>
+      <c r="Z1" s="17"/>
+      <c r="AA1" s="17"/>
+      <c r="AB1" s="17"/>
+      <c r="AC1" s="17"/>
+      <c r="AD1" s="17"/>
+      <c r="AE1" s="17"/>
+      <c r="AF1" s="17"/>
+      <c r="AG1" s="17"/>
+      <c r="AH1" s="17"/>
+      <c r="AI1" s="17"/>
+      <c r="AJ1" s="17"/>
+      <c r="AK1" s="17"/>
+      <c r="AL1" s="17"/>
+    </row>
+    <row r="2" spans="1:43" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="17">
+      <c r="B2" s="20">
         <v>1</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17"/>
-      <c r="S2" s="17"/>
-      <c r="T2" s="17"/>
-      <c r="U2" s="17"/>
-      <c r="V2" s="17"/>
-      <c r="W2" s="17"/>
-      <c r="X2" s="17"/>
-      <c r="Y2" s="17"/>
-      <c r="Z2" s="17"/>
-      <c r="AA2" s="17"/>
-      <c r="AB2" s="17"/>
-      <c r="AC2" s="17"/>
-      <c r="AD2" s="17"/>
-      <c r="AE2" s="17"/>
-      <c r="AF2" s="17"/>
-      <c r="AG2" s="17"/>
-      <c r="AH2" s="17"/>
-      <c r="AI2" s="17"/>
-      <c r="AJ2" s="17"/>
-      <c r="AK2" s="17"/>
-      <c r="AL2" s="17"/>
-      <c r="AO2" s="9">
-        <v>0</v>
-      </c>
-      <c r="AP2" s="9" t="s">
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="20"/>
+      <c r="S2" s="20"/>
+      <c r="T2" s="20"/>
+      <c r="U2" s="20"/>
+      <c r="V2" s="20"/>
+      <c r="W2" s="20"/>
+      <c r="X2" s="20"/>
+      <c r="Y2" s="20"/>
+      <c r="Z2" s="20"/>
+      <c r="AA2" s="20"/>
+      <c r="AB2" s="20"/>
+      <c r="AC2" s="20"/>
+      <c r="AD2" s="20"/>
+      <c r="AE2" s="20"/>
+      <c r="AF2" s="20"/>
+      <c r="AG2" s="20"/>
+      <c r="AH2" s="20"/>
+      <c r="AI2" s="20"/>
+      <c r="AJ2" s="20"/>
+      <c r="AK2" s="20"/>
+      <c r="AL2" s="20"/>
+      <c r="AP2" s="9">
+        <v>0</v>
+      </c>
+      <c r="AQ2" s="9" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:42" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:43" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="17">
+      <c r="B3" s="20">
         <v>1</v>
       </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="17"/>
-      <c r="P3" s="17"/>
-      <c r="Q3" s="17"/>
-      <c r="R3" s="17"/>
-      <c r="S3" s="17"/>
-      <c r="T3" s="17"/>
-      <c r="U3" s="17"/>
-      <c r="V3" s="17"/>
-      <c r="W3" s="17"/>
-      <c r="X3" s="17"/>
-      <c r="Y3" s="17"/>
-      <c r="Z3" s="17"/>
-      <c r="AA3" s="17"/>
-      <c r="AB3" s="17"/>
-      <c r="AC3" s="17"/>
-      <c r="AD3" s="17"/>
-      <c r="AE3" s="17"/>
-      <c r="AF3" s="17"/>
-      <c r="AG3" s="17"/>
-      <c r="AH3" s="17"/>
-      <c r="AI3" s="17"/>
-      <c r="AJ3" s="17"/>
-      <c r="AK3" s="17"/>
-      <c r="AL3" s="17"/>
-      <c r="AO3" s="9">
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="20"/>
+      <c r="R3" s="20"/>
+      <c r="S3" s="20"/>
+      <c r="T3" s="20"/>
+      <c r="U3" s="20"/>
+      <c r="V3" s="20"/>
+      <c r="W3" s="20"/>
+      <c r="X3" s="20"/>
+      <c r="Y3" s="20"/>
+      <c r="Z3" s="20"/>
+      <c r="AA3" s="20"/>
+      <c r="AB3" s="20"/>
+      <c r="AC3" s="20"/>
+      <c r="AD3" s="20"/>
+      <c r="AE3" s="20"/>
+      <c r="AF3" s="20"/>
+      <c r="AG3" s="20"/>
+      <c r="AH3" s="20"/>
+      <c r="AI3" s="20"/>
+      <c r="AJ3" s="20"/>
+      <c r="AK3" s="20"/>
+      <c r="AL3" s="20"/>
+      <c r="AP3" s="9">
         <v>10</v>
       </c>
-      <c r="AP3" s="9" t="s">
+      <c r="AQ3" s="9" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:42" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:43" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="17">
-        <v>1</v>
-      </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="17"/>
-      <c r="P4" s="17"/>
-      <c r="Q4" s="17"/>
-      <c r="R4" s="17"/>
-      <c r="S4" s="17"/>
-      <c r="T4" s="17"/>
-      <c r="U4" s="17"/>
-      <c r="V4" s="17"/>
-      <c r="W4" s="17"/>
-      <c r="X4" s="17"/>
-      <c r="Y4" s="17"/>
-      <c r="Z4" s="17"/>
-      <c r="AA4" s="17"/>
-      <c r="AB4" s="17"/>
-      <c r="AC4" s="17"/>
-      <c r="AD4" s="17"/>
-      <c r="AE4" s="17"/>
-      <c r="AF4" s="17"/>
-      <c r="AG4" s="17"/>
-      <c r="AH4" s="17"/>
-      <c r="AI4" s="17"/>
-      <c r="AJ4" s="17"/>
-      <c r="AK4" s="17"/>
-      <c r="AL4" s="17"/>
-    </row>
-    <row r="5" spans="1:42" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="B4" s="20">
+        <v>2</v>
+      </c>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="20"/>
+      <c r="R4" s="20"/>
+      <c r="S4" s="20"/>
+      <c r="T4" s="20"/>
+      <c r="U4" s="20"/>
+      <c r="V4" s="20"/>
+      <c r="W4" s="20"/>
+      <c r="X4" s="20"/>
+      <c r="Y4" s="20"/>
+      <c r="Z4" s="20"/>
+      <c r="AA4" s="20"/>
+      <c r="AB4" s="20"/>
+      <c r="AC4" s="20"/>
+      <c r="AD4" s="20"/>
+      <c r="AE4" s="20"/>
+      <c r="AF4" s="20"/>
+      <c r="AG4" s="20"/>
+      <c r="AH4" s="20"/>
+      <c r="AI4" s="20"/>
+      <c r="AJ4" s="20"/>
+      <c r="AK4" s="20"/>
+      <c r="AL4" s="20"/>
+      <c r="AO4" s="13"/>
+    </row>
+    <row r="5" spans="1:43" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="18">
+      <c r="B5" s="21">
         <v>1</v>
       </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="18"/>
-      <c r="N5" s="18"/>
-      <c r="O5" s="18"/>
-      <c r="P5" s="18"/>
-      <c r="Q5" s="18"/>
-      <c r="R5" s="18"/>
-      <c r="S5" s="18"/>
-      <c r="T5" s="18"/>
-      <c r="U5" s="18"/>
-      <c r="V5" s="18"/>
-      <c r="W5" s="18"/>
-      <c r="X5" s="18"/>
-      <c r="Y5" s="18"/>
-      <c r="Z5" s="18"/>
-      <c r="AA5" s="18"/>
-      <c r="AB5" s="18"/>
-      <c r="AC5" s="18"/>
-      <c r="AD5" s="18"/>
-      <c r="AE5" s="18"/>
-      <c r="AF5" s="18"/>
-      <c r="AG5" s="18"/>
-      <c r="AH5" s="18"/>
-      <c r="AI5" s="18"/>
-      <c r="AJ5" s="18"/>
-      <c r="AK5" s="18"/>
-      <c r="AL5" s="18"/>
-    </row>
-    <row r="6" spans="1:42" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="21"/>
+      <c r="R5" s="21"/>
+      <c r="S5" s="21"/>
+      <c r="T5" s="21"/>
+      <c r="U5" s="21"/>
+      <c r="V5" s="21"/>
+      <c r="W5" s="21"/>
+      <c r="X5" s="21"/>
+      <c r="Y5" s="21"/>
+      <c r="Z5" s="21"/>
+      <c r="AA5" s="21"/>
+      <c r="AB5" s="21"/>
+      <c r="AC5" s="21"/>
+      <c r="AD5" s="21"/>
+      <c r="AE5" s="21"/>
+      <c r="AF5" s="21"/>
+      <c r="AG5" s="21"/>
+      <c r="AH5" s="21"/>
+      <c r="AI5" s="21"/>
+      <c r="AJ5" s="21"/>
+      <c r="AK5" s="21"/>
+      <c r="AL5" s="21"/>
+    </row>
+    <row r="6" spans="1:43" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="18">
+      <c r="B6" s="21">
         <v>1</v>
       </c>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
-      <c r="M6" s="18"/>
-      <c r="N6" s="18"/>
-      <c r="O6" s="18"/>
-      <c r="P6" s="18"/>
-      <c r="Q6" s="18"/>
-      <c r="R6" s="18"/>
-      <c r="S6" s="18"/>
-      <c r="T6" s="18"/>
-      <c r="U6" s="18"/>
-      <c r="V6" s="18"/>
-      <c r="W6" s="18"/>
-      <c r="X6" s="18"/>
-      <c r="Y6" s="18"/>
-      <c r="Z6" s="18"/>
-      <c r="AA6" s="18"/>
-      <c r="AB6" s="18"/>
-      <c r="AC6" s="18"/>
-      <c r="AD6" s="18"/>
-      <c r="AE6" s="18"/>
-      <c r="AF6" s="18"/>
-      <c r="AG6" s="18"/>
-      <c r="AH6" s="18"/>
-      <c r="AI6" s="18"/>
-      <c r="AJ6" s="18"/>
-      <c r="AK6" s="18"/>
-      <c r="AL6" s="18"/>
-    </row>
-    <row r="7" spans="1:42" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="21"/>
+      <c r="O6" s="21"/>
+      <c r="P6" s="21"/>
+      <c r="Q6" s="21"/>
+      <c r="R6" s="21"/>
+      <c r="S6" s="21"/>
+      <c r="T6" s="21"/>
+      <c r="U6" s="21"/>
+      <c r="V6" s="21"/>
+      <c r="W6" s="21"/>
+      <c r="X6" s="21"/>
+      <c r="Y6" s="21"/>
+      <c r="Z6" s="21"/>
+      <c r="AA6" s="21"/>
+      <c r="AB6" s="21"/>
+      <c r="AC6" s="21"/>
+      <c r="AD6" s="21"/>
+      <c r="AE6" s="21"/>
+      <c r="AF6" s="21"/>
+      <c r="AG6" s="21"/>
+      <c r="AH6" s="21"/>
+      <c r="AI6" s="21"/>
+      <c r="AJ6" s="21"/>
+      <c r="AK6" s="21"/>
+      <c r="AL6" s="21"/>
+    </row>
+    <row r="7" spans="1:43" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="18">
-        <v>2</v>
-      </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="18"/>
-      <c r="N7" s="18"/>
-      <c r="O7" s="18"/>
-      <c r="P7" s="18"/>
-      <c r="Q7" s="18"/>
-      <c r="R7" s="18"/>
-      <c r="S7" s="18"/>
-      <c r="T7" s="18"/>
-      <c r="U7" s="18"/>
-      <c r="V7" s="18"/>
-      <c r="W7" s="18"/>
-      <c r="X7" s="18"/>
-      <c r="Y7" s="18"/>
-      <c r="Z7" s="18"/>
-      <c r="AA7" s="18"/>
-      <c r="AB7" s="18"/>
-      <c r="AC7" s="18"/>
-      <c r="AD7" s="18"/>
-      <c r="AE7" s="18"/>
-      <c r="AF7" s="18"/>
-      <c r="AG7" s="18"/>
-      <c r="AH7" s="18"/>
-      <c r="AI7" s="18"/>
-      <c r="AJ7" s="18"/>
-      <c r="AK7" s="18"/>
-      <c r="AL7" s="18"/>
-      <c r="AM7" s="12"/>
-    </row>
-    <row r="8" spans="1:42" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="B7" s="21">
+        <v>1</v>
+      </c>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="21"/>
+      <c r="R7" s="21"/>
+      <c r="S7" s="21"/>
+      <c r="T7" s="21"/>
+      <c r="U7" s="21"/>
+      <c r="V7" s="21"/>
+      <c r="W7" s="21"/>
+      <c r="X7" s="21"/>
+      <c r="Y7" s="21"/>
+      <c r="Z7" s="21"/>
+      <c r="AA7" s="21"/>
+      <c r="AB7" s="21"/>
+      <c r="AC7" s="21"/>
+      <c r="AD7" s="21"/>
+      <c r="AE7" s="21"/>
+      <c r="AF7" s="21"/>
+      <c r="AG7" s="21"/>
+      <c r="AH7" s="21"/>
+      <c r="AI7" s="21"/>
+      <c r="AJ7" s="21"/>
+      <c r="AK7" s="21"/>
+      <c r="AL7" s="21"/>
+    </row>
+    <row r="8" spans="1:43" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="18">
+      <c r="B8" s="21">
         <v>1</v>
       </c>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="18"/>
-      <c r="M8" s="18"/>
-      <c r="N8" s="18"/>
-      <c r="O8" s="18"/>
-      <c r="P8" s="18"/>
-      <c r="Q8" s="18"/>
-      <c r="R8" s="18"/>
-      <c r="S8" s="18"/>
-      <c r="T8" s="18"/>
-      <c r="U8" s="18"/>
-      <c r="V8" s="18"/>
-      <c r="W8" s="18"/>
-      <c r="X8" s="18"/>
-      <c r="Y8" s="18"/>
-      <c r="Z8" s="18"/>
-      <c r="AA8" s="18"/>
-      <c r="AB8" s="18"/>
-      <c r="AC8" s="18"/>
-      <c r="AD8" s="18"/>
-      <c r="AE8" s="18"/>
-      <c r="AF8" s="18"/>
-      <c r="AG8" s="18"/>
-      <c r="AH8" s="18"/>
-      <c r="AI8" s="18"/>
-      <c r="AJ8" s="18"/>
-      <c r="AK8" s="18"/>
-      <c r="AL8" s="18"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="21"/>
+      <c r="R8" s="21"/>
+      <c r="S8" s="21"/>
+      <c r="T8" s="21"/>
+      <c r="U8" s="21"/>
+      <c r="V8" s="21"/>
+      <c r="W8" s="21"/>
+      <c r="X8" s="21"/>
+      <c r="Y8" s="21"/>
+      <c r="Z8" s="21"/>
+      <c r="AA8" s="21"/>
+      <c r="AB8" s="21"/>
+      <c r="AC8" s="21"/>
+      <c r="AD8" s="21"/>
+      <c r="AE8" s="21"/>
+      <c r="AF8" s="21"/>
+      <c r="AG8" s="21"/>
+      <c r="AH8" s="21"/>
+      <c r="AI8" s="21"/>
+      <c r="AJ8" s="21"/>
+      <c r="AK8" s="21"/>
+      <c r="AL8" s="21"/>
       <c r="AM8" s="13"/>
     </row>
-    <row r="9" spans="1:42" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:43" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="18">
+      <c r="B9" s="21">
         <v>2</v>
       </c>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="18"/>
-      <c r="N9" s="18"/>
-      <c r="O9" s="18"/>
-      <c r="P9" s="18"/>
-      <c r="Q9" s="18"/>
-      <c r="R9" s="18"/>
-      <c r="S9" s="18"/>
-      <c r="T9" s="18"/>
-      <c r="U9" s="18"/>
-      <c r="V9" s="18"/>
-      <c r="W9" s="18"/>
-      <c r="X9" s="18"/>
-      <c r="Y9" s="18"/>
-      <c r="Z9" s="18"/>
-      <c r="AA9" s="18"/>
-      <c r="AB9" s="18"/>
-      <c r="AC9" s="18"/>
-      <c r="AD9" s="18"/>
-      <c r="AE9" s="18"/>
-      <c r="AF9" s="18"/>
-      <c r="AG9" s="18"/>
-      <c r="AH9" s="18"/>
-      <c r="AI9" s="18"/>
-      <c r="AJ9" s="18"/>
-      <c r="AK9" s="18"/>
-      <c r="AL9" s="18"/>
-    </row>
-    <row r="10" spans="1:42" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="21"/>
+      <c r="P9" s="21"/>
+      <c r="Q9" s="21"/>
+      <c r="R9" s="21"/>
+      <c r="S9" s="21"/>
+      <c r="T9" s="21"/>
+      <c r="U9" s="21"/>
+      <c r="V9" s="21"/>
+      <c r="W9" s="21"/>
+      <c r="X9" s="21"/>
+      <c r="Y9" s="21"/>
+      <c r="Z9" s="21"/>
+      <c r="AA9" s="21"/>
+      <c r="AB9" s="21"/>
+      <c r="AC9" s="21"/>
+      <c r="AD9" s="21"/>
+      <c r="AE9" s="21"/>
+      <c r="AF9" s="21"/>
+      <c r="AG9" s="21"/>
+      <c r="AH9" s="21"/>
+      <c r="AI9" s="21"/>
+      <c r="AJ9" s="21"/>
+      <c r="AK9" s="21"/>
+      <c r="AL9" s="21"/>
+    </row>
+    <row r="10" spans="1:43" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="18">
-        <v>1</v>
-      </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="18"/>
-      <c r="N10" s="18"/>
-      <c r="O10" s="18"/>
-      <c r="P10" s="18"/>
-      <c r="Q10" s="18"/>
-      <c r="R10" s="18"/>
-      <c r="S10" s="18"/>
-      <c r="T10" s="18"/>
-      <c r="U10" s="18"/>
-      <c r="V10" s="18"/>
-      <c r="W10" s="18"/>
-      <c r="X10" s="18"/>
-      <c r="Y10" s="18"/>
-      <c r="Z10" s="18"/>
-      <c r="AA10" s="18"/>
-      <c r="AB10" s="18"/>
-      <c r="AC10" s="18"/>
-      <c r="AD10" s="18"/>
-      <c r="AE10" s="18"/>
-      <c r="AF10" s="18"/>
-      <c r="AG10" s="18"/>
-      <c r="AH10" s="18"/>
-      <c r="AI10" s="18"/>
-      <c r="AJ10" s="18"/>
-      <c r="AK10" s="18"/>
-      <c r="AL10" s="18"/>
-    </row>
-    <row r="11" spans="1:42" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="B10" s="21">
+        <v>2</v>
+      </c>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="21"/>
+      <c r="O10" s="21"/>
+      <c r="P10" s="21"/>
+      <c r="Q10" s="21"/>
+      <c r="R10" s="21"/>
+      <c r="S10" s="21"/>
+      <c r="T10" s="21"/>
+      <c r="U10" s="21"/>
+      <c r="V10" s="21"/>
+      <c r="W10" s="21"/>
+      <c r="X10" s="21"/>
+      <c r="Y10" s="21"/>
+      <c r="Z10" s="21"/>
+      <c r="AA10" s="21"/>
+      <c r="AB10" s="21"/>
+      <c r="AC10" s="21"/>
+      <c r="AD10" s="21"/>
+      <c r="AE10" s="21"/>
+      <c r="AF10" s="21"/>
+      <c r="AG10" s="21"/>
+      <c r="AH10" s="21"/>
+      <c r="AI10" s="21"/>
+      <c r="AJ10" s="21"/>
+      <c r="AK10" s="21"/>
+      <c r="AL10" s="21"/>
+    </row>
+    <row r="11" spans="1:43" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="18"/>
-      <c r="M11" s="18"/>
-      <c r="N11" s="18"/>
-      <c r="O11" s="18"/>
-      <c r="P11" s="18"/>
-      <c r="Q11" s="18"/>
-      <c r="R11" s="18"/>
-      <c r="S11" s="18"/>
-      <c r="T11" s="18"/>
-      <c r="U11" s="18"/>
-      <c r="V11" s="18"/>
-      <c r="W11" s="18"/>
-      <c r="X11" s="18"/>
-      <c r="Y11" s="18"/>
-      <c r="Z11" s="18"/>
-      <c r="AA11" s="18"/>
-      <c r="AB11" s="18"/>
-      <c r="AC11" s="18"/>
-      <c r="AD11" s="18"/>
-      <c r="AE11" s="18"/>
-      <c r="AF11" s="18"/>
-      <c r="AG11" s="18"/>
-      <c r="AH11" s="18"/>
-      <c r="AI11" s="18"/>
-      <c r="AJ11" s="18"/>
-      <c r="AK11" s="18"/>
-      <c r="AL11" s="18"/>
-    </row>
-    <row r="12" spans="1:42" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="B11" s="21">
+        <v>1</v>
+      </c>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="21"/>
+      <c r="P11" s="21"/>
+      <c r="Q11" s="21"/>
+      <c r="R11" s="21"/>
+      <c r="S11" s="21"/>
+      <c r="T11" s="21"/>
+      <c r="U11" s="21"/>
+      <c r="V11" s="21"/>
+      <c r="W11" s="21"/>
+      <c r="X11" s="21"/>
+      <c r="Y11" s="21"/>
+      <c r="Z11" s="21"/>
+      <c r="AA11" s="21"/>
+      <c r="AB11" s="21"/>
+      <c r="AC11" s="21"/>
+      <c r="AD11" s="21"/>
+      <c r="AE11" s="21"/>
+      <c r="AF11" s="21"/>
+      <c r="AG11" s="21"/>
+      <c r="AH11" s="21"/>
+      <c r="AI11" s="21"/>
+      <c r="AJ11" s="21"/>
+      <c r="AK11" s="21"/>
+      <c r="AL11" s="21"/>
+    </row>
+    <row r="12" spans="1:43" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="18">
+      <c r="B12" s="21">
         <v>1</v>
       </c>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="18"/>
-      <c r="M12" s="18"/>
-      <c r="N12" s="18"/>
-      <c r="O12" s="18"/>
-      <c r="P12" s="18"/>
-      <c r="Q12" s="18"/>
-      <c r="R12" s="18"/>
-      <c r="S12" s="18"/>
-      <c r="T12" s="18"/>
-      <c r="U12" s="18"/>
-      <c r="V12" s="18"/>
-      <c r="W12" s="18"/>
-      <c r="X12" s="18"/>
-      <c r="Y12" s="18"/>
-      <c r="Z12" s="18"/>
-      <c r="AA12" s="18"/>
-      <c r="AB12" s="18"/>
-      <c r="AC12" s="18"/>
-      <c r="AD12" s="18"/>
-      <c r="AE12" s="18"/>
-      <c r="AF12" s="18"/>
-      <c r="AG12" s="18"/>
-      <c r="AH12" s="18"/>
-      <c r="AI12" s="18"/>
-      <c r="AJ12" s="18"/>
-      <c r="AK12" s="18"/>
-      <c r="AL12" s="18"/>
-      <c r="AM12" s="13"/>
-    </row>
-    <row r="13" spans="1:42" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="21"/>
+      <c r="O12" s="21"/>
+      <c r="P12" s="21"/>
+      <c r="Q12" s="21"/>
+      <c r="R12" s="21"/>
+      <c r="S12" s="21"/>
+      <c r="T12" s="21"/>
+      <c r="U12" s="21"/>
+      <c r="V12" s="21"/>
+      <c r="W12" s="21"/>
+      <c r="X12" s="21"/>
+      <c r="Y12" s="21"/>
+      <c r="Z12" s="21"/>
+      <c r="AA12" s="21"/>
+      <c r="AB12" s="21"/>
+      <c r="AC12" s="21"/>
+      <c r="AD12" s="21"/>
+      <c r="AE12" s="21"/>
+      <c r="AF12" s="21"/>
+      <c r="AG12" s="21"/>
+      <c r="AH12" s="21"/>
+      <c r="AI12" s="21"/>
+      <c r="AJ12" s="21"/>
+      <c r="AK12" s="21"/>
+      <c r="AL12" s="21"/>
+      <c r="AM12" s="12"/>
+    </row>
+    <row r="13" spans="1:43" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="18">
+      <c r="B13" s="21">
         <v>2</v>
       </c>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18"/>
-      <c r="L13" s="18"/>
-      <c r="M13" s="18"/>
-      <c r="N13" s="18"/>
-      <c r="O13" s="18"/>
-      <c r="P13" s="18"/>
-      <c r="Q13" s="18"/>
-      <c r="R13" s="18"/>
-      <c r="S13" s="18"/>
-      <c r="T13" s="18"/>
-      <c r="U13" s="18"/>
-      <c r="V13" s="18"/>
-      <c r="W13" s="18"/>
-      <c r="X13" s="18"/>
-      <c r="Y13" s="18"/>
-      <c r="Z13" s="18"/>
-      <c r="AA13" s="18"/>
-      <c r="AB13" s="18"/>
-      <c r="AC13" s="18"/>
-      <c r="AD13" s="18"/>
-      <c r="AE13" s="18"/>
-      <c r="AF13" s="18"/>
-      <c r="AG13" s="18"/>
-      <c r="AH13" s="18"/>
-      <c r="AI13" s="18"/>
-      <c r="AJ13" s="18"/>
-      <c r="AK13" s="18"/>
-      <c r="AL13" s="18"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="21"/>
+      <c r="P13" s="21"/>
+      <c r="Q13" s="21"/>
+      <c r="R13" s="21"/>
+      <c r="S13" s="21"/>
+      <c r="T13" s="21"/>
+      <c r="U13" s="21"/>
+      <c r="V13" s="21"/>
+      <c r="W13" s="21"/>
+      <c r="X13" s="21"/>
+      <c r="Y13" s="21"/>
+      <c r="Z13" s="21"/>
+      <c r="AA13" s="21"/>
+      <c r="AB13" s="21"/>
+      <c r="AC13" s="21"/>
+      <c r="AD13" s="21"/>
+      <c r="AE13" s="21"/>
+      <c r="AF13" s="21"/>
+      <c r="AG13" s="21"/>
+      <c r="AH13" s="21"/>
+      <c r="AI13" s="21"/>
+      <c r="AJ13" s="21"/>
+      <c r="AK13" s="21"/>
+      <c r="AL13" s="21"/>
       <c r="AM13" s="13"/>
     </row>
-    <row r="14" spans="1:42" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:43" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
-      <c r="L14" s="18"/>
-      <c r="M14" s="18"/>
-      <c r="N14" s="18"/>
-      <c r="O14" s="18"/>
-      <c r="P14" s="18"/>
-      <c r="Q14" s="18"/>
-      <c r="R14" s="18"/>
-      <c r="S14" s="18"/>
-      <c r="T14" s="18"/>
-      <c r="U14" s="18"/>
-      <c r="V14" s="18"/>
-      <c r="W14" s="18"/>
-      <c r="X14" s="18"/>
-      <c r="Y14" s="18"/>
-      <c r="Z14" s="18"/>
-      <c r="AA14" s="18"/>
-      <c r="AB14" s="18"/>
-      <c r="AC14" s="18"/>
-      <c r="AD14" s="18"/>
-      <c r="AE14" s="18"/>
-      <c r="AF14" s="18"/>
-      <c r="AG14" s="18"/>
-      <c r="AH14" s="18"/>
-      <c r="AI14" s="18"/>
-      <c r="AJ14" s="18"/>
-      <c r="AK14" s="18"/>
-      <c r="AL14" s="18"/>
+      <c r="B14" s="21">
+        <v>1</v>
+      </c>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="21"/>
+      <c r="O14" s="21"/>
+      <c r="P14" s="21"/>
+      <c r="Q14" s="21"/>
+      <c r="R14" s="21"/>
+      <c r="S14" s="21"/>
+      <c r="T14" s="21"/>
+      <c r="U14" s="21"/>
+      <c r="V14" s="21"/>
+      <c r="W14" s="21"/>
+      <c r="X14" s="21"/>
+      <c r="Y14" s="21"/>
+      <c r="Z14" s="21"/>
+      <c r="AA14" s="21"/>
+      <c r="AB14" s="21"/>
+      <c r="AC14" s="21"/>
+      <c r="AD14" s="21"/>
+      <c r="AE14" s="21"/>
+      <c r="AF14" s="21"/>
+      <c r="AG14" s="21"/>
+      <c r="AH14" s="21"/>
+      <c r="AI14" s="21"/>
+      <c r="AJ14" s="21"/>
+      <c r="AK14" s="21"/>
+      <c r="AL14" s="21"/>
       <c r="AM14" s="13"/>
-    </row>
-    <row r="15" spans="1:42" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="AO14" s="13"/>
+    </row>
+    <row r="15" spans="1:43" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="18">
-        <v>1</v>
-      </c>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
-      <c r="L15" s="18"/>
-      <c r="M15" s="18"/>
-      <c r="N15" s="18"/>
-      <c r="O15" s="18"/>
-      <c r="P15" s="18"/>
-      <c r="Q15" s="18"/>
-      <c r="R15" s="18"/>
-      <c r="S15" s="18"/>
-      <c r="T15" s="18"/>
-      <c r="U15" s="18"/>
-      <c r="V15" s="18"/>
-      <c r="W15" s="18"/>
-      <c r="X15" s="18"/>
-      <c r="Y15" s="18"/>
-      <c r="Z15" s="18"/>
-      <c r="AA15" s="18"/>
-      <c r="AB15" s="18"/>
-      <c r="AC15" s="18"/>
-      <c r="AD15" s="18"/>
-      <c r="AE15" s="18"/>
-      <c r="AF15" s="18"/>
-      <c r="AG15" s="18"/>
-      <c r="AH15" s="18"/>
-      <c r="AI15" s="18"/>
-      <c r="AJ15" s="18"/>
-      <c r="AK15" s="18"/>
-      <c r="AL15" s="18"/>
+      <c r="B15" s="21">
+        <v>2</v>
+      </c>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="21"/>
+      <c r="N15" s="21"/>
+      <c r="O15" s="21"/>
+      <c r="P15" s="21"/>
+      <c r="Q15" s="21"/>
+      <c r="R15" s="21"/>
+      <c r="S15" s="21"/>
+      <c r="T15" s="21"/>
+      <c r="U15" s="21"/>
+      <c r="V15" s="21"/>
+      <c r="W15" s="21"/>
+      <c r="X15" s="21"/>
+      <c r="Y15" s="21"/>
+      <c r="Z15" s="21"/>
+      <c r="AA15" s="21"/>
+      <c r="AB15" s="21"/>
+      <c r="AC15" s="21"/>
+      <c r="AD15" s="21"/>
+      <c r="AE15" s="21"/>
+      <c r="AF15" s="21"/>
+      <c r="AG15" s="21"/>
+      <c r="AH15" s="21"/>
+      <c r="AI15" s="21"/>
+      <c r="AJ15" s="21"/>
+      <c r="AK15" s="21"/>
+      <c r="AL15" s="21"/>
       <c r="AM15" s="13"/>
-    </row>
-    <row r="16" spans="1:42" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="AO15" s="13"/>
+    </row>
+    <row r="16" spans="1:43" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="18">
+      <c r="B16" s="21">
         <v>2</v>
       </c>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="18"/>
-      <c r="L16" s="18"/>
-      <c r="M16" s="18"/>
-      <c r="N16" s="18"/>
-      <c r="O16" s="18"/>
-      <c r="P16" s="18"/>
-      <c r="Q16" s="18"/>
-      <c r="R16" s="18"/>
-      <c r="S16" s="18"/>
-      <c r="T16" s="18"/>
-      <c r="U16" s="18"/>
-      <c r="V16" s="18"/>
-      <c r="W16" s="18"/>
-      <c r="X16" s="18"/>
-      <c r="Y16" s="18"/>
-      <c r="Z16" s="18"/>
-      <c r="AA16" s="18"/>
-      <c r="AB16" s="18"/>
-      <c r="AC16" s="18"/>
-      <c r="AD16" s="18"/>
-      <c r="AE16" s="18"/>
-      <c r="AF16" s="18"/>
-      <c r="AG16" s="18"/>
-      <c r="AH16" s="18"/>
-      <c r="AI16" s="18"/>
-      <c r="AJ16" s="18"/>
-      <c r="AK16" s="18"/>
-      <c r="AL16" s="18"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="21"/>
+      <c r="O16" s="21"/>
+      <c r="P16" s="21"/>
+      <c r="Q16" s="21"/>
+      <c r="R16" s="21"/>
+      <c r="S16" s="21"/>
+      <c r="T16" s="21"/>
+      <c r="U16" s="21"/>
+      <c r="V16" s="21"/>
+      <c r="W16" s="21"/>
+      <c r="X16" s="21"/>
+      <c r="Y16" s="21"/>
+      <c r="Z16" s="21"/>
+      <c r="AA16" s="21"/>
+      <c r="AB16" s="21"/>
+      <c r="AC16" s="21"/>
+      <c r="AD16" s="21"/>
+      <c r="AE16" s="21"/>
+      <c r="AF16" s="21"/>
+      <c r="AG16" s="21"/>
+      <c r="AH16" s="21"/>
+      <c r="AI16" s="21"/>
+      <c r="AJ16" s="21"/>
+      <c r="AK16" s="21"/>
+      <c r="AL16" s="21"/>
       <c r="AM16" s="13"/>
     </row>
-    <row r="17" spans="1:39" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:40" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="18"/>
-      <c r="L17" s="18"/>
-      <c r="M17" s="18"/>
-      <c r="N17" s="18"/>
-      <c r="O17" s="18"/>
-      <c r="P17" s="18"/>
-      <c r="Q17" s="18"/>
-      <c r="R17" s="18"/>
-      <c r="S17" s="18"/>
-      <c r="T17" s="18"/>
-      <c r="U17" s="18"/>
-      <c r="V17" s="18"/>
-      <c r="W17" s="18"/>
-      <c r="X17" s="18"/>
-      <c r="Y17" s="18"/>
-      <c r="Z17" s="18"/>
-      <c r="AA17" s="18"/>
-      <c r="AB17" s="18"/>
-      <c r="AC17" s="18"/>
-      <c r="AD17" s="18"/>
-      <c r="AE17" s="18"/>
-      <c r="AF17" s="18"/>
-      <c r="AG17" s="18"/>
-      <c r="AH17" s="18"/>
-      <c r="AI17" s="18"/>
-      <c r="AJ17" s="18"/>
-      <c r="AK17" s="18"/>
-      <c r="AL17" s="18"/>
-      <c r="AM17" s="13"/>
-    </row>
-    <row r="18" spans="1:39" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="21"/>
+      <c r="N17" s="21"/>
+      <c r="O17" s="21"/>
+      <c r="P17" s="21"/>
+      <c r="Q17" s="21"/>
+      <c r="R17" s="21"/>
+      <c r="S17" s="21"/>
+      <c r="T17" s="21"/>
+      <c r="U17" s="21"/>
+      <c r="V17" s="21"/>
+      <c r="W17" s="21"/>
+      <c r="X17" s="21"/>
+      <c r="Y17" s="21"/>
+      <c r="Z17" s="21"/>
+      <c r="AA17" s="21"/>
+      <c r="AB17" s="21"/>
+      <c r="AC17" s="21"/>
+      <c r="AD17" s="21"/>
+      <c r="AE17" s="21"/>
+      <c r="AF17" s="21"/>
+      <c r="AG17" s="21"/>
+      <c r="AH17" s="21"/>
+      <c r="AI17" s="21"/>
+      <c r="AJ17" s="21"/>
+      <c r="AK17" s="21"/>
+      <c r="AL17" s="21"/>
+      <c r="AM17" s="12"/>
+    </row>
+    <row r="18" spans="1:40" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="18">
+      <c r="B18" s="21">
         <v>1</v>
       </c>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="18"/>
-      <c r="K18" s="18"/>
-      <c r="L18" s="18"/>
-      <c r="M18" s="18"/>
-      <c r="N18" s="18"/>
-      <c r="O18" s="18"/>
-      <c r="P18" s="18"/>
-      <c r="Q18" s="18"/>
-      <c r="R18" s="18"/>
-      <c r="S18" s="18"/>
-      <c r="T18" s="18"/>
-      <c r="U18" s="18"/>
-      <c r="V18" s="18"/>
-      <c r="W18" s="18"/>
-      <c r="X18" s="18"/>
-      <c r="Y18" s="18"/>
-      <c r="Z18" s="18"/>
-      <c r="AA18" s="18"/>
-      <c r="AB18" s="18"/>
-      <c r="AC18" s="18"/>
-      <c r="AD18" s="18"/>
-      <c r="AE18" s="18"/>
-      <c r="AF18" s="18"/>
-      <c r="AG18" s="18"/>
-      <c r="AH18" s="18"/>
-      <c r="AI18" s="18"/>
-      <c r="AJ18" s="18"/>
-      <c r="AK18" s="18"/>
-      <c r="AL18" s="18"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="21"/>
+      <c r="M18" s="21"/>
+      <c r="N18" s="21"/>
+      <c r="O18" s="21"/>
+      <c r="P18" s="21"/>
+      <c r="Q18" s="21"/>
+      <c r="R18" s="21"/>
+      <c r="S18" s="21"/>
+      <c r="T18" s="21"/>
+      <c r="U18" s="21"/>
+      <c r="V18" s="21"/>
+      <c r="W18" s="21"/>
+      <c r="X18" s="21"/>
+      <c r="Y18" s="21"/>
+      <c r="Z18" s="21"/>
+      <c r="AA18" s="21"/>
+      <c r="AB18" s="21"/>
+      <c r="AC18" s="21"/>
+      <c r="AD18" s="21"/>
+      <c r="AE18" s="21"/>
+      <c r="AF18" s="21"/>
+      <c r="AG18" s="21"/>
+      <c r="AH18" s="21"/>
+      <c r="AI18" s="21"/>
+      <c r="AJ18" s="21"/>
+      <c r="AK18" s="21"/>
+      <c r="AL18" s="21"/>
       <c r="AM18" s="13"/>
     </row>
-    <row r="19" spans="1:39" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:40" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="18"/>
-      <c r="L19" s="18"/>
-      <c r="M19" s="18"/>
-      <c r="N19" s="18"/>
-      <c r="O19" s="18"/>
-      <c r="P19" s="18"/>
-      <c r="Q19" s="18"/>
-      <c r="R19" s="18"/>
-      <c r="S19" s="18"/>
-      <c r="T19" s="18"/>
-      <c r="U19" s="18"/>
-      <c r="V19" s="18"/>
-      <c r="W19" s="18"/>
-      <c r="X19" s="18"/>
-      <c r="Y19" s="18"/>
-      <c r="Z19" s="18"/>
-      <c r="AA19" s="18"/>
-      <c r="AB19" s="18"/>
-      <c r="AC19" s="18"/>
-      <c r="AD19" s="18"/>
-      <c r="AE19" s="18"/>
-      <c r="AF19" s="18"/>
-      <c r="AG19" s="18"/>
-      <c r="AH19" s="18"/>
-      <c r="AI19" s="18"/>
-      <c r="AJ19" s="18"/>
-      <c r="AK19" s="18"/>
-      <c r="AL19" s="18"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="21"/>
+      <c r="M19" s="21"/>
+      <c r="N19" s="21"/>
+      <c r="O19" s="21"/>
+      <c r="P19" s="21"/>
+      <c r="Q19" s="21"/>
+      <c r="R19" s="21"/>
+      <c r="S19" s="21"/>
+      <c r="T19" s="21"/>
+      <c r="U19" s="21"/>
+      <c r="V19" s="21"/>
+      <c r="W19" s="21"/>
+      <c r="X19" s="21"/>
+      <c r="Y19" s="21"/>
+      <c r="Z19" s="21"/>
+      <c r="AA19" s="21"/>
+      <c r="AB19" s="21"/>
+      <c r="AC19" s="21"/>
+      <c r="AD19" s="21"/>
+      <c r="AE19" s="21"/>
+      <c r="AF19" s="21"/>
+      <c r="AG19" s="21"/>
+      <c r="AH19" s="21"/>
+      <c r="AI19" s="21"/>
+      <c r="AJ19" s="21"/>
+      <c r="AK19" s="21"/>
+      <c r="AL19" s="21"/>
       <c r="AM19" s="13"/>
-    </row>
-    <row r="20" spans="1:39" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="AN19" s="12"/>
+    </row>
+    <row r="20" spans="1:40" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="18">
+      <c r="B20" s="21">
         <v>1</v>
       </c>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="18"/>
-      <c r="K20" s="18"/>
-      <c r="L20" s="18"/>
-      <c r="M20" s="18"/>
-      <c r="N20" s="18"/>
-      <c r="O20" s="18"/>
-      <c r="P20" s="18"/>
-      <c r="Q20" s="18"/>
-      <c r="R20" s="18"/>
-      <c r="S20" s="18"/>
-      <c r="T20" s="18"/>
-      <c r="U20" s="18"/>
-      <c r="V20" s="18"/>
-      <c r="W20" s="18"/>
-      <c r="X20" s="18"/>
-      <c r="Y20" s="18"/>
-      <c r="Z20" s="18"/>
-      <c r="AA20" s="18"/>
-      <c r="AB20" s="18"/>
-      <c r="AC20" s="18"/>
-      <c r="AD20" s="18"/>
-      <c r="AE20" s="18"/>
-      <c r="AF20" s="18"/>
-      <c r="AG20" s="18"/>
-      <c r="AH20" s="18"/>
-      <c r="AI20" s="18"/>
-      <c r="AJ20" s="18"/>
-      <c r="AK20" s="18"/>
-      <c r="AL20" s="18"/>
-    </row>
-    <row r="21" spans="1:39" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="21"/>
+      <c r="M20" s="21"/>
+      <c r="N20" s="21"/>
+      <c r="O20" s="21"/>
+      <c r="P20" s="21"/>
+      <c r="Q20" s="21"/>
+      <c r="R20" s="21"/>
+      <c r="S20" s="21"/>
+      <c r="T20" s="21"/>
+      <c r="U20" s="21"/>
+      <c r="V20" s="21"/>
+      <c r="W20" s="21"/>
+      <c r="X20" s="21"/>
+      <c r="Y20" s="21"/>
+      <c r="Z20" s="21"/>
+      <c r="AA20" s="21"/>
+      <c r="AB20" s="21"/>
+      <c r="AC20" s="21"/>
+      <c r="AD20" s="21"/>
+      <c r="AE20" s="21"/>
+      <c r="AF20" s="21"/>
+      <c r="AG20" s="21"/>
+      <c r="AH20" s="21"/>
+      <c r="AI20" s="21"/>
+      <c r="AJ20" s="21"/>
+      <c r="AK20" s="21"/>
+      <c r="AL20" s="21"/>
+    </row>
+    <row r="21" spans="1:40" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="18"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="18"/>
-      <c r="K21" s="18"/>
-      <c r="L21" s="18"/>
-      <c r="M21" s="18"/>
-      <c r="N21" s="18"/>
-      <c r="O21" s="18"/>
-      <c r="P21" s="18"/>
-      <c r="Q21" s="18"/>
-      <c r="R21" s="18"/>
-      <c r="S21" s="18"/>
-      <c r="T21" s="18"/>
-      <c r="U21" s="18"/>
-      <c r="V21" s="18"/>
-      <c r="W21" s="18"/>
-      <c r="X21" s="18"/>
-      <c r="Y21" s="18"/>
-      <c r="Z21" s="18"/>
-      <c r="AA21" s="18"/>
-      <c r="AB21" s="18"/>
-      <c r="AC21" s="18"/>
-      <c r="AD21" s="18"/>
-      <c r="AE21" s="18"/>
-      <c r="AF21" s="18"/>
-      <c r="AG21" s="18"/>
-      <c r="AH21" s="18"/>
-      <c r="AI21" s="18"/>
-      <c r="AJ21" s="18"/>
-      <c r="AK21" s="18"/>
-      <c r="AL21" s="18"/>
-    </row>
-    <row r="22" spans="1:39" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="B21" s="21"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="21"/>
+      <c r="M21" s="21"/>
+      <c r="N21" s="21"/>
+      <c r="O21" s="21"/>
+      <c r="P21" s="21"/>
+      <c r="Q21" s="21"/>
+      <c r="R21" s="21"/>
+      <c r="S21" s="21"/>
+      <c r="T21" s="21"/>
+      <c r="U21" s="21"/>
+      <c r="V21" s="21"/>
+      <c r="W21" s="21"/>
+      <c r="X21" s="21"/>
+      <c r="Y21" s="21"/>
+      <c r="Z21" s="21"/>
+      <c r="AA21" s="21"/>
+      <c r="AB21" s="21"/>
+      <c r="AC21" s="21"/>
+      <c r="AD21" s="21"/>
+      <c r="AE21" s="21"/>
+      <c r="AF21" s="21"/>
+      <c r="AG21" s="21"/>
+      <c r="AH21" s="21"/>
+      <c r="AI21" s="21"/>
+      <c r="AJ21" s="21"/>
+      <c r="AK21" s="21"/>
+      <c r="AL21" s="21"/>
+    </row>
+    <row r="22" spans="1:40" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="18">
+      <c r="B22" s="21">
         <v>1</v>
       </c>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="18"/>
-      <c r="K22" s="18"/>
-      <c r="L22" s="18"/>
-      <c r="M22" s="18"/>
-      <c r="N22" s="18"/>
-      <c r="O22" s="18"/>
-      <c r="P22" s="18"/>
-      <c r="Q22" s="18"/>
-      <c r="R22" s="18"/>
-      <c r="S22" s="18"/>
-      <c r="T22" s="18"/>
-      <c r="U22" s="18"/>
-      <c r="V22" s="18"/>
-      <c r="W22" s="18"/>
-      <c r="X22" s="18"/>
-      <c r="Y22" s="18"/>
-      <c r="Z22" s="18"/>
-      <c r="AA22" s="18"/>
-      <c r="AB22" s="18"/>
-      <c r="AC22" s="18"/>
-      <c r="AD22" s="18"/>
-      <c r="AE22" s="18"/>
-      <c r="AF22" s="18"/>
-      <c r="AG22" s="18"/>
-      <c r="AH22" s="18"/>
-      <c r="AI22" s="18"/>
-      <c r="AJ22" s="18"/>
-      <c r="AK22" s="18"/>
-      <c r="AL22" s="18"/>
-    </row>
-    <row r="23" spans="1:39" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="21"/>
+      <c r="L22" s="21"/>
+      <c r="M22" s="21"/>
+      <c r="N22" s="21"/>
+      <c r="O22" s="21"/>
+      <c r="P22" s="21"/>
+      <c r="Q22" s="21"/>
+      <c r="R22" s="21"/>
+      <c r="S22" s="21"/>
+      <c r="T22" s="21"/>
+      <c r="U22" s="21"/>
+      <c r="V22" s="21"/>
+      <c r="W22" s="21"/>
+      <c r="X22" s="21"/>
+      <c r="Y22" s="21"/>
+      <c r="Z22" s="21"/>
+      <c r="AA22" s="21"/>
+      <c r="AB22" s="21"/>
+      <c r="AC22" s="21"/>
+      <c r="AD22" s="21"/>
+      <c r="AE22" s="21"/>
+      <c r="AF22" s="21"/>
+      <c r="AG22" s="21"/>
+      <c r="AH22" s="21"/>
+      <c r="AI22" s="21"/>
+      <c r="AJ22" s="21"/>
+      <c r="AK22" s="21"/>
+      <c r="AL22" s="21"/>
+    </row>
+    <row r="23" spans="1:40" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="18"/>
-      <c r="K23" s="18"/>
-      <c r="L23" s="18"/>
-      <c r="M23" s="18"/>
-      <c r="N23" s="18"/>
-      <c r="O23" s="18"/>
-      <c r="P23" s="18"/>
-      <c r="Q23" s="18"/>
-      <c r="R23" s="18"/>
-      <c r="S23" s="18"/>
-      <c r="T23" s="18"/>
-      <c r="U23" s="18"/>
-      <c r="V23" s="18"/>
-      <c r="W23" s="18"/>
-      <c r="X23" s="18"/>
-      <c r="Y23" s="18"/>
-      <c r="Z23" s="18"/>
-      <c r="AA23" s="18"/>
-      <c r="AB23" s="18"/>
-      <c r="AC23" s="18"/>
-      <c r="AD23" s="18"/>
-      <c r="AE23" s="18"/>
-      <c r="AF23" s="18"/>
-      <c r="AG23" s="18"/>
-      <c r="AH23" s="18"/>
-      <c r="AI23" s="18"/>
-      <c r="AJ23" s="18"/>
-      <c r="AK23" s="18"/>
-      <c r="AL23" s="18"/>
-    </row>
-    <row r="24" spans="1:39" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="B23" s="21"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="21"/>
+      <c r="L23" s="21"/>
+      <c r="M23" s="21"/>
+      <c r="N23" s="21"/>
+      <c r="O23" s="21"/>
+      <c r="P23" s="21"/>
+      <c r="Q23" s="21"/>
+      <c r="R23" s="21"/>
+      <c r="S23" s="21"/>
+      <c r="T23" s="21"/>
+      <c r="U23" s="21"/>
+      <c r="V23" s="21"/>
+      <c r="W23" s="21"/>
+      <c r="X23" s="21"/>
+      <c r="Y23" s="21"/>
+      <c r="Z23" s="21"/>
+      <c r="AA23" s="21"/>
+      <c r="AB23" s="21"/>
+      <c r="AC23" s="21"/>
+      <c r="AD23" s="21"/>
+      <c r="AE23" s="21"/>
+      <c r="AF23" s="21"/>
+      <c r="AG23" s="21"/>
+      <c r="AH23" s="21"/>
+      <c r="AI23" s="21"/>
+      <c r="AJ23" s="21"/>
+      <c r="AK23" s="21"/>
+      <c r="AL23" s="21"/>
+      <c r="AN23" s="12"/>
+    </row>
+    <row r="24" spans="1:40" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="18">
-        <v>1</v>
-      </c>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="18"/>
-      <c r="I24" s="18"/>
-      <c r="J24" s="18"/>
-      <c r="K24" s="18"/>
-      <c r="L24" s="18"/>
-      <c r="M24" s="18"/>
-      <c r="N24" s="18"/>
-      <c r="O24" s="18"/>
-      <c r="P24" s="18"/>
-      <c r="Q24" s="18"/>
-      <c r="R24" s="18"/>
-      <c r="S24" s="18"/>
-      <c r="T24" s="18"/>
-      <c r="U24" s="18"/>
-      <c r="V24" s="18"/>
-      <c r="W24" s="18"/>
-      <c r="X24" s="18"/>
-      <c r="Y24" s="18"/>
-      <c r="Z24" s="18"/>
-      <c r="AA24" s="18"/>
-      <c r="AB24" s="18"/>
-      <c r="AC24" s="18"/>
-      <c r="AD24" s="18"/>
-      <c r="AE24" s="18"/>
-      <c r="AF24" s="18"/>
-      <c r="AG24" s="18"/>
-      <c r="AH24" s="18"/>
-      <c r="AI24" s="18"/>
-      <c r="AJ24" s="18"/>
-      <c r="AK24" s="18"/>
-      <c r="AL24" s="18"/>
-      <c r="AM24" s="12"/>
-    </row>
-    <row r="25" spans="1:39" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="B24" s="21">
+        <v>2</v>
+      </c>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="21"/>
+      <c r="K24" s="21"/>
+      <c r="L24" s="21"/>
+      <c r="M24" s="21"/>
+      <c r="N24" s="21"/>
+      <c r="O24" s="21"/>
+      <c r="P24" s="21"/>
+      <c r="Q24" s="21"/>
+      <c r="R24" s="21"/>
+      <c r="S24" s="21"/>
+      <c r="T24" s="21"/>
+      <c r="U24" s="21"/>
+      <c r="V24" s="21"/>
+      <c r="W24" s="21"/>
+      <c r="X24" s="21"/>
+      <c r="Y24" s="21"/>
+      <c r="Z24" s="21"/>
+      <c r="AA24" s="21"/>
+      <c r="AB24" s="21"/>
+      <c r="AC24" s="21"/>
+      <c r="AD24" s="21"/>
+      <c r="AE24" s="21"/>
+      <c r="AF24" s="21"/>
+      <c r="AG24" s="21"/>
+      <c r="AH24" s="21"/>
+      <c r="AI24" s="21"/>
+      <c r="AJ24" s="21"/>
+      <c r="AK24" s="21"/>
+      <c r="AL24" s="21"/>
+    </row>
+    <row r="25" spans="1:40" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A25" s="7"/>
       <c r="B25" s="9"/>
     </row>
-    <row r="26" spans="1:39" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:40" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A26" s="7"/>
       <c r="B26" s="9"/>
     </row>
-    <row r="27" spans="1:39" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:40" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
       <c r="B27" s="9"/>
-      <c r="O27" s="15" t="s">
+      <c r="O27" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="P27" s="16"/>
-      <c r="Q27" s="16"/>
-      <c r="R27" s="16"/>
-      <c r="S27" s="16"/>
-      <c r="T27" s="16"/>
-      <c r="U27" s="16"/>
-      <c r="V27" s="16"/>
-    </row>
-    <row r="28" spans="1:39" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="P27" s="19"/>
+      <c r="Q27" s="19"/>
+      <c r="R27" s="19"/>
+      <c r="S27" s="19"/>
+      <c r="T27" s="19"/>
+      <c r="U27" s="19"/>
+      <c r="V27" s="19"/>
+    </row>
+    <row r="28" spans="1:40" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A28" s="7"/>
       <c r="B28" s="9"/>
-      <c r="O28" s="16"/>
-      <c r="P28" s="16"/>
-      <c r="Q28" s="16"/>
-      <c r="R28" s="16"/>
-      <c r="S28" s="16"/>
-      <c r="T28" s="16"/>
-      <c r="U28" s="16"/>
-      <c r="V28" s="16"/>
-    </row>
-    <row r="29" spans="1:39" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="O28" s="19"/>
+      <c r="P28" s="19"/>
+      <c r="Q28" s="19"/>
+      <c r="R28" s="19"/>
+      <c r="S28" s="19"/>
+      <c r="T28" s="19"/>
+      <c r="U28" s="19"/>
+      <c r="V28" s="19"/>
+    </row>
+    <row r="29" spans="1:40" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A29" s="7"/>
       <c r="B29" s="9"/>
-      <c r="O29" s="16"/>
-      <c r="P29" s="16"/>
-      <c r="Q29" s="16"/>
-      <c r="R29" s="16"/>
-      <c r="S29" s="16"/>
-      <c r="T29" s="16"/>
-      <c r="U29" s="16"/>
-      <c r="V29" s="16"/>
-    </row>
-    <row r="30" spans="1:39" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="O29" s="19"/>
+      <c r="P29" s="19"/>
+      <c r="Q29" s="19"/>
+      <c r="R29" s="19"/>
+      <c r="S29" s="19"/>
+      <c r="T29" s="19"/>
+      <c r="U29" s="19"/>
+      <c r="V29" s="19"/>
+    </row>
+    <row r="30" spans="1:40" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
       <c r="B30" s="9"/>
-      <c r="O30" s="16"/>
-      <c r="P30" s="16"/>
-      <c r="Q30" s="16"/>
-      <c r="R30" s="16"/>
-      <c r="S30" s="16"/>
-      <c r="T30" s="16"/>
-      <c r="U30" s="16"/>
-      <c r="V30" s="16"/>
-    </row>
-    <row r="31" spans="1:39" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="O30" s="19"/>
+      <c r="P30" s="19"/>
+      <c r="Q30" s="19"/>
+      <c r="R30" s="19"/>
+      <c r="S30" s="19"/>
+      <c r="T30" s="19"/>
+      <c r="U30" s="19"/>
+      <c r="V30" s="19"/>
+    </row>
+    <row r="31" spans="1:40" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
       <c r="B31" s="9"/>
-      <c r="O31" s="16"/>
-      <c r="P31" s="16"/>
-      <c r="Q31" s="16"/>
-      <c r="R31" s="16"/>
-      <c r="S31" s="16"/>
-      <c r="T31" s="16"/>
-      <c r="U31" s="16"/>
-      <c r="V31" s="16"/>
-    </row>
-    <row r="32" spans="1:39" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="O31" s="19"/>
+      <c r="P31" s="19"/>
+      <c r="Q31" s="19"/>
+      <c r="R31" s="19"/>
+      <c r="S31" s="19"/>
+      <c r="T31" s="19"/>
+      <c r="U31" s="19"/>
+      <c r="V31" s="19"/>
+    </row>
+    <row r="32" spans="1:40" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
       <c r="B32" s="9"/>
-      <c r="O32" s="16"/>
-      <c r="P32" s="16"/>
-      <c r="Q32" s="16"/>
-      <c r="R32" s="16"/>
-      <c r="S32" s="16"/>
-      <c r="T32" s="16"/>
-      <c r="U32" s="16"/>
-      <c r="V32" s="16"/>
+      <c r="O32" s="19"/>
+      <c r="P32" s="19"/>
+      <c r="Q32" s="19"/>
+      <c r="R32" s="19"/>
+      <c r="S32" s="19"/>
+      <c r="T32" s="19"/>
+      <c r="U32" s="19"/>
+      <c r="V32" s="19"/>
     </row>
     <row r="33" spans="1:22" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
       <c r="B33" s="9"/>
-      <c r="O33" s="16"/>
-      <c r="P33" s="16"/>
-      <c r="Q33" s="16"/>
-      <c r="R33" s="16"/>
-      <c r="S33" s="16"/>
-      <c r="T33" s="16"/>
-      <c r="U33" s="16"/>
-      <c r="V33" s="16"/>
+      <c r="O33" s="19"/>
+      <c r="P33" s="19"/>
+      <c r="Q33" s="19"/>
+      <c r="R33" s="19"/>
+      <c r="S33" s="19"/>
+      <c r="T33" s="19"/>
+      <c r="U33" s="19"/>
+      <c r="V33" s="19"/>
     </row>
     <row r="34" spans="1:22" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
       <c r="B34" s="9"/>
-      <c r="O34" s="16"/>
-      <c r="P34" s="16"/>
-      <c r="Q34" s="16"/>
-      <c r="R34" s="16"/>
-      <c r="S34" s="16"/>
-      <c r="T34" s="16"/>
-      <c r="U34" s="16"/>
-      <c r="V34" s="16"/>
+      <c r="O34" s="19"/>
+      <c r="P34" s="19"/>
+      <c r="Q34" s="19"/>
+      <c r="R34" s="19"/>
+      <c r="S34" s="19"/>
+      <c r="T34" s="19"/>
+      <c r="U34" s="19"/>
+      <c r="V34" s="19"/>
     </row>
     <row r="35" spans="1:22" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
       <c r="B35" s="9"/>
-      <c r="O35" s="16"/>
-      <c r="P35" s="16"/>
-      <c r="Q35" s="16"/>
-      <c r="R35" s="16"/>
-      <c r="S35" s="16"/>
-      <c r="T35" s="16"/>
-      <c r="U35" s="16"/>
-      <c r="V35" s="16"/>
+      <c r="O35" s="19"/>
+      <c r="P35" s="19"/>
+      <c r="Q35" s="19"/>
+      <c r="R35" s="19"/>
+      <c r="S35" s="19"/>
+      <c r="T35" s="19"/>
+      <c r="U35" s="19"/>
+      <c r="V35" s="19"/>
     </row>
     <row r="36" spans="1:22" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A36" s="7"/>
       <c r="B36" s="7"/>
-      <c r="O36" s="16"/>
-      <c r="P36" s="16"/>
-      <c r="Q36" s="16"/>
-      <c r="R36" s="16"/>
-      <c r="S36" s="16"/>
-      <c r="T36" s="16"/>
-      <c r="U36" s="16"/>
-      <c r="V36" s="16"/>
+      <c r="O36" s="19"/>
+      <c r="P36" s="19"/>
+      <c r="Q36" s="19"/>
+      <c r="R36" s="19"/>
+      <c r="S36" s="19"/>
+      <c r="T36" s="19"/>
+      <c r="U36" s="19"/>
+      <c r="V36" s="19"/>
     </row>
     <row r="37" spans="1:22" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A37" s="7"/>
       <c r="B37" s="7"/>
-      <c r="O37" s="16"/>
-      <c r="P37" s="16"/>
-      <c r="Q37" s="16"/>
-      <c r="R37" s="16"/>
-      <c r="S37" s="16"/>
-      <c r="T37" s="16"/>
-      <c r="U37" s="16"/>
-      <c r="V37" s="16"/>
+      <c r="O37" s="19"/>
+      <c r="P37" s="19"/>
+      <c r="Q37" s="19"/>
+      <c r="R37" s="19"/>
+      <c r="S37" s="19"/>
+      <c r="T37" s="19"/>
+      <c r="U37" s="19"/>
+      <c r="V37" s="19"/>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="O38" s="16"/>
-      <c r="P38" s="16"/>
-      <c r="Q38" s="16"/>
-      <c r="R38" s="16"/>
-      <c r="S38" s="16"/>
-      <c r="T38" s="16"/>
-      <c r="U38" s="16"/>
-      <c r="V38" s="16"/>
+      <c r="O38" s="19"/>
+      <c r="P38" s="19"/>
+      <c r="Q38" s="19"/>
+      <c r="R38" s="19"/>
+      <c r="S38" s="19"/>
+      <c r="T38" s="19"/>
+      <c r="U38" s="19"/>
+      <c r="V38" s="19"/>
     </row>
   </sheetData>
   <sortState ref="A2:A24">
@@ -6303,8 +6529,8 @@
   <conditionalFormatting sqref="B2:AL24">
     <cfRule type="dataBar" priority="1">
       <dataBar>
-        <cfvo type="num" val="$AO$2"/>
-        <cfvo type="num" val="$AO$3"/>
+        <cfvo type="num" val="$AP$2"/>
+        <cfvo type="num" val="$AP$3"/>
         <color rgb="FF638EC6"/>
       </dataBar>
       <extLst>
@@ -6361,10 +6587,10 @@
           <x14:cfRule type="dataBar" id="{48D060B4-F36D-4395-B4B4-17F9B4625373}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
-                <xm:f>$AO$2</xm:f>
+                <xm:f>$AP$2</xm:f>
               </x14:cfvo>
               <x14:cfvo type="num">
-                <xm:f>$AO$3</xm:f>
+                <xm:f>$AP$3</xm:f>
               </x14:cfvo>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>

--- a/前端工程师班.xlsx
+++ b/前端工程师班.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yacon\Desktop\前端随堂笔记\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{677CAE61-D050-42F8-A090-37A0D914B999}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{043E02DE-36B6-4E5B-901E-45AAC566D63F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="19104" windowHeight="12816" activeTab="1" xr2:uid="{F18D4CDB-7335-4D71-A58E-AC92FD55C192}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="19104" windowHeight="12816" xr2:uid="{F18D4CDB-7335-4D71-A58E-AC92FD55C192}"/>
   </bookViews>
   <sheets>
     <sheet name="异常记录" sheetId="1" r:id="rId1"/>
@@ -200,6 +200,8 @@
           </rPr>
           <t xml:space="preserve">
 2019/12/21
+练习课请假（一天）
+2020/1/9
 练习课请假（一天）</t>
         </r>
       </text>
@@ -442,6 +444,31 @@
           <t xml:space="preserve">
 2020/1/6
 正课迟到</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B14" authorId="0" shapeId="0" xr:uid="{DA02558D-E161-42D6-BA8D-7FEC1723EEFA}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Yacon:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+2020/1/10
+正课迟到1分钟</t>
         </r>
       </text>
     </comment>
@@ -798,7 +825,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="63">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1027,6 +1054,10 @@
     <t>JS考核3加分题</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>高景瑞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1248,6 +1279,9 @@
     <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1258,9 +1292,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1577,10 +1608,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA0A5D22-6F6C-4A6B-9DB1-CD65D73062C4}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="22.8" x14ac:dyDescent="0.25"/>
@@ -1642,7 +1673,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1709,6 +1740,14 @@
         <v>58</v>
       </c>
       <c r="B13" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B14" s="2">
         <v>1</v>
       </c>
     </row>
@@ -1724,11 +1763,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C8AE620-962B-4850-8EC1-28D9C57566DF}">
   <dimension ref="A1:Y50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="X20" sqref="X20"/>
+      <selection pane="bottomRight" activeCell="Z17" sqref="Z17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.399999999999999" x14ac:dyDescent="0.25"/>
@@ -5256,7 +5295,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AP14" sqref="AP14"/>
+      <selection pane="bottomRight" activeCell="AP10" sqref="AP10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.77734375" defaultRowHeight="22.8" x14ac:dyDescent="0.25"/>
@@ -5272,89 +5311,90 @@
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
-      <c r="T1" s="17"/>
-      <c r="U1" s="17"/>
-      <c r="V1" s="17"/>
-      <c r="W1" s="17"/>
-      <c r="X1" s="17"/>
-      <c r="Y1" s="17"/>
-      <c r="Z1" s="17"/>
-      <c r="AA1" s="17"/>
-      <c r="AB1" s="17"/>
-      <c r="AC1" s="17"/>
-      <c r="AD1" s="17"/>
-      <c r="AE1" s="17"/>
-      <c r="AF1" s="17"/>
-      <c r="AG1" s="17"/>
-      <c r="AH1" s="17"/>
-      <c r="AI1" s="17"/>
-      <c r="AJ1" s="17"/>
-      <c r="AK1" s="17"/>
-      <c r="AL1" s="17"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
+      <c r="U1" s="18"/>
+      <c r="V1" s="18"/>
+      <c r="W1" s="18"/>
+      <c r="X1" s="18"/>
+      <c r="Y1" s="18"/>
+      <c r="Z1" s="18"/>
+      <c r="AA1" s="18"/>
+      <c r="AB1" s="18"/>
+      <c r="AC1" s="18"/>
+      <c r="AD1" s="18"/>
+      <c r="AE1" s="18"/>
+      <c r="AF1" s="18"/>
+      <c r="AG1" s="18"/>
+      <c r="AH1" s="18"/>
+      <c r="AI1" s="18"/>
+      <c r="AJ1" s="18"/>
+      <c r="AK1" s="18"/>
+      <c r="AL1" s="18"/>
     </row>
     <row r="2" spans="1:43" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="20">
+      <c r="B2" s="21">
         <v>1</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="20"/>
-      <c r="S2" s="20"/>
-      <c r="T2" s="20"/>
-      <c r="U2" s="20"/>
-      <c r="V2" s="20"/>
-      <c r="W2" s="20"/>
-      <c r="X2" s="20"/>
-      <c r="Y2" s="20"/>
-      <c r="Z2" s="20"/>
-      <c r="AA2" s="20"/>
-      <c r="AB2" s="20"/>
-      <c r="AC2" s="20"/>
-      <c r="AD2" s="20"/>
-      <c r="AE2" s="20"/>
-      <c r="AF2" s="20"/>
-      <c r="AG2" s="20"/>
-      <c r="AH2" s="20"/>
-      <c r="AI2" s="20"/>
-      <c r="AJ2" s="20"/>
-      <c r="AK2" s="20"/>
-      <c r="AL2" s="20"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="21"/>
+      <c r="T2" s="21"/>
+      <c r="U2" s="21"/>
+      <c r="V2" s="21"/>
+      <c r="W2" s="21"/>
+      <c r="X2" s="21"/>
+      <c r="Y2" s="21"/>
+      <c r="Z2" s="21"/>
+      <c r="AA2" s="21"/>
+      <c r="AB2" s="21"/>
+      <c r="AC2" s="21"/>
+      <c r="AD2" s="21"/>
+      <c r="AE2" s="21"/>
+      <c r="AF2" s="21"/>
+      <c r="AG2" s="21"/>
+      <c r="AH2" s="21"/>
+      <c r="AI2" s="21"/>
+      <c r="AJ2" s="21"/>
+      <c r="AK2" s="21"/>
+      <c r="AL2" s="21"/>
+      <c r="AM2" s="12"/>
       <c r="AP2" s="9">
         <v>0</v>
       </c>
@@ -5366,45 +5406,45 @@
       <c r="A3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="20">
+      <c r="B3" s="21">
         <v>1</v>
       </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="20"/>
-      <c r="N3" s="20"/>
-      <c r="O3" s="20"/>
-      <c r="P3" s="20"/>
-      <c r="Q3" s="20"/>
-      <c r="R3" s="20"/>
-      <c r="S3" s="20"/>
-      <c r="T3" s="20"/>
-      <c r="U3" s="20"/>
-      <c r="V3" s="20"/>
-      <c r="W3" s="20"/>
-      <c r="X3" s="20"/>
-      <c r="Y3" s="20"/>
-      <c r="Z3" s="20"/>
-      <c r="AA3" s="20"/>
-      <c r="AB3" s="20"/>
-      <c r="AC3" s="20"/>
-      <c r="AD3" s="20"/>
-      <c r="AE3" s="20"/>
-      <c r="AF3" s="20"/>
-      <c r="AG3" s="20"/>
-      <c r="AH3" s="20"/>
-      <c r="AI3" s="20"/>
-      <c r="AJ3" s="20"/>
-      <c r="AK3" s="20"/>
-      <c r="AL3" s="20"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="21"/>
+      <c r="S3" s="21"/>
+      <c r="T3" s="21"/>
+      <c r="U3" s="21"/>
+      <c r="V3" s="21"/>
+      <c r="W3" s="21"/>
+      <c r="X3" s="21"/>
+      <c r="Y3" s="21"/>
+      <c r="Z3" s="21"/>
+      <c r="AA3" s="21"/>
+      <c r="AB3" s="21"/>
+      <c r="AC3" s="21"/>
+      <c r="AD3" s="21"/>
+      <c r="AE3" s="21"/>
+      <c r="AF3" s="21"/>
+      <c r="AG3" s="21"/>
+      <c r="AH3" s="21"/>
+      <c r="AI3" s="21"/>
+      <c r="AJ3" s="21"/>
+      <c r="AK3" s="21"/>
+      <c r="AL3" s="21"/>
       <c r="AP3" s="9">
         <v>10</v>
       </c>
@@ -5416,489 +5456,489 @@
       <c r="A4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="20">
+      <c r="B4" s="21">
         <v>2</v>
       </c>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="20"/>
-      <c r="N4" s="20"/>
-      <c r="O4" s="20"/>
-      <c r="P4" s="20"/>
-      <c r="Q4" s="20"/>
-      <c r="R4" s="20"/>
-      <c r="S4" s="20"/>
-      <c r="T4" s="20"/>
-      <c r="U4" s="20"/>
-      <c r="V4" s="20"/>
-      <c r="W4" s="20"/>
-      <c r="X4" s="20"/>
-      <c r="Y4" s="20"/>
-      <c r="Z4" s="20"/>
-      <c r="AA4" s="20"/>
-      <c r="AB4" s="20"/>
-      <c r="AC4" s="20"/>
-      <c r="AD4" s="20"/>
-      <c r="AE4" s="20"/>
-      <c r="AF4" s="20"/>
-      <c r="AG4" s="20"/>
-      <c r="AH4" s="20"/>
-      <c r="AI4" s="20"/>
-      <c r="AJ4" s="20"/>
-      <c r="AK4" s="20"/>
-      <c r="AL4" s="20"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="21"/>
+      <c r="R4" s="21"/>
+      <c r="S4" s="21"/>
+      <c r="T4" s="21"/>
+      <c r="U4" s="21"/>
+      <c r="V4" s="21"/>
+      <c r="W4" s="21"/>
+      <c r="X4" s="21"/>
+      <c r="Y4" s="21"/>
+      <c r="Z4" s="21"/>
+      <c r="AA4" s="21"/>
+      <c r="AB4" s="21"/>
+      <c r="AC4" s="21"/>
+      <c r="AD4" s="21"/>
+      <c r="AE4" s="21"/>
+      <c r="AF4" s="21"/>
+      <c r="AG4" s="21"/>
+      <c r="AH4" s="21"/>
+      <c r="AI4" s="21"/>
+      <c r="AJ4" s="21"/>
+      <c r="AK4" s="21"/>
+      <c r="AL4" s="21"/>
       <c r="AO4" s="13"/>
     </row>
     <row r="5" spans="1:43" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="21">
+      <c r="B5" s="17">
         <v>1</v>
       </c>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
-      <c r="N5" s="21"/>
-      <c r="O5" s="21"/>
-      <c r="P5" s="21"/>
-      <c r="Q5" s="21"/>
-      <c r="R5" s="21"/>
-      <c r="S5" s="21"/>
-      <c r="T5" s="21"/>
-      <c r="U5" s="21"/>
-      <c r="V5" s="21"/>
-      <c r="W5" s="21"/>
-      <c r="X5" s="21"/>
-      <c r="Y5" s="21"/>
-      <c r="Z5" s="21"/>
-      <c r="AA5" s="21"/>
-      <c r="AB5" s="21"/>
-      <c r="AC5" s="21"/>
-      <c r="AD5" s="21"/>
-      <c r="AE5" s="21"/>
-      <c r="AF5" s="21"/>
-      <c r="AG5" s="21"/>
-      <c r="AH5" s="21"/>
-      <c r="AI5" s="21"/>
-      <c r="AJ5" s="21"/>
-      <c r="AK5" s="21"/>
-      <c r="AL5" s="21"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="17"/>
+      <c r="R5" s="17"/>
+      <c r="S5" s="17"/>
+      <c r="T5" s="17"/>
+      <c r="U5" s="17"/>
+      <c r="V5" s="17"/>
+      <c r="W5" s="17"/>
+      <c r="X5" s="17"/>
+      <c r="Y5" s="17"/>
+      <c r="Z5" s="17"/>
+      <c r="AA5" s="17"/>
+      <c r="AB5" s="17"/>
+      <c r="AC5" s="17"/>
+      <c r="AD5" s="17"/>
+      <c r="AE5" s="17"/>
+      <c r="AF5" s="17"/>
+      <c r="AG5" s="17"/>
+      <c r="AH5" s="17"/>
+      <c r="AI5" s="17"/>
+      <c r="AJ5" s="17"/>
+      <c r="AK5" s="17"/>
+      <c r="AL5" s="17"/>
+      <c r="AM5" s="12"/>
     </row>
     <row r="6" spans="1:43" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="21">
+      <c r="B6" s="17">
         <v>1</v>
       </c>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="21"/>
-      <c r="N6" s="21"/>
-      <c r="O6" s="21"/>
-      <c r="P6" s="21"/>
-      <c r="Q6" s="21"/>
-      <c r="R6" s="21"/>
-      <c r="S6" s="21"/>
-      <c r="T6" s="21"/>
-      <c r="U6" s="21"/>
-      <c r="V6" s="21"/>
-      <c r="W6" s="21"/>
-      <c r="X6" s="21"/>
-      <c r="Y6" s="21"/>
-      <c r="Z6" s="21"/>
-      <c r="AA6" s="21"/>
-      <c r="AB6" s="21"/>
-      <c r="AC6" s="21"/>
-      <c r="AD6" s="21"/>
-      <c r="AE6" s="21"/>
-      <c r="AF6" s="21"/>
-      <c r="AG6" s="21"/>
-      <c r="AH6" s="21"/>
-      <c r="AI6" s="21"/>
-      <c r="AJ6" s="21"/>
-      <c r="AK6" s="21"/>
-      <c r="AL6" s="21"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="17"/>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="17"/>
+      <c r="R6" s="17"/>
+      <c r="S6" s="17"/>
+      <c r="T6" s="17"/>
+      <c r="U6" s="17"/>
+      <c r="V6" s="17"/>
+      <c r="W6" s="17"/>
+      <c r="X6" s="17"/>
+      <c r="Y6" s="17"/>
+      <c r="Z6" s="17"/>
+      <c r="AA6" s="17"/>
+      <c r="AB6" s="17"/>
+      <c r="AC6" s="17"/>
+      <c r="AD6" s="17"/>
+      <c r="AE6" s="17"/>
+      <c r="AF6" s="17"/>
+      <c r="AG6" s="17"/>
+      <c r="AH6" s="17"/>
+      <c r="AI6" s="17"/>
+      <c r="AJ6" s="17"/>
+      <c r="AK6" s="17"/>
+      <c r="AL6" s="17"/>
     </row>
     <row r="7" spans="1:43" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="21">
+      <c r="B7" s="17">
         <v>1</v>
       </c>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="21"/>
-      <c r="N7" s="21"/>
-      <c r="O7" s="21"/>
-      <c r="P7" s="21"/>
-      <c r="Q7" s="21"/>
-      <c r="R7" s="21"/>
-      <c r="S7" s="21"/>
-      <c r="T7" s="21"/>
-      <c r="U7" s="21"/>
-      <c r="V7" s="21"/>
-      <c r="W7" s="21"/>
-      <c r="X7" s="21"/>
-      <c r="Y7" s="21"/>
-      <c r="Z7" s="21"/>
-      <c r="AA7" s="21"/>
-      <c r="AB7" s="21"/>
-      <c r="AC7" s="21"/>
-      <c r="AD7" s="21"/>
-      <c r="AE7" s="21"/>
-      <c r="AF7" s="21"/>
-      <c r="AG7" s="21"/>
-      <c r="AH7" s="21"/>
-      <c r="AI7" s="21"/>
-      <c r="AJ7" s="21"/>
-      <c r="AK7" s="21"/>
-      <c r="AL7" s="21"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="17"/>
+      <c r="P7" s="17"/>
+      <c r="Q7" s="17"/>
+      <c r="R7" s="17"/>
+      <c r="S7" s="17"/>
+      <c r="T7" s="17"/>
+      <c r="U7" s="17"/>
+      <c r="V7" s="17"/>
+      <c r="W7" s="17"/>
+      <c r="X7" s="17"/>
+      <c r="Y7" s="17"/>
+      <c r="Z7" s="17"/>
+      <c r="AA7" s="17"/>
+      <c r="AB7" s="17"/>
+      <c r="AC7" s="17"/>
+      <c r="AD7" s="17"/>
+      <c r="AE7" s="17"/>
+      <c r="AF7" s="17"/>
+      <c r="AG7" s="17"/>
+      <c r="AH7" s="17"/>
+      <c r="AI7" s="17"/>
+      <c r="AJ7" s="17"/>
+      <c r="AK7" s="17"/>
+      <c r="AL7" s="17"/>
     </row>
     <row r="8" spans="1:43" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="21">
+      <c r="B8" s="17">
         <v>1</v>
       </c>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="21"/>
-      <c r="N8" s="21"/>
-      <c r="O8" s="21"/>
-      <c r="P8" s="21"/>
-      <c r="Q8" s="21"/>
-      <c r="R8" s="21"/>
-      <c r="S8" s="21"/>
-      <c r="T8" s="21"/>
-      <c r="U8" s="21"/>
-      <c r="V8" s="21"/>
-      <c r="W8" s="21"/>
-      <c r="X8" s="21"/>
-      <c r="Y8" s="21"/>
-      <c r="Z8" s="21"/>
-      <c r="AA8" s="21"/>
-      <c r="AB8" s="21"/>
-      <c r="AC8" s="21"/>
-      <c r="AD8" s="21"/>
-      <c r="AE8" s="21"/>
-      <c r="AF8" s="21"/>
-      <c r="AG8" s="21"/>
-      <c r="AH8" s="21"/>
-      <c r="AI8" s="21"/>
-      <c r="AJ8" s="21"/>
-      <c r="AK8" s="21"/>
-      <c r="AL8" s="21"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="17"/>
+      <c r="O8" s="17"/>
+      <c r="P8" s="17"/>
+      <c r="Q8" s="17"/>
+      <c r="R8" s="17"/>
+      <c r="S8" s="17"/>
+      <c r="T8" s="17"/>
+      <c r="U8" s="17"/>
+      <c r="V8" s="17"/>
+      <c r="W8" s="17"/>
+      <c r="X8" s="17"/>
+      <c r="Y8" s="17"/>
+      <c r="Z8" s="17"/>
+      <c r="AA8" s="17"/>
+      <c r="AB8" s="17"/>
+      <c r="AC8" s="17"/>
+      <c r="AD8" s="17"/>
+      <c r="AE8" s="17"/>
+      <c r="AF8" s="17"/>
+      <c r="AG8" s="17"/>
+      <c r="AH8" s="17"/>
+      <c r="AI8" s="17"/>
+      <c r="AJ8" s="17"/>
+      <c r="AK8" s="17"/>
+      <c r="AL8" s="17"/>
       <c r="AM8" s="13"/>
     </row>
     <row r="9" spans="1:43" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="21">
+      <c r="B9" s="17">
         <v>2</v>
       </c>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="21"/>
-      <c r="M9" s="21"/>
-      <c r="N9" s="21"/>
-      <c r="O9" s="21"/>
-      <c r="P9" s="21"/>
-      <c r="Q9" s="21"/>
-      <c r="R9" s="21"/>
-      <c r="S9" s="21"/>
-      <c r="T9" s="21"/>
-      <c r="U9" s="21"/>
-      <c r="V9" s="21"/>
-      <c r="W9" s="21"/>
-      <c r="X9" s="21"/>
-      <c r="Y9" s="21"/>
-      <c r="Z9" s="21"/>
-      <c r="AA9" s="21"/>
-      <c r="AB9" s="21"/>
-      <c r="AC9" s="21"/>
-      <c r="AD9" s="21"/>
-      <c r="AE9" s="21"/>
-      <c r="AF9" s="21"/>
-      <c r="AG9" s="21"/>
-      <c r="AH9" s="21"/>
-      <c r="AI9" s="21"/>
-      <c r="AJ9" s="21"/>
-      <c r="AK9" s="21"/>
-      <c r="AL9" s="21"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="17"/>
+      <c r="O9" s="17"/>
+      <c r="P9" s="17"/>
+      <c r="Q9" s="17"/>
+      <c r="R9" s="17"/>
+      <c r="S9" s="17"/>
+      <c r="T9" s="17"/>
+      <c r="U9" s="17"/>
+      <c r="V9" s="17"/>
+      <c r="W9" s="17"/>
+      <c r="X9" s="17"/>
+      <c r="Y9" s="17"/>
+      <c r="Z9" s="17"/>
+      <c r="AA9" s="17"/>
+      <c r="AB9" s="17"/>
+      <c r="AC9" s="17"/>
+      <c r="AD9" s="17"/>
+      <c r="AE9" s="17"/>
+      <c r="AF9" s="17"/>
+      <c r="AG9" s="17"/>
+      <c r="AH9" s="17"/>
+      <c r="AI9" s="17"/>
+      <c r="AJ9" s="17"/>
+      <c r="AK9" s="17"/>
+      <c r="AL9" s="17"/>
     </row>
     <row r="10" spans="1:43" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="21">
+      <c r="B10" s="17">
         <v>2</v>
       </c>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="21"/>
-      <c r="M10" s="21"/>
-      <c r="N10" s="21"/>
-      <c r="O10" s="21"/>
-      <c r="P10" s="21"/>
-      <c r="Q10" s="21"/>
-      <c r="R10" s="21"/>
-      <c r="S10" s="21"/>
-      <c r="T10" s="21"/>
-      <c r="U10" s="21"/>
-      <c r="V10" s="21"/>
-      <c r="W10" s="21"/>
-      <c r="X10" s="21"/>
-      <c r="Y10" s="21"/>
-      <c r="Z10" s="21"/>
-      <c r="AA10" s="21"/>
-      <c r="AB10" s="21"/>
-      <c r="AC10" s="21"/>
-      <c r="AD10" s="21"/>
-      <c r="AE10" s="21"/>
-      <c r="AF10" s="21"/>
-      <c r="AG10" s="21"/>
-      <c r="AH10" s="21"/>
-      <c r="AI10" s="21"/>
-      <c r="AJ10" s="21"/>
-      <c r="AK10" s="21"/>
-      <c r="AL10" s="21"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="17"/>
+      <c r="Q10" s="17"/>
+      <c r="R10" s="17"/>
+      <c r="S10" s="17"/>
+      <c r="T10" s="17"/>
+      <c r="U10" s="17"/>
+      <c r="V10" s="17"/>
+      <c r="W10" s="17"/>
+      <c r="X10" s="17"/>
+      <c r="Y10" s="17"/>
+      <c r="Z10" s="17"/>
+      <c r="AA10" s="17"/>
+      <c r="AB10" s="17"/>
+      <c r="AC10" s="17"/>
+      <c r="AD10" s="17"/>
+      <c r="AE10" s="17"/>
+      <c r="AF10" s="17"/>
+      <c r="AG10" s="17"/>
+      <c r="AH10" s="17"/>
+      <c r="AI10" s="17"/>
+      <c r="AJ10" s="17"/>
+      <c r="AK10" s="17"/>
+      <c r="AL10" s="17"/>
     </row>
     <row r="11" spans="1:43" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="21">
+      <c r="B11" s="17">
         <v>1</v>
       </c>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="21"/>
-      <c r="M11" s="21"/>
-      <c r="N11" s="21"/>
-      <c r="O11" s="21"/>
-      <c r="P11" s="21"/>
-      <c r="Q11" s="21"/>
-      <c r="R11" s="21"/>
-      <c r="S11" s="21"/>
-      <c r="T11" s="21"/>
-      <c r="U11" s="21"/>
-      <c r="V11" s="21"/>
-      <c r="W11" s="21"/>
-      <c r="X11" s="21"/>
-      <c r="Y11" s="21"/>
-      <c r="Z11" s="21"/>
-      <c r="AA11" s="21"/>
-      <c r="AB11" s="21"/>
-      <c r="AC11" s="21"/>
-      <c r="AD11" s="21"/>
-      <c r="AE11" s="21"/>
-      <c r="AF11" s="21"/>
-      <c r="AG11" s="21"/>
-      <c r="AH11" s="21"/>
-      <c r="AI11" s="21"/>
-      <c r="AJ11" s="21"/>
-      <c r="AK11" s="21"/>
-      <c r="AL11" s="21"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="17"/>
+      <c r="R11" s="17"/>
+      <c r="S11" s="17"/>
+      <c r="T11" s="17"/>
+      <c r="U11" s="17"/>
+      <c r="V11" s="17"/>
+      <c r="W11" s="17"/>
+      <c r="X11" s="17"/>
+      <c r="Y11" s="17"/>
+      <c r="Z11" s="17"/>
+      <c r="AA11" s="17"/>
+      <c r="AB11" s="17"/>
+      <c r="AC11" s="17"/>
+      <c r="AD11" s="17"/>
+      <c r="AE11" s="17"/>
+      <c r="AF11" s="17"/>
+      <c r="AG11" s="17"/>
+      <c r="AH11" s="17"/>
+      <c r="AI11" s="17"/>
+      <c r="AJ11" s="17"/>
+      <c r="AK11" s="17"/>
+      <c r="AL11" s="17"/>
     </row>
     <row r="12" spans="1:43" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="21">
-        <v>1</v>
-      </c>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="21"/>
-      <c r="N12" s="21"/>
-      <c r="O12" s="21"/>
-      <c r="P12" s="21"/>
-      <c r="Q12" s="21"/>
-      <c r="R12" s="21"/>
-      <c r="S12" s="21"/>
-      <c r="T12" s="21"/>
-      <c r="U12" s="21"/>
-      <c r="V12" s="21"/>
-      <c r="W12" s="21"/>
-      <c r="X12" s="21"/>
-      <c r="Y12" s="21"/>
-      <c r="Z12" s="21"/>
-      <c r="AA12" s="21"/>
-      <c r="AB12" s="21"/>
-      <c r="AC12" s="21"/>
-      <c r="AD12" s="21"/>
-      <c r="AE12" s="21"/>
-      <c r="AF12" s="21"/>
-      <c r="AG12" s="21"/>
-      <c r="AH12" s="21"/>
-      <c r="AI12" s="21"/>
-      <c r="AJ12" s="21"/>
-      <c r="AK12" s="21"/>
-      <c r="AL12" s="21"/>
-      <c r="AM12" s="12"/>
+      <c r="B12" s="17">
+        <v>2</v>
+      </c>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="17"/>
+      <c r="R12" s="17"/>
+      <c r="S12" s="17"/>
+      <c r="T12" s="17"/>
+      <c r="U12" s="17"/>
+      <c r="V12" s="17"/>
+      <c r="W12" s="17"/>
+      <c r="X12" s="17"/>
+      <c r="Y12" s="17"/>
+      <c r="Z12" s="17"/>
+      <c r="AA12" s="17"/>
+      <c r="AB12" s="17"/>
+      <c r="AC12" s="17"/>
+      <c r="AD12" s="17"/>
+      <c r="AE12" s="17"/>
+      <c r="AF12" s="17"/>
+      <c r="AG12" s="17"/>
+      <c r="AH12" s="17"/>
+      <c r="AI12" s="17"/>
+      <c r="AJ12" s="17"/>
+      <c r="AK12" s="17"/>
+      <c r="AL12" s="17"/>
     </row>
     <row r="13" spans="1:43" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="21">
+      <c r="B13" s="17">
         <v>2</v>
       </c>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="21"/>
-      <c r="M13" s="21"/>
-      <c r="N13" s="21"/>
-      <c r="O13" s="21"/>
-      <c r="P13" s="21"/>
-      <c r="Q13" s="21"/>
-      <c r="R13" s="21"/>
-      <c r="S13" s="21"/>
-      <c r="T13" s="21"/>
-      <c r="U13" s="21"/>
-      <c r="V13" s="21"/>
-      <c r="W13" s="21"/>
-      <c r="X13" s="21"/>
-      <c r="Y13" s="21"/>
-      <c r="Z13" s="21"/>
-      <c r="AA13" s="21"/>
-      <c r="AB13" s="21"/>
-      <c r="AC13" s="21"/>
-      <c r="AD13" s="21"/>
-      <c r="AE13" s="21"/>
-      <c r="AF13" s="21"/>
-      <c r="AG13" s="21"/>
-      <c r="AH13" s="21"/>
-      <c r="AI13" s="21"/>
-      <c r="AJ13" s="21"/>
-      <c r="AK13" s="21"/>
-      <c r="AL13" s="21"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="17"/>
+      <c r="R13" s="17"/>
+      <c r="S13" s="17"/>
+      <c r="T13" s="17"/>
+      <c r="U13" s="17"/>
+      <c r="V13" s="17"/>
+      <c r="W13" s="17"/>
+      <c r="X13" s="17"/>
+      <c r="Y13" s="17"/>
+      <c r="Z13" s="17"/>
+      <c r="AA13" s="17"/>
+      <c r="AB13" s="17"/>
+      <c r="AC13" s="17"/>
+      <c r="AD13" s="17"/>
+      <c r="AE13" s="17"/>
+      <c r="AF13" s="17"/>
+      <c r="AG13" s="17"/>
+      <c r="AH13" s="17"/>
+      <c r="AI13" s="17"/>
+      <c r="AJ13" s="17"/>
+      <c r="AK13" s="17"/>
+      <c r="AL13" s="17"/>
       <c r="AM13" s="13"/>
     </row>
     <row r="14" spans="1:43" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="21">
+      <c r="B14" s="17">
         <v>1</v>
       </c>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="21"/>
-      <c r="M14" s="21"/>
-      <c r="N14" s="21"/>
-      <c r="O14" s="21"/>
-      <c r="P14" s="21"/>
-      <c r="Q14" s="21"/>
-      <c r="R14" s="21"/>
-      <c r="S14" s="21"/>
-      <c r="T14" s="21"/>
-      <c r="U14" s="21"/>
-      <c r="V14" s="21"/>
-      <c r="W14" s="21"/>
-      <c r="X14" s="21"/>
-      <c r="Y14" s="21"/>
-      <c r="Z14" s="21"/>
-      <c r="AA14" s="21"/>
-      <c r="AB14" s="21"/>
-      <c r="AC14" s="21"/>
-      <c r="AD14" s="21"/>
-      <c r="AE14" s="21"/>
-      <c r="AF14" s="21"/>
-      <c r="AG14" s="21"/>
-      <c r="AH14" s="21"/>
-      <c r="AI14" s="21"/>
-      <c r="AJ14" s="21"/>
-      <c r="AK14" s="21"/>
-      <c r="AL14" s="21"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="17"/>
+      <c r="R14" s="17"/>
+      <c r="S14" s="17"/>
+      <c r="T14" s="17"/>
+      <c r="U14" s="17"/>
+      <c r="V14" s="17"/>
+      <c r="W14" s="17"/>
+      <c r="X14" s="17"/>
+      <c r="Y14" s="17"/>
+      <c r="Z14" s="17"/>
+      <c r="AA14" s="17"/>
+      <c r="AB14" s="17"/>
+      <c r="AC14" s="17"/>
+      <c r="AD14" s="17"/>
+      <c r="AE14" s="17"/>
+      <c r="AF14" s="17"/>
+      <c r="AG14" s="17"/>
+      <c r="AH14" s="17"/>
+      <c r="AI14" s="17"/>
+      <c r="AJ14" s="17"/>
+      <c r="AK14" s="17"/>
+      <c r="AL14" s="17"/>
       <c r="AM14" s="13"/>
       <c r="AO14" s="13"/>
     </row>
@@ -5906,45 +5946,45 @@
       <c r="A15" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="21">
+      <c r="B15" s="17">
         <v>2</v>
       </c>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="21"/>
-      <c r="M15" s="21"/>
-      <c r="N15" s="21"/>
-      <c r="O15" s="21"/>
-      <c r="P15" s="21"/>
-      <c r="Q15" s="21"/>
-      <c r="R15" s="21"/>
-      <c r="S15" s="21"/>
-      <c r="T15" s="21"/>
-      <c r="U15" s="21"/>
-      <c r="V15" s="21"/>
-      <c r="W15" s="21"/>
-      <c r="X15" s="21"/>
-      <c r="Y15" s="21"/>
-      <c r="Z15" s="21"/>
-      <c r="AA15" s="21"/>
-      <c r="AB15" s="21"/>
-      <c r="AC15" s="21"/>
-      <c r="AD15" s="21"/>
-      <c r="AE15" s="21"/>
-      <c r="AF15" s="21"/>
-      <c r="AG15" s="21"/>
-      <c r="AH15" s="21"/>
-      <c r="AI15" s="21"/>
-      <c r="AJ15" s="21"/>
-      <c r="AK15" s="21"/>
-      <c r="AL15" s="21"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="17"/>
+      <c r="O15" s="17"/>
+      <c r="P15" s="17"/>
+      <c r="Q15" s="17"/>
+      <c r="R15" s="17"/>
+      <c r="S15" s="17"/>
+      <c r="T15" s="17"/>
+      <c r="U15" s="17"/>
+      <c r="V15" s="17"/>
+      <c r="W15" s="17"/>
+      <c r="X15" s="17"/>
+      <c r="Y15" s="17"/>
+      <c r="Z15" s="17"/>
+      <c r="AA15" s="17"/>
+      <c r="AB15" s="17"/>
+      <c r="AC15" s="17"/>
+      <c r="AD15" s="17"/>
+      <c r="AE15" s="17"/>
+      <c r="AF15" s="17"/>
+      <c r="AG15" s="17"/>
+      <c r="AH15" s="17"/>
+      <c r="AI15" s="17"/>
+      <c r="AJ15" s="17"/>
+      <c r="AK15" s="17"/>
+      <c r="AL15" s="17"/>
       <c r="AM15" s="13"/>
       <c r="AO15" s="13"/>
     </row>
@@ -5952,562 +5992,559 @@
       <c r="A16" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="21">
+      <c r="B16" s="17">
         <v>2</v>
       </c>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="21"/>
-      <c r="M16" s="21"/>
-      <c r="N16" s="21"/>
-      <c r="O16" s="21"/>
-      <c r="P16" s="21"/>
-      <c r="Q16" s="21"/>
-      <c r="R16" s="21"/>
-      <c r="S16" s="21"/>
-      <c r="T16" s="21"/>
-      <c r="U16" s="21"/>
-      <c r="V16" s="21"/>
-      <c r="W16" s="21"/>
-      <c r="X16" s="21"/>
-      <c r="Y16" s="21"/>
-      <c r="Z16" s="21"/>
-      <c r="AA16" s="21"/>
-      <c r="AB16" s="21"/>
-      <c r="AC16" s="21"/>
-      <c r="AD16" s="21"/>
-      <c r="AE16" s="21"/>
-      <c r="AF16" s="21"/>
-      <c r="AG16" s="21"/>
-      <c r="AH16" s="21"/>
-      <c r="AI16" s="21"/>
-      <c r="AJ16" s="21"/>
-      <c r="AK16" s="21"/>
-      <c r="AL16" s="21"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="17"/>
+      <c r="Q16" s="17"/>
+      <c r="R16" s="17"/>
+      <c r="S16" s="17"/>
+      <c r="T16" s="17"/>
+      <c r="U16" s="17"/>
+      <c r="V16" s="17"/>
+      <c r="W16" s="17"/>
+      <c r="X16" s="17"/>
+      <c r="Y16" s="17"/>
+      <c r="Z16" s="17"/>
+      <c r="AA16" s="17"/>
+      <c r="AB16" s="17"/>
+      <c r="AC16" s="17"/>
+      <c r="AD16" s="17"/>
+      <c r="AE16" s="17"/>
+      <c r="AF16" s="17"/>
+      <c r="AG16" s="17"/>
+      <c r="AH16" s="17"/>
+      <c r="AI16" s="17"/>
+      <c r="AJ16" s="17"/>
+      <c r="AK16" s="17"/>
+      <c r="AL16" s="17"/>
       <c r="AM16" s="13"/>
     </row>
-    <row r="17" spans="1:40" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:39" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="21"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="21"/>
-      <c r="M17" s="21"/>
-      <c r="N17" s="21"/>
-      <c r="O17" s="21"/>
-      <c r="P17" s="21"/>
-      <c r="Q17" s="21"/>
-      <c r="R17" s="21"/>
-      <c r="S17" s="21"/>
-      <c r="T17" s="21"/>
-      <c r="U17" s="21"/>
-      <c r="V17" s="21"/>
-      <c r="W17" s="21"/>
-      <c r="X17" s="21"/>
-      <c r="Y17" s="21"/>
-      <c r="Z17" s="21"/>
-      <c r="AA17" s="21"/>
-      <c r="AB17" s="21"/>
-      <c r="AC17" s="21"/>
-      <c r="AD17" s="21"/>
-      <c r="AE17" s="21"/>
-      <c r="AF17" s="21"/>
-      <c r="AG17" s="21"/>
-      <c r="AH17" s="21"/>
-      <c r="AI17" s="21"/>
-      <c r="AJ17" s="21"/>
-      <c r="AK17" s="21"/>
-      <c r="AL17" s="21"/>
-      <c r="AM17" s="12"/>
-    </row>
-    <row r="18" spans="1:40" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="B17" s="17">
+        <v>1</v>
+      </c>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="17"/>
+      <c r="Q17" s="17"/>
+      <c r="R17" s="17"/>
+      <c r="S17" s="17"/>
+      <c r="T17" s="17"/>
+      <c r="U17" s="17"/>
+      <c r="V17" s="17"/>
+      <c r="W17" s="17"/>
+      <c r="X17" s="17"/>
+      <c r="Y17" s="17"/>
+      <c r="Z17" s="17"/>
+      <c r="AA17" s="17"/>
+      <c r="AB17" s="17"/>
+      <c r="AC17" s="17"/>
+      <c r="AD17" s="17"/>
+      <c r="AE17" s="17"/>
+      <c r="AF17" s="17"/>
+      <c r="AG17" s="17"/>
+      <c r="AH17" s="17"/>
+      <c r="AI17" s="17"/>
+      <c r="AJ17" s="17"/>
+      <c r="AK17" s="17"/>
+      <c r="AL17" s="17"/>
+      <c r="AM17" s="13"/>
+    </row>
+    <row r="18" spans="1:39" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="21">
+      <c r="B18" s="17">
         <v>1</v>
       </c>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="21"/>
-      <c r="M18" s="21"/>
-      <c r="N18" s="21"/>
-      <c r="O18" s="21"/>
-      <c r="P18" s="21"/>
-      <c r="Q18" s="21"/>
-      <c r="R18" s="21"/>
-      <c r="S18" s="21"/>
-      <c r="T18" s="21"/>
-      <c r="U18" s="21"/>
-      <c r="V18" s="21"/>
-      <c r="W18" s="21"/>
-      <c r="X18" s="21"/>
-      <c r="Y18" s="21"/>
-      <c r="Z18" s="21"/>
-      <c r="AA18" s="21"/>
-      <c r="AB18" s="21"/>
-      <c r="AC18" s="21"/>
-      <c r="AD18" s="21"/>
-      <c r="AE18" s="21"/>
-      <c r="AF18" s="21"/>
-      <c r="AG18" s="21"/>
-      <c r="AH18" s="21"/>
-      <c r="AI18" s="21"/>
-      <c r="AJ18" s="21"/>
-      <c r="AK18" s="21"/>
-      <c r="AL18" s="21"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="17"/>
+      <c r="P18" s="17"/>
+      <c r="Q18" s="17"/>
+      <c r="R18" s="17"/>
+      <c r="S18" s="17"/>
+      <c r="T18" s="17"/>
+      <c r="U18" s="17"/>
+      <c r="V18" s="17"/>
+      <c r="W18" s="17"/>
+      <c r="X18" s="17"/>
+      <c r="Y18" s="17"/>
+      <c r="Z18" s="17"/>
+      <c r="AA18" s="17"/>
+      <c r="AB18" s="17"/>
+      <c r="AC18" s="17"/>
+      <c r="AD18" s="17"/>
+      <c r="AE18" s="17"/>
+      <c r="AF18" s="17"/>
+      <c r="AG18" s="17"/>
+      <c r="AH18" s="17"/>
+      <c r="AI18" s="17"/>
+      <c r="AJ18" s="17"/>
+      <c r="AK18" s="17"/>
+      <c r="AL18" s="17"/>
       <c r="AM18" s="13"/>
     </row>
-    <row r="19" spans="1:40" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:39" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="21"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="21"/>
-      <c r="L19" s="21"/>
-      <c r="M19" s="21"/>
-      <c r="N19" s="21"/>
-      <c r="O19" s="21"/>
-      <c r="P19" s="21"/>
-      <c r="Q19" s="21"/>
-      <c r="R19" s="21"/>
-      <c r="S19" s="21"/>
-      <c r="T19" s="21"/>
-      <c r="U19" s="21"/>
-      <c r="V19" s="21"/>
-      <c r="W19" s="21"/>
-      <c r="X19" s="21"/>
-      <c r="Y19" s="21"/>
-      <c r="Z19" s="21"/>
-      <c r="AA19" s="21"/>
-      <c r="AB19" s="21"/>
-      <c r="AC19" s="21"/>
-      <c r="AD19" s="21"/>
-      <c r="AE19" s="21"/>
-      <c r="AF19" s="21"/>
-      <c r="AG19" s="21"/>
-      <c r="AH19" s="21"/>
-      <c r="AI19" s="21"/>
-      <c r="AJ19" s="21"/>
-      <c r="AK19" s="21"/>
-      <c r="AL19" s="21"/>
+      <c r="B19" s="17">
+        <v>2</v>
+      </c>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="17"/>
+      <c r="Q19" s="17"/>
+      <c r="R19" s="17"/>
+      <c r="S19" s="17"/>
+      <c r="T19" s="17"/>
+      <c r="U19" s="17"/>
+      <c r="V19" s="17"/>
+      <c r="W19" s="17"/>
+      <c r="X19" s="17"/>
+      <c r="Y19" s="17"/>
+      <c r="Z19" s="17"/>
+      <c r="AA19" s="17"/>
+      <c r="AB19" s="17"/>
+      <c r="AC19" s="17"/>
+      <c r="AD19" s="17"/>
+      <c r="AE19" s="17"/>
+      <c r="AF19" s="17"/>
+      <c r="AG19" s="17"/>
+      <c r="AH19" s="17"/>
+      <c r="AI19" s="17"/>
+      <c r="AJ19" s="17"/>
+      <c r="AK19" s="17"/>
+      <c r="AL19" s="17"/>
       <c r="AM19" s="13"/>
-      <c r="AN19" s="12"/>
-    </row>
-    <row r="20" spans="1:40" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:39" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="21">
+      <c r="B20" s="17">
         <v>1</v>
       </c>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="21"/>
-      <c r="L20" s="21"/>
-      <c r="M20" s="21"/>
-      <c r="N20" s="21"/>
-      <c r="O20" s="21"/>
-      <c r="P20" s="21"/>
-      <c r="Q20" s="21"/>
-      <c r="R20" s="21"/>
-      <c r="S20" s="21"/>
-      <c r="T20" s="21"/>
-      <c r="U20" s="21"/>
-      <c r="V20" s="21"/>
-      <c r="W20" s="21"/>
-      <c r="X20" s="21"/>
-      <c r="Y20" s="21"/>
-      <c r="Z20" s="21"/>
-      <c r="AA20" s="21"/>
-      <c r="AB20" s="21"/>
-      <c r="AC20" s="21"/>
-      <c r="AD20" s="21"/>
-      <c r="AE20" s="21"/>
-      <c r="AF20" s="21"/>
-      <c r="AG20" s="21"/>
-      <c r="AH20" s="21"/>
-      <c r="AI20" s="21"/>
-      <c r="AJ20" s="21"/>
-      <c r="AK20" s="21"/>
-      <c r="AL20" s="21"/>
-    </row>
-    <row r="21" spans="1:40" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="17"/>
+      <c r="P20" s="17"/>
+      <c r="Q20" s="17"/>
+      <c r="R20" s="17"/>
+      <c r="S20" s="17"/>
+      <c r="T20" s="17"/>
+      <c r="U20" s="17"/>
+      <c r="V20" s="17"/>
+      <c r="W20" s="17"/>
+      <c r="X20" s="17"/>
+      <c r="Y20" s="17"/>
+      <c r="Z20" s="17"/>
+      <c r="AA20" s="17"/>
+      <c r="AB20" s="17"/>
+      <c r="AC20" s="17"/>
+      <c r="AD20" s="17"/>
+      <c r="AE20" s="17"/>
+      <c r="AF20" s="17"/>
+      <c r="AG20" s="17"/>
+      <c r="AH20" s="17"/>
+      <c r="AI20" s="17"/>
+      <c r="AJ20" s="17"/>
+      <c r="AK20" s="17"/>
+      <c r="AL20" s="17"/>
+    </row>
+    <row r="21" spans="1:39" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="21"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="21"/>
-      <c r="L21" s="21"/>
-      <c r="M21" s="21"/>
-      <c r="N21" s="21"/>
-      <c r="O21" s="21"/>
-      <c r="P21" s="21"/>
-      <c r="Q21" s="21"/>
-      <c r="R21" s="21"/>
-      <c r="S21" s="21"/>
-      <c r="T21" s="21"/>
-      <c r="U21" s="21"/>
-      <c r="V21" s="21"/>
-      <c r="W21" s="21"/>
-      <c r="X21" s="21"/>
-      <c r="Y21" s="21"/>
-      <c r="Z21" s="21"/>
-      <c r="AA21" s="21"/>
-      <c r="AB21" s="21"/>
-      <c r="AC21" s="21"/>
-      <c r="AD21" s="21"/>
-      <c r="AE21" s="21"/>
-      <c r="AF21" s="21"/>
-      <c r="AG21" s="21"/>
-      <c r="AH21" s="21"/>
-      <c r="AI21" s="21"/>
-      <c r="AJ21" s="21"/>
-      <c r="AK21" s="21"/>
-      <c r="AL21" s="21"/>
-    </row>
-    <row r="22" spans="1:40" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="B21" s="17">
+        <v>2</v>
+      </c>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="17"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="17"/>
+      <c r="P21" s="17"/>
+      <c r="Q21" s="17"/>
+      <c r="R21" s="17"/>
+      <c r="S21" s="17"/>
+      <c r="T21" s="17"/>
+      <c r="U21" s="17"/>
+      <c r="V21" s="17"/>
+      <c r="W21" s="17"/>
+      <c r="X21" s="17"/>
+      <c r="Y21" s="17"/>
+      <c r="Z21" s="17"/>
+      <c r="AA21" s="17"/>
+      <c r="AB21" s="17"/>
+      <c r="AC21" s="17"/>
+      <c r="AD21" s="17"/>
+      <c r="AE21" s="17"/>
+      <c r="AF21" s="17"/>
+      <c r="AG21" s="17"/>
+      <c r="AH21" s="17"/>
+      <c r="AI21" s="17"/>
+      <c r="AJ21" s="17"/>
+      <c r="AK21" s="17"/>
+      <c r="AL21" s="17"/>
+    </row>
+    <row r="22" spans="1:39" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="21">
+      <c r="B22" s="17">
         <v>1</v>
       </c>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="21"/>
-      <c r="K22" s="21"/>
-      <c r="L22" s="21"/>
-      <c r="M22" s="21"/>
-      <c r="N22" s="21"/>
-      <c r="O22" s="21"/>
-      <c r="P22" s="21"/>
-      <c r="Q22" s="21"/>
-      <c r="R22" s="21"/>
-      <c r="S22" s="21"/>
-      <c r="T22" s="21"/>
-      <c r="U22" s="21"/>
-      <c r="V22" s="21"/>
-      <c r="W22" s="21"/>
-      <c r="X22" s="21"/>
-      <c r="Y22" s="21"/>
-      <c r="Z22" s="21"/>
-      <c r="AA22" s="21"/>
-      <c r="AB22" s="21"/>
-      <c r="AC22" s="21"/>
-      <c r="AD22" s="21"/>
-      <c r="AE22" s="21"/>
-      <c r="AF22" s="21"/>
-      <c r="AG22" s="21"/>
-      <c r="AH22" s="21"/>
-      <c r="AI22" s="21"/>
-      <c r="AJ22" s="21"/>
-      <c r="AK22" s="21"/>
-      <c r="AL22" s="21"/>
-    </row>
-    <row r="23" spans="1:40" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="17"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="17"/>
+      <c r="O22" s="17"/>
+      <c r="P22" s="17"/>
+      <c r="Q22" s="17"/>
+      <c r="R22" s="17"/>
+      <c r="S22" s="17"/>
+      <c r="T22" s="17"/>
+      <c r="U22" s="17"/>
+      <c r="V22" s="17"/>
+      <c r="W22" s="17"/>
+      <c r="X22" s="17"/>
+      <c r="Y22" s="17"/>
+      <c r="Z22" s="17"/>
+      <c r="AA22" s="17"/>
+      <c r="AB22" s="17"/>
+      <c r="AC22" s="17"/>
+      <c r="AD22" s="17"/>
+      <c r="AE22" s="17"/>
+      <c r="AF22" s="17"/>
+      <c r="AG22" s="17"/>
+      <c r="AH22" s="17"/>
+      <c r="AI22" s="17"/>
+      <c r="AJ22" s="17"/>
+      <c r="AK22" s="17"/>
+      <c r="AL22" s="17"/>
+    </row>
+    <row r="23" spans="1:39" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="21"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="21"/>
-      <c r="I23" s="21"/>
-      <c r="J23" s="21"/>
-      <c r="K23" s="21"/>
-      <c r="L23" s="21"/>
-      <c r="M23" s="21"/>
-      <c r="N23" s="21"/>
-      <c r="O23" s="21"/>
-      <c r="P23" s="21"/>
-      <c r="Q23" s="21"/>
-      <c r="R23" s="21"/>
-      <c r="S23" s="21"/>
-      <c r="T23" s="21"/>
-      <c r="U23" s="21"/>
-      <c r="V23" s="21"/>
-      <c r="W23" s="21"/>
-      <c r="X23" s="21"/>
-      <c r="Y23" s="21"/>
-      <c r="Z23" s="21"/>
-      <c r="AA23" s="21"/>
-      <c r="AB23" s="21"/>
-      <c r="AC23" s="21"/>
-      <c r="AD23" s="21"/>
-      <c r="AE23" s="21"/>
-      <c r="AF23" s="21"/>
-      <c r="AG23" s="21"/>
-      <c r="AH23" s="21"/>
-      <c r="AI23" s="21"/>
-      <c r="AJ23" s="21"/>
-      <c r="AK23" s="21"/>
-      <c r="AL23" s="21"/>
-      <c r="AN23" s="12"/>
-    </row>
-    <row r="24" spans="1:40" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="B23" s="17">
+        <v>2</v>
+      </c>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="17"/>
+      <c r="M23" s="17"/>
+      <c r="N23" s="17"/>
+      <c r="O23" s="17"/>
+      <c r="P23" s="17"/>
+      <c r="Q23" s="17"/>
+      <c r="R23" s="17"/>
+      <c r="S23" s="17"/>
+      <c r="T23" s="17"/>
+      <c r="U23" s="17"/>
+      <c r="V23" s="17"/>
+      <c r="W23" s="17"/>
+      <c r="X23" s="17"/>
+      <c r="Y23" s="17"/>
+      <c r="Z23" s="17"/>
+      <c r="AA23" s="17"/>
+      <c r="AB23" s="17"/>
+      <c r="AC23" s="17"/>
+      <c r="AD23" s="17"/>
+      <c r="AE23" s="17"/>
+      <c r="AF23" s="17"/>
+      <c r="AG23" s="17"/>
+      <c r="AH23" s="17"/>
+      <c r="AI23" s="17"/>
+      <c r="AJ23" s="17"/>
+      <c r="AK23" s="17"/>
+      <c r="AL23" s="17"/>
+    </row>
+    <row r="24" spans="1:39" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="21">
+      <c r="B24" s="17">
         <v>2</v>
       </c>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="21"/>
-      <c r="I24" s="21"/>
-      <c r="J24" s="21"/>
-      <c r="K24" s="21"/>
-      <c r="L24" s="21"/>
-      <c r="M24" s="21"/>
-      <c r="N24" s="21"/>
-      <c r="O24" s="21"/>
-      <c r="P24" s="21"/>
-      <c r="Q24" s="21"/>
-      <c r="R24" s="21"/>
-      <c r="S24" s="21"/>
-      <c r="T24" s="21"/>
-      <c r="U24" s="21"/>
-      <c r="V24" s="21"/>
-      <c r="W24" s="21"/>
-      <c r="X24" s="21"/>
-      <c r="Y24" s="21"/>
-      <c r="Z24" s="21"/>
-      <c r="AA24" s="21"/>
-      <c r="AB24" s="21"/>
-      <c r="AC24" s="21"/>
-      <c r="AD24" s="21"/>
-      <c r="AE24" s="21"/>
-      <c r="AF24" s="21"/>
-      <c r="AG24" s="21"/>
-      <c r="AH24" s="21"/>
-      <c r="AI24" s="21"/>
-      <c r="AJ24" s="21"/>
-      <c r="AK24" s="21"/>
-      <c r="AL24" s="21"/>
-    </row>
-    <row r="25" spans="1:40" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="17"/>
+      <c r="L24" s="17"/>
+      <c r="M24" s="17"/>
+      <c r="N24" s="17"/>
+      <c r="O24" s="17"/>
+      <c r="P24" s="17"/>
+      <c r="Q24" s="17"/>
+      <c r="R24" s="17"/>
+      <c r="S24" s="17"/>
+      <c r="T24" s="17"/>
+      <c r="U24" s="17"/>
+      <c r="V24" s="17"/>
+      <c r="W24" s="17"/>
+      <c r="X24" s="17"/>
+      <c r="Y24" s="17"/>
+      <c r="Z24" s="17"/>
+      <c r="AA24" s="17"/>
+      <c r="AB24" s="17"/>
+      <c r="AC24" s="17"/>
+      <c r="AD24" s="17"/>
+      <c r="AE24" s="17"/>
+      <c r="AF24" s="17"/>
+      <c r="AG24" s="17"/>
+      <c r="AH24" s="17"/>
+      <c r="AI24" s="17"/>
+      <c r="AJ24" s="17"/>
+      <c r="AK24" s="17"/>
+      <c r="AL24" s="17"/>
+    </row>
+    <row r="25" spans="1:39" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A25" s="7"/>
       <c r="B25" s="9"/>
     </row>
-    <row r="26" spans="1:40" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:39" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A26" s="7"/>
       <c r="B26" s="9"/>
     </row>
-    <row r="27" spans="1:40" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:39" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
       <c r="B27" s="9"/>
-      <c r="O27" s="18" t="s">
+      <c r="O27" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="P27" s="19"/>
-      <c r="Q27" s="19"/>
-      <c r="R27" s="19"/>
-      <c r="S27" s="19"/>
-      <c r="T27" s="19"/>
-      <c r="U27" s="19"/>
-      <c r="V27" s="19"/>
-    </row>
-    <row r="28" spans="1:40" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="P27" s="20"/>
+      <c r="Q27" s="20"/>
+      <c r="R27" s="20"/>
+      <c r="S27" s="20"/>
+      <c r="T27" s="20"/>
+      <c r="U27" s="20"/>
+      <c r="V27" s="20"/>
+    </row>
+    <row r="28" spans="1:39" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A28" s="7"/>
       <c r="B28" s="9"/>
-      <c r="O28" s="19"/>
-      <c r="P28" s="19"/>
-      <c r="Q28" s="19"/>
-      <c r="R28" s="19"/>
-      <c r="S28" s="19"/>
-      <c r="T28" s="19"/>
-      <c r="U28" s="19"/>
-      <c r="V28" s="19"/>
-    </row>
-    <row r="29" spans="1:40" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="O28" s="20"/>
+      <c r="P28" s="20"/>
+      <c r="Q28" s="20"/>
+      <c r="R28" s="20"/>
+      <c r="S28" s="20"/>
+      <c r="T28" s="20"/>
+      <c r="U28" s="20"/>
+      <c r="V28" s="20"/>
+    </row>
+    <row r="29" spans="1:39" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A29" s="7"/>
       <c r="B29" s="9"/>
-      <c r="O29" s="19"/>
-      <c r="P29" s="19"/>
-      <c r="Q29" s="19"/>
-      <c r="R29" s="19"/>
-      <c r="S29" s="19"/>
-      <c r="T29" s="19"/>
-      <c r="U29" s="19"/>
-      <c r="V29" s="19"/>
-    </row>
-    <row r="30" spans="1:40" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="O29" s="20"/>
+      <c r="P29" s="20"/>
+      <c r="Q29" s="20"/>
+      <c r="R29" s="20"/>
+      <c r="S29" s="20"/>
+      <c r="T29" s="20"/>
+      <c r="U29" s="20"/>
+      <c r="V29" s="20"/>
+    </row>
+    <row r="30" spans="1:39" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
       <c r="B30" s="9"/>
-      <c r="O30" s="19"/>
-      <c r="P30" s="19"/>
-      <c r="Q30" s="19"/>
-      <c r="R30" s="19"/>
-      <c r="S30" s="19"/>
-      <c r="T30" s="19"/>
-      <c r="U30" s="19"/>
-      <c r="V30" s="19"/>
-    </row>
-    <row r="31" spans="1:40" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="O30" s="20"/>
+      <c r="P30" s="20"/>
+      <c r="Q30" s="20"/>
+      <c r="R30" s="20"/>
+      <c r="S30" s="20"/>
+      <c r="T30" s="20"/>
+      <c r="U30" s="20"/>
+      <c r="V30" s="20"/>
+    </row>
+    <row r="31" spans="1:39" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
       <c r="B31" s="9"/>
-      <c r="O31" s="19"/>
-      <c r="P31" s="19"/>
-      <c r="Q31" s="19"/>
-      <c r="R31" s="19"/>
-      <c r="S31" s="19"/>
-      <c r="T31" s="19"/>
-      <c r="U31" s="19"/>
-      <c r="V31" s="19"/>
-    </row>
-    <row r="32" spans="1:40" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="O31" s="20"/>
+      <c r="P31" s="20"/>
+      <c r="Q31" s="20"/>
+      <c r="R31" s="20"/>
+      <c r="S31" s="20"/>
+      <c r="T31" s="20"/>
+      <c r="U31" s="20"/>
+      <c r="V31" s="20"/>
+    </row>
+    <row r="32" spans="1:39" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
       <c r="B32" s="9"/>
-      <c r="O32" s="19"/>
-      <c r="P32" s="19"/>
-      <c r="Q32" s="19"/>
-      <c r="R32" s="19"/>
-      <c r="S32" s="19"/>
-      <c r="T32" s="19"/>
-      <c r="U32" s="19"/>
-      <c r="V32" s="19"/>
+      <c r="O32" s="20"/>
+      <c r="P32" s="20"/>
+      <c r="Q32" s="20"/>
+      <c r="R32" s="20"/>
+      <c r="S32" s="20"/>
+      <c r="T32" s="20"/>
+      <c r="U32" s="20"/>
+      <c r="V32" s="20"/>
     </row>
     <row r="33" spans="1:22" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
       <c r="B33" s="9"/>
-      <c r="O33" s="19"/>
-      <c r="P33" s="19"/>
-      <c r="Q33" s="19"/>
-      <c r="R33" s="19"/>
-      <c r="S33" s="19"/>
-      <c r="T33" s="19"/>
-      <c r="U33" s="19"/>
-      <c r="V33" s="19"/>
+      <c r="O33" s="20"/>
+      <c r="P33" s="20"/>
+      <c r="Q33" s="20"/>
+      <c r="R33" s="20"/>
+      <c r="S33" s="20"/>
+      <c r="T33" s="20"/>
+      <c r="U33" s="20"/>
+      <c r="V33" s="20"/>
     </row>
     <row r="34" spans="1:22" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
       <c r="B34" s="9"/>
-      <c r="O34" s="19"/>
-      <c r="P34" s="19"/>
-      <c r="Q34" s="19"/>
-      <c r="R34" s="19"/>
-      <c r="S34" s="19"/>
-      <c r="T34" s="19"/>
-      <c r="U34" s="19"/>
-      <c r="V34" s="19"/>
+      <c r="O34" s="20"/>
+      <c r="P34" s="20"/>
+      <c r="Q34" s="20"/>
+      <c r="R34" s="20"/>
+      <c r="S34" s="20"/>
+      <c r="T34" s="20"/>
+      <c r="U34" s="20"/>
+      <c r="V34" s="20"/>
     </row>
     <row r="35" spans="1:22" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
       <c r="B35" s="9"/>
-      <c r="O35" s="19"/>
-      <c r="P35" s="19"/>
-      <c r="Q35" s="19"/>
-      <c r="R35" s="19"/>
-      <c r="S35" s="19"/>
-      <c r="T35" s="19"/>
-      <c r="U35" s="19"/>
-      <c r="V35" s="19"/>
+      <c r="O35" s="20"/>
+      <c r="P35" s="20"/>
+      <c r="Q35" s="20"/>
+      <c r="R35" s="20"/>
+      <c r="S35" s="20"/>
+      <c r="T35" s="20"/>
+      <c r="U35" s="20"/>
+      <c r="V35" s="20"/>
     </row>
     <row r="36" spans="1:22" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A36" s="7"/>
       <c r="B36" s="7"/>
-      <c r="O36" s="19"/>
-      <c r="P36" s="19"/>
-      <c r="Q36" s="19"/>
-      <c r="R36" s="19"/>
-      <c r="S36" s="19"/>
-      <c r="T36" s="19"/>
-      <c r="U36" s="19"/>
-      <c r="V36" s="19"/>
+      <c r="O36" s="20"/>
+      <c r="P36" s="20"/>
+      <c r="Q36" s="20"/>
+      <c r="R36" s="20"/>
+      <c r="S36" s="20"/>
+      <c r="T36" s="20"/>
+      <c r="U36" s="20"/>
+      <c r="V36" s="20"/>
     </row>
     <row r="37" spans="1:22" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A37" s="7"/>
       <c r="B37" s="7"/>
-      <c r="O37" s="19"/>
-      <c r="P37" s="19"/>
-      <c r="Q37" s="19"/>
-      <c r="R37" s="19"/>
-      <c r="S37" s="19"/>
-      <c r="T37" s="19"/>
-      <c r="U37" s="19"/>
-      <c r="V37" s="19"/>
+      <c r="O37" s="20"/>
+      <c r="P37" s="20"/>
+      <c r="Q37" s="20"/>
+      <c r="R37" s="20"/>
+      <c r="S37" s="20"/>
+      <c r="T37" s="20"/>
+      <c r="U37" s="20"/>
+      <c r="V37" s="20"/>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="O38" s="19"/>
-      <c r="P38" s="19"/>
-      <c r="Q38" s="19"/>
-      <c r="R38" s="19"/>
-      <c r="S38" s="19"/>
-      <c r="T38" s="19"/>
-      <c r="U38" s="19"/>
-      <c r="V38" s="19"/>
+      <c r="O38" s="20"/>
+      <c r="P38" s="20"/>
+      <c r="Q38" s="20"/>
+      <c r="R38" s="20"/>
+      <c r="S38" s="20"/>
+      <c r="T38" s="20"/>
+      <c r="U38" s="20"/>
+      <c r="V38" s="20"/>
     </row>
   </sheetData>
   <sortState ref="A2:A24">
     <sortCondition ref="A2"/>
   </sortState>
   <mergeCells count="25">
-    <mergeCell ref="B23:AL23"/>
-    <mergeCell ref="B24:AL24"/>
-    <mergeCell ref="B16:AL16"/>
-    <mergeCell ref="B9:AL9"/>
-    <mergeCell ref="B17:AL17"/>
-    <mergeCell ref="B18:AL18"/>
-    <mergeCell ref="B19:AL19"/>
-    <mergeCell ref="B20:AL20"/>
-    <mergeCell ref="B21:AL21"/>
     <mergeCell ref="B1:AL1"/>
     <mergeCell ref="O27:V38"/>
     <mergeCell ref="B2:AL2"/>
@@ -6524,6 +6561,15 @@
     <mergeCell ref="B15:AL15"/>
     <mergeCell ref="B7:AL7"/>
     <mergeCell ref="B22:AL22"/>
+    <mergeCell ref="B23:AL23"/>
+    <mergeCell ref="B24:AL24"/>
+    <mergeCell ref="B16:AL16"/>
+    <mergeCell ref="B9:AL9"/>
+    <mergeCell ref="B17:AL17"/>
+    <mergeCell ref="B18:AL18"/>
+    <mergeCell ref="B19:AL19"/>
+    <mergeCell ref="B20:AL20"/>
+    <mergeCell ref="B21:AL21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2:AL24">

--- a/前端工程师班.xlsx
+++ b/前端工程师班.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yacon\Desktop\前端随堂笔记\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{043E02DE-36B6-4E5B-901E-45AAC566D63F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE318B64-C5F9-4659-BA71-1CC983F982CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="19104" windowHeight="12816" xr2:uid="{F18D4CDB-7335-4D71-A58E-AC92FD55C192}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="19104" windowHeight="12816" activeTab="2" xr2:uid="{F18D4CDB-7335-4D71-A58E-AC92FD55C192}"/>
   </bookViews>
   <sheets>
     <sheet name="异常记录" sheetId="1" r:id="rId1"/>
@@ -202,7 +202,9 @@
 2019/12/21
 练习课请假（一天）
 2020/1/9
-练习课请假（一天）</t>
+练习课请假（一天）
+2020/1/10
+正课请假（一天）</t>
         </r>
       </text>
     </comment>
@@ -312,7 +314,9 @@
           </rPr>
           <t xml:space="preserve">
 2019/12/13
-正课迟到4分钟</t>
+正课迟到4分钟
+2020/1/13
+正课迟到</t>
         </r>
       </text>
     </comment>
@@ -443,6 +447,8 @@
           </rPr>
           <t xml:space="preserve">
 2020/1/6
+正课迟到1分钟
+2020/1/13
 正课迟到</t>
         </r>
       </text>
@@ -482,7 +488,7 @@
     <author>Yacon</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{96BA9A23-B04D-41F6-B39E-098C2141BCF3}">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{96BA9A23-B04D-41F6-B39E-098C2141BCF3}">
       <text>
         <r>
           <rPr>
@@ -508,7 +514,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{1E8B58C0-3426-47B0-A458-C2FDF4A374AF}">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{1E8B58C0-3426-47B0-A458-C2FDF4A374AF}">
       <text>
         <r>
           <rPr>
@@ -535,7 +541,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{4EAA0F7C-DF08-427E-995F-8189F064DF58}">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{4EAA0F7C-DF08-427E-995F-8189F064DF58}">
       <text>
         <r>
           <rPr>
@@ -561,7 +567,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{D7F55FFF-0762-495C-9C43-7738EA25C6A0}">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{D7F55FFF-0762-495C-9C43-7738EA25C6A0}">
       <text>
         <r>
           <rPr>
@@ -587,7 +593,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{65339DDD-EDF9-4E35-A3CC-B2C492A6E62B}">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{65339DDD-EDF9-4E35-A3CC-B2C492A6E62B}">
       <text>
         <r>
           <rPr>
@@ -602,7 +608,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{0291FE43-974E-4623-B85C-5262DCADCD47}">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{0291FE43-974E-4623-B85C-5262DCADCD47}">
       <text>
         <r>
           <rPr>
@@ -626,7 +632,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{6251E8E9-4DD4-4FBB-BB4B-CBC805714E8A}">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{6251E8E9-4DD4-4FBB-BB4B-CBC805714E8A}">
       <text>
         <r>
           <rPr>
@@ -650,7 +656,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{8C448A78-96BC-4A4E-8529-6BE399EE2C7B}">
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{8C448A78-96BC-4A4E-8529-6BE399EE2C7B}">
       <text>
         <r>
           <rPr>
@@ -684,109 +690,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{32CE57A4-C4CE-489D-9435-ABDD55E6B054}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>Yacon:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-2</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>020/1/4</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{FB7AF203-678A-4A76-A24D-B4EFC2E9B898}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>Yacon:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-2</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>020/1/4</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{460CB6AB-6DAF-40F8-A8DD-453BE3D33BA7}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>Yacon:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-2</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>020/1/4</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{52F92342-5CDA-4F55-B562-4F7A2447990E}">
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{32CE57A4-C4CE-489D-9435-ABDD55E6B054}">
       <text>
         <r>
           <rPr>
@@ -825,7 +729,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="65">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1019,10 +923,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>JS考核2加分题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>JS考核2基础题</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1047,15 +947,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>JS考核3基础题</t>
+    <t>高景瑞</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>JS考核3加分题</t>
+    <t>新闻列表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>高景瑞</t>
+    <t>添加图片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>青鸟官网</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购物车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加分</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1610,8 +1522,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA0A5D22-6F6C-4A6B-9DB1-CD65D73062C4}">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="22.8" x14ac:dyDescent="0.25"/>
@@ -1635,7 +1547,7 @@
         <v>30</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -1673,7 +1585,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1700,7 +1612,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1729,7 +1641,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E12" s="2">
         <v>1</v>
@@ -1737,15 +1649,15 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B13" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B14" s="2">
         <v>1</v>
@@ -1764,24 +1676,25 @@
   <dimension ref="A1:Y50"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Z17" sqref="Z17"/>
+      <selection pane="bottomRight" activeCell="C65" sqref="C65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.399999999999999" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="14" width="21.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="23" width="3.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16" width="21.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="23" width="3.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="8.88671875" style="1"/>
     <col min="25" max="25" width="2.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="26" max="16384" width="8.88671875" style="1"/>
@@ -1789,49 +1702,53 @@
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>0</v>
-      </c>
       <c r="C1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>54</v>
       </c>
       <c r="L1" s="3" t="s">
         <v>53</v>
       </c>
       <c r="M1" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="N1" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
+      <c r="O1" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>63</v>
+      </c>
       <c r="Q1" s="3"/>
       <c r="R1" s="3"/>
       <c r="S1" s="3"/>
@@ -1841,21 +1758,19 @@
       <c r="W1" s="3"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A2" s="8">
-        <f t="shared" ref="A2:A24" si="0">SUM(C28:W28)</f>
+      <c r="A2" s="3"/>
+      <c r="B2" s="8">
+        <f t="shared" ref="B2:B21" si="0">SUM(D28:W28)+A2</f>
         <v>15</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>35</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>35</v>
@@ -1864,13 +1779,13 @@
         <v>35</v>
       </c>
       <c r="H2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>39</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>39</v>
@@ -1891,21 +1806,19 @@
       <c r="W2" s="3"/>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
+      <c r="A3" s="3"/>
+      <c r="B3" s="8">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>35</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>35</v>
@@ -1914,19 +1827,19 @@
         <v>35</v>
       </c>
       <c r="H3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>35</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>35</v>
       </c>
       <c r="K3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L3" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>39</v>
       </c>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
@@ -1941,42 +1854,40 @@
       <c r="W3" s="3"/>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
+      <c r="A4" s="3"/>
+      <c r="B4" s="8">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="D4" s="3" t="s">
         <v>32</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>35</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>35</v>
       </c>
       <c r="I4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J4" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="K4" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="K4" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="L4" s="3" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
@@ -1991,27 +1902,25 @@
       <c r="W4" s="3"/>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
+      <c r="A5" s="3"/>
+      <c r="B5" s="8">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="C5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="D5" s="3" t="s">
         <v>32</v>
       </c>
       <c r="E5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="G5" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>34</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>34</v>
@@ -2020,13 +1929,13 @@
         <v>34</v>
       </c>
       <c r="J5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="K5" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="L5" s="3" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
@@ -2041,42 +1950,40 @@
       <c r="W5" s="3"/>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
+      <c r="A6" s="3"/>
+      <c r="B6" s="8">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="C6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="E6" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>35</v>
       </c>
       <c r="G6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H6" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="I6" s="3" t="s">
         <v>32</v>
       </c>
       <c r="J6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K6" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="K6" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="L6" s="3" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
@@ -2091,42 +1998,40 @@
       <c r="W6" s="3"/>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
+      <c r="A7" s="3"/>
+      <c r="B7" s="8">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="C7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="D7" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>34</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>34</v>
       </c>
       <c r="F7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G7" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="H7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I7" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="J7" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="K7" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="K7" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="L7" s="3" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
@@ -2141,42 +2046,40 @@
       <c r="W7" s="3"/>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
+      <c r="A8" s="3"/>
+      <c r="B8" s="8">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="C8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="D8" s="3" t="s">
         <v>32</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>34</v>
       </c>
       <c r="G8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="I8" s="3" t="s">
         <v>32</v>
       </c>
       <c r="J8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K8" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="L8" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>39</v>
       </c>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
@@ -2191,42 +2094,40 @@
       <c r="W8" s="3"/>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A9" s="8">
+      <c r="A9" s="3"/>
+      <c r="B9" s="8">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="C9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="D9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="F9" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>33</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>33</v>
       </c>
       <c r="H9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I9" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="J9" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="K9" s="3" t="s">
         <v>32</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
@@ -2240,46 +2141,44 @@
       <c r="V9" s="3"/>
       <c r="W9" s="3"/>
       <c r="Y9" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
+      <c r="A10" s="3"/>
+      <c r="B10" s="8">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="C10" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="D10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="F10" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="G10" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="H10" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="I10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J10" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="K10" s="3" t="s">
         <v>32</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
@@ -2294,21 +2193,19 @@
       <c r="W10" s="3"/>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A11" s="8">
+      <c r="A11" s="3"/>
+      <c r="B11" s="8">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="C11" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="D11" s="3" t="s">
         <v>32</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>34</v>
@@ -2317,19 +2214,19 @@
         <v>34</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J11" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="J11" s="3" t="s">
+      <c r="K11" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="K11" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="L11" s="3" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
@@ -2344,42 +2241,40 @@
       <c r="W11" s="3"/>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A12" s="8">
+      <c r="A12" s="3"/>
+      <c r="B12" s="8">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="C12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="F12" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="G12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H12" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="I12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J12" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="J12" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="K12" s="3" t="s">
         <v>32</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
@@ -2394,15 +2289,13 @@
       <c r="W12" s="3"/>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A13" s="8">
+      <c r="A13" s="3"/>
+      <c r="B13" s="8">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="C13" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>33</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>33</v>
@@ -2411,25 +2304,25 @@
         <v>33</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G13" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H13" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H13" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="I13" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J13" s="3" t="s">
         <v>33</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
@@ -2444,16 +2337,14 @@
       <c r="W13" s="3"/>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A14" s="8">
+      <c r="A14" s="3"/>
+      <c r="B14" s="8">
         <f t="shared" si="0"/>
-        <v>41</v>
-      </c>
-      <c r="B14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="D14" s="3" t="s">
         <v>32</v>
       </c>
@@ -2464,11 +2355,11 @@
         <v>32</v>
       </c>
       <c r="G14" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H14" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="I14" s="3" t="s">
         <v>32</v>
       </c>
@@ -2476,17 +2367,13 @@
         <v>32</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>39</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
       <c r="O14" s="3"/>
       <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
@@ -2498,42 +2385,40 @@
       <c r="W14" s="3"/>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A15" s="8">
+      <c r="A15" s="3"/>
+      <c r="B15" s="8">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="C15" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="D15" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="F15" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="G15" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H15" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="I15" s="3" t="s">
         <v>32</v>
       </c>
       <c r="J15" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K15" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="L15" s="3" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
@@ -2548,30 +2433,28 @@
       <c r="W15" s="3"/>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A16" s="8">
+      <c r="A16" s="3"/>
+      <c r="B16" s="8">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="C16" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="D16" s="3" t="s">
         <v>32</v>
       </c>
       <c r="E16" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>33</v>
       </c>
       <c r="G16" s="3" t="s">
         <v>33</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I16" s="3" t="s">
         <v>32</v>
@@ -2583,7 +2466,7 @@
         <v>32</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
@@ -2598,15 +2481,13 @@
       <c r="W16" s="3"/>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A17" s="8">
+      <c r="A17" s="3"/>
+      <c r="B17" s="8">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="C17" s="3" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>33</v>
@@ -2615,7 +2496,7 @@
         <v>33</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>32</v>
@@ -2624,16 +2505,16 @@
         <v>32</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>33</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
@@ -2648,16 +2529,14 @@
       <c r="W17" s="3"/>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A18" s="8">
+      <c r="A18" s="3"/>
+      <c r="B18" s="8">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="C18" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="D18" s="3" t="s">
         <v>32</v>
       </c>
@@ -2671,19 +2550,19 @@
         <v>32</v>
       </c>
       <c r="H18" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I18" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="I18" s="3" t="s">
+      <c r="J18" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="K18" s="3" t="s">
         <v>32</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
@@ -2698,25 +2577,23 @@
       <c r="W18" s="3"/>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A19" s="8">
+      <c r="A19" s="3"/>
+      <c r="B19" s="8">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="C19" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="D19" s="3" t="s">
         <v>32</v>
       </c>
       <c r="E19" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F19" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F19" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="G19" s="3" t="s">
         <v>32</v>
       </c>
@@ -2733,7 +2610,7 @@
         <v>32</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
@@ -2748,34 +2625,32 @@
       <c r="W19" s="3"/>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A20" s="8">
+      <c r="A20" s="3"/>
+      <c r="B20" s="8">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="C20" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="D20" s="3" t="s">
         <v>32</v>
       </c>
       <c r="E20" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F20" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="G20" s="3" t="s">
         <v>32</v>
       </c>
       <c r="H20" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I20" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="J20" s="3" t="s">
         <v>32</v>
       </c>
@@ -2783,7 +2658,7 @@
         <v>32</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
@@ -2798,16 +2673,14 @@
       <c r="W20" s="3"/>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A21" s="8">
+      <c r="A21" s="3"/>
+      <c r="B21" s="8">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="C21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="D21" s="3" t="s">
         <v>32</v>
       </c>
@@ -2833,7 +2706,7 @@
         <v>32</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
@@ -2848,16 +2721,16 @@
       <c r="W21" s="3"/>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A22" s="8">
-        <f t="shared" si="0"/>
-        <v>57</v>
-      </c>
-      <c r="B22" s="3" t="s">
+      <c r="A22" s="3">
+        <v>5</v>
+      </c>
+      <c r="B22" s="8">
+        <f>SUM(D48:W48)+A22</f>
+        <v>47</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="D22" s="3" t="s">
         <v>32</v>
       </c>
@@ -2868,11 +2741,11 @@
         <v>32</v>
       </c>
       <c r="G22" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H22" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="I22" s="3" t="s">
         <v>32</v>
       </c>
@@ -2885,12 +2758,8 @@
       <c r="L22" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="N22" s="3" t="s">
-        <v>32</v>
-      </c>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
       <c r="O22" s="3"/>
       <c r="P22" s="3"/>
       <c r="Q22" s="3"/>
@@ -2902,16 +2771,16 @@
       <c r="W22" s="3"/>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A23" s="8">
-        <f t="shared" si="0"/>
-        <v>52</v>
-      </c>
-      <c r="B23" s="3" t="s">
+      <c r="A23" s="3">
+        <v>4</v>
+      </c>
+      <c r="B23" s="8">
+        <f t="shared" ref="B23:B24" si="1">SUM(D49:W49)+A23</f>
+        <v>47</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="D23" s="3" t="s">
         <v>32</v>
       </c>
@@ -2922,29 +2791,25 @@
         <v>32</v>
       </c>
       <c r="G23" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H23" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="H23" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="I23" s="3" t="s">
         <v>32</v>
       </c>
       <c r="J23" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K23" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="L23" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="M23" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="N23" s="3" t="s">
-        <v>39</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
       <c r="O23" s="3"/>
       <c r="P23" s="3"/>
       <c r="Q23" s="3"/>
@@ -2956,16 +2821,16 @@
       <c r="W23" s="3"/>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A24" s="8">
-        <f t="shared" si="0"/>
-        <v>53</v>
-      </c>
-      <c r="B24" s="3" t="s">
+      <c r="A24" s="3">
+        <v>4</v>
+      </c>
+      <c r="B24" s="8">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="D24" s="3" t="s">
         <v>32</v>
       </c>
@@ -2991,14 +2856,10 @@
         <v>32</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="M24" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="N24" s="3" t="s">
-        <v>39</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
       <c r="O24" s="3"/>
       <c r="P24" s="3"/>
       <c r="Q24" s="3"/>
@@ -3010,16 +2871,13 @@
       <c r="W24" s="3"/>
     </row>
     <row r="25" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="14">
-        <f>SUM(C25:W25)</f>
-        <v>0</v>
-      </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="14">
+        <f>SUM(D25:W25)</f>
+        <v>0</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="3">
-        <v>0</v>
-      </c>
       <c r="D25" s="3">
         <v>0</v>
       </c>
@@ -3053,8 +2911,12 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-      <c r="O25" s="3"/>
-      <c r="P25" s="3"/>
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
       <c r="Q25" s="3"/>
       <c r="R25" s="3"/>
       <c r="S25" s="3"/>
@@ -3064,16 +2926,13 @@
       <c r="W25" s="3"/>
     </row>
     <row r="26" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="15">
-        <f>SUM(C26:W26)</f>
-        <v>60</v>
-      </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="15">
+        <f>SUM(D26:W26)</f>
+        <v>65</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C26" s="3">
-        <v>5</v>
-      </c>
       <c r="D26" s="3">
         <v>5</v>
       </c>
@@ -3107,8 +2966,12 @@
       <c r="N26" s="3">
         <v>5</v>
       </c>
-      <c r="O26" s="3"/>
-      <c r="P26" s="3"/>
+      <c r="O26" s="3">
+        <v>5</v>
+      </c>
+      <c r="P26" s="3">
+        <v>5</v>
+      </c>
       <c r="Q26" s="3"/>
       <c r="R26" s="3"/>
       <c r="S26" s="3"/>
@@ -3117,2083 +2980,1992 @@
       <c r="V26" s="3"/>
       <c r="W26" s="3"/>
     </row>
+    <row r="27" spans="1:23" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="28" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="8"/>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="8"/>
+      <c r="C28" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C28" s="3">
-        <f t="shared" ref="C28:W28" si="1">IF(C2="A",5,IF(C2="b",4,IF(C2="C",2,IF(C2="D",1,0))))</f>
+      <c r="D28" s="3">
+        <f t="shared" ref="D28:W28" si="2">IF(D2="A",5,IF(D2="b",4,IF(D2="C",2,IF(D2="D",1,0))))</f>
         <v>4</v>
       </c>
-      <c r="D28" s="3">
-        <f t="shared" si="1"/>
+      <c r="E28" s="3">
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="E28" s="3">
-        <f t="shared" si="1"/>
+      <c r="F28" s="3">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="F28" s="3">
-        <f t="shared" si="1"/>
+      <c r="G28" s="3">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G28" s="3">
-        <f t="shared" si="1"/>
+      <c r="H28" s="3">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="H28" s="3">
-        <f t="shared" si="1"/>
+      <c r="I28" s="3">
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="I28" s="3">
-        <f t="shared" si="1"/>
+      <c r="J28" s="3">
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="J28" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
       <c r="K28" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L28" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M28" s="3">
-        <f t="shared" ref="M28:N28" si="2">IF(M2="A",5,IF(M2="b",4,IF(M2="C",2,IF(M2="D",1,0))))</f>
+        <f t="shared" ref="M28:N28" si="3">IF(M2="A",5,IF(M2="b",4,IF(M2="C",2,IF(M2="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="N28" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O28" s="3">
+        <f t="shared" ref="O28:P28" si="4">IF(O2="A",5,IF(O2="b",4,IF(O2="C",2,IF(O2="D",1,0))))</f>
+        <v>0</v>
+      </c>
+      <c r="P28" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q28" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O28" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P28" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q28" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
       <c r="R28" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S28" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T28" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U28" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="V28" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W28" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="8"/>
-      <c r="B29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C29" s="3">
-        <f t="shared" ref="C29:W29" si="3">IF(C3="A",5,IF(C3="b",4,IF(C3="C",2,IF(C3="D",1,0))))</f>
+      <c r="B29" s="8"/>
+      <c r="C29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" s="3">
+        <f t="shared" ref="D29:W29" si="5">IF(D3="A",5,IF(D3="b",4,IF(D3="C",2,IF(D3="D",1,0))))</f>
         <v>2</v>
       </c>
-      <c r="D29" s="3">
-        <f t="shared" si="3"/>
+      <c r="E29" s="3">
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="E29" s="3">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
       <c r="F29" s="3">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="G29" s="3">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="H29" s="3">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="I29" s="3">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="J29" s="3">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="K29" s="3">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="L29" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M29" s="3">
-        <f t="shared" ref="M29:N29" si="4">IF(M3="A",5,IF(M3="b",4,IF(M3="C",2,IF(M3="D",1,0))))</f>
-        <v>0</v>
-      </c>
-      <c r="N29" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="O29" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P29" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Q29" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="R29" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="S29" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="T29" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U29" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="V29" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="W29" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="8"/>
-      <c r="B30" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C30" s="3">
-        <f t="shared" ref="C30:W30" si="5">IF(C4="A",5,IF(C4="b",4,IF(C4="C",2,IF(C4="D",1,0))))</f>
-        <v>5</v>
-      </c>
-      <c r="D30" s="3">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="E30" s="3">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="F30" s="3">
+      <c r="G29" s="3">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="H29" s="3">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I29" s="3">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="J29" s="3">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="K29" s="3">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="L29" s="3">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
+      <c r="M29" s="3">
+        <f t="shared" ref="M29:N29" si="6">IF(M3="A",5,IF(M3="b",4,IF(M3="C",2,IF(M3="D",1,0))))</f>
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
+        <f t="shared" ref="O29:P29" si="7">IF(O3="A",5,IF(O3="b",4,IF(O3="C",2,IF(O3="D",1,0))))</f>
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="W29" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="8"/>
+      <c r="C30" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" s="3">
+        <f t="shared" ref="D30:W30" si="8">IF(D4="A",5,IF(D4="b",4,IF(D4="C",2,IF(D4="D",1,0))))</f>
+        <v>5</v>
+      </c>
+      <c r="E30" s="3">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="F30" s="3">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
       <c r="G30" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="H30" s="3">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="H30" s="3">
-        <f t="shared" si="5"/>
+      <c r="I30" s="3">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="I30" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
       <c r="J30" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K30" s="3">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="K30" s="3">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
       <c r="L30" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>5</v>
       </c>
       <c r="M30" s="3">
-        <f t="shared" ref="M30:N30" si="6">IF(M4="A",5,IF(M4="b",4,IF(M4="C",2,IF(M4="D",1,0))))</f>
+        <f t="shared" ref="M30:N30" si="9">IF(M4="A",5,IF(M4="b",4,IF(M4="C",2,IF(M4="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="N30" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O30" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="O30:P30" si="10">IF(O4="A",5,IF(O4="b",4,IF(O4="C",2,IF(O4="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="P30" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Q30" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="R30" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="S30" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="T30" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="U30" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="V30" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="W30" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="8"/>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="8"/>
+      <c r="C31" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C31" s="3">
-        <f t="shared" ref="C31:W31" si="7">IF(C5="A",5,IF(C5="b",4,IF(C5="C",2,IF(C5="D",1,0))))</f>
-        <v>5</v>
-      </c>
       <c r="D31" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="D31:W31" si="11">IF(D5="A",5,IF(D5="b",4,IF(D5="C",2,IF(D5="D",1,0))))</f>
         <v>5</v>
       </c>
       <c r="E31" s="3">
-        <f t="shared" si="7"/>
-        <v>2</v>
+        <f t="shared" si="11"/>
+        <v>5</v>
       </c>
       <c r="F31" s="3">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="G31" s="3">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="H31" s="3">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="I31" s="3">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="J31" s="3">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="K31" s="3">
-        <f t="shared" si="7"/>
-        <v>5</v>
-      </c>
-      <c r="L31" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="M31" s="3">
-        <f t="shared" ref="M31:N31" si="8">IF(M5="A",5,IF(M5="b",4,IF(M5="C",2,IF(M5="D",1,0))))</f>
-        <v>0</v>
-      </c>
-      <c r="N31" s="3">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="O31" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="P31" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Q31" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="R31" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="S31" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="T31" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="U31" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="V31" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="W31" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="8"/>
-      <c r="B32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C32" s="3">
-        <f t="shared" ref="C32:W32" si="9">IF(C6="A",5,IF(C6="b",4,IF(C6="C",2,IF(C6="D",1,0))))</f>
-        <v>2</v>
-      </c>
-      <c r="D32" s="3">
-        <f t="shared" si="9"/>
-        <v>5</v>
-      </c>
-      <c r="E32" s="3">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="F32" s="3">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="G32" s="3">
-        <f t="shared" si="9"/>
-        <v>2</v>
-      </c>
-      <c r="H32" s="3">
-        <f t="shared" si="9"/>
-        <v>5</v>
-      </c>
-      <c r="I32" s="3">
-        <f t="shared" si="9"/>
-        <v>5</v>
-      </c>
-      <c r="J32" s="3">
-        <f t="shared" si="9"/>
-        <v>4</v>
-      </c>
-      <c r="K32" s="3">
-        <f t="shared" si="9"/>
-        <v>5</v>
-      </c>
-      <c r="L32" s="3">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="M32" s="3">
-        <f t="shared" ref="M32:N32" si="10">IF(M6="A",5,IF(M6="b",4,IF(M6="C",2,IF(M6="D",1,0))))</f>
-        <v>0</v>
-      </c>
-      <c r="N32" s="3">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="O32" s="3">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="P32" s="3">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="Q32" s="3">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="R32" s="3">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="S32" s="3">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="T32" s="3">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="U32" s="3">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="V32" s="3">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="W32" s="3">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="8"/>
-      <c r="B33" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C33" s="3">
-        <f t="shared" ref="C33:W33" si="11">IF(C7="A",5,IF(C7="b",4,IF(C7="C",2,IF(C7="D",1,0))))</f>
-        <v>4</v>
-      </c>
-      <c r="D33" s="3">
         <f t="shared" si="11"/>
         <v>2</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G31" s="3">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="H31" s="3">
         <f t="shared" si="11"/>
         <v>2</v>
       </c>
+      <c r="I31" s="3">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="J31" s="3">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="K31" s="3">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="L31" s="3">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
+      <c r="M31" s="3">
+        <f t="shared" ref="M31:N31" si="12">IF(M5="A",5,IF(M5="b",4,IF(M5="C",2,IF(M5="D",1,0))))</f>
+        <v>0</v>
+      </c>
+      <c r="N31" s="3">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="O31" s="3">
+        <f t="shared" ref="O31:P31" si="13">IF(O5="A",5,IF(O5="b",4,IF(O5="C",2,IF(O5="D",1,0))))</f>
+        <v>0</v>
+      </c>
+      <c r="P31" s="3">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q31" s="3">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="T31" s="3">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="U31" s="3">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="V31" s="3">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="W31" s="3">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="8"/>
+      <c r="C32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" s="3">
+        <f t="shared" ref="D32:W32" si="14">IF(D6="A",5,IF(D6="b",4,IF(D6="C",2,IF(D6="D",1,0))))</f>
+        <v>2</v>
+      </c>
+      <c r="E32" s="3">
+        <f t="shared" si="14"/>
+        <v>5</v>
+      </c>
+      <c r="F32" s="3">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="G32" s="3">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="H32" s="3">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="I32" s="3">
+        <f t="shared" si="14"/>
+        <v>5</v>
+      </c>
+      <c r="J32" s="3">
+        <f t="shared" si="14"/>
+        <v>5</v>
+      </c>
+      <c r="K32" s="3">
+        <f t="shared" si="14"/>
+        <v>4</v>
+      </c>
+      <c r="L32" s="3">
+        <f t="shared" si="14"/>
+        <v>5</v>
+      </c>
+      <c r="M32" s="3">
+        <f t="shared" ref="M32:N32" si="15">IF(M6="A",5,IF(M6="b",4,IF(M6="C",2,IF(M6="D",1,0))))</f>
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
+        <f t="shared" ref="O32:P32" si="16">IF(O6="A",5,IF(O6="b",4,IF(O6="C",2,IF(O6="D",1,0))))</f>
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="W32" s="3">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="8"/>
+      <c r="C33" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" s="3">
+        <f t="shared" ref="D33:W33" si="17">IF(D7="A",5,IF(D7="b",4,IF(D7="C",2,IF(D7="D",1,0))))</f>
+        <v>4</v>
+      </c>
+      <c r="E33" s="3">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
       <c r="F33" s="3">
-        <f t="shared" si="11"/>
-        <v>4</v>
+        <f t="shared" si="17"/>
+        <v>2</v>
       </c>
       <c r="G33" s="3">
-        <f t="shared" si="11"/>
-        <v>5</v>
-      </c>
-      <c r="H33" s="3">
-        <f t="shared" si="11"/>
-        <v>4</v>
-      </c>
-      <c r="I33" s="3">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="J33" s="3">
-        <f t="shared" si="11"/>
-        <v>4</v>
-      </c>
-      <c r="K33" s="3">
-        <f t="shared" si="11"/>
-        <v>5</v>
-      </c>
-      <c r="L33" s="3">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="M33" s="3">
-        <f t="shared" ref="M33:N33" si="12">IF(M7="A",5,IF(M7="b",4,IF(M7="C",2,IF(M7="D",1,0))))</f>
-        <v>0</v>
-      </c>
-      <c r="N33" s="3">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="O33" s="3">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="P33" s="3">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="Q33" s="3">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="R33" s="3">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="S33" s="3">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="T33" s="3">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="U33" s="3">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="V33" s="3">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="W33" s="3">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="8"/>
-      <c r="B34" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C34" s="3">
-        <f t="shared" ref="C34:W34" si="13">IF(C8="A",5,IF(C8="b",4,IF(C8="C",2,IF(C8="D",1,0))))</f>
-        <v>5</v>
-      </c>
-      <c r="D34" s="3">
-        <f t="shared" si="13"/>
-        <v>5</v>
-      </c>
-      <c r="E34" s="3">
-        <f t="shared" si="13"/>
-        <v>2</v>
-      </c>
-      <c r="F34" s="3">
-        <f t="shared" si="13"/>
-        <v>2</v>
-      </c>
-      <c r="G34" s="3">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="H34" s="3">
-        <f t="shared" si="13"/>
-        <v>5</v>
-      </c>
-      <c r="I34" s="3">
-        <f t="shared" si="13"/>
-        <v>5</v>
-      </c>
-      <c r="J34" s="3">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="K34" s="3">
-        <f t="shared" si="13"/>
-        <v>4</v>
-      </c>
-      <c r="L34" s="3">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="M34" s="3">
-        <f t="shared" ref="M34:N34" si="14">IF(M8="A",5,IF(M8="b",4,IF(M8="C",2,IF(M8="D",1,0))))</f>
-        <v>0</v>
-      </c>
-      <c r="N34" s="3">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="O34" s="3">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="P34" s="3">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="Q34" s="3">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="R34" s="3">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="S34" s="3">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="T34" s="3">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="U34" s="3">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="V34" s="3">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="W34" s="3">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="8"/>
-      <c r="B35" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C35" s="3">
-        <f t="shared" ref="C35:W35" si="15">IF(C9="A",5,IF(C9="b",4,IF(C9="C",2,IF(C9="D",1,0))))</f>
-        <v>5</v>
-      </c>
-      <c r="D35" s="3">
-        <f t="shared" si="15"/>
-        <v>4</v>
-      </c>
-      <c r="E35" s="3">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="F35" s="3">
-        <f t="shared" si="15"/>
-        <v>4</v>
-      </c>
-      <c r="G35" s="3">
-        <f t="shared" si="15"/>
-        <v>4</v>
-      </c>
-      <c r="H35" s="3">
-        <f t="shared" si="15"/>
-        <v>2</v>
-      </c>
-      <c r="I35" s="3">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="J35" s="3">
-        <f t="shared" si="15"/>
-        <v>5</v>
-      </c>
-      <c r="K35" s="3">
-        <f t="shared" si="15"/>
-        <v>5</v>
-      </c>
-      <c r="L35" s="3">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="M35" s="3">
-        <f t="shared" ref="M35:N35" si="16">IF(M9="A",5,IF(M9="b",4,IF(M9="C",2,IF(M9="D",1,0))))</f>
-        <v>0</v>
-      </c>
-      <c r="N35" s="3">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="O35" s="3">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="P35" s="3">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="Q35" s="3">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="R35" s="3">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="S35" s="3">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="T35" s="3">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="U35" s="3">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="V35" s="3">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="W35" s="3">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="8"/>
-      <c r="B36" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C36" s="3">
-        <f t="shared" ref="C36:W36" si="17">IF(C10="A",5,IF(C10="b",4,IF(C10="C",2,IF(C10="D",1,0))))</f>
-        <v>5</v>
-      </c>
-      <c r="D36" s="3">
         <f t="shared" si="17"/>
         <v>4</v>
       </c>
-      <c r="E36" s="3">
+      <c r="H33" s="3">
         <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-      <c r="F36" s="3">
-        <f t="shared" si="17"/>
-        <v>2</v>
-      </c>
-      <c r="G36" s="3">
-        <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-      <c r="H36" s="3">
-        <f t="shared" si="17"/>
-        <v>5</v>
-      </c>
-      <c r="I36" s="3">
+        <v>5</v>
+      </c>
+      <c r="I33" s="3">
         <f t="shared" si="17"/>
         <v>4</v>
       </c>
-      <c r="J36" s="3">
+      <c r="J33" s="3">
         <f t="shared" si="17"/>
-        <v>5</v>
-      </c>
-      <c r="K36" s="3">
+        <v>0</v>
+      </c>
+      <c r="K33" s="3">
         <f t="shared" si="17"/>
-        <v>5</v>
-      </c>
-      <c r="L36" s="3">
+        <v>4</v>
+      </c>
+      <c r="L33" s="3">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="M36" s="3">
-        <f t="shared" ref="M36:N36" si="18">IF(M10="A",5,IF(M10="b",4,IF(M10="C",2,IF(M10="D",1,0))))</f>
-        <v>0</v>
-      </c>
-      <c r="N36" s="3">
+        <v>5</v>
+      </c>
+      <c r="M33" s="3">
+        <f t="shared" ref="M33:N33" si="18">IF(M7="A",5,IF(M7="b",4,IF(M7="C",2,IF(M7="D",1,0))))</f>
+        <v>0</v>
+      </c>
+      <c r="N33" s="3">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="O36" s="3">
+      <c r="O33" s="3">
+        <f t="shared" ref="O33:P33" si="19">IF(O7="A",5,IF(O7="b",4,IF(O7="C",2,IF(O7="D",1,0))))</f>
+        <v>0</v>
+      </c>
+      <c r="P33" s="3">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="Q33" s="3">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="P36" s="3">
+      <c r="R33" s="3">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="Q36" s="3">
+      <c r="S33" s="3">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="R36" s="3">
+      <c r="T33" s="3">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="S36" s="3">
+      <c r="U33" s="3">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="T36" s="3">
+      <c r="V33" s="3">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="U36" s="3">
+      <c r="W33" s="3">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="V36" s="3">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="W36" s="3">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="8"/>
-      <c r="B37" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C37" s="3">
-        <f t="shared" ref="C37:W37" si="19">IF(C11="A",5,IF(C11="b",4,IF(C11="C",2,IF(C11="D",1,0))))</f>
-        <v>5</v>
-      </c>
-      <c r="D37" s="3">
-        <f t="shared" si="19"/>
-        <v>5</v>
-      </c>
-      <c r="E37" s="3">
-        <f t="shared" si="19"/>
+    </row>
+    <row r="34" spans="2:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="8"/>
+      <c r="C34" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34" s="3">
+        <f t="shared" ref="D34:W34" si="20">IF(D8="A",5,IF(D8="b",4,IF(D8="C",2,IF(D8="D",1,0))))</f>
+        <v>5</v>
+      </c>
+      <c r="E34" s="3">
+        <f t="shared" si="20"/>
+        <v>5</v>
+      </c>
+      <c r="F34" s="3">
+        <f t="shared" si="20"/>
         <v>2</v>
       </c>
-      <c r="F37" s="3">
-        <f t="shared" si="19"/>
+      <c r="G34" s="3">
+        <f t="shared" si="20"/>
         <v>2</v>
       </c>
-      <c r="G37" s="3">
-        <f t="shared" si="19"/>
-        <v>2</v>
-      </c>
-      <c r="H37" s="3">
-        <f t="shared" si="19"/>
-        <v>5</v>
-      </c>
-      <c r="I37" s="3">
-        <f t="shared" si="19"/>
+      <c r="H34" s="3">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="I34" s="3">
+        <f t="shared" si="20"/>
+        <v>5</v>
+      </c>
+      <c r="J34" s="3">
+        <f t="shared" si="20"/>
+        <v>5</v>
+      </c>
+      <c r="K34" s="3">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="L34" s="3">
+        <f t="shared" si="20"/>
         <v>4</v>
       </c>
-      <c r="J37" s="3">
-        <f t="shared" si="19"/>
-        <v>2</v>
-      </c>
-      <c r="K37" s="3">
-        <f t="shared" si="19"/>
-        <v>5</v>
-      </c>
-      <c r="L37" s="3">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="M37" s="3">
-        <f t="shared" ref="M37:N37" si="20">IF(M11="A",5,IF(M11="b",4,IF(M11="C",2,IF(M11="D",1,0))))</f>
-        <v>0</v>
-      </c>
-      <c r="N37" s="3">
+      <c r="M34" s="3">
+        <f t="shared" ref="M34:N34" si="21">IF(M8="A",5,IF(M8="b",4,IF(M8="C",2,IF(M8="D",1,0))))</f>
+        <v>0</v>
+      </c>
+      <c r="N34" s="3">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="O34" s="3">
+        <f t="shared" ref="O34:P34" si="22">IF(O8="A",5,IF(O8="b",4,IF(O8="C",2,IF(O8="D",1,0))))</f>
+        <v>0</v>
+      </c>
+      <c r="P34" s="3">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="Q34" s="3">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="O37" s="3">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="P37" s="3">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="Q37" s="3">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="R37" s="3">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="S37" s="3">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="T37" s="3">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="U37" s="3">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="V37" s="3">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="W37" s="3">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="8"/>
-      <c r="B38" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C38" s="3">
-        <f t="shared" ref="C38:W38" si="21">IF(C12="A",5,IF(C12="b",4,IF(C12="C",2,IF(C12="D",1,0))))</f>
-        <v>5</v>
-      </c>
-      <c r="D38" s="3">
-        <f t="shared" si="21"/>
-        <v>4</v>
-      </c>
-      <c r="E38" s="3">
-        <f t="shared" si="21"/>
-        <v>2</v>
-      </c>
-      <c r="F38" s="3">
-        <f t="shared" si="21"/>
-        <v>5</v>
-      </c>
-      <c r="G38" s="3">
-        <f t="shared" si="21"/>
-        <v>1</v>
-      </c>
-      <c r="H38" s="3">
-        <f t="shared" si="21"/>
-        <v>5</v>
-      </c>
-      <c r="I38" s="3">
-        <f t="shared" si="21"/>
-        <v>4</v>
-      </c>
-      <c r="J38" s="3">
-        <f t="shared" si="21"/>
-        <v>5</v>
-      </c>
-      <c r="K38" s="3">
-        <f t="shared" si="21"/>
-        <v>5</v>
-      </c>
-      <c r="L38" s="3">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="M38" s="3">
-        <f t="shared" ref="M38:N38" si="22">IF(M12="A",5,IF(M12="b",4,IF(M12="C",2,IF(M12="D",1,0))))</f>
-        <v>0</v>
-      </c>
-      <c r="N38" s="3">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="O38" s="3">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="P38" s="3">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="Q38" s="3">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="R38" s="3">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="S38" s="3">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="T38" s="3">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="U38" s="3">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="V38" s="3">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="W38" s="3">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="8"/>
-      <c r="B39" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C39" s="3">
-        <f t="shared" ref="C39:W39" si="23">IF(C13="A",5,IF(C13="b",4,IF(C13="C",2,IF(C13="D",1,0))))</f>
-        <v>4</v>
-      </c>
-      <c r="D39" s="3">
+      <c r="R34" s="3">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="T34" s="3">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="U34" s="3">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="V34" s="3">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="W34" s="3">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="8"/>
+      <c r="C35" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D35" s="3">
+        <f t="shared" ref="D35:W35" si="23">IF(D9="A",5,IF(D9="b",4,IF(D9="C",2,IF(D9="D",1,0))))</f>
+        <v>5</v>
+      </c>
+      <c r="E35" s="3">
         <f t="shared" si="23"/>
         <v>4</v>
       </c>
-      <c r="E39" s="3">
+      <c r="F35" s="3">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="G35" s="3">
         <f t="shared" si="23"/>
         <v>4</v>
       </c>
-      <c r="F39" s="3">
+      <c r="H35" s="3">
         <f t="shared" si="23"/>
-        <v>5</v>
-      </c>
-      <c r="G39" s="3">
+        <v>4</v>
+      </c>
+      <c r="I35" s="3">
+        <f t="shared" si="23"/>
+        <v>2</v>
+      </c>
+      <c r="J35" s="3">
         <f t="shared" si="23"/>
         <v>1</v>
       </c>
-      <c r="H39" s="3">
+      <c r="K35" s="3">
         <f t="shared" si="23"/>
         <v>5</v>
       </c>
-      <c r="I39" s="3">
+      <c r="L35" s="3">
         <f t="shared" si="23"/>
+        <v>5</v>
+      </c>
+      <c r="M35" s="3">
+        <f t="shared" ref="M35:N35" si="24">IF(M9="A",5,IF(M9="b",4,IF(M9="C",2,IF(M9="D",1,0))))</f>
+        <v>0</v>
+      </c>
+      <c r="N35" s="3">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="O35" s="3">
+        <f t="shared" ref="O35:P35" si="25">IF(O9="A",5,IF(O9="b",4,IF(O9="C",2,IF(O9="D",1,0))))</f>
+        <v>0</v>
+      </c>
+      <c r="P35" s="3">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="Q35" s="3">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="R35" s="3">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="S35" s="3">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="T35" s="3">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="U35" s="3">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="V35" s="3">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="W35" s="3">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="8"/>
+      <c r="C36" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D36" s="3">
+        <f t="shared" ref="D36:W36" si="26">IF(D10="A",5,IF(D10="b",4,IF(D10="C",2,IF(D10="D",1,0))))</f>
+        <v>5</v>
+      </c>
+      <c r="E36" s="3">
+        <f t="shared" si="26"/>
         <v>4</v>
       </c>
-      <c r="J39" s="3">
-        <f t="shared" si="23"/>
+      <c r="F36" s="3">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="G36" s="3">
+        <f t="shared" si="26"/>
+        <v>2</v>
+      </c>
+      <c r="H36" s="3">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="I36" s="3">
+        <f t="shared" si="26"/>
+        <v>5</v>
+      </c>
+      <c r="J36" s="3">
+        <f t="shared" si="26"/>
         <v>4</v>
       </c>
-      <c r="K39" s="3">
-        <f t="shared" si="23"/>
-        <v>5</v>
-      </c>
-      <c r="L39" s="3">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="M39" s="3">
-        <f t="shared" ref="M39:N39" si="24">IF(M13="A",5,IF(M13="b",4,IF(M13="C",2,IF(M13="D",1,0))))</f>
-        <v>0</v>
-      </c>
-      <c r="N39" s="3">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="O39" s="3">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="P39" s="3">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="Q39" s="3">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="R39" s="3">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="S39" s="3">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="T39" s="3">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="U39" s="3">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="V39" s="3">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="W39" s="3">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="8"/>
-      <c r="B40" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C40" s="3">
-        <f t="shared" ref="C40:W40" si="25">IF(C14="A",5,IF(C14="b",4,IF(C14="C",2,IF(C14="D",1,0))))</f>
-        <v>5</v>
-      </c>
-      <c r="D40" s="3">
-        <f t="shared" si="25"/>
-        <v>5</v>
-      </c>
-      <c r="E40" s="3">
-        <f t="shared" si="25"/>
-        <v>5</v>
-      </c>
-      <c r="F40" s="3">
-        <f t="shared" si="25"/>
-        <v>5</v>
-      </c>
-      <c r="G40" s="3">
-        <f t="shared" si="25"/>
-        <v>1</v>
-      </c>
-      <c r="H40" s="3">
-        <f t="shared" si="25"/>
-        <v>5</v>
-      </c>
-      <c r="I40" s="3">
-        <f t="shared" si="25"/>
-        <v>5</v>
-      </c>
-      <c r="J40" s="3">
-        <f t="shared" si="25"/>
-        <v>5</v>
-      </c>
-      <c r="K40" s="3">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="L40" s="3">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="M40" s="3">
-        <f t="shared" ref="M40:N40" si="26">IF(M14="A",5,IF(M14="b",4,IF(M14="C",2,IF(M14="D",1,0))))</f>
-        <v>5</v>
-      </c>
-      <c r="N40" s="3">
+      <c r="K36" s="3">
         <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="O40" s="3">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="P40" s="3">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="Q40" s="3">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="R40" s="3">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="S40" s="3">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="T40" s="3">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="U40" s="3">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="V40" s="3">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="W40" s="3">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="8"/>
-      <c r="B41" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C41" s="3">
-        <f t="shared" ref="C41:W41" si="27">IF(C15="A",5,IF(C15="b",4,IF(C15="C",2,IF(C15="D",1,0))))</f>
-        <v>5</v>
-      </c>
-      <c r="D41" s="3">
+        <v>5</v>
+      </c>
+      <c r="L36" s="3">
+        <f t="shared" si="26"/>
+        <v>5</v>
+      </c>
+      <c r="M36" s="3">
+        <f t="shared" ref="M36:N36" si="27">IF(M10="A",5,IF(M10="b",4,IF(M10="C",2,IF(M10="D",1,0))))</f>
+        <v>0</v>
+      </c>
+      <c r="N36" s="3">
         <f t="shared" si="27"/>
-        <v>4</v>
-      </c>
-      <c r="E41" s="3">
-        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="O36" s="3">
+        <f t="shared" ref="O36:P36" si="28">IF(O10="A",5,IF(O10="b",4,IF(O10="C",2,IF(O10="D",1,0))))</f>
+        <v>0</v>
+      </c>
+      <c r="P36" s="3">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="Q36" s="3">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="R36" s="3">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="S36" s="3">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="T36" s="3">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="U36" s="3">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="V36" s="3">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="W36" s="3">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="8"/>
+      <c r="C37" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D37" s="3">
+        <f t="shared" ref="D37:W37" si="29">IF(D11="A",5,IF(D11="b",4,IF(D11="C",2,IF(D11="D",1,0))))</f>
+        <v>5</v>
+      </c>
+      <c r="E37" s="3">
+        <f t="shared" si="29"/>
+        <v>5</v>
+      </c>
+      <c r="F37" s="3">
+        <f t="shared" si="29"/>
         <v>2</v>
       </c>
-      <c r="F41" s="3">
-        <f t="shared" si="27"/>
-        <v>5</v>
-      </c>
-      <c r="G41" s="3">
-        <f t="shared" si="27"/>
+      <c r="G37" s="3">
+        <f t="shared" si="29"/>
         <v>2</v>
       </c>
-      <c r="H41" s="3">
-        <f t="shared" si="27"/>
-        <v>5</v>
-      </c>
-      <c r="I41" s="3">
-        <f t="shared" si="27"/>
-        <v>5</v>
-      </c>
-      <c r="J41" s="3">
-        <f t="shared" si="27"/>
-        <v>4</v>
-      </c>
-      <c r="K41" s="3">
-        <f t="shared" si="27"/>
-        <v>5</v>
-      </c>
-      <c r="L41" s="3">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="M41" s="3">
-        <f t="shared" ref="M41:N41" si="28">IF(M15="A",5,IF(M15="b",4,IF(M15="C",2,IF(M15="D",1,0))))</f>
-        <v>0</v>
-      </c>
-      <c r="N41" s="3">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="O41" s="3">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="P41" s="3">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="Q41" s="3">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="R41" s="3">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="S41" s="3">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="T41" s="3">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="U41" s="3">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="V41" s="3">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="W41" s="3">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="8"/>
-      <c r="B42" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C42" s="3">
-        <f t="shared" ref="C42:W42" si="29">IF(C16="A",5,IF(C16="b",4,IF(C16="C",2,IF(C16="D",1,0))))</f>
-        <v>5</v>
-      </c>
-      <c r="D42" s="3">
+      <c r="H37" s="3">
         <f t="shared" si="29"/>
-        <v>5</v>
-      </c>
-      <c r="E42" s="3">
+        <v>2</v>
+      </c>
+      <c r="I37" s="3">
         <f t="shared" si="29"/>
-        <v>1</v>
-      </c>
-      <c r="F42" s="3">
+        <v>5</v>
+      </c>
+      <c r="J37" s="3">
         <f t="shared" si="29"/>
         <v>4</v>
       </c>
-      <c r="G42" s="3">
+      <c r="K37" s="3">
         <f t="shared" si="29"/>
+        <v>2</v>
+      </c>
+      <c r="L37" s="3">
+        <f t="shared" si="29"/>
+        <v>5</v>
+      </c>
+      <c r="M37" s="3">
+        <f t="shared" ref="M37:N37" si="30">IF(M11="A",5,IF(M11="b",4,IF(M11="C",2,IF(M11="D",1,0))))</f>
+        <v>0</v>
+      </c>
+      <c r="N37" s="3">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="O37" s="3">
+        <f t="shared" ref="O37:P37" si="31">IF(O11="A",5,IF(O11="b",4,IF(O11="C",2,IF(O11="D",1,0))))</f>
+        <v>0</v>
+      </c>
+      <c r="P37" s="3">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="Q37" s="3">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="R37" s="3">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="S37" s="3">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="T37" s="3">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="U37" s="3">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="V37" s="3">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="W37" s="3">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="8"/>
+      <c r="C38" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D38" s="3">
+        <f t="shared" ref="D38:W38" si="32">IF(D12="A",5,IF(D12="b",4,IF(D12="C",2,IF(D12="D",1,0))))</f>
+        <v>5</v>
+      </c>
+      <c r="E38" s="3">
+        <f t="shared" si="32"/>
         <v>4</v>
       </c>
-      <c r="H42" s="3">
-        <f t="shared" si="29"/>
-        <v>5</v>
-      </c>
-      <c r="I42" s="3">
-        <f t="shared" si="29"/>
-        <v>5</v>
-      </c>
-      <c r="J42" s="3">
-        <f t="shared" si="29"/>
-        <v>5</v>
-      </c>
-      <c r="K42" s="3">
-        <f t="shared" si="29"/>
-        <v>5</v>
-      </c>
-      <c r="L42" s="3">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="M42" s="3">
-        <f t="shared" ref="M42:N42" si="30">IF(M16="A",5,IF(M16="b",4,IF(M16="C",2,IF(M16="D",1,0))))</f>
-        <v>0</v>
-      </c>
-      <c r="N42" s="3">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="O42" s="3">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="P42" s="3">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="Q42" s="3">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="R42" s="3">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="S42" s="3">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="T42" s="3">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="U42" s="3">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="V42" s="3">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="W42" s="3">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="8"/>
-      <c r="B43" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C43" s="3">
-        <f t="shared" ref="C43:W43" si="31">IF(C17="A",5,IF(C17="b",4,IF(C17="C",2,IF(C17="D",1,0))))</f>
+      <c r="F38" s="3">
+        <f t="shared" si="32"/>
+        <v>2</v>
+      </c>
+      <c r="G38" s="3">
+        <f t="shared" si="32"/>
+        <v>5</v>
+      </c>
+      <c r="H38" s="3">
+        <f t="shared" si="32"/>
+        <v>1</v>
+      </c>
+      <c r="I38" s="3">
+        <f t="shared" si="32"/>
+        <v>5</v>
+      </c>
+      <c r="J38" s="3">
+        <f t="shared" si="32"/>
         <v>4</v>
       </c>
-      <c r="D43" s="3">
-        <f t="shared" si="31"/>
+      <c r="K38" s="3">
+        <f t="shared" si="32"/>
+        <v>5</v>
+      </c>
+      <c r="L38" s="3">
+        <f t="shared" si="32"/>
+        <v>5</v>
+      </c>
+      <c r="M38" s="3">
+        <f t="shared" ref="M38:N38" si="33">IF(M12="A",5,IF(M12="b",4,IF(M12="C",2,IF(M12="D",1,0))))</f>
+        <v>0</v>
+      </c>
+      <c r="N38" s="3">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="O38" s="3">
+        <f t="shared" ref="O38:P38" si="34">IF(O12="A",5,IF(O12="b",4,IF(O12="C",2,IF(O12="D",1,0))))</f>
+        <v>0</v>
+      </c>
+      <c r="P38" s="3">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="Q38" s="3">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="R38" s="3">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="S38" s="3">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="T38" s="3">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="U38" s="3">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="V38" s="3">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="W38" s="3">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="8"/>
+      <c r="C39" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D39" s="3">
+        <f t="shared" ref="D39:W39" si="35">IF(D13="A",5,IF(D13="b",4,IF(D13="C",2,IF(D13="D",1,0))))</f>
         <v>4</v>
       </c>
-      <c r="E43" s="3">
-        <f t="shared" si="31"/>
+      <c r="E39" s="3">
+        <f t="shared" si="35"/>
         <v>4</v>
       </c>
-      <c r="F43" s="3">
-        <f t="shared" si="31"/>
-        <v>5</v>
-      </c>
-      <c r="G43" s="3">
-        <f t="shared" si="31"/>
-        <v>5</v>
-      </c>
-      <c r="H43" s="3">
-        <f t="shared" si="31"/>
-        <v>5</v>
-      </c>
-      <c r="I43" s="3">
-        <f t="shared" si="31"/>
+      <c r="F39" s="3">
+        <f t="shared" si="35"/>
         <v>4</v>
       </c>
-      <c r="J43" s="3">
-        <f t="shared" si="31"/>
+      <c r="G39" s="3">
+        <f t="shared" si="35"/>
+        <v>5</v>
+      </c>
+      <c r="H39" s="3">
+        <f t="shared" si="35"/>
+        <v>1</v>
+      </c>
+      <c r="I39" s="3">
+        <f t="shared" si="35"/>
+        <v>5</v>
+      </c>
+      <c r="J39" s="3">
+        <f t="shared" si="35"/>
         <v>4</v>
       </c>
-      <c r="K43" s="3">
-        <f t="shared" si="31"/>
-        <v>5</v>
-      </c>
-      <c r="L43" s="3">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="M43" s="3">
-        <f t="shared" ref="M43:N43" si="32">IF(M17="A",5,IF(M17="b",4,IF(M17="C",2,IF(M17="D",1,0))))</f>
-        <v>0</v>
-      </c>
-      <c r="N43" s="3">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="O43" s="3">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="P43" s="3">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="Q43" s="3">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="R43" s="3">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="S43" s="3">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="T43" s="3">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="U43" s="3">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="V43" s="3">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="W43" s="3">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="8"/>
-      <c r="B44" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C44" s="3">
-        <f t="shared" ref="C44:W44" si="33">IF(C18="A",5,IF(C18="b",4,IF(C18="C",2,IF(C18="D",1,0))))</f>
-        <v>5</v>
-      </c>
-      <c r="D44" s="3">
-        <f t="shared" si="33"/>
-        <v>5</v>
-      </c>
-      <c r="E44" s="3">
-        <f t="shared" si="33"/>
-        <v>5</v>
-      </c>
-      <c r="F44" s="3">
-        <f t="shared" si="33"/>
-        <v>5</v>
-      </c>
-      <c r="G44" s="3">
-        <f t="shared" si="33"/>
-        <v>5</v>
-      </c>
-      <c r="H44" s="3">
-        <f t="shared" si="33"/>
-        <v>2</v>
-      </c>
-      <c r="I44" s="3">
-        <f t="shared" si="33"/>
+      <c r="K39" s="3">
+        <f t="shared" si="35"/>
         <v>4</v>
       </c>
-      <c r="J44" s="3">
-        <f t="shared" si="33"/>
-        <v>5</v>
-      </c>
-      <c r="K44" s="3">
-        <f t="shared" si="33"/>
-        <v>5</v>
-      </c>
-      <c r="L44" s="3">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="M44" s="3">
-        <f t="shared" ref="M44:N44" si="34">IF(M18="A",5,IF(M18="b",4,IF(M18="C",2,IF(M18="D",1,0))))</f>
-        <v>0</v>
-      </c>
-      <c r="N44" s="3">
-        <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-      <c r="O44" s="3">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="P44" s="3">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="Q44" s="3">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="R44" s="3">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="S44" s="3">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="T44" s="3">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="U44" s="3">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="V44" s="3">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="W44" s="3">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="8"/>
-      <c r="B45" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C45" s="3">
-        <f t="shared" ref="C45:W45" si="35">IF(C19="A",5,IF(C19="b",4,IF(C19="C",2,IF(C19="D",1,0))))</f>
-        <v>5</v>
-      </c>
-      <c r="D45" s="3">
+      <c r="L39" s="3">
         <f t="shared" si="35"/>
         <v>5</v>
       </c>
-      <c r="E45" s="3">
+      <c r="M39" s="3">
+        <f t="shared" ref="M39:N39" si="36">IF(M13="A",5,IF(M13="b",4,IF(M13="C",2,IF(M13="D",1,0))))</f>
+        <v>0</v>
+      </c>
+      <c r="N39" s="3">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="O39" s="3">
+        <f t="shared" ref="O39:P39" si="37">IF(O13="A",5,IF(O13="b",4,IF(O13="C",2,IF(O13="D",1,0))))</f>
+        <v>0</v>
+      </c>
+      <c r="P39" s="3">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="Q39" s="3">
         <f t="shared" si="35"/>
-        <v>2</v>
-      </c>
-      <c r="F45" s="3">
+        <v>0</v>
+      </c>
+      <c r="R39" s="3">
         <f t="shared" si="35"/>
-        <v>5</v>
-      </c>
-      <c r="G45" s="3">
+        <v>0</v>
+      </c>
+      <c r="S39" s="3">
         <f t="shared" si="35"/>
-        <v>5</v>
-      </c>
-      <c r="H45" s="3">
+        <v>0</v>
+      </c>
+      <c r="T39" s="3">
         <f t="shared" si="35"/>
-        <v>5</v>
-      </c>
-      <c r="I45" s="3">
+        <v>0</v>
+      </c>
+      <c r="U39" s="3">
         <f t="shared" si="35"/>
-        <v>5</v>
-      </c>
-      <c r="J45" s="3">
+        <v>0</v>
+      </c>
+      <c r="V39" s="3">
         <f t="shared" si="35"/>
-        <v>5</v>
-      </c>
-      <c r="K45" s="3">
+        <v>0</v>
+      </c>
+      <c r="W39" s="3">
         <f t="shared" si="35"/>
-        <v>5</v>
-      </c>
-      <c r="L45" s="3">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="M45" s="3">
-        <f t="shared" ref="M45:N45" si="36">IF(M19="A",5,IF(M19="b",4,IF(M19="C",2,IF(M19="D",1,0))))</f>
-        <v>0</v>
-      </c>
-      <c r="N45" s="3">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="O45" s="3">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="P45" s="3">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="Q45" s="3">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="R45" s="3">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="S45" s="3">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="T45" s="3">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="U45" s="3">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="V45" s="3">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="W45" s="3">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="8"/>
-      <c r="B46" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C46" s="3">
-        <f t="shared" ref="C46:W46" si="37">IF(C20="A",5,IF(C20="b",4,IF(C20="C",2,IF(C20="D",1,0))))</f>
-        <v>5</v>
-      </c>
-      <c r="D46" s="3">
-        <f t="shared" si="37"/>
-        <v>5</v>
-      </c>
-      <c r="E46" s="3">
-        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="8"/>
+      <c r="C40" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D40" s="3">
+        <f t="shared" ref="D40:W40" si="38">IF(D14="A",5,IF(D14="b",4,IF(D14="C",2,IF(D14="D",1,0))))</f>
+        <v>5</v>
+      </c>
+      <c r="E40" s="3">
+        <f t="shared" si="38"/>
+        <v>5</v>
+      </c>
+      <c r="F40" s="3">
+        <f t="shared" si="38"/>
+        <v>5</v>
+      </c>
+      <c r="G40" s="3">
+        <f t="shared" si="38"/>
+        <v>5</v>
+      </c>
+      <c r="H40" s="3">
+        <f t="shared" si="38"/>
+        <v>1</v>
+      </c>
+      <c r="I40" s="3">
+        <f t="shared" si="38"/>
+        <v>5</v>
+      </c>
+      <c r="J40" s="3">
+        <f t="shared" si="38"/>
+        <v>5</v>
+      </c>
+      <c r="K40" s="3">
+        <f t="shared" si="38"/>
+        <v>5</v>
+      </c>
+      <c r="L40" s="3">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="M40" s="3">
+        <f t="shared" ref="M40:N40" si="39">IF(M14="A",5,IF(M14="b",4,IF(M14="C",2,IF(M14="D",1,0))))</f>
+        <v>0</v>
+      </c>
+      <c r="N40" s="3">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="O40" s="3">
+        <f t="shared" ref="O40:P40" si="40">IF(O14="A",5,IF(O14="b",4,IF(O14="C",2,IF(O14="D",1,0))))</f>
+        <v>0</v>
+      </c>
+      <c r="P40" s="3">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="Q40" s="3">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="R40" s="3">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="S40" s="3">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="T40" s="3">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="U40" s="3">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="V40" s="3">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="W40" s="3">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="8"/>
+      <c r="C41" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D41" s="3">
+        <f t="shared" ref="D41:W41" si="41">IF(D15="A",5,IF(D15="b",4,IF(D15="C",2,IF(D15="D",1,0))))</f>
+        <v>5</v>
+      </c>
+      <c r="E41" s="3">
+        <f t="shared" si="41"/>
         <v>4</v>
       </c>
-      <c r="F46" s="3">
-        <f t="shared" si="37"/>
-        <v>5</v>
-      </c>
-      <c r="G46" s="3">
-        <f t="shared" si="37"/>
-        <v>5</v>
-      </c>
-      <c r="H46" s="3">
-        <f t="shared" si="37"/>
-        <v>4</v>
-      </c>
-      <c r="I46" s="3">
-        <f t="shared" si="37"/>
-        <v>5</v>
-      </c>
-      <c r="J46" s="3">
-        <f t="shared" si="37"/>
-        <v>5</v>
-      </c>
-      <c r="K46" s="3">
-        <f t="shared" si="37"/>
-        <v>5</v>
-      </c>
-      <c r="L46" s="3">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="M46" s="3">
-        <f t="shared" ref="M46:N46" si="38">IF(M20="A",5,IF(M20="b",4,IF(M20="C",2,IF(M20="D",1,0))))</f>
-        <v>0</v>
-      </c>
-      <c r="N46" s="3">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="O46" s="3">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="P46" s="3">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="Q46" s="3">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="R46" s="3">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="S46" s="3">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="T46" s="3">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="U46" s="3">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="V46" s="3">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="W46" s="3">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="8"/>
-      <c r="B47" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C47" s="3">
-        <f t="shared" ref="C47:W47" si="39">IF(C21="A",5,IF(C21="b",4,IF(C21="C",2,IF(C21="D",1,0))))</f>
-        <v>5</v>
-      </c>
-      <c r="D47" s="3">
-        <f t="shared" si="39"/>
-        <v>5</v>
-      </c>
-      <c r="E47" s="3">
-        <f t="shared" si="39"/>
-        <v>5</v>
-      </c>
-      <c r="F47" s="3">
-        <f t="shared" si="39"/>
-        <v>5</v>
-      </c>
-      <c r="G47" s="3">
-        <f t="shared" si="39"/>
-        <v>5</v>
-      </c>
-      <c r="H47" s="3">
-        <f t="shared" si="39"/>
-        <v>5</v>
-      </c>
-      <c r="I47" s="3">
-        <f t="shared" si="39"/>
-        <v>5</v>
-      </c>
-      <c r="J47" s="3">
-        <f t="shared" si="39"/>
-        <v>5</v>
-      </c>
-      <c r="K47" s="3">
-        <f t="shared" si="39"/>
-        <v>5</v>
-      </c>
-      <c r="L47" s="3">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="M47" s="3">
-        <f t="shared" ref="M47:N47" si="40">IF(M21="A",5,IF(M21="b",4,IF(M21="C",2,IF(M21="D",1,0))))</f>
-        <v>0</v>
-      </c>
-      <c r="N47" s="3">
-        <f t="shared" si="40"/>
-        <v>0</v>
-      </c>
-      <c r="O47" s="3">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="P47" s="3">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="Q47" s="3">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="R47" s="3">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="S47" s="3">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="T47" s="3">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="U47" s="3">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="V47" s="3">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="W47" s="3">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="8"/>
-      <c r="B48" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C48" s="3">
-        <f t="shared" ref="C48:W48" si="41">IF(C22="A",5,IF(C22="b",4,IF(C22="C",2,IF(C22="D",1,0))))</f>
-        <v>5</v>
-      </c>
-      <c r="D48" s="3">
-        <f t="shared" si="41"/>
-        <v>5</v>
-      </c>
-      <c r="E48" s="3">
-        <f t="shared" si="41"/>
-        <v>5</v>
-      </c>
-      <c r="F48" s="3">
-        <f t="shared" si="41"/>
-        <v>5</v>
-      </c>
-      <c r="G48" s="3">
+      <c r="F41" s="3">
         <f t="shared" si="41"/>
         <v>2</v>
       </c>
+      <c r="G41" s="3">
+        <f t="shared" si="41"/>
+        <v>5</v>
+      </c>
+      <c r="H41" s="3">
+        <f t="shared" si="41"/>
+        <v>2</v>
+      </c>
+      <c r="I41" s="3">
+        <f t="shared" si="41"/>
+        <v>5</v>
+      </c>
+      <c r="J41" s="3">
+        <f t="shared" si="41"/>
+        <v>5</v>
+      </c>
+      <c r="K41" s="3">
+        <f t="shared" si="41"/>
+        <v>4</v>
+      </c>
+      <c r="L41" s="3">
+        <f t="shared" si="41"/>
+        <v>5</v>
+      </c>
+      <c r="M41" s="3">
+        <f t="shared" ref="M41:N41" si="42">IF(M15="A",5,IF(M15="b",4,IF(M15="C",2,IF(M15="D",1,0))))</f>
+        <v>0</v>
+      </c>
+      <c r="N41" s="3">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="O41" s="3">
+        <f t="shared" ref="O41:P41" si="43">IF(O15="A",5,IF(O15="b",4,IF(O15="C",2,IF(O15="D",1,0))))</f>
+        <v>0</v>
+      </c>
+      <c r="P41" s="3">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="Q41" s="3">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="R41" s="3">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="S41" s="3">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="T41" s="3">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="U41" s="3">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="V41" s="3">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="W41" s="3">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="8"/>
+      <c r="C42" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D42" s="3">
+        <f t="shared" ref="D42:W42" si="44">IF(D16="A",5,IF(D16="b",4,IF(D16="C",2,IF(D16="D",1,0))))</f>
+        <v>5</v>
+      </c>
+      <c r="E42" s="3">
+        <f t="shared" si="44"/>
+        <v>5</v>
+      </c>
+      <c r="F42" s="3">
+        <f t="shared" si="44"/>
+        <v>1</v>
+      </c>
+      <c r="G42" s="3">
+        <f t="shared" si="44"/>
+        <v>4</v>
+      </c>
+      <c r="H42" s="3">
+        <f t="shared" si="44"/>
+        <v>4</v>
+      </c>
+      <c r="I42" s="3">
+        <f t="shared" si="44"/>
+        <v>5</v>
+      </c>
+      <c r="J42" s="3">
+        <f t="shared" si="44"/>
+        <v>5</v>
+      </c>
+      <c r="K42" s="3">
+        <f t="shared" si="44"/>
+        <v>5</v>
+      </c>
+      <c r="L42" s="3">
+        <f t="shared" si="44"/>
+        <v>5</v>
+      </c>
+      <c r="M42" s="3">
+        <f t="shared" ref="M42:N42" si="45">IF(M16="A",5,IF(M16="b",4,IF(M16="C",2,IF(M16="D",1,0))))</f>
+        <v>0</v>
+      </c>
+      <c r="N42" s="3">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="O42" s="3">
+        <f t="shared" ref="O42:P42" si="46">IF(O16="A",5,IF(O16="b",4,IF(O16="C",2,IF(O16="D",1,0))))</f>
+        <v>0</v>
+      </c>
+      <c r="P42" s="3">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="Q42" s="3">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="S42" s="3">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="T42" s="3">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="U42" s="3">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="V42" s="3">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="W42" s="3">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="8"/>
+      <c r="C43" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D43" s="3">
+        <f t="shared" ref="D43:W43" si="47">IF(D17="A",5,IF(D17="b",4,IF(D17="C",2,IF(D17="D",1,0))))</f>
+        <v>4</v>
+      </c>
+      <c r="E43" s="3">
+        <f t="shared" si="47"/>
+        <v>4</v>
+      </c>
+      <c r="F43" s="3">
+        <f t="shared" si="47"/>
+        <v>4</v>
+      </c>
+      <c r="G43" s="3">
+        <f t="shared" si="47"/>
+        <v>5</v>
+      </c>
+      <c r="H43" s="3">
+        <f t="shared" si="47"/>
+        <v>5</v>
+      </c>
+      <c r="I43" s="3">
+        <f t="shared" si="47"/>
+        <v>5</v>
+      </c>
+      <c r="J43" s="3">
+        <f t="shared" si="47"/>
+        <v>4</v>
+      </c>
+      <c r="K43" s="3">
+        <f t="shared" si="47"/>
+        <v>4</v>
+      </c>
+      <c r="L43" s="3">
+        <f t="shared" si="47"/>
+        <v>5</v>
+      </c>
+      <c r="M43" s="3">
+        <f t="shared" ref="M43:N43" si="48">IF(M17="A",5,IF(M17="b",4,IF(M17="C",2,IF(M17="D",1,0))))</f>
+        <v>0</v>
+      </c>
+      <c r="N43" s="3">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="O43" s="3">
+        <f t="shared" ref="O43:P43" si="49">IF(O17="A",5,IF(O17="b",4,IF(O17="C",2,IF(O17="D",1,0))))</f>
+        <v>0</v>
+      </c>
+      <c r="P43" s="3">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="Q43" s="3">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="R43" s="3">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="S43" s="3">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="T43" s="3">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="U43" s="3">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="V43" s="3">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="W43" s="3">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="8"/>
+      <c r="C44" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D44" s="3">
+        <f t="shared" ref="D44:W44" si="50">IF(D18="A",5,IF(D18="b",4,IF(D18="C",2,IF(D18="D",1,0))))</f>
+        <v>5</v>
+      </c>
+      <c r="E44" s="3">
+        <f t="shared" si="50"/>
+        <v>5</v>
+      </c>
+      <c r="F44" s="3">
+        <f t="shared" si="50"/>
+        <v>5</v>
+      </c>
+      <c r="G44" s="3">
+        <f t="shared" si="50"/>
+        <v>5</v>
+      </c>
+      <c r="H44" s="3">
+        <f t="shared" si="50"/>
+        <v>5</v>
+      </c>
+      <c r="I44" s="3">
+        <f t="shared" si="50"/>
+        <v>2</v>
+      </c>
+      <c r="J44" s="3">
+        <f t="shared" si="50"/>
+        <v>4</v>
+      </c>
+      <c r="K44" s="3">
+        <f t="shared" si="50"/>
+        <v>5</v>
+      </c>
+      <c r="L44" s="3">
+        <f t="shared" si="50"/>
+        <v>5</v>
+      </c>
+      <c r="M44" s="3">
+        <f t="shared" ref="M44:N44" si="51">IF(M18="A",5,IF(M18="b",4,IF(M18="C",2,IF(M18="D",1,0))))</f>
+        <v>0</v>
+      </c>
+      <c r="N44" s="3">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="O44" s="3">
+        <f t="shared" ref="O44:P44" si="52">IF(O18="A",5,IF(O18="b",4,IF(O18="C",2,IF(O18="D",1,0))))</f>
+        <v>0</v>
+      </c>
+      <c r="P44" s="3">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="Q44" s="3">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="R44" s="3">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="S44" s="3">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="T44" s="3">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="U44" s="3">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="V44" s="3">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="W44" s="3">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="8"/>
+      <c r="C45" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D45" s="3">
+        <f t="shared" ref="D45:W45" si="53">IF(D19="A",5,IF(D19="b",4,IF(D19="C",2,IF(D19="D",1,0))))</f>
+        <v>5</v>
+      </c>
+      <c r="E45" s="3">
+        <f t="shared" si="53"/>
+        <v>5</v>
+      </c>
+      <c r="F45" s="3">
+        <f t="shared" si="53"/>
+        <v>2</v>
+      </c>
+      <c r="G45" s="3">
+        <f t="shared" si="53"/>
+        <v>5</v>
+      </c>
+      <c r="H45" s="3">
+        <f t="shared" si="53"/>
+        <v>5</v>
+      </c>
+      <c r="I45" s="3">
+        <f t="shared" si="53"/>
+        <v>5</v>
+      </c>
+      <c r="J45" s="3">
+        <f t="shared" si="53"/>
+        <v>5</v>
+      </c>
+      <c r="K45" s="3">
+        <f t="shared" si="53"/>
+        <v>5</v>
+      </c>
+      <c r="L45" s="3">
+        <f t="shared" si="53"/>
+        <v>5</v>
+      </c>
+      <c r="M45" s="3">
+        <f t="shared" ref="M45:N45" si="54">IF(M19="A",5,IF(M19="b",4,IF(M19="C",2,IF(M19="D",1,0))))</f>
+        <v>0</v>
+      </c>
+      <c r="N45" s="3">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="O45" s="3">
+        <f t="shared" ref="O45:P45" si="55">IF(O19="A",5,IF(O19="b",4,IF(O19="C",2,IF(O19="D",1,0))))</f>
+        <v>0</v>
+      </c>
+      <c r="P45" s="3">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="Q45" s="3">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="R45" s="3">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="S45" s="3">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="T45" s="3">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="U45" s="3">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="V45" s="3">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="W45" s="3">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="8"/>
+      <c r="C46" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D46" s="3">
+        <f t="shared" ref="D46:W46" si="56">IF(D20="A",5,IF(D20="b",4,IF(D20="C",2,IF(D20="D",1,0))))</f>
+        <v>5</v>
+      </c>
+      <c r="E46" s="3">
+        <f t="shared" si="56"/>
+        <v>5</v>
+      </c>
+      <c r="F46" s="3">
+        <f t="shared" si="56"/>
+        <v>4</v>
+      </c>
+      <c r="G46" s="3">
+        <f t="shared" si="56"/>
+        <v>5</v>
+      </c>
+      <c r="H46" s="3">
+        <f t="shared" si="56"/>
+        <v>5</v>
+      </c>
+      <c r="I46" s="3">
+        <f t="shared" si="56"/>
+        <v>4</v>
+      </c>
+      <c r="J46" s="3">
+        <f t="shared" si="56"/>
+        <v>5</v>
+      </c>
+      <c r="K46" s="3">
+        <f t="shared" si="56"/>
+        <v>5</v>
+      </c>
+      <c r="L46" s="3">
+        <f t="shared" si="56"/>
+        <v>5</v>
+      </c>
+      <c r="M46" s="3">
+        <f t="shared" ref="M46:N46" si="57">IF(M20="A",5,IF(M20="b",4,IF(M20="C",2,IF(M20="D",1,0))))</f>
+        <v>0</v>
+      </c>
+      <c r="N46" s="3">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="O46" s="3">
+        <f t="shared" ref="O46:P46" si="58">IF(O20="A",5,IF(O20="b",4,IF(O20="C",2,IF(O20="D",1,0))))</f>
+        <v>0</v>
+      </c>
+      <c r="P46" s="3">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="Q46" s="3">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="R46" s="3">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="S46" s="3">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="T46" s="3">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="U46" s="3">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="V46" s="3">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="W46" s="3">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="8"/>
+      <c r="C47" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D47" s="3">
+        <f t="shared" ref="D47:W47" si="59">IF(D21="A",5,IF(D21="b",4,IF(D21="C",2,IF(D21="D",1,0))))</f>
+        <v>5</v>
+      </c>
+      <c r="E47" s="3">
+        <f t="shared" si="59"/>
+        <v>5</v>
+      </c>
+      <c r="F47" s="3">
+        <f t="shared" si="59"/>
+        <v>5</v>
+      </c>
+      <c r="G47" s="3">
+        <f t="shared" si="59"/>
+        <v>5</v>
+      </c>
+      <c r="H47" s="3">
+        <f t="shared" si="59"/>
+        <v>5</v>
+      </c>
+      <c r="I47" s="3">
+        <f t="shared" si="59"/>
+        <v>5</v>
+      </c>
+      <c r="J47" s="3">
+        <f t="shared" si="59"/>
+        <v>5</v>
+      </c>
+      <c r="K47" s="3">
+        <f t="shared" si="59"/>
+        <v>5</v>
+      </c>
+      <c r="L47" s="3">
+        <f t="shared" si="59"/>
+        <v>5</v>
+      </c>
+      <c r="M47" s="3">
+        <f t="shared" ref="M47:N47" si="60">IF(M21="A",5,IF(M21="b",4,IF(M21="C",2,IF(M21="D",1,0))))</f>
+        <v>0</v>
+      </c>
+      <c r="N47" s="3">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="O47" s="3">
+        <f t="shared" ref="O47:P47" si="61">IF(O21="A",5,IF(O21="b",4,IF(O21="C",2,IF(O21="D",1,0))))</f>
+        <v>0</v>
+      </c>
+      <c r="P47" s="3">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="Q47" s="3">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="R47" s="3">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="S47" s="3">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="T47" s="3">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="U47" s="3">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="V47" s="3">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="W47" s="3">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="8"/>
+      <c r="C48" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D48" s="3">
+        <f t="shared" ref="D48:W48" si="62">IF(D22="A",5,IF(D22="b",4,IF(D22="C",2,IF(D22="D",1,0))))</f>
+        <v>5</v>
+      </c>
+      <c r="E48" s="3">
+        <f t="shared" si="62"/>
+        <v>5</v>
+      </c>
+      <c r="F48" s="3">
+        <f t="shared" si="62"/>
+        <v>5</v>
+      </c>
+      <c r="G48" s="3">
+        <f t="shared" si="62"/>
+        <v>5</v>
+      </c>
       <c r="H48" s="3">
-        <f t="shared" si="41"/>
-        <v>5</v>
+        <f t="shared" si="62"/>
+        <v>2</v>
       </c>
       <c r="I48" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="62"/>
         <v>5</v>
       </c>
       <c r="J48" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="62"/>
         <v>5</v>
       </c>
       <c r="K48" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="62"/>
         <v>5</v>
       </c>
       <c r="L48" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="62"/>
         <v>5</v>
       </c>
       <c r="M48" s="3">
-        <f t="shared" ref="M48:N48" si="42">IF(M22="A",5,IF(M22="b",4,IF(M22="C",2,IF(M22="D",1,0))))</f>
-        <v>5</v>
+        <f t="shared" ref="M48:N48" si="63">IF(M22="A",5,IF(M22="b",4,IF(M22="C",2,IF(M22="D",1,0))))</f>
+        <v>0</v>
       </c>
       <c r="N48" s="3">
-        <f t="shared" si="42"/>
-        <v>5</v>
+        <f t="shared" si="63"/>
+        <v>0</v>
       </c>
       <c r="O48" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" ref="O48:P48" si="64">IF(O22="A",5,IF(O22="b",4,IF(O22="C",2,IF(O22="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="P48" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="Q48" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="R48" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="S48" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="T48" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="U48" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="V48" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="W48" s="3">
-        <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="8"/>
-      <c r="B49" s="3" t="s">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="8"/>
+      <c r="C49" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C49" s="3">
-        <f t="shared" ref="C49:W49" si="43">IF(C23="A",5,IF(C23="b",4,IF(C23="C",2,IF(C23="D",1,0))))</f>
-        <v>5</v>
-      </c>
       <c r="D49" s="3">
-        <f t="shared" si="43"/>
+        <f t="shared" ref="D49:W49" si="65">IF(D23="A",5,IF(D23="b",4,IF(D23="C",2,IF(D23="D",1,0))))</f>
         <v>5</v>
       </c>
       <c r="E49" s="3">
-        <f t="shared" si="43"/>
+        <f t="shared" si="65"/>
         <v>5</v>
       </c>
       <c r="F49" s="3">
-        <f t="shared" si="43"/>
+        <f t="shared" si="65"/>
         <v>5</v>
       </c>
       <c r="G49" s="3">
-        <f t="shared" si="43"/>
+        <f t="shared" si="65"/>
+        <v>5</v>
+      </c>
+      <c r="H49" s="3">
+        <f t="shared" si="65"/>
         <v>4</v>
       </c>
-      <c r="H49" s="3">
-        <f t="shared" si="43"/>
-        <v>5</v>
-      </c>
       <c r="I49" s="3">
-        <f t="shared" si="43"/>
+        <f t="shared" si="65"/>
         <v>5</v>
       </c>
       <c r="J49" s="3">
-        <f t="shared" si="43"/>
+        <f t="shared" si="65"/>
+        <v>5</v>
+      </c>
+      <c r="K49" s="3">
+        <f t="shared" si="65"/>
         <v>4</v>
       </c>
-      <c r="K49" s="3">
-        <f t="shared" si="43"/>
-        <v>5</v>
-      </c>
       <c r="L49" s="3">
-        <f t="shared" si="43"/>
-        <v>4</v>
+        <f t="shared" si="65"/>
+        <v>5</v>
       </c>
       <c r="M49" s="3">
-        <f t="shared" ref="M49:N49" si="44">IF(M23="A",5,IF(M23="b",4,IF(M23="C",2,IF(M23="D",1,0))))</f>
-        <v>5</v>
+        <f t="shared" ref="M49:N49" si="66">IF(M23="A",5,IF(M23="b",4,IF(M23="C",2,IF(M23="D",1,0))))</f>
+        <v>0</v>
       </c>
       <c r="N49" s="3">
-        <f t="shared" si="44"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="O49" s="3">
-        <f t="shared" si="43"/>
+        <f t="shared" ref="O49:P49" si="67">IF(O23="A",5,IF(O23="b",4,IF(O23="C",2,IF(O23="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="P49" s="3">
-        <f t="shared" si="43"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="Q49" s="3">
-        <f t="shared" si="43"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="R49" s="3">
-        <f t="shared" si="43"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="S49" s="3">
-        <f t="shared" si="43"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="T49" s="3">
-        <f t="shared" si="43"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="U49" s="3">
-        <f t="shared" si="43"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="V49" s="3">
-        <f t="shared" si="43"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="W49" s="3">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="8"/>
-      <c r="B50" s="3" t="s">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="8"/>
+      <c r="C50" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C50" s="3">
-        <f t="shared" ref="C50:W50" si="45">IF(C24="A",5,IF(C24="b",4,IF(C24="C",2,IF(C24="D",1,0))))</f>
-        <v>5</v>
-      </c>
       <c r="D50" s="3">
-        <f t="shared" si="45"/>
+        <f t="shared" ref="D50:W50" si="68">IF(D24="A",5,IF(D24="b",4,IF(D24="C",2,IF(D24="D",1,0))))</f>
         <v>5</v>
       </c>
       <c r="E50" s="3">
-        <f t="shared" si="45"/>
+        <f t="shared" si="68"/>
         <v>5</v>
       </c>
       <c r="F50" s="3">
-        <f t="shared" si="45"/>
+        <f t="shared" si="68"/>
         <v>5</v>
       </c>
       <c r="G50" s="3">
-        <f t="shared" si="45"/>
+        <f t="shared" si="68"/>
         <v>5</v>
       </c>
       <c r="H50" s="3">
-        <f t="shared" si="45"/>
+        <f t="shared" si="68"/>
         <v>5</v>
       </c>
       <c r="I50" s="3">
-        <f t="shared" si="45"/>
+        <f t="shared" si="68"/>
         <v>5</v>
       </c>
       <c r="J50" s="3">
-        <f t="shared" si="45"/>
+        <f t="shared" si="68"/>
         <v>5</v>
       </c>
       <c r="K50" s="3">
-        <f t="shared" si="45"/>
+        <f t="shared" si="68"/>
         <v>5</v>
       </c>
       <c r="L50" s="3">
-        <f t="shared" si="45"/>
-        <v>4</v>
+        <f t="shared" si="68"/>
+        <v>5</v>
       </c>
       <c r="M50" s="3">
-        <f t="shared" ref="M50:N50" si="46">IF(M24="A",5,IF(M24="b",4,IF(M24="C",2,IF(M24="D",1,0))))</f>
-        <v>4</v>
+        <f t="shared" ref="M50:N50" si="69">IF(M24="A",5,IF(M24="b",4,IF(M24="C",2,IF(M24="D",1,0))))</f>
+        <v>0</v>
       </c>
       <c r="N50" s="3">
-        <f t="shared" si="46"/>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="O50" s="3">
-        <f t="shared" si="45"/>
+        <f t="shared" ref="O50:P50" si="70">IF(O24="A",5,IF(O24="b",4,IF(O24="C",2,IF(O24="D",1,0))))</f>
         <v>0</v>
       </c>
       <c r="P50" s="3">
-        <f t="shared" si="45"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="Q50" s="3">
-        <f t="shared" si="45"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="R50" s="3">
-        <f t="shared" si="45"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="S50" s="3">
-        <f t="shared" si="45"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="T50" s="3">
-        <f t="shared" si="45"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="U50" s="3">
-        <f t="shared" si="45"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="V50" s="3">
-        <f t="shared" si="45"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="W50" s="3">
-        <f t="shared" si="45"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:L24">
-    <sortCondition ref="A2"/>
+  <sortState ref="B2:L24">
+    <sortCondition ref="B2"/>
   </sortState>
   <dataConsolidate function="average"/>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A28:A49 A2:A24">
+  <conditionalFormatting sqref="B28:B49 B2:B24">
     <cfRule type="iconSet" priority="5">
       <iconSet>
         <cfvo type="percent" val="0"/>
@@ -5202,7 +4974,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A50">
+  <conditionalFormatting sqref="B50">
     <cfRule type="iconSet" priority="3">
       <iconSet>
         <cfvo type="percent" val="0"/>
@@ -5231,7 +5003,7 @@
               </x14:cfvo>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>A28:A49 A2:A24</xm:sqref>
+          <xm:sqref>B28:B49 B2:B24</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="6" id="{7B241B6D-1EC8-4684-B90A-4F9D3D73AD1E}">
@@ -5247,7 +5019,7 @@
               </x14:cfvo>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>A25:A26</xm:sqref>
+          <xm:sqref>B25:B26</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="4" id="{431F7763-F783-42A7-9D04-6A5CEA02EDEA}">
@@ -5263,7 +5035,7 @@
               </x14:cfvo>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>A50</xm:sqref>
+          <xm:sqref>B50</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="1" id="{BDC96D9F-0177-47FA-B291-BEC3E85E29D8}">
@@ -5279,7 +5051,7 @@
               </x14:cfvo>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>A2:A26</xm:sqref>
+          <xm:sqref>B2:B26</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -5291,11 +5063,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF578CAD-DA7B-483D-BDEF-C637B7FABB3A}">
   <dimension ref="A1:AQ38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AP10" sqref="AP10"/>
+      <selection pane="bottomRight" activeCell="AO14" sqref="AO14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.77734375" defaultRowHeight="22.8" x14ac:dyDescent="0.25"/>
@@ -5394,7 +5166,6 @@
       <c r="AJ2" s="21"/>
       <c r="AK2" s="21"/>
       <c r="AL2" s="21"/>
-      <c r="AM2" s="12"/>
       <c r="AP2" s="9">
         <v>0</v>
       </c>
@@ -5540,7 +5311,6 @@
       <c r="AJ5" s="17"/>
       <c r="AK5" s="17"/>
       <c r="AL5" s="17"/>
-      <c r="AM5" s="12"/>
     </row>
     <row r="6" spans="1:43" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
@@ -5629,6 +5399,7 @@
       <c r="AJ7" s="17"/>
       <c r="AK7" s="17"/>
       <c r="AL7" s="17"/>
+      <c r="AN7" s="12"/>
     </row>
     <row r="8" spans="1:43" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
@@ -5674,6 +5445,7 @@
       <c r="AK8" s="17"/>
       <c r="AL8" s="17"/>
       <c r="AM8" s="13"/>
+      <c r="AO8" s="12"/>
     </row>
     <row r="9" spans="1:43" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
@@ -5850,6 +5622,7 @@
       <c r="AJ12" s="17"/>
       <c r="AK12" s="17"/>
       <c r="AL12" s="17"/>
+      <c r="AM12" s="12"/>
     </row>
     <row r="13" spans="1:43" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
@@ -5940,7 +5713,7 @@
       <c r="AK14" s="17"/>
       <c r="AL14" s="17"/>
       <c r="AM14" s="13"/>
-      <c r="AO14" s="13"/>
+      <c r="AO14" s="12"/>
     </row>
     <row r="15" spans="1:43" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
@@ -6033,7 +5806,7 @@
       <c r="AL16" s="17"/>
       <c r="AM16" s="13"/>
     </row>
-    <row r="17" spans="1:39" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:40" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>19</v>
       </c>
@@ -6076,9 +5849,9 @@
       <c r="AJ17" s="17"/>
       <c r="AK17" s="17"/>
       <c r="AL17" s="17"/>
-      <c r="AM17" s="13"/>
-    </row>
-    <row r="18" spans="1:39" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="AM17" s="12"/>
+    </row>
+    <row r="18" spans="1:40" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>20</v>
       </c>
@@ -6123,7 +5896,7 @@
       <c r="AL18" s="17"/>
       <c r="AM18" s="13"/>
     </row>
-    <row r="19" spans="1:39" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:40" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
         <v>21</v>
       </c>
@@ -6167,8 +5940,9 @@
       <c r="AK19" s="17"/>
       <c r="AL19" s="17"/>
       <c r="AM19" s="13"/>
-    </row>
-    <row r="20" spans="1:39" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="AN19" s="12"/>
+    </row>
+    <row r="20" spans="1:40" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>22</v>
       </c>
@@ -6212,7 +5986,7 @@
       <c r="AK20" s="17"/>
       <c r="AL20" s="17"/>
     </row>
-    <row r="21" spans="1:39" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:40" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>23</v>
       </c>
@@ -6256,7 +6030,7 @@
       <c r="AK21" s="17"/>
       <c r="AL21" s="17"/>
     </row>
-    <row r="22" spans="1:39" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:40" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
         <v>24</v>
       </c>
@@ -6300,7 +6074,7 @@
       <c r="AK22" s="17"/>
       <c r="AL22" s="17"/>
     </row>
-    <row r="23" spans="1:39" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:40" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
         <v>25</v>
       </c>
@@ -6344,7 +6118,7 @@
       <c r="AK23" s="17"/>
       <c r="AL23" s="17"/>
     </row>
-    <row r="24" spans="1:39" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:40" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
         <v>26</v>
       </c>
@@ -6388,15 +6162,15 @@
       <c r="AK24" s="17"/>
       <c r="AL24" s="17"/>
     </row>
-    <row r="25" spans="1:39" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:40" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A25" s="7"/>
       <c r="B25" s="9"/>
     </row>
-    <row r="26" spans="1:39" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:40" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A26" s="7"/>
       <c r="B26" s="9"/>
     </row>
-    <row r="27" spans="1:39" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:40" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
       <c r="B27" s="9"/>
       <c r="O27" s="19" t="s">
@@ -6410,7 +6184,7 @@
       <c r="U27" s="20"/>
       <c r="V27" s="20"/>
     </row>
-    <row r="28" spans="1:39" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:40" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A28" s="7"/>
       <c r="B28" s="9"/>
       <c r="O28" s="20"/>
@@ -6422,7 +6196,7 @@
       <c r="U28" s="20"/>
       <c r="V28" s="20"/>
     </row>
-    <row r="29" spans="1:39" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:40" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A29" s="7"/>
       <c r="B29" s="9"/>
       <c r="O29" s="20"/>
@@ -6434,7 +6208,7 @@
       <c r="U29" s="20"/>
       <c r="V29" s="20"/>
     </row>
-    <row r="30" spans="1:39" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:40" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
       <c r="B30" s="9"/>
       <c r="O30" s="20"/>
@@ -6446,7 +6220,7 @@
       <c r="U30" s="20"/>
       <c r="V30" s="20"/>
     </row>
-    <row r="31" spans="1:39" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:40" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
       <c r="B31" s="9"/>
       <c r="O31" s="20"/>
@@ -6458,7 +6232,7 @@
       <c r="U31" s="20"/>
       <c r="V31" s="20"/>
     </row>
-    <row r="32" spans="1:39" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:40" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
       <c r="B32" s="9"/>
       <c r="O32" s="20"/>

--- a/前端工程师班.xlsx
+++ b/前端工程师班.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yacon\Desktop\前端随堂笔记\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE318B64-C5F9-4659-BA71-1CC983F982CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ADAD0C4-2827-42A5-9606-9CAC4C3CC262}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="19104" windowHeight="12816" activeTab="2" xr2:uid="{F18D4CDB-7335-4D71-A58E-AC92FD55C192}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="21984" windowHeight="13176" activeTab="2" xr2:uid="{F18D4CDB-7335-4D71-A58E-AC92FD55C192}"/>
   </bookViews>
   <sheets>
     <sheet name="异常记录" sheetId="1" r:id="rId1"/>
@@ -1084,7 +1084,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1094,12 +1094,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF0070C0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1139,7 +1133,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1176,9 +1170,6 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1188,7 +1179,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1537,13 +1528,13 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="15" t="s">
         <v>30</v>
       </c>
       <c r="E1" s="2" t="s">
@@ -2871,7 +2862,7 @@
       <c r="W24" s="3"/>
     </row>
     <row r="25" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="14">
+      <c r="B25" s="13">
         <f>SUM(D25:W25)</f>
         <v>0</v>
       </c>
@@ -2926,7 +2917,7 @@
       <c r="W25" s="3"/>
     </row>
     <row r="26" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="15">
+      <c r="B26" s="14">
         <f>SUM(D26:W26)</f>
         <v>65</v>
       </c>
@@ -5067,7 +5058,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AO14" sqref="AO14"/>
+      <selection pane="bottomRight" activeCell="AQ14" sqref="AQ14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.77734375" defaultRowHeight="22.8" x14ac:dyDescent="0.25"/>
@@ -5083,89 +5074,89 @@
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="18"/>
-      <c r="S1" s="18"/>
-      <c r="T1" s="18"/>
-      <c r="U1" s="18"/>
-      <c r="V1" s="18"/>
-      <c r="W1" s="18"/>
-      <c r="X1" s="18"/>
-      <c r="Y1" s="18"/>
-      <c r="Z1" s="18"/>
-      <c r="AA1" s="18"/>
-      <c r="AB1" s="18"/>
-      <c r="AC1" s="18"/>
-      <c r="AD1" s="18"/>
-      <c r="AE1" s="18"/>
-      <c r="AF1" s="18"/>
-      <c r="AG1" s="18"/>
-      <c r="AH1" s="18"/>
-      <c r="AI1" s="18"/>
-      <c r="AJ1" s="18"/>
-      <c r="AK1" s="18"/>
-      <c r="AL1" s="18"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
+      <c r="T1" s="17"/>
+      <c r="U1" s="17"/>
+      <c r="V1" s="17"/>
+      <c r="W1" s="17"/>
+      <c r="X1" s="17"/>
+      <c r="Y1" s="17"/>
+      <c r="Z1" s="17"/>
+      <c r="AA1" s="17"/>
+      <c r="AB1" s="17"/>
+      <c r="AC1" s="17"/>
+      <c r="AD1" s="17"/>
+      <c r="AE1" s="17"/>
+      <c r="AF1" s="17"/>
+      <c r="AG1" s="17"/>
+      <c r="AH1" s="17"/>
+      <c r="AI1" s="17"/>
+      <c r="AJ1" s="17"/>
+      <c r="AK1" s="17"/>
+      <c r="AL1" s="17"/>
     </row>
     <row r="2" spans="1:43" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="21">
+      <c r="B2" s="20">
         <v>1</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="21"/>
-      <c r="S2" s="21"/>
-      <c r="T2" s="21"/>
-      <c r="U2" s="21"/>
-      <c r="V2" s="21"/>
-      <c r="W2" s="21"/>
-      <c r="X2" s="21"/>
-      <c r="Y2" s="21"/>
-      <c r="Z2" s="21"/>
-      <c r="AA2" s="21"/>
-      <c r="AB2" s="21"/>
-      <c r="AC2" s="21"/>
-      <c r="AD2" s="21"/>
-      <c r="AE2" s="21"/>
-      <c r="AF2" s="21"/>
-      <c r="AG2" s="21"/>
-      <c r="AH2" s="21"/>
-      <c r="AI2" s="21"/>
-      <c r="AJ2" s="21"/>
-      <c r="AK2" s="21"/>
-      <c r="AL2" s="21"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="20"/>
+      <c r="S2" s="20"/>
+      <c r="T2" s="20"/>
+      <c r="U2" s="20"/>
+      <c r="V2" s="20"/>
+      <c r="W2" s="20"/>
+      <c r="X2" s="20"/>
+      <c r="Y2" s="20"/>
+      <c r="Z2" s="20"/>
+      <c r="AA2" s="20"/>
+      <c r="AB2" s="20"/>
+      <c r="AC2" s="20"/>
+      <c r="AD2" s="20"/>
+      <c r="AE2" s="20"/>
+      <c r="AF2" s="20"/>
+      <c r="AG2" s="20"/>
+      <c r="AH2" s="20"/>
+      <c r="AI2" s="20"/>
+      <c r="AJ2" s="20"/>
+      <c r="AK2" s="20"/>
+      <c r="AL2" s="20"/>
       <c r="AP2" s="9">
         <v>0</v>
       </c>
@@ -5177,45 +5168,45 @@
       <c r="A3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="21">
+      <c r="B3" s="20">
         <v>1</v>
       </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21"/>
-      <c r="N3" s="21"/>
-      <c r="O3" s="21"/>
-      <c r="P3" s="21"/>
-      <c r="Q3" s="21"/>
-      <c r="R3" s="21"/>
-      <c r="S3" s="21"/>
-      <c r="T3" s="21"/>
-      <c r="U3" s="21"/>
-      <c r="V3" s="21"/>
-      <c r="W3" s="21"/>
-      <c r="X3" s="21"/>
-      <c r="Y3" s="21"/>
-      <c r="Z3" s="21"/>
-      <c r="AA3" s="21"/>
-      <c r="AB3" s="21"/>
-      <c r="AC3" s="21"/>
-      <c r="AD3" s="21"/>
-      <c r="AE3" s="21"/>
-      <c r="AF3" s="21"/>
-      <c r="AG3" s="21"/>
-      <c r="AH3" s="21"/>
-      <c r="AI3" s="21"/>
-      <c r="AJ3" s="21"/>
-      <c r="AK3" s="21"/>
-      <c r="AL3" s="21"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="20"/>
+      <c r="R3" s="20"/>
+      <c r="S3" s="20"/>
+      <c r="T3" s="20"/>
+      <c r="U3" s="20"/>
+      <c r="V3" s="20"/>
+      <c r="W3" s="20"/>
+      <c r="X3" s="20"/>
+      <c r="Y3" s="20"/>
+      <c r="Z3" s="20"/>
+      <c r="AA3" s="20"/>
+      <c r="AB3" s="20"/>
+      <c r="AC3" s="20"/>
+      <c r="AD3" s="20"/>
+      <c r="AE3" s="20"/>
+      <c r="AF3" s="20"/>
+      <c r="AG3" s="20"/>
+      <c r="AH3" s="20"/>
+      <c r="AI3" s="20"/>
+      <c r="AJ3" s="20"/>
+      <c r="AK3" s="20"/>
+      <c r="AL3" s="20"/>
       <c r="AP3" s="9">
         <v>10</v>
       </c>
@@ -5227,1092 +5218,1087 @@
       <c r="A4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="21">
+      <c r="B4" s="20">
         <v>2</v>
       </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
-      <c r="N4" s="21"/>
-      <c r="O4" s="21"/>
-      <c r="P4" s="21"/>
-      <c r="Q4" s="21"/>
-      <c r="R4" s="21"/>
-      <c r="S4" s="21"/>
-      <c r="T4" s="21"/>
-      <c r="U4" s="21"/>
-      <c r="V4" s="21"/>
-      <c r="W4" s="21"/>
-      <c r="X4" s="21"/>
-      <c r="Y4" s="21"/>
-      <c r="Z4" s="21"/>
-      <c r="AA4" s="21"/>
-      <c r="AB4" s="21"/>
-      <c r="AC4" s="21"/>
-      <c r="AD4" s="21"/>
-      <c r="AE4" s="21"/>
-      <c r="AF4" s="21"/>
-      <c r="AG4" s="21"/>
-      <c r="AH4" s="21"/>
-      <c r="AI4" s="21"/>
-      <c r="AJ4" s="21"/>
-      <c r="AK4" s="21"/>
-      <c r="AL4" s="21"/>
-      <c r="AO4" s="13"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="20"/>
+      <c r="R4" s="20"/>
+      <c r="S4" s="20"/>
+      <c r="T4" s="20"/>
+      <c r="U4" s="20"/>
+      <c r="V4" s="20"/>
+      <c r="W4" s="20"/>
+      <c r="X4" s="20"/>
+      <c r="Y4" s="20"/>
+      <c r="Z4" s="20"/>
+      <c r="AA4" s="20"/>
+      <c r="AB4" s="20"/>
+      <c r="AC4" s="20"/>
+      <c r="AD4" s="20"/>
+      <c r="AE4" s="20"/>
+      <c r="AF4" s="20"/>
+      <c r="AG4" s="20"/>
+      <c r="AH4" s="20"/>
+      <c r="AI4" s="20"/>
+      <c r="AJ4" s="20"/>
+      <c r="AK4" s="20"/>
+      <c r="AL4" s="20"/>
+      <c r="AO4" s="12"/>
     </row>
     <row r="5" spans="1:43" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="17">
+      <c r="B5" s="16">
         <v>1</v>
       </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="17"/>
-      <c r="O5" s="17"/>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="17"/>
-      <c r="R5" s="17"/>
-      <c r="S5" s="17"/>
-      <c r="T5" s="17"/>
-      <c r="U5" s="17"/>
-      <c r="V5" s="17"/>
-      <c r="W5" s="17"/>
-      <c r="X5" s="17"/>
-      <c r="Y5" s="17"/>
-      <c r="Z5" s="17"/>
-      <c r="AA5" s="17"/>
-      <c r="AB5" s="17"/>
-      <c r="AC5" s="17"/>
-      <c r="AD5" s="17"/>
-      <c r="AE5" s="17"/>
-      <c r="AF5" s="17"/>
-      <c r="AG5" s="17"/>
-      <c r="AH5" s="17"/>
-      <c r="AI5" s="17"/>
-      <c r="AJ5" s="17"/>
-      <c r="AK5" s="17"/>
-      <c r="AL5" s="17"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="16"/>
+      <c r="R5" s="16"/>
+      <c r="S5" s="16"/>
+      <c r="T5" s="16"/>
+      <c r="U5" s="16"/>
+      <c r="V5" s="16"/>
+      <c r="W5" s="16"/>
+      <c r="X5" s="16"/>
+      <c r="Y5" s="16"/>
+      <c r="Z5" s="16"/>
+      <c r="AA5" s="16"/>
+      <c r="AB5" s="16"/>
+      <c r="AC5" s="16"/>
+      <c r="AD5" s="16"/>
+      <c r="AE5" s="16"/>
+      <c r="AF5" s="16"/>
+      <c r="AG5" s="16"/>
+      <c r="AH5" s="16"/>
+      <c r="AI5" s="16"/>
+      <c r="AJ5" s="16"/>
+      <c r="AK5" s="16"/>
+      <c r="AL5" s="16"/>
     </row>
     <row r="6" spans="1:43" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="17">
+      <c r="B6" s="16">
         <v>1</v>
       </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="17"/>
-      <c r="O6" s="17"/>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="17"/>
-      <c r="R6" s="17"/>
-      <c r="S6" s="17"/>
-      <c r="T6" s="17"/>
-      <c r="U6" s="17"/>
-      <c r="V6" s="17"/>
-      <c r="W6" s="17"/>
-      <c r="X6" s="17"/>
-      <c r="Y6" s="17"/>
-      <c r="Z6" s="17"/>
-      <c r="AA6" s="17"/>
-      <c r="AB6" s="17"/>
-      <c r="AC6" s="17"/>
-      <c r="AD6" s="17"/>
-      <c r="AE6" s="17"/>
-      <c r="AF6" s="17"/>
-      <c r="AG6" s="17"/>
-      <c r="AH6" s="17"/>
-      <c r="AI6" s="17"/>
-      <c r="AJ6" s="17"/>
-      <c r="AK6" s="17"/>
-      <c r="AL6" s="17"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="16"/>
+      <c r="R6" s="16"/>
+      <c r="S6" s="16"/>
+      <c r="T6" s="16"/>
+      <c r="U6" s="16"/>
+      <c r="V6" s="16"/>
+      <c r="W6" s="16"/>
+      <c r="X6" s="16"/>
+      <c r="Y6" s="16"/>
+      <c r="Z6" s="16"/>
+      <c r="AA6" s="16"/>
+      <c r="AB6" s="16"/>
+      <c r="AC6" s="16"/>
+      <c r="AD6" s="16"/>
+      <c r="AE6" s="16"/>
+      <c r="AF6" s="16"/>
+      <c r="AG6" s="16"/>
+      <c r="AH6" s="16"/>
+      <c r="AI6" s="16"/>
+      <c r="AJ6" s="16"/>
+      <c r="AK6" s="16"/>
+      <c r="AL6" s="16"/>
     </row>
     <row r="7" spans="1:43" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="17">
+      <c r="B7" s="16">
         <v>1</v>
       </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="17"/>
-      <c r="O7" s="17"/>
-      <c r="P7" s="17"/>
-      <c r="Q7" s="17"/>
-      <c r="R7" s="17"/>
-      <c r="S7" s="17"/>
-      <c r="T7" s="17"/>
-      <c r="U7" s="17"/>
-      <c r="V7" s="17"/>
-      <c r="W7" s="17"/>
-      <c r="X7" s="17"/>
-      <c r="Y7" s="17"/>
-      <c r="Z7" s="17"/>
-      <c r="AA7" s="17"/>
-      <c r="AB7" s="17"/>
-      <c r="AC7" s="17"/>
-      <c r="AD7" s="17"/>
-      <c r="AE7" s="17"/>
-      <c r="AF7" s="17"/>
-      <c r="AG7" s="17"/>
-      <c r="AH7" s="17"/>
-      <c r="AI7" s="17"/>
-      <c r="AJ7" s="17"/>
-      <c r="AK7" s="17"/>
-      <c r="AL7" s="17"/>
-      <c r="AN7" s="12"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="16"/>
+      <c r="P7" s="16"/>
+      <c r="Q7" s="16"/>
+      <c r="R7" s="16"/>
+      <c r="S7" s="16"/>
+      <c r="T7" s="16"/>
+      <c r="U7" s="16"/>
+      <c r="V7" s="16"/>
+      <c r="W7" s="16"/>
+      <c r="X7" s="16"/>
+      <c r="Y7" s="16"/>
+      <c r="Z7" s="16"/>
+      <c r="AA7" s="16"/>
+      <c r="AB7" s="16"/>
+      <c r="AC7" s="16"/>
+      <c r="AD7" s="16"/>
+      <c r="AE7" s="16"/>
+      <c r="AF7" s="16"/>
+      <c r="AG7" s="16"/>
+      <c r="AH7" s="16"/>
+      <c r="AI7" s="16"/>
+      <c r="AJ7" s="16"/>
+      <c r="AK7" s="16"/>
+      <c r="AL7" s="16"/>
     </row>
     <row r="8" spans="1:43" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="17">
+      <c r="B8" s="16">
         <v>1</v>
       </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="17"/>
-      <c r="O8" s="17"/>
-      <c r="P8" s="17"/>
-      <c r="Q8" s="17"/>
-      <c r="R8" s="17"/>
-      <c r="S8" s="17"/>
-      <c r="T8" s="17"/>
-      <c r="U8" s="17"/>
-      <c r="V8" s="17"/>
-      <c r="W8" s="17"/>
-      <c r="X8" s="17"/>
-      <c r="Y8" s="17"/>
-      <c r="Z8" s="17"/>
-      <c r="AA8" s="17"/>
-      <c r="AB8" s="17"/>
-      <c r="AC8" s="17"/>
-      <c r="AD8" s="17"/>
-      <c r="AE8" s="17"/>
-      <c r="AF8" s="17"/>
-      <c r="AG8" s="17"/>
-      <c r="AH8" s="17"/>
-      <c r="AI8" s="17"/>
-      <c r="AJ8" s="17"/>
-      <c r="AK8" s="17"/>
-      <c r="AL8" s="17"/>
-      <c r="AM8" s="13"/>
-      <c r="AO8" s="12"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="16"/>
+      <c r="P8" s="16"/>
+      <c r="Q8" s="16"/>
+      <c r="R8" s="16"/>
+      <c r="S8" s="16"/>
+      <c r="T8" s="16"/>
+      <c r="U8" s="16"/>
+      <c r="V8" s="16"/>
+      <c r="W8" s="16"/>
+      <c r="X8" s="16"/>
+      <c r="Y8" s="16"/>
+      <c r="Z8" s="16"/>
+      <c r="AA8" s="16"/>
+      <c r="AB8" s="16"/>
+      <c r="AC8" s="16"/>
+      <c r="AD8" s="16"/>
+      <c r="AE8" s="16"/>
+      <c r="AF8" s="16"/>
+      <c r="AG8" s="16"/>
+      <c r="AH8" s="16"/>
+      <c r="AI8" s="16"/>
+      <c r="AJ8" s="16"/>
+      <c r="AK8" s="16"/>
+      <c r="AL8" s="16"/>
+      <c r="AM8" s="12"/>
     </row>
     <row r="9" spans="1:43" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="17">
+      <c r="B9" s="16">
         <v>2</v>
       </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="17"/>
-      <c r="R9" s="17"/>
-      <c r="S9" s="17"/>
-      <c r="T9" s="17"/>
-      <c r="U9" s="17"/>
-      <c r="V9" s="17"/>
-      <c r="W9" s="17"/>
-      <c r="X9" s="17"/>
-      <c r="Y9" s="17"/>
-      <c r="Z9" s="17"/>
-      <c r="AA9" s="17"/>
-      <c r="AB9" s="17"/>
-      <c r="AC9" s="17"/>
-      <c r="AD9" s="17"/>
-      <c r="AE9" s="17"/>
-      <c r="AF9" s="17"/>
-      <c r="AG9" s="17"/>
-      <c r="AH9" s="17"/>
-      <c r="AI9" s="17"/>
-      <c r="AJ9" s="17"/>
-      <c r="AK9" s="17"/>
-      <c r="AL9" s="17"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="16"/>
+      <c r="Q9" s="16"/>
+      <c r="R9" s="16"/>
+      <c r="S9" s="16"/>
+      <c r="T9" s="16"/>
+      <c r="U9" s="16"/>
+      <c r="V9" s="16"/>
+      <c r="W9" s="16"/>
+      <c r="X9" s="16"/>
+      <c r="Y9" s="16"/>
+      <c r="Z9" s="16"/>
+      <c r="AA9" s="16"/>
+      <c r="AB9" s="16"/>
+      <c r="AC9" s="16"/>
+      <c r="AD9" s="16"/>
+      <c r="AE9" s="16"/>
+      <c r="AF9" s="16"/>
+      <c r="AG9" s="16"/>
+      <c r="AH9" s="16"/>
+      <c r="AI9" s="16"/>
+      <c r="AJ9" s="16"/>
+      <c r="AK9" s="16"/>
+      <c r="AL9" s="16"/>
     </row>
     <row r="10" spans="1:43" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="17">
+      <c r="B10" s="16">
         <v>2</v>
       </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="17"/>
-      <c r="R10" s="17"/>
-      <c r="S10" s="17"/>
-      <c r="T10" s="17"/>
-      <c r="U10" s="17"/>
-      <c r="V10" s="17"/>
-      <c r="W10" s="17"/>
-      <c r="X10" s="17"/>
-      <c r="Y10" s="17"/>
-      <c r="Z10" s="17"/>
-      <c r="AA10" s="17"/>
-      <c r="AB10" s="17"/>
-      <c r="AC10" s="17"/>
-      <c r="AD10" s="17"/>
-      <c r="AE10" s="17"/>
-      <c r="AF10" s="17"/>
-      <c r="AG10" s="17"/>
-      <c r="AH10" s="17"/>
-      <c r="AI10" s="17"/>
-      <c r="AJ10" s="17"/>
-      <c r="AK10" s="17"/>
-      <c r="AL10" s="17"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="16"/>
+      <c r="P10" s="16"/>
+      <c r="Q10" s="16"/>
+      <c r="R10" s="16"/>
+      <c r="S10" s="16"/>
+      <c r="T10" s="16"/>
+      <c r="U10" s="16"/>
+      <c r="V10" s="16"/>
+      <c r="W10" s="16"/>
+      <c r="X10" s="16"/>
+      <c r="Y10" s="16"/>
+      <c r="Z10" s="16"/>
+      <c r="AA10" s="16"/>
+      <c r="AB10" s="16"/>
+      <c r="AC10" s="16"/>
+      <c r="AD10" s="16"/>
+      <c r="AE10" s="16"/>
+      <c r="AF10" s="16"/>
+      <c r="AG10" s="16"/>
+      <c r="AH10" s="16"/>
+      <c r="AI10" s="16"/>
+      <c r="AJ10" s="16"/>
+      <c r="AK10" s="16"/>
+      <c r="AL10" s="16"/>
     </row>
     <row r="11" spans="1:43" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="17">
+      <c r="B11" s="16">
         <v>1</v>
       </c>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="17"/>
-      <c r="R11" s="17"/>
-      <c r="S11" s="17"/>
-      <c r="T11" s="17"/>
-      <c r="U11" s="17"/>
-      <c r="V11" s="17"/>
-      <c r="W11" s="17"/>
-      <c r="X11" s="17"/>
-      <c r="Y11" s="17"/>
-      <c r="Z11" s="17"/>
-      <c r="AA11" s="17"/>
-      <c r="AB11" s="17"/>
-      <c r="AC11" s="17"/>
-      <c r="AD11" s="17"/>
-      <c r="AE11" s="17"/>
-      <c r="AF11" s="17"/>
-      <c r="AG11" s="17"/>
-      <c r="AH11" s="17"/>
-      <c r="AI11" s="17"/>
-      <c r="AJ11" s="17"/>
-      <c r="AK11" s="17"/>
-      <c r="AL11" s="17"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="16"/>
+      <c r="P11" s="16"/>
+      <c r="Q11" s="16"/>
+      <c r="R11" s="16"/>
+      <c r="S11" s="16"/>
+      <c r="T11" s="16"/>
+      <c r="U11" s="16"/>
+      <c r="V11" s="16"/>
+      <c r="W11" s="16"/>
+      <c r="X11" s="16"/>
+      <c r="Y11" s="16"/>
+      <c r="Z11" s="16"/>
+      <c r="AA11" s="16"/>
+      <c r="AB11" s="16"/>
+      <c r="AC11" s="16"/>
+      <c r="AD11" s="16"/>
+      <c r="AE11" s="16"/>
+      <c r="AF11" s="16"/>
+      <c r="AG11" s="16"/>
+      <c r="AH11" s="16"/>
+      <c r="AI11" s="16"/>
+      <c r="AJ11" s="16"/>
+      <c r="AK11" s="16"/>
+      <c r="AL11" s="16"/>
     </row>
     <row r="12" spans="1:43" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="17">
+      <c r="B12" s="16">
         <v>2</v>
       </c>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="17"/>
-      <c r="R12" s="17"/>
-      <c r="S12" s="17"/>
-      <c r="T12" s="17"/>
-      <c r="U12" s="17"/>
-      <c r="V12" s="17"/>
-      <c r="W12" s="17"/>
-      <c r="X12" s="17"/>
-      <c r="Y12" s="17"/>
-      <c r="Z12" s="17"/>
-      <c r="AA12" s="17"/>
-      <c r="AB12" s="17"/>
-      <c r="AC12" s="17"/>
-      <c r="AD12" s="17"/>
-      <c r="AE12" s="17"/>
-      <c r="AF12" s="17"/>
-      <c r="AG12" s="17"/>
-      <c r="AH12" s="17"/>
-      <c r="AI12" s="17"/>
-      <c r="AJ12" s="17"/>
-      <c r="AK12" s="17"/>
-      <c r="AL12" s="17"/>
-      <c r="AM12" s="12"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="16"/>
+      <c r="P12" s="16"/>
+      <c r="Q12" s="16"/>
+      <c r="R12" s="16"/>
+      <c r="S12" s="16"/>
+      <c r="T12" s="16"/>
+      <c r="U12" s="16"/>
+      <c r="V12" s="16"/>
+      <c r="W12" s="16"/>
+      <c r="X12" s="16"/>
+      <c r="Y12" s="16"/>
+      <c r="Z12" s="16"/>
+      <c r="AA12" s="16"/>
+      <c r="AB12" s="16"/>
+      <c r="AC12" s="16"/>
+      <c r="AD12" s="16"/>
+      <c r="AE12" s="16"/>
+      <c r="AF12" s="16"/>
+      <c r="AG12" s="16"/>
+      <c r="AH12" s="16"/>
+      <c r="AI12" s="16"/>
+      <c r="AJ12" s="16"/>
+      <c r="AK12" s="16"/>
+      <c r="AL12" s="16"/>
     </row>
     <row r="13" spans="1:43" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="17">
+      <c r="B13" s="16">
         <v>2</v>
       </c>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="17"/>
-      <c r="R13" s="17"/>
-      <c r="S13" s="17"/>
-      <c r="T13" s="17"/>
-      <c r="U13" s="17"/>
-      <c r="V13" s="17"/>
-      <c r="W13" s="17"/>
-      <c r="X13" s="17"/>
-      <c r="Y13" s="17"/>
-      <c r="Z13" s="17"/>
-      <c r="AA13" s="17"/>
-      <c r="AB13" s="17"/>
-      <c r="AC13" s="17"/>
-      <c r="AD13" s="17"/>
-      <c r="AE13" s="17"/>
-      <c r="AF13" s="17"/>
-      <c r="AG13" s="17"/>
-      <c r="AH13" s="17"/>
-      <c r="AI13" s="17"/>
-      <c r="AJ13" s="17"/>
-      <c r="AK13" s="17"/>
-      <c r="AL13" s="17"/>
-      <c r="AM13" s="13"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="16"/>
+      <c r="O13" s="16"/>
+      <c r="P13" s="16"/>
+      <c r="Q13" s="16"/>
+      <c r="R13" s="16"/>
+      <c r="S13" s="16"/>
+      <c r="T13" s="16"/>
+      <c r="U13" s="16"/>
+      <c r="V13" s="16"/>
+      <c r="W13" s="16"/>
+      <c r="X13" s="16"/>
+      <c r="Y13" s="16"/>
+      <c r="Z13" s="16"/>
+      <c r="AA13" s="16"/>
+      <c r="AB13" s="16"/>
+      <c r="AC13" s="16"/>
+      <c r="AD13" s="16"/>
+      <c r="AE13" s="16"/>
+      <c r="AF13" s="16"/>
+      <c r="AG13" s="16"/>
+      <c r="AH13" s="16"/>
+      <c r="AI13" s="16"/>
+      <c r="AJ13" s="16"/>
+      <c r="AK13" s="16"/>
+      <c r="AL13" s="16"/>
+      <c r="AM13" s="12"/>
     </row>
     <row r="14" spans="1:43" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="17">
-        <v>1</v>
-      </c>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17"/>
-      <c r="P14" s="17"/>
-      <c r="Q14" s="17"/>
-      <c r="R14" s="17"/>
-      <c r="S14" s="17"/>
-      <c r="T14" s="17"/>
-      <c r="U14" s="17"/>
-      <c r="V14" s="17"/>
-      <c r="W14" s="17"/>
-      <c r="X14" s="17"/>
-      <c r="Y14" s="17"/>
-      <c r="Z14" s="17"/>
-      <c r="AA14" s="17"/>
-      <c r="AB14" s="17"/>
-      <c r="AC14" s="17"/>
-      <c r="AD14" s="17"/>
-      <c r="AE14" s="17"/>
-      <c r="AF14" s="17"/>
-      <c r="AG14" s="17"/>
-      <c r="AH14" s="17"/>
-      <c r="AI14" s="17"/>
-      <c r="AJ14" s="17"/>
-      <c r="AK14" s="17"/>
-      <c r="AL14" s="17"/>
-      <c r="AM14" s="13"/>
-      <c r="AO14" s="12"/>
+      <c r="B14" s="16">
+        <v>3</v>
+      </c>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="16"/>
+      <c r="O14" s="16"/>
+      <c r="P14" s="16"/>
+      <c r="Q14" s="16"/>
+      <c r="R14" s="16"/>
+      <c r="S14" s="16"/>
+      <c r="T14" s="16"/>
+      <c r="U14" s="16"/>
+      <c r="V14" s="16"/>
+      <c r="W14" s="16"/>
+      <c r="X14" s="16"/>
+      <c r="Y14" s="16"/>
+      <c r="Z14" s="16"/>
+      <c r="AA14" s="16"/>
+      <c r="AB14" s="16"/>
+      <c r="AC14" s="16"/>
+      <c r="AD14" s="16"/>
+      <c r="AE14" s="16"/>
+      <c r="AF14" s="16"/>
+      <c r="AG14" s="16"/>
+      <c r="AH14" s="16"/>
+      <c r="AI14" s="16"/>
+      <c r="AJ14" s="16"/>
+      <c r="AK14" s="16"/>
+      <c r="AL14" s="16"/>
+      <c r="AM14" s="12"/>
     </row>
     <row r="15" spans="1:43" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="17">
+      <c r="B15" s="16">
         <v>2</v>
       </c>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="17"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="17"/>
-      <c r="O15" s="17"/>
-      <c r="P15" s="17"/>
-      <c r="Q15" s="17"/>
-      <c r="R15" s="17"/>
-      <c r="S15" s="17"/>
-      <c r="T15" s="17"/>
-      <c r="U15" s="17"/>
-      <c r="V15" s="17"/>
-      <c r="W15" s="17"/>
-      <c r="X15" s="17"/>
-      <c r="Y15" s="17"/>
-      <c r="Z15" s="17"/>
-      <c r="AA15" s="17"/>
-      <c r="AB15" s="17"/>
-      <c r="AC15" s="17"/>
-      <c r="AD15" s="17"/>
-      <c r="AE15" s="17"/>
-      <c r="AF15" s="17"/>
-      <c r="AG15" s="17"/>
-      <c r="AH15" s="17"/>
-      <c r="AI15" s="17"/>
-      <c r="AJ15" s="17"/>
-      <c r="AK15" s="17"/>
-      <c r="AL15" s="17"/>
-      <c r="AM15" s="13"/>
-      <c r="AO15" s="13"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="16"/>
+      <c r="N15" s="16"/>
+      <c r="O15" s="16"/>
+      <c r="P15" s="16"/>
+      <c r="Q15" s="16"/>
+      <c r="R15" s="16"/>
+      <c r="S15" s="16"/>
+      <c r="T15" s="16"/>
+      <c r="U15" s="16"/>
+      <c r="V15" s="16"/>
+      <c r="W15" s="16"/>
+      <c r="X15" s="16"/>
+      <c r="Y15" s="16"/>
+      <c r="Z15" s="16"/>
+      <c r="AA15" s="16"/>
+      <c r="AB15" s="16"/>
+      <c r="AC15" s="16"/>
+      <c r="AD15" s="16"/>
+      <c r="AE15" s="16"/>
+      <c r="AF15" s="16"/>
+      <c r="AG15" s="16"/>
+      <c r="AH15" s="16"/>
+      <c r="AI15" s="16"/>
+      <c r="AJ15" s="16"/>
+      <c r="AK15" s="16"/>
+      <c r="AL15" s="16"/>
+      <c r="AM15" s="12"/>
+      <c r="AO15" s="12"/>
     </row>
     <row r="16" spans="1:43" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="17">
+      <c r="B16" s="16">
         <v>2</v>
       </c>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="17"/>
-      <c r="O16" s="17"/>
-      <c r="P16" s="17"/>
-      <c r="Q16" s="17"/>
-      <c r="R16" s="17"/>
-      <c r="S16" s="17"/>
-      <c r="T16" s="17"/>
-      <c r="U16" s="17"/>
-      <c r="V16" s="17"/>
-      <c r="W16" s="17"/>
-      <c r="X16" s="17"/>
-      <c r="Y16" s="17"/>
-      <c r="Z16" s="17"/>
-      <c r="AA16" s="17"/>
-      <c r="AB16" s="17"/>
-      <c r="AC16" s="17"/>
-      <c r="AD16" s="17"/>
-      <c r="AE16" s="17"/>
-      <c r="AF16" s="17"/>
-      <c r="AG16" s="17"/>
-      <c r="AH16" s="17"/>
-      <c r="AI16" s="17"/>
-      <c r="AJ16" s="17"/>
-      <c r="AK16" s="17"/>
-      <c r="AL16" s="17"/>
-      <c r="AM16" s="13"/>
-    </row>
-    <row r="17" spans="1:40" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="16"/>
+      <c r="N16" s="16"/>
+      <c r="O16" s="16"/>
+      <c r="P16" s="16"/>
+      <c r="Q16" s="16"/>
+      <c r="R16" s="16"/>
+      <c r="S16" s="16"/>
+      <c r="T16" s="16"/>
+      <c r="U16" s="16"/>
+      <c r="V16" s="16"/>
+      <c r="W16" s="16"/>
+      <c r="X16" s="16"/>
+      <c r="Y16" s="16"/>
+      <c r="Z16" s="16"/>
+      <c r="AA16" s="16"/>
+      <c r="AB16" s="16"/>
+      <c r="AC16" s="16"/>
+      <c r="AD16" s="16"/>
+      <c r="AE16" s="16"/>
+      <c r="AF16" s="16"/>
+      <c r="AG16" s="16"/>
+      <c r="AH16" s="16"/>
+      <c r="AI16" s="16"/>
+      <c r="AJ16" s="16"/>
+      <c r="AK16" s="16"/>
+      <c r="AL16" s="16"/>
+      <c r="AM16" s="12"/>
+    </row>
+    <row r="17" spans="1:39" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="17">
-        <v>1</v>
-      </c>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="17"/>
-      <c r="O17" s="17"/>
-      <c r="P17" s="17"/>
-      <c r="Q17" s="17"/>
-      <c r="R17" s="17"/>
-      <c r="S17" s="17"/>
-      <c r="T17" s="17"/>
-      <c r="U17" s="17"/>
-      <c r="V17" s="17"/>
-      <c r="W17" s="17"/>
-      <c r="X17" s="17"/>
-      <c r="Y17" s="17"/>
-      <c r="Z17" s="17"/>
-      <c r="AA17" s="17"/>
-      <c r="AB17" s="17"/>
-      <c r="AC17" s="17"/>
-      <c r="AD17" s="17"/>
-      <c r="AE17" s="17"/>
-      <c r="AF17" s="17"/>
-      <c r="AG17" s="17"/>
-      <c r="AH17" s="17"/>
-      <c r="AI17" s="17"/>
-      <c r="AJ17" s="17"/>
-      <c r="AK17" s="17"/>
-      <c r="AL17" s="17"/>
+      <c r="B17" s="16">
+        <v>2</v>
+      </c>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="16"/>
+      <c r="O17" s="16"/>
+      <c r="P17" s="16"/>
+      <c r="Q17" s="16"/>
+      <c r="R17" s="16"/>
+      <c r="S17" s="16"/>
+      <c r="T17" s="16"/>
+      <c r="U17" s="16"/>
+      <c r="V17" s="16"/>
+      <c r="W17" s="16"/>
+      <c r="X17" s="16"/>
+      <c r="Y17" s="16"/>
+      <c r="Z17" s="16"/>
+      <c r="AA17" s="16"/>
+      <c r="AB17" s="16"/>
+      <c r="AC17" s="16"/>
+      <c r="AD17" s="16"/>
+      <c r="AE17" s="16"/>
+      <c r="AF17" s="16"/>
+      <c r="AG17" s="16"/>
+      <c r="AH17" s="16"/>
+      <c r="AI17" s="16"/>
+      <c r="AJ17" s="16"/>
+      <c r="AK17" s="16"/>
+      <c r="AL17" s="16"/>
       <c r="AM17" s="12"/>
     </row>
-    <row r="18" spans="1:40" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:39" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="17">
+      <c r="B18" s="16">
         <v>1</v>
       </c>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="17"/>
-      <c r="P18" s="17"/>
-      <c r="Q18" s="17"/>
-      <c r="R18" s="17"/>
-      <c r="S18" s="17"/>
-      <c r="T18" s="17"/>
-      <c r="U18" s="17"/>
-      <c r="V18" s="17"/>
-      <c r="W18" s="17"/>
-      <c r="X18" s="17"/>
-      <c r="Y18" s="17"/>
-      <c r="Z18" s="17"/>
-      <c r="AA18" s="17"/>
-      <c r="AB18" s="17"/>
-      <c r="AC18" s="17"/>
-      <c r="AD18" s="17"/>
-      <c r="AE18" s="17"/>
-      <c r="AF18" s="17"/>
-      <c r="AG18" s="17"/>
-      <c r="AH18" s="17"/>
-      <c r="AI18" s="17"/>
-      <c r="AJ18" s="17"/>
-      <c r="AK18" s="17"/>
-      <c r="AL18" s="17"/>
-      <c r="AM18" s="13"/>
-    </row>
-    <row r="19" spans="1:40" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="16"/>
+      <c r="N18" s="16"/>
+      <c r="O18" s="16"/>
+      <c r="P18" s="16"/>
+      <c r="Q18" s="16"/>
+      <c r="R18" s="16"/>
+      <c r="S18" s="16"/>
+      <c r="T18" s="16"/>
+      <c r="U18" s="16"/>
+      <c r="V18" s="16"/>
+      <c r="W18" s="16"/>
+      <c r="X18" s="16"/>
+      <c r="Y18" s="16"/>
+      <c r="Z18" s="16"/>
+      <c r="AA18" s="16"/>
+      <c r="AB18" s="16"/>
+      <c r="AC18" s="16"/>
+      <c r="AD18" s="16"/>
+      <c r="AE18" s="16"/>
+      <c r="AF18" s="16"/>
+      <c r="AG18" s="16"/>
+      <c r="AH18" s="16"/>
+      <c r="AI18" s="16"/>
+      <c r="AJ18" s="16"/>
+      <c r="AK18" s="16"/>
+      <c r="AL18" s="16"/>
+      <c r="AM18" s="12"/>
+    </row>
+    <row r="19" spans="1:39" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="17">
-        <v>2</v>
-      </c>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="17"/>
-      <c r="L19" s="17"/>
-      <c r="M19" s="17"/>
-      <c r="N19" s="17"/>
-      <c r="O19" s="17"/>
-      <c r="P19" s="17"/>
-      <c r="Q19" s="17"/>
-      <c r="R19" s="17"/>
-      <c r="S19" s="17"/>
-      <c r="T19" s="17"/>
-      <c r="U19" s="17"/>
-      <c r="V19" s="17"/>
-      <c r="W19" s="17"/>
-      <c r="X19" s="17"/>
-      <c r="Y19" s="17"/>
-      <c r="Z19" s="17"/>
-      <c r="AA19" s="17"/>
-      <c r="AB19" s="17"/>
-      <c r="AC19" s="17"/>
-      <c r="AD19" s="17"/>
-      <c r="AE19" s="17"/>
-      <c r="AF19" s="17"/>
-      <c r="AG19" s="17"/>
-      <c r="AH19" s="17"/>
-      <c r="AI19" s="17"/>
-      <c r="AJ19" s="17"/>
-      <c r="AK19" s="17"/>
-      <c r="AL19" s="17"/>
-      <c r="AM19" s="13"/>
-      <c r="AN19" s="12"/>
-    </row>
-    <row r="20" spans="1:40" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="B19" s="16">
+        <v>3</v>
+      </c>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="16"/>
+      <c r="N19" s="16"/>
+      <c r="O19" s="16"/>
+      <c r="P19" s="16"/>
+      <c r="Q19" s="16"/>
+      <c r="R19" s="16"/>
+      <c r="S19" s="16"/>
+      <c r="T19" s="16"/>
+      <c r="U19" s="16"/>
+      <c r="V19" s="16"/>
+      <c r="W19" s="16"/>
+      <c r="X19" s="16"/>
+      <c r="Y19" s="16"/>
+      <c r="Z19" s="16"/>
+      <c r="AA19" s="16"/>
+      <c r="AB19" s="16"/>
+      <c r="AC19" s="16"/>
+      <c r="AD19" s="16"/>
+      <c r="AE19" s="16"/>
+      <c r="AF19" s="16"/>
+      <c r="AG19" s="16"/>
+      <c r="AH19" s="16"/>
+      <c r="AI19" s="16"/>
+      <c r="AJ19" s="16"/>
+      <c r="AK19" s="16"/>
+      <c r="AL19" s="16"/>
+      <c r="AM19" s="12"/>
+    </row>
+    <row r="20" spans="1:39" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="17">
+      <c r="B20" s="16">
         <v>1</v>
       </c>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="17"/>
-      <c r="P20" s="17"/>
-      <c r="Q20" s="17"/>
-      <c r="R20" s="17"/>
-      <c r="S20" s="17"/>
-      <c r="T20" s="17"/>
-      <c r="U20" s="17"/>
-      <c r="V20" s="17"/>
-      <c r="W20" s="17"/>
-      <c r="X20" s="17"/>
-      <c r="Y20" s="17"/>
-      <c r="Z20" s="17"/>
-      <c r="AA20" s="17"/>
-      <c r="AB20" s="17"/>
-      <c r="AC20" s="17"/>
-      <c r="AD20" s="17"/>
-      <c r="AE20" s="17"/>
-      <c r="AF20" s="17"/>
-      <c r="AG20" s="17"/>
-      <c r="AH20" s="17"/>
-      <c r="AI20" s="17"/>
-      <c r="AJ20" s="17"/>
-      <c r="AK20" s="17"/>
-      <c r="AL20" s="17"/>
-    </row>
-    <row r="21" spans="1:40" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="16"/>
+      <c r="M20" s="16"/>
+      <c r="N20" s="16"/>
+      <c r="O20" s="16"/>
+      <c r="P20" s="16"/>
+      <c r="Q20" s="16"/>
+      <c r="R20" s="16"/>
+      <c r="S20" s="16"/>
+      <c r="T20" s="16"/>
+      <c r="U20" s="16"/>
+      <c r="V20" s="16"/>
+      <c r="W20" s="16"/>
+      <c r="X20" s="16"/>
+      <c r="Y20" s="16"/>
+      <c r="Z20" s="16"/>
+      <c r="AA20" s="16"/>
+      <c r="AB20" s="16"/>
+      <c r="AC20" s="16"/>
+      <c r="AD20" s="16"/>
+      <c r="AE20" s="16"/>
+      <c r="AF20" s="16"/>
+      <c r="AG20" s="16"/>
+      <c r="AH20" s="16"/>
+      <c r="AI20" s="16"/>
+      <c r="AJ20" s="16"/>
+      <c r="AK20" s="16"/>
+      <c r="AL20" s="16"/>
+    </row>
+    <row r="21" spans="1:39" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="17">
+      <c r="B21" s="16">
         <v>2</v>
       </c>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="17"/>
-      <c r="L21" s="17"/>
-      <c r="M21" s="17"/>
-      <c r="N21" s="17"/>
-      <c r="O21" s="17"/>
-      <c r="P21" s="17"/>
-      <c r="Q21" s="17"/>
-      <c r="R21" s="17"/>
-      <c r="S21" s="17"/>
-      <c r="T21" s="17"/>
-      <c r="U21" s="17"/>
-      <c r="V21" s="17"/>
-      <c r="W21" s="17"/>
-      <c r="X21" s="17"/>
-      <c r="Y21" s="17"/>
-      <c r="Z21" s="17"/>
-      <c r="AA21" s="17"/>
-      <c r="AB21" s="17"/>
-      <c r="AC21" s="17"/>
-      <c r="AD21" s="17"/>
-      <c r="AE21" s="17"/>
-      <c r="AF21" s="17"/>
-      <c r="AG21" s="17"/>
-      <c r="AH21" s="17"/>
-      <c r="AI21" s="17"/>
-      <c r="AJ21" s="17"/>
-      <c r="AK21" s="17"/>
-      <c r="AL21" s="17"/>
-    </row>
-    <row r="22" spans="1:40" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="16"/>
+      <c r="M21" s="16"/>
+      <c r="N21" s="16"/>
+      <c r="O21" s="16"/>
+      <c r="P21" s="16"/>
+      <c r="Q21" s="16"/>
+      <c r="R21" s="16"/>
+      <c r="S21" s="16"/>
+      <c r="T21" s="16"/>
+      <c r="U21" s="16"/>
+      <c r="V21" s="16"/>
+      <c r="W21" s="16"/>
+      <c r="X21" s="16"/>
+      <c r="Y21" s="16"/>
+      <c r="Z21" s="16"/>
+      <c r="AA21" s="16"/>
+      <c r="AB21" s="16"/>
+      <c r="AC21" s="16"/>
+      <c r="AD21" s="16"/>
+      <c r="AE21" s="16"/>
+      <c r="AF21" s="16"/>
+      <c r="AG21" s="16"/>
+      <c r="AH21" s="16"/>
+      <c r="AI21" s="16"/>
+      <c r="AJ21" s="16"/>
+      <c r="AK21" s="16"/>
+      <c r="AL21" s="16"/>
+    </row>
+    <row r="22" spans="1:39" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="17">
+      <c r="B22" s="16">
         <v>1</v>
       </c>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="17"/>
-      <c r="L22" s="17"/>
-      <c r="M22" s="17"/>
-      <c r="N22" s="17"/>
-      <c r="O22" s="17"/>
-      <c r="P22" s="17"/>
-      <c r="Q22" s="17"/>
-      <c r="R22" s="17"/>
-      <c r="S22" s="17"/>
-      <c r="T22" s="17"/>
-      <c r="U22" s="17"/>
-      <c r="V22" s="17"/>
-      <c r="W22" s="17"/>
-      <c r="X22" s="17"/>
-      <c r="Y22" s="17"/>
-      <c r="Z22" s="17"/>
-      <c r="AA22" s="17"/>
-      <c r="AB22" s="17"/>
-      <c r="AC22" s="17"/>
-      <c r="AD22" s="17"/>
-      <c r="AE22" s="17"/>
-      <c r="AF22" s="17"/>
-      <c r="AG22" s="17"/>
-      <c r="AH22" s="17"/>
-      <c r="AI22" s="17"/>
-      <c r="AJ22" s="17"/>
-      <c r="AK22" s="17"/>
-      <c r="AL22" s="17"/>
-    </row>
-    <row r="23" spans="1:40" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="16"/>
+      <c r="L22" s="16"/>
+      <c r="M22" s="16"/>
+      <c r="N22" s="16"/>
+      <c r="O22" s="16"/>
+      <c r="P22" s="16"/>
+      <c r="Q22" s="16"/>
+      <c r="R22" s="16"/>
+      <c r="S22" s="16"/>
+      <c r="T22" s="16"/>
+      <c r="U22" s="16"/>
+      <c r="V22" s="16"/>
+      <c r="W22" s="16"/>
+      <c r="X22" s="16"/>
+      <c r="Y22" s="16"/>
+      <c r="Z22" s="16"/>
+      <c r="AA22" s="16"/>
+      <c r="AB22" s="16"/>
+      <c r="AC22" s="16"/>
+      <c r="AD22" s="16"/>
+      <c r="AE22" s="16"/>
+      <c r="AF22" s="16"/>
+      <c r="AG22" s="16"/>
+      <c r="AH22" s="16"/>
+      <c r="AI22" s="16"/>
+      <c r="AJ22" s="16"/>
+      <c r="AK22" s="16"/>
+      <c r="AL22" s="16"/>
+    </row>
+    <row r="23" spans="1:39" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="17">
+      <c r="B23" s="16">
         <v>2</v>
       </c>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="17"/>
-      <c r="L23" s="17"/>
-      <c r="M23" s="17"/>
-      <c r="N23" s="17"/>
-      <c r="O23" s="17"/>
-      <c r="P23" s="17"/>
-      <c r="Q23" s="17"/>
-      <c r="R23" s="17"/>
-      <c r="S23" s="17"/>
-      <c r="T23" s="17"/>
-      <c r="U23" s="17"/>
-      <c r="V23" s="17"/>
-      <c r="W23" s="17"/>
-      <c r="X23" s="17"/>
-      <c r="Y23" s="17"/>
-      <c r="Z23" s="17"/>
-      <c r="AA23" s="17"/>
-      <c r="AB23" s="17"/>
-      <c r="AC23" s="17"/>
-      <c r="AD23" s="17"/>
-      <c r="AE23" s="17"/>
-      <c r="AF23" s="17"/>
-      <c r="AG23" s="17"/>
-      <c r="AH23" s="17"/>
-      <c r="AI23" s="17"/>
-      <c r="AJ23" s="17"/>
-      <c r="AK23" s="17"/>
-      <c r="AL23" s="17"/>
-    </row>
-    <row r="24" spans="1:40" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="16"/>
+      <c r="L23" s="16"/>
+      <c r="M23" s="16"/>
+      <c r="N23" s="16"/>
+      <c r="O23" s="16"/>
+      <c r="P23" s="16"/>
+      <c r="Q23" s="16"/>
+      <c r="R23" s="16"/>
+      <c r="S23" s="16"/>
+      <c r="T23" s="16"/>
+      <c r="U23" s="16"/>
+      <c r="V23" s="16"/>
+      <c r="W23" s="16"/>
+      <c r="X23" s="16"/>
+      <c r="Y23" s="16"/>
+      <c r="Z23" s="16"/>
+      <c r="AA23" s="16"/>
+      <c r="AB23" s="16"/>
+      <c r="AC23" s="16"/>
+      <c r="AD23" s="16"/>
+      <c r="AE23" s="16"/>
+      <c r="AF23" s="16"/>
+      <c r="AG23" s="16"/>
+      <c r="AH23" s="16"/>
+      <c r="AI23" s="16"/>
+      <c r="AJ23" s="16"/>
+      <c r="AK23" s="16"/>
+      <c r="AL23" s="16"/>
+    </row>
+    <row r="24" spans="1:39" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="17">
+      <c r="B24" s="16">
         <v>2</v>
       </c>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="17"/>
-      <c r="K24" s="17"/>
-      <c r="L24" s="17"/>
-      <c r="M24" s="17"/>
-      <c r="N24" s="17"/>
-      <c r="O24" s="17"/>
-      <c r="P24" s="17"/>
-      <c r="Q24" s="17"/>
-      <c r="R24" s="17"/>
-      <c r="S24" s="17"/>
-      <c r="T24" s="17"/>
-      <c r="U24" s="17"/>
-      <c r="V24" s="17"/>
-      <c r="W24" s="17"/>
-      <c r="X24" s="17"/>
-      <c r="Y24" s="17"/>
-      <c r="Z24" s="17"/>
-      <c r="AA24" s="17"/>
-      <c r="AB24" s="17"/>
-      <c r="AC24" s="17"/>
-      <c r="AD24" s="17"/>
-      <c r="AE24" s="17"/>
-      <c r="AF24" s="17"/>
-      <c r="AG24" s="17"/>
-      <c r="AH24" s="17"/>
-      <c r="AI24" s="17"/>
-      <c r="AJ24" s="17"/>
-      <c r="AK24" s="17"/>
-      <c r="AL24" s="17"/>
-    </row>
-    <row r="25" spans="1:40" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="16"/>
+      <c r="L24" s="16"/>
+      <c r="M24" s="16"/>
+      <c r="N24" s="16"/>
+      <c r="O24" s="16"/>
+      <c r="P24" s="16"/>
+      <c r="Q24" s="16"/>
+      <c r="R24" s="16"/>
+      <c r="S24" s="16"/>
+      <c r="T24" s="16"/>
+      <c r="U24" s="16"/>
+      <c r="V24" s="16"/>
+      <c r="W24" s="16"/>
+      <c r="X24" s="16"/>
+      <c r="Y24" s="16"/>
+      <c r="Z24" s="16"/>
+      <c r="AA24" s="16"/>
+      <c r="AB24" s="16"/>
+      <c r="AC24" s="16"/>
+      <c r="AD24" s="16"/>
+      <c r="AE24" s="16"/>
+      <c r="AF24" s="16"/>
+      <c r="AG24" s="16"/>
+      <c r="AH24" s="16"/>
+      <c r="AI24" s="16"/>
+      <c r="AJ24" s="16"/>
+      <c r="AK24" s="16"/>
+      <c r="AL24" s="16"/>
+    </row>
+    <row r="25" spans="1:39" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A25" s="7"/>
       <c r="B25" s="9"/>
     </row>
-    <row r="26" spans="1:40" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:39" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A26" s="7"/>
       <c r="B26" s="9"/>
     </row>
-    <row r="27" spans="1:40" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:39" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
       <c r="B27" s="9"/>
-      <c r="O27" s="19" t="s">
+      <c r="O27" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="P27" s="20"/>
-      <c r="Q27" s="20"/>
-      <c r="R27" s="20"/>
-      <c r="S27" s="20"/>
-      <c r="T27" s="20"/>
-      <c r="U27" s="20"/>
-      <c r="V27" s="20"/>
-    </row>
-    <row r="28" spans="1:40" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="P27" s="19"/>
+      <c r="Q27" s="19"/>
+      <c r="R27" s="19"/>
+      <c r="S27" s="19"/>
+      <c r="T27" s="19"/>
+      <c r="U27" s="19"/>
+      <c r="V27" s="19"/>
+    </row>
+    <row r="28" spans="1:39" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A28" s="7"/>
       <c r="B28" s="9"/>
-      <c r="O28" s="20"/>
-      <c r="P28" s="20"/>
-      <c r="Q28" s="20"/>
-      <c r="R28" s="20"/>
-      <c r="S28" s="20"/>
-      <c r="T28" s="20"/>
-      <c r="U28" s="20"/>
-      <c r="V28" s="20"/>
-    </row>
-    <row r="29" spans="1:40" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="O28" s="19"/>
+      <c r="P28" s="19"/>
+      <c r="Q28" s="19"/>
+      <c r="R28" s="19"/>
+      <c r="S28" s="19"/>
+      <c r="T28" s="19"/>
+      <c r="U28" s="19"/>
+      <c r="V28" s="19"/>
+    </row>
+    <row r="29" spans="1:39" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A29" s="7"/>
       <c r="B29" s="9"/>
-      <c r="O29" s="20"/>
-      <c r="P29" s="20"/>
-      <c r="Q29" s="20"/>
-      <c r="R29" s="20"/>
-      <c r="S29" s="20"/>
-      <c r="T29" s="20"/>
-      <c r="U29" s="20"/>
-      <c r="V29" s="20"/>
-    </row>
-    <row r="30" spans="1:40" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="O29" s="19"/>
+      <c r="P29" s="19"/>
+      <c r="Q29" s="19"/>
+      <c r="R29" s="19"/>
+      <c r="S29" s="19"/>
+      <c r="T29" s="19"/>
+      <c r="U29" s="19"/>
+      <c r="V29" s="19"/>
+    </row>
+    <row r="30" spans="1:39" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
       <c r="B30" s="9"/>
-      <c r="O30" s="20"/>
-      <c r="P30" s="20"/>
-      <c r="Q30" s="20"/>
-      <c r="R30" s="20"/>
-      <c r="S30" s="20"/>
-      <c r="T30" s="20"/>
-      <c r="U30" s="20"/>
-      <c r="V30" s="20"/>
-    </row>
-    <row r="31" spans="1:40" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="O30" s="19"/>
+      <c r="P30" s="19"/>
+      <c r="Q30" s="19"/>
+      <c r="R30" s="19"/>
+      <c r="S30" s="19"/>
+      <c r="T30" s="19"/>
+      <c r="U30" s="19"/>
+      <c r="V30" s="19"/>
+    </row>
+    <row r="31" spans="1:39" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
       <c r="B31" s="9"/>
-      <c r="O31" s="20"/>
-      <c r="P31" s="20"/>
-      <c r="Q31" s="20"/>
-      <c r="R31" s="20"/>
-      <c r="S31" s="20"/>
-      <c r="T31" s="20"/>
-      <c r="U31" s="20"/>
-      <c r="V31" s="20"/>
-    </row>
-    <row r="32" spans="1:40" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="O31" s="19"/>
+      <c r="P31" s="19"/>
+      <c r="Q31" s="19"/>
+      <c r="R31" s="19"/>
+      <c r="S31" s="19"/>
+      <c r="T31" s="19"/>
+      <c r="U31" s="19"/>
+      <c r="V31" s="19"/>
+    </row>
+    <row r="32" spans="1:39" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
       <c r="B32" s="9"/>
-      <c r="O32" s="20"/>
-      <c r="P32" s="20"/>
-      <c r="Q32" s="20"/>
-      <c r="R32" s="20"/>
-      <c r="S32" s="20"/>
-      <c r="T32" s="20"/>
-      <c r="U32" s="20"/>
-      <c r="V32" s="20"/>
+      <c r="O32" s="19"/>
+      <c r="P32" s="19"/>
+      <c r="Q32" s="19"/>
+      <c r="R32" s="19"/>
+      <c r="S32" s="19"/>
+      <c r="T32" s="19"/>
+      <c r="U32" s="19"/>
+      <c r="V32" s="19"/>
     </row>
     <row r="33" spans="1:22" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
       <c r="B33" s="9"/>
-      <c r="O33" s="20"/>
-      <c r="P33" s="20"/>
-      <c r="Q33" s="20"/>
-      <c r="R33" s="20"/>
-      <c r="S33" s="20"/>
-      <c r="T33" s="20"/>
-      <c r="U33" s="20"/>
-      <c r="V33" s="20"/>
+      <c r="O33" s="19"/>
+      <c r="P33" s="19"/>
+      <c r="Q33" s="19"/>
+      <c r="R33" s="19"/>
+      <c r="S33" s="19"/>
+      <c r="T33" s="19"/>
+      <c r="U33" s="19"/>
+      <c r="V33" s="19"/>
     </row>
     <row r="34" spans="1:22" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
       <c r="B34" s="9"/>
-      <c r="O34" s="20"/>
-      <c r="P34" s="20"/>
-      <c r="Q34" s="20"/>
-      <c r="R34" s="20"/>
-      <c r="S34" s="20"/>
-      <c r="T34" s="20"/>
-      <c r="U34" s="20"/>
-      <c r="V34" s="20"/>
+      <c r="O34" s="19"/>
+      <c r="P34" s="19"/>
+      <c r="Q34" s="19"/>
+      <c r="R34" s="19"/>
+      <c r="S34" s="19"/>
+      <c r="T34" s="19"/>
+      <c r="U34" s="19"/>
+      <c r="V34" s="19"/>
     </row>
     <row r="35" spans="1:22" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
       <c r="B35" s="9"/>
-      <c r="O35" s="20"/>
-      <c r="P35" s="20"/>
-      <c r="Q35" s="20"/>
-      <c r="R35" s="20"/>
-      <c r="S35" s="20"/>
-      <c r="T35" s="20"/>
-      <c r="U35" s="20"/>
-      <c r="V35" s="20"/>
+      <c r="O35" s="19"/>
+      <c r="P35" s="19"/>
+      <c r="Q35" s="19"/>
+      <c r="R35" s="19"/>
+      <c r="S35" s="19"/>
+      <c r="T35" s="19"/>
+      <c r="U35" s="19"/>
+      <c r="V35" s="19"/>
     </row>
     <row r="36" spans="1:22" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A36" s="7"/>
       <c r="B36" s="7"/>
-      <c r="O36" s="20"/>
-      <c r="P36" s="20"/>
-      <c r="Q36" s="20"/>
-      <c r="R36" s="20"/>
-      <c r="S36" s="20"/>
-      <c r="T36" s="20"/>
-      <c r="U36" s="20"/>
-      <c r="V36" s="20"/>
+      <c r="O36" s="19"/>
+      <c r="P36" s="19"/>
+      <c r="Q36" s="19"/>
+      <c r="R36" s="19"/>
+      <c r="S36" s="19"/>
+      <c r="T36" s="19"/>
+      <c r="U36" s="19"/>
+      <c r="V36" s="19"/>
     </row>
     <row r="37" spans="1:22" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A37" s="7"/>
       <c r="B37" s="7"/>
-      <c r="O37" s="20"/>
-      <c r="P37" s="20"/>
-      <c r="Q37" s="20"/>
-      <c r="R37" s="20"/>
-      <c r="S37" s="20"/>
-      <c r="T37" s="20"/>
-      <c r="U37" s="20"/>
-      <c r="V37" s="20"/>
+      <c r="O37" s="19"/>
+      <c r="P37" s="19"/>
+      <c r="Q37" s="19"/>
+      <c r="R37" s="19"/>
+      <c r="S37" s="19"/>
+      <c r="T37" s="19"/>
+      <c r="U37" s="19"/>
+      <c r="V37" s="19"/>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="O38" s="20"/>
-      <c r="P38" s="20"/>
-      <c r="Q38" s="20"/>
-      <c r="R38" s="20"/>
-      <c r="S38" s="20"/>
-      <c r="T38" s="20"/>
-      <c r="U38" s="20"/>
-      <c r="V38" s="20"/>
+      <c r="O38" s="19"/>
+      <c r="P38" s="19"/>
+      <c r="Q38" s="19"/>
+      <c r="R38" s="19"/>
+      <c r="S38" s="19"/>
+      <c r="T38" s="19"/>
+      <c r="U38" s="19"/>
+      <c r="V38" s="19"/>
     </row>
   </sheetData>
   <sortState ref="A2:A24">

--- a/前端工程师班.xlsx
+++ b/前端工程师班.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yacon\Desktop\前端随堂笔记\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ADAD0C4-2827-42A5-9606-9CAC4C3CC262}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56370899-CA47-47CB-AC8D-23973D155A5C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="21984" windowHeight="13176" activeTab="2" xr2:uid="{F18D4CDB-7335-4D71-A58E-AC92FD55C192}"/>
   </bookViews>
@@ -1182,9 +1182,6 @@
     <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1195,6 +1192,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5058,7 +5058,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AQ14" sqref="AQ14"/>
+      <selection pane="bottomRight" activeCell="B13" sqref="B13:AL13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.77734375" defaultRowHeight="22.8" x14ac:dyDescent="0.25"/>
@@ -5074,89 +5074,89 @@
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
-      <c r="T1" s="17"/>
-      <c r="U1" s="17"/>
-      <c r="V1" s="17"/>
-      <c r="W1" s="17"/>
-      <c r="X1" s="17"/>
-      <c r="Y1" s="17"/>
-      <c r="Z1" s="17"/>
-      <c r="AA1" s="17"/>
-      <c r="AB1" s="17"/>
-      <c r="AC1" s="17"/>
-      <c r="AD1" s="17"/>
-      <c r="AE1" s="17"/>
-      <c r="AF1" s="17"/>
-      <c r="AG1" s="17"/>
-      <c r="AH1" s="17"/>
-      <c r="AI1" s="17"/>
-      <c r="AJ1" s="17"/>
-      <c r="AK1" s="17"/>
-      <c r="AL1" s="17"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
+      <c r="S1" s="16"/>
+      <c r="T1" s="16"/>
+      <c r="U1" s="16"/>
+      <c r="V1" s="16"/>
+      <c r="W1" s="16"/>
+      <c r="X1" s="16"/>
+      <c r="Y1" s="16"/>
+      <c r="Z1" s="16"/>
+      <c r="AA1" s="16"/>
+      <c r="AB1" s="16"/>
+      <c r="AC1" s="16"/>
+      <c r="AD1" s="16"/>
+      <c r="AE1" s="16"/>
+      <c r="AF1" s="16"/>
+      <c r="AG1" s="16"/>
+      <c r="AH1" s="16"/>
+      <c r="AI1" s="16"/>
+      <c r="AJ1" s="16"/>
+      <c r="AK1" s="16"/>
+      <c r="AL1" s="16"/>
     </row>
     <row r="2" spans="1:43" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="20">
+      <c r="B2" s="19">
         <v>1</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="20"/>
-      <c r="S2" s="20"/>
-      <c r="T2" s="20"/>
-      <c r="U2" s="20"/>
-      <c r="V2" s="20"/>
-      <c r="W2" s="20"/>
-      <c r="X2" s="20"/>
-      <c r="Y2" s="20"/>
-      <c r="Z2" s="20"/>
-      <c r="AA2" s="20"/>
-      <c r="AB2" s="20"/>
-      <c r="AC2" s="20"/>
-      <c r="AD2" s="20"/>
-      <c r="AE2" s="20"/>
-      <c r="AF2" s="20"/>
-      <c r="AG2" s="20"/>
-      <c r="AH2" s="20"/>
-      <c r="AI2" s="20"/>
-      <c r="AJ2" s="20"/>
-      <c r="AK2" s="20"/>
-      <c r="AL2" s="20"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="19"/>
+      <c r="U2" s="19"/>
+      <c r="V2" s="19"/>
+      <c r="W2" s="19"/>
+      <c r="X2" s="19"/>
+      <c r="Y2" s="19"/>
+      <c r="Z2" s="19"/>
+      <c r="AA2" s="19"/>
+      <c r="AB2" s="19"/>
+      <c r="AC2" s="19"/>
+      <c r="AD2" s="19"/>
+      <c r="AE2" s="19"/>
+      <c r="AF2" s="19"/>
+      <c r="AG2" s="19"/>
+      <c r="AH2" s="19"/>
+      <c r="AI2" s="19"/>
+      <c r="AJ2" s="19"/>
+      <c r="AK2" s="19"/>
+      <c r="AL2" s="19"/>
       <c r="AP2" s="9">
         <v>0</v>
       </c>
@@ -5168,45 +5168,45 @@
       <c r="A3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="20">
+      <c r="B3" s="19">
         <v>1</v>
       </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="20"/>
-      <c r="N3" s="20"/>
-      <c r="O3" s="20"/>
-      <c r="P3" s="20"/>
-      <c r="Q3" s="20"/>
-      <c r="R3" s="20"/>
-      <c r="S3" s="20"/>
-      <c r="T3" s="20"/>
-      <c r="U3" s="20"/>
-      <c r="V3" s="20"/>
-      <c r="W3" s="20"/>
-      <c r="X3" s="20"/>
-      <c r="Y3" s="20"/>
-      <c r="Z3" s="20"/>
-      <c r="AA3" s="20"/>
-      <c r="AB3" s="20"/>
-      <c r="AC3" s="20"/>
-      <c r="AD3" s="20"/>
-      <c r="AE3" s="20"/>
-      <c r="AF3" s="20"/>
-      <c r="AG3" s="20"/>
-      <c r="AH3" s="20"/>
-      <c r="AI3" s="20"/>
-      <c r="AJ3" s="20"/>
-      <c r="AK3" s="20"/>
-      <c r="AL3" s="20"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="19"/>
+      <c r="R3" s="19"/>
+      <c r="S3" s="19"/>
+      <c r="T3" s="19"/>
+      <c r="U3" s="19"/>
+      <c r="V3" s="19"/>
+      <c r="W3" s="19"/>
+      <c r="X3" s="19"/>
+      <c r="Y3" s="19"/>
+      <c r="Z3" s="19"/>
+      <c r="AA3" s="19"/>
+      <c r="AB3" s="19"/>
+      <c r="AC3" s="19"/>
+      <c r="AD3" s="19"/>
+      <c r="AE3" s="19"/>
+      <c r="AF3" s="19"/>
+      <c r="AG3" s="19"/>
+      <c r="AH3" s="19"/>
+      <c r="AI3" s="19"/>
+      <c r="AJ3" s="19"/>
+      <c r="AK3" s="19"/>
+      <c r="AL3" s="19"/>
       <c r="AP3" s="9">
         <v>10</v>
       </c>
@@ -5218,533 +5218,533 @@
       <c r="A4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="20">
+      <c r="B4" s="19">
         <v>2</v>
       </c>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="20"/>
-      <c r="N4" s="20"/>
-      <c r="O4" s="20"/>
-      <c r="P4" s="20"/>
-      <c r="Q4" s="20"/>
-      <c r="R4" s="20"/>
-      <c r="S4" s="20"/>
-      <c r="T4" s="20"/>
-      <c r="U4" s="20"/>
-      <c r="V4" s="20"/>
-      <c r="W4" s="20"/>
-      <c r="X4" s="20"/>
-      <c r="Y4" s="20"/>
-      <c r="Z4" s="20"/>
-      <c r="AA4" s="20"/>
-      <c r="AB4" s="20"/>
-      <c r="AC4" s="20"/>
-      <c r="AD4" s="20"/>
-      <c r="AE4" s="20"/>
-      <c r="AF4" s="20"/>
-      <c r="AG4" s="20"/>
-      <c r="AH4" s="20"/>
-      <c r="AI4" s="20"/>
-      <c r="AJ4" s="20"/>
-      <c r="AK4" s="20"/>
-      <c r="AL4" s="20"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="19"/>
+      <c r="S4" s="19"/>
+      <c r="T4" s="19"/>
+      <c r="U4" s="19"/>
+      <c r="V4" s="19"/>
+      <c r="W4" s="19"/>
+      <c r="X4" s="19"/>
+      <c r="Y4" s="19"/>
+      <c r="Z4" s="19"/>
+      <c r="AA4" s="19"/>
+      <c r="AB4" s="19"/>
+      <c r="AC4" s="19"/>
+      <c r="AD4" s="19"/>
+      <c r="AE4" s="19"/>
+      <c r="AF4" s="19"/>
+      <c r="AG4" s="19"/>
+      <c r="AH4" s="19"/>
+      <c r="AI4" s="19"/>
+      <c r="AJ4" s="19"/>
+      <c r="AK4" s="19"/>
+      <c r="AL4" s="19"/>
       <c r="AO4" s="12"/>
     </row>
     <row r="5" spans="1:43" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="16">
+      <c r="B5" s="20">
         <v>1</v>
       </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="16"/>
-      <c r="R5" s="16"/>
-      <c r="S5" s="16"/>
-      <c r="T5" s="16"/>
-      <c r="U5" s="16"/>
-      <c r="V5" s="16"/>
-      <c r="W5" s="16"/>
-      <c r="X5" s="16"/>
-      <c r="Y5" s="16"/>
-      <c r="Z5" s="16"/>
-      <c r="AA5" s="16"/>
-      <c r="AB5" s="16"/>
-      <c r="AC5" s="16"/>
-      <c r="AD5" s="16"/>
-      <c r="AE5" s="16"/>
-      <c r="AF5" s="16"/>
-      <c r="AG5" s="16"/>
-      <c r="AH5" s="16"/>
-      <c r="AI5" s="16"/>
-      <c r="AJ5" s="16"/>
-      <c r="AK5" s="16"/>
-      <c r="AL5" s="16"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="20"/>
+      <c r="Q5" s="20"/>
+      <c r="R5" s="20"/>
+      <c r="S5" s="20"/>
+      <c r="T5" s="20"/>
+      <c r="U5" s="20"/>
+      <c r="V5" s="20"/>
+      <c r="W5" s="20"/>
+      <c r="X5" s="20"/>
+      <c r="Y5" s="20"/>
+      <c r="Z5" s="20"/>
+      <c r="AA5" s="20"/>
+      <c r="AB5" s="20"/>
+      <c r="AC5" s="20"/>
+      <c r="AD5" s="20"/>
+      <c r="AE5" s="20"/>
+      <c r="AF5" s="20"/>
+      <c r="AG5" s="20"/>
+      <c r="AH5" s="20"/>
+      <c r="AI5" s="20"/>
+      <c r="AJ5" s="20"/>
+      <c r="AK5" s="20"/>
+      <c r="AL5" s="20"/>
     </row>
     <row r="6" spans="1:43" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="16">
+      <c r="B6" s="20">
         <v>1</v>
       </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="16"/>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="16"/>
-      <c r="R6" s="16"/>
-      <c r="S6" s="16"/>
-      <c r="T6" s="16"/>
-      <c r="U6" s="16"/>
-      <c r="V6" s="16"/>
-      <c r="W6" s="16"/>
-      <c r="X6" s="16"/>
-      <c r="Y6" s="16"/>
-      <c r="Z6" s="16"/>
-      <c r="AA6" s="16"/>
-      <c r="AB6" s="16"/>
-      <c r="AC6" s="16"/>
-      <c r="AD6" s="16"/>
-      <c r="AE6" s="16"/>
-      <c r="AF6" s="16"/>
-      <c r="AG6" s="16"/>
-      <c r="AH6" s="16"/>
-      <c r="AI6" s="16"/>
-      <c r="AJ6" s="16"/>
-      <c r="AK6" s="16"/>
-      <c r="AL6" s="16"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="20"/>
+      <c r="O6" s="20"/>
+      <c r="P6" s="20"/>
+      <c r="Q6" s="20"/>
+      <c r="R6" s="20"/>
+      <c r="S6" s="20"/>
+      <c r="T6" s="20"/>
+      <c r="U6" s="20"/>
+      <c r="V6" s="20"/>
+      <c r="W6" s="20"/>
+      <c r="X6" s="20"/>
+      <c r="Y6" s="20"/>
+      <c r="Z6" s="20"/>
+      <c r="AA6" s="20"/>
+      <c r="AB6" s="20"/>
+      <c r="AC6" s="20"/>
+      <c r="AD6" s="20"/>
+      <c r="AE6" s="20"/>
+      <c r="AF6" s="20"/>
+      <c r="AG6" s="20"/>
+      <c r="AH6" s="20"/>
+      <c r="AI6" s="20"/>
+      <c r="AJ6" s="20"/>
+      <c r="AK6" s="20"/>
+      <c r="AL6" s="20"/>
     </row>
     <row r="7" spans="1:43" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="16">
+      <c r="B7" s="20">
         <v>1</v>
       </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="16"/>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="16"/>
-      <c r="R7" s="16"/>
-      <c r="S7" s="16"/>
-      <c r="T7" s="16"/>
-      <c r="U7" s="16"/>
-      <c r="V7" s="16"/>
-      <c r="W7" s="16"/>
-      <c r="X7" s="16"/>
-      <c r="Y7" s="16"/>
-      <c r="Z7" s="16"/>
-      <c r="AA7" s="16"/>
-      <c r="AB7" s="16"/>
-      <c r="AC7" s="16"/>
-      <c r="AD7" s="16"/>
-      <c r="AE7" s="16"/>
-      <c r="AF7" s="16"/>
-      <c r="AG7" s="16"/>
-      <c r="AH7" s="16"/>
-      <c r="AI7" s="16"/>
-      <c r="AJ7" s="16"/>
-      <c r="AK7" s="16"/>
-      <c r="AL7" s="16"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="20"/>
+      <c r="O7" s="20"/>
+      <c r="P7" s="20"/>
+      <c r="Q7" s="20"/>
+      <c r="R7" s="20"/>
+      <c r="S7" s="20"/>
+      <c r="T7" s="20"/>
+      <c r="U7" s="20"/>
+      <c r="V7" s="20"/>
+      <c r="W7" s="20"/>
+      <c r="X7" s="20"/>
+      <c r="Y7" s="20"/>
+      <c r="Z7" s="20"/>
+      <c r="AA7" s="20"/>
+      <c r="AB7" s="20"/>
+      <c r="AC7" s="20"/>
+      <c r="AD7" s="20"/>
+      <c r="AE7" s="20"/>
+      <c r="AF7" s="20"/>
+      <c r="AG7" s="20"/>
+      <c r="AH7" s="20"/>
+      <c r="AI7" s="20"/>
+      <c r="AJ7" s="20"/>
+      <c r="AK7" s="20"/>
+      <c r="AL7" s="20"/>
     </row>
     <row r="8" spans="1:43" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="16">
+      <c r="B8" s="20">
         <v>1</v>
       </c>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="16"/>
-      <c r="N8" s="16"/>
-      <c r="O8" s="16"/>
-      <c r="P8" s="16"/>
-      <c r="Q8" s="16"/>
-      <c r="R8" s="16"/>
-      <c r="S8" s="16"/>
-      <c r="T8" s="16"/>
-      <c r="U8" s="16"/>
-      <c r="V8" s="16"/>
-      <c r="W8" s="16"/>
-      <c r="X8" s="16"/>
-      <c r="Y8" s="16"/>
-      <c r="Z8" s="16"/>
-      <c r="AA8" s="16"/>
-      <c r="AB8" s="16"/>
-      <c r="AC8" s="16"/>
-      <c r="AD8" s="16"/>
-      <c r="AE8" s="16"/>
-      <c r="AF8" s="16"/>
-      <c r="AG8" s="16"/>
-      <c r="AH8" s="16"/>
-      <c r="AI8" s="16"/>
-      <c r="AJ8" s="16"/>
-      <c r="AK8" s="16"/>
-      <c r="AL8" s="16"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="20"/>
+      <c r="N8" s="20"/>
+      <c r="O8" s="20"/>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="20"/>
+      <c r="R8" s="20"/>
+      <c r="S8" s="20"/>
+      <c r="T8" s="20"/>
+      <c r="U8" s="20"/>
+      <c r="V8" s="20"/>
+      <c r="W8" s="20"/>
+      <c r="X8" s="20"/>
+      <c r="Y8" s="20"/>
+      <c r="Z8" s="20"/>
+      <c r="AA8" s="20"/>
+      <c r="AB8" s="20"/>
+      <c r="AC8" s="20"/>
+      <c r="AD8" s="20"/>
+      <c r="AE8" s="20"/>
+      <c r="AF8" s="20"/>
+      <c r="AG8" s="20"/>
+      <c r="AH8" s="20"/>
+      <c r="AI8" s="20"/>
+      <c r="AJ8" s="20"/>
+      <c r="AK8" s="20"/>
+      <c r="AL8" s="20"/>
       <c r="AM8" s="12"/>
     </row>
     <row r="9" spans="1:43" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="16">
+      <c r="B9" s="20">
         <v>2</v>
       </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="16"/>
-      <c r="N9" s="16"/>
-      <c r="O9" s="16"/>
-      <c r="P9" s="16"/>
-      <c r="Q9" s="16"/>
-      <c r="R9" s="16"/>
-      <c r="S9" s="16"/>
-      <c r="T9" s="16"/>
-      <c r="U9" s="16"/>
-      <c r="V9" s="16"/>
-      <c r="W9" s="16"/>
-      <c r="X9" s="16"/>
-      <c r="Y9" s="16"/>
-      <c r="Z9" s="16"/>
-      <c r="AA9" s="16"/>
-      <c r="AB9" s="16"/>
-      <c r="AC9" s="16"/>
-      <c r="AD9" s="16"/>
-      <c r="AE9" s="16"/>
-      <c r="AF9" s="16"/>
-      <c r="AG9" s="16"/>
-      <c r="AH9" s="16"/>
-      <c r="AI9" s="16"/>
-      <c r="AJ9" s="16"/>
-      <c r="AK9" s="16"/>
-      <c r="AL9" s="16"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="20"/>
+      <c r="O9" s="20"/>
+      <c r="P9" s="20"/>
+      <c r="Q9" s="20"/>
+      <c r="R9" s="20"/>
+      <c r="S9" s="20"/>
+      <c r="T9" s="20"/>
+      <c r="U9" s="20"/>
+      <c r="V9" s="20"/>
+      <c r="W9" s="20"/>
+      <c r="X9" s="20"/>
+      <c r="Y9" s="20"/>
+      <c r="Z9" s="20"/>
+      <c r="AA9" s="20"/>
+      <c r="AB9" s="20"/>
+      <c r="AC9" s="20"/>
+      <c r="AD9" s="20"/>
+      <c r="AE9" s="20"/>
+      <c r="AF9" s="20"/>
+      <c r="AG9" s="20"/>
+      <c r="AH9" s="20"/>
+      <c r="AI9" s="20"/>
+      <c r="AJ9" s="20"/>
+      <c r="AK9" s="20"/>
+      <c r="AL9" s="20"/>
     </row>
     <row r="10" spans="1:43" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="16">
+      <c r="B10" s="20">
         <v>2</v>
       </c>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="16"/>
-      <c r="N10" s="16"/>
-      <c r="O10" s="16"/>
-      <c r="P10" s="16"/>
-      <c r="Q10" s="16"/>
-      <c r="R10" s="16"/>
-      <c r="S10" s="16"/>
-      <c r="T10" s="16"/>
-      <c r="U10" s="16"/>
-      <c r="V10" s="16"/>
-      <c r="W10" s="16"/>
-      <c r="X10" s="16"/>
-      <c r="Y10" s="16"/>
-      <c r="Z10" s="16"/>
-      <c r="AA10" s="16"/>
-      <c r="AB10" s="16"/>
-      <c r="AC10" s="16"/>
-      <c r="AD10" s="16"/>
-      <c r="AE10" s="16"/>
-      <c r="AF10" s="16"/>
-      <c r="AG10" s="16"/>
-      <c r="AH10" s="16"/>
-      <c r="AI10" s="16"/>
-      <c r="AJ10" s="16"/>
-      <c r="AK10" s="16"/>
-      <c r="AL10" s="16"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="20"/>
+      <c r="O10" s="20"/>
+      <c r="P10" s="20"/>
+      <c r="Q10" s="20"/>
+      <c r="R10" s="20"/>
+      <c r="S10" s="20"/>
+      <c r="T10" s="20"/>
+      <c r="U10" s="20"/>
+      <c r="V10" s="20"/>
+      <c r="W10" s="20"/>
+      <c r="X10" s="20"/>
+      <c r="Y10" s="20"/>
+      <c r="Z10" s="20"/>
+      <c r="AA10" s="20"/>
+      <c r="AB10" s="20"/>
+      <c r="AC10" s="20"/>
+      <c r="AD10" s="20"/>
+      <c r="AE10" s="20"/>
+      <c r="AF10" s="20"/>
+      <c r="AG10" s="20"/>
+      <c r="AH10" s="20"/>
+      <c r="AI10" s="20"/>
+      <c r="AJ10" s="20"/>
+      <c r="AK10" s="20"/>
+      <c r="AL10" s="20"/>
     </row>
     <row r="11" spans="1:43" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="16">
+      <c r="B11" s="20">
         <v>1</v>
       </c>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="16"/>
-      <c r="N11" s="16"/>
-      <c r="O11" s="16"/>
-      <c r="P11" s="16"/>
-      <c r="Q11" s="16"/>
-      <c r="R11" s="16"/>
-      <c r="S11" s="16"/>
-      <c r="T11" s="16"/>
-      <c r="U11" s="16"/>
-      <c r="V11" s="16"/>
-      <c r="W11" s="16"/>
-      <c r="X11" s="16"/>
-      <c r="Y11" s="16"/>
-      <c r="Z11" s="16"/>
-      <c r="AA11" s="16"/>
-      <c r="AB11" s="16"/>
-      <c r="AC11" s="16"/>
-      <c r="AD11" s="16"/>
-      <c r="AE11" s="16"/>
-      <c r="AF11" s="16"/>
-      <c r="AG11" s="16"/>
-      <c r="AH11" s="16"/>
-      <c r="AI11" s="16"/>
-      <c r="AJ11" s="16"/>
-      <c r="AK11" s="16"/>
-      <c r="AL11" s="16"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="20"/>
+      <c r="O11" s="20"/>
+      <c r="P11" s="20"/>
+      <c r="Q11" s="20"/>
+      <c r="R11" s="20"/>
+      <c r="S11" s="20"/>
+      <c r="T11" s="20"/>
+      <c r="U11" s="20"/>
+      <c r="V11" s="20"/>
+      <c r="W11" s="20"/>
+      <c r="X11" s="20"/>
+      <c r="Y11" s="20"/>
+      <c r="Z11" s="20"/>
+      <c r="AA11" s="20"/>
+      <c r="AB11" s="20"/>
+      <c r="AC11" s="20"/>
+      <c r="AD11" s="20"/>
+      <c r="AE11" s="20"/>
+      <c r="AF11" s="20"/>
+      <c r="AG11" s="20"/>
+      <c r="AH11" s="20"/>
+      <c r="AI11" s="20"/>
+      <c r="AJ11" s="20"/>
+      <c r="AK11" s="20"/>
+      <c r="AL11" s="20"/>
     </row>
     <row r="12" spans="1:43" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="16">
+      <c r="B12" s="20">
         <v>2</v>
       </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="16"/>
-      <c r="N12" s="16"/>
-      <c r="O12" s="16"/>
-      <c r="P12" s="16"/>
-      <c r="Q12" s="16"/>
-      <c r="R12" s="16"/>
-      <c r="S12" s="16"/>
-      <c r="T12" s="16"/>
-      <c r="U12" s="16"/>
-      <c r="V12" s="16"/>
-      <c r="W12" s="16"/>
-      <c r="X12" s="16"/>
-      <c r="Y12" s="16"/>
-      <c r="Z12" s="16"/>
-      <c r="AA12" s="16"/>
-      <c r="AB12" s="16"/>
-      <c r="AC12" s="16"/>
-      <c r="AD12" s="16"/>
-      <c r="AE12" s="16"/>
-      <c r="AF12" s="16"/>
-      <c r="AG12" s="16"/>
-      <c r="AH12" s="16"/>
-      <c r="AI12" s="16"/>
-      <c r="AJ12" s="16"/>
-      <c r="AK12" s="16"/>
-      <c r="AL12" s="16"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="20"/>
+      <c r="N12" s="20"/>
+      <c r="O12" s="20"/>
+      <c r="P12" s="20"/>
+      <c r="Q12" s="20"/>
+      <c r="R12" s="20"/>
+      <c r="S12" s="20"/>
+      <c r="T12" s="20"/>
+      <c r="U12" s="20"/>
+      <c r="V12" s="20"/>
+      <c r="W12" s="20"/>
+      <c r="X12" s="20"/>
+      <c r="Y12" s="20"/>
+      <c r="Z12" s="20"/>
+      <c r="AA12" s="20"/>
+      <c r="AB12" s="20"/>
+      <c r="AC12" s="20"/>
+      <c r="AD12" s="20"/>
+      <c r="AE12" s="20"/>
+      <c r="AF12" s="20"/>
+      <c r="AG12" s="20"/>
+      <c r="AH12" s="20"/>
+      <c r="AI12" s="20"/>
+      <c r="AJ12" s="20"/>
+      <c r="AK12" s="20"/>
+      <c r="AL12" s="20"/>
     </row>
     <row r="13" spans="1:43" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="16">
+      <c r="B13" s="20">
         <v>2</v>
       </c>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="16"/>
-      <c r="N13" s="16"/>
-      <c r="O13" s="16"/>
-      <c r="P13" s="16"/>
-      <c r="Q13" s="16"/>
-      <c r="R13" s="16"/>
-      <c r="S13" s="16"/>
-      <c r="T13" s="16"/>
-      <c r="U13" s="16"/>
-      <c r="V13" s="16"/>
-      <c r="W13" s="16"/>
-      <c r="X13" s="16"/>
-      <c r="Y13" s="16"/>
-      <c r="Z13" s="16"/>
-      <c r="AA13" s="16"/>
-      <c r="AB13" s="16"/>
-      <c r="AC13" s="16"/>
-      <c r="AD13" s="16"/>
-      <c r="AE13" s="16"/>
-      <c r="AF13" s="16"/>
-      <c r="AG13" s="16"/>
-      <c r="AH13" s="16"/>
-      <c r="AI13" s="16"/>
-      <c r="AJ13" s="16"/>
-      <c r="AK13" s="16"/>
-      <c r="AL13" s="16"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="20"/>
+      <c r="N13" s="20"/>
+      <c r="O13" s="20"/>
+      <c r="P13" s="20"/>
+      <c r="Q13" s="20"/>
+      <c r="R13" s="20"/>
+      <c r="S13" s="20"/>
+      <c r="T13" s="20"/>
+      <c r="U13" s="20"/>
+      <c r="V13" s="20"/>
+      <c r="W13" s="20"/>
+      <c r="X13" s="20"/>
+      <c r="Y13" s="20"/>
+      <c r="Z13" s="20"/>
+      <c r="AA13" s="20"/>
+      <c r="AB13" s="20"/>
+      <c r="AC13" s="20"/>
+      <c r="AD13" s="20"/>
+      <c r="AE13" s="20"/>
+      <c r="AF13" s="20"/>
+      <c r="AG13" s="20"/>
+      <c r="AH13" s="20"/>
+      <c r="AI13" s="20"/>
+      <c r="AJ13" s="20"/>
+      <c r="AK13" s="20"/>
+      <c r="AL13" s="20"/>
       <c r="AM13" s="12"/>
     </row>
     <row r="14" spans="1:43" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="16">
+      <c r="B14" s="20">
         <v>3</v>
       </c>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="16"/>
-      <c r="N14" s="16"/>
-      <c r="O14" s="16"/>
-      <c r="P14" s="16"/>
-      <c r="Q14" s="16"/>
-      <c r="R14" s="16"/>
-      <c r="S14" s="16"/>
-      <c r="T14" s="16"/>
-      <c r="U14" s="16"/>
-      <c r="V14" s="16"/>
-      <c r="W14" s="16"/>
-      <c r="X14" s="16"/>
-      <c r="Y14" s="16"/>
-      <c r="Z14" s="16"/>
-      <c r="AA14" s="16"/>
-      <c r="AB14" s="16"/>
-      <c r="AC14" s="16"/>
-      <c r="AD14" s="16"/>
-      <c r="AE14" s="16"/>
-      <c r="AF14" s="16"/>
-      <c r="AG14" s="16"/>
-      <c r="AH14" s="16"/>
-      <c r="AI14" s="16"/>
-      <c r="AJ14" s="16"/>
-      <c r="AK14" s="16"/>
-      <c r="AL14" s="16"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="20"/>
+      <c r="N14" s="20"/>
+      <c r="O14" s="20"/>
+      <c r="P14" s="20"/>
+      <c r="Q14" s="20"/>
+      <c r="R14" s="20"/>
+      <c r="S14" s="20"/>
+      <c r="T14" s="20"/>
+      <c r="U14" s="20"/>
+      <c r="V14" s="20"/>
+      <c r="W14" s="20"/>
+      <c r="X14" s="20"/>
+      <c r="Y14" s="20"/>
+      <c r="Z14" s="20"/>
+      <c r="AA14" s="20"/>
+      <c r="AB14" s="20"/>
+      <c r="AC14" s="20"/>
+      <c r="AD14" s="20"/>
+      <c r="AE14" s="20"/>
+      <c r="AF14" s="20"/>
+      <c r="AG14" s="20"/>
+      <c r="AH14" s="20"/>
+      <c r="AI14" s="20"/>
+      <c r="AJ14" s="20"/>
+      <c r="AK14" s="20"/>
+      <c r="AL14" s="20"/>
       <c r="AM14" s="12"/>
     </row>
     <row r="15" spans="1:43" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="16">
+      <c r="B15" s="20">
         <v>2</v>
       </c>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="16"/>
-      <c r="N15" s="16"/>
-      <c r="O15" s="16"/>
-      <c r="P15" s="16"/>
-      <c r="Q15" s="16"/>
-      <c r="R15" s="16"/>
-      <c r="S15" s="16"/>
-      <c r="T15" s="16"/>
-      <c r="U15" s="16"/>
-      <c r="V15" s="16"/>
-      <c r="W15" s="16"/>
-      <c r="X15" s="16"/>
-      <c r="Y15" s="16"/>
-      <c r="Z15" s="16"/>
-      <c r="AA15" s="16"/>
-      <c r="AB15" s="16"/>
-      <c r="AC15" s="16"/>
-      <c r="AD15" s="16"/>
-      <c r="AE15" s="16"/>
-      <c r="AF15" s="16"/>
-      <c r="AG15" s="16"/>
-      <c r="AH15" s="16"/>
-      <c r="AI15" s="16"/>
-      <c r="AJ15" s="16"/>
-      <c r="AK15" s="16"/>
-      <c r="AL15" s="16"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="20"/>
+      <c r="N15" s="20"/>
+      <c r="O15" s="20"/>
+      <c r="P15" s="20"/>
+      <c r="Q15" s="20"/>
+      <c r="R15" s="20"/>
+      <c r="S15" s="20"/>
+      <c r="T15" s="20"/>
+      <c r="U15" s="20"/>
+      <c r="V15" s="20"/>
+      <c r="W15" s="20"/>
+      <c r="X15" s="20"/>
+      <c r="Y15" s="20"/>
+      <c r="Z15" s="20"/>
+      <c r="AA15" s="20"/>
+      <c r="AB15" s="20"/>
+      <c r="AC15" s="20"/>
+      <c r="AD15" s="20"/>
+      <c r="AE15" s="20"/>
+      <c r="AF15" s="20"/>
+      <c r="AG15" s="20"/>
+      <c r="AH15" s="20"/>
+      <c r="AI15" s="20"/>
+      <c r="AJ15" s="20"/>
+      <c r="AK15" s="20"/>
+      <c r="AL15" s="20"/>
       <c r="AM15" s="12"/>
       <c r="AO15" s="12"/>
     </row>
@@ -5752,401 +5752,401 @@
       <c r="A16" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="16">
-        <v>2</v>
-      </c>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="16"/>
-      <c r="L16" s="16"/>
-      <c r="M16" s="16"/>
-      <c r="N16" s="16"/>
-      <c r="O16" s="16"/>
-      <c r="P16" s="16"/>
-      <c r="Q16" s="16"/>
-      <c r="R16" s="16"/>
-      <c r="S16" s="16"/>
-      <c r="T16" s="16"/>
-      <c r="U16" s="16"/>
-      <c r="V16" s="16"/>
-      <c r="W16" s="16"/>
-      <c r="X16" s="16"/>
-      <c r="Y16" s="16"/>
-      <c r="Z16" s="16"/>
-      <c r="AA16" s="16"/>
-      <c r="AB16" s="16"/>
-      <c r="AC16" s="16"/>
-      <c r="AD16" s="16"/>
-      <c r="AE16" s="16"/>
-      <c r="AF16" s="16"/>
-      <c r="AG16" s="16"/>
-      <c r="AH16" s="16"/>
-      <c r="AI16" s="16"/>
-      <c r="AJ16" s="16"/>
-      <c r="AK16" s="16"/>
-      <c r="AL16" s="16"/>
+      <c r="B16" s="20">
+        <v>3</v>
+      </c>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="20"/>
+      <c r="M16" s="20"/>
+      <c r="N16" s="20"/>
+      <c r="O16" s="20"/>
+      <c r="P16" s="20"/>
+      <c r="Q16" s="20"/>
+      <c r="R16" s="20"/>
+      <c r="S16" s="20"/>
+      <c r="T16" s="20"/>
+      <c r="U16" s="20"/>
+      <c r="V16" s="20"/>
+      <c r="W16" s="20"/>
+      <c r="X16" s="20"/>
+      <c r="Y16" s="20"/>
+      <c r="Z16" s="20"/>
+      <c r="AA16" s="20"/>
+      <c r="AB16" s="20"/>
+      <c r="AC16" s="20"/>
+      <c r="AD16" s="20"/>
+      <c r="AE16" s="20"/>
+      <c r="AF16" s="20"/>
+      <c r="AG16" s="20"/>
+      <c r="AH16" s="20"/>
+      <c r="AI16" s="20"/>
+      <c r="AJ16" s="20"/>
+      <c r="AK16" s="20"/>
+      <c r="AL16" s="20"/>
       <c r="AM16" s="12"/>
     </row>
     <row r="17" spans="1:39" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="16">
+      <c r="B17" s="20">
         <v>2</v>
       </c>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="16"/>
-      <c r="L17" s="16"/>
-      <c r="M17" s="16"/>
-      <c r="N17" s="16"/>
-      <c r="O17" s="16"/>
-      <c r="P17" s="16"/>
-      <c r="Q17" s="16"/>
-      <c r="R17" s="16"/>
-      <c r="S17" s="16"/>
-      <c r="T17" s="16"/>
-      <c r="U17" s="16"/>
-      <c r="V17" s="16"/>
-      <c r="W17" s="16"/>
-      <c r="X17" s="16"/>
-      <c r="Y17" s="16"/>
-      <c r="Z17" s="16"/>
-      <c r="AA17" s="16"/>
-      <c r="AB17" s="16"/>
-      <c r="AC17" s="16"/>
-      <c r="AD17" s="16"/>
-      <c r="AE17" s="16"/>
-      <c r="AF17" s="16"/>
-      <c r="AG17" s="16"/>
-      <c r="AH17" s="16"/>
-      <c r="AI17" s="16"/>
-      <c r="AJ17" s="16"/>
-      <c r="AK17" s="16"/>
-      <c r="AL17" s="16"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="20"/>
+      <c r="M17" s="20"/>
+      <c r="N17" s="20"/>
+      <c r="O17" s="20"/>
+      <c r="P17" s="20"/>
+      <c r="Q17" s="20"/>
+      <c r="R17" s="20"/>
+      <c r="S17" s="20"/>
+      <c r="T17" s="20"/>
+      <c r="U17" s="20"/>
+      <c r="V17" s="20"/>
+      <c r="W17" s="20"/>
+      <c r="X17" s="20"/>
+      <c r="Y17" s="20"/>
+      <c r="Z17" s="20"/>
+      <c r="AA17" s="20"/>
+      <c r="AB17" s="20"/>
+      <c r="AC17" s="20"/>
+      <c r="AD17" s="20"/>
+      <c r="AE17" s="20"/>
+      <c r="AF17" s="20"/>
+      <c r="AG17" s="20"/>
+      <c r="AH17" s="20"/>
+      <c r="AI17" s="20"/>
+      <c r="AJ17" s="20"/>
+      <c r="AK17" s="20"/>
+      <c r="AL17" s="20"/>
       <c r="AM17" s="12"/>
     </row>
     <row r="18" spans="1:39" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="16">
+      <c r="B18" s="20">
         <v>1</v>
       </c>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="16"/>
-      <c r="M18" s="16"/>
-      <c r="N18" s="16"/>
-      <c r="O18" s="16"/>
-      <c r="P18" s="16"/>
-      <c r="Q18" s="16"/>
-      <c r="R18" s="16"/>
-      <c r="S18" s="16"/>
-      <c r="T18" s="16"/>
-      <c r="U18" s="16"/>
-      <c r="V18" s="16"/>
-      <c r="W18" s="16"/>
-      <c r="X18" s="16"/>
-      <c r="Y18" s="16"/>
-      <c r="Z18" s="16"/>
-      <c r="AA18" s="16"/>
-      <c r="AB18" s="16"/>
-      <c r="AC18" s="16"/>
-      <c r="AD18" s="16"/>
-      <c r="AE18" s="16"/>
-      <c r="AF18" s="16"/>
-      <c r="AG18" s="16"/>
-      <c r="AH18" s="16"/>
-      <c r="AI18" s="16"/>
-      <c r="AJ18" s="16"/>
-      <c r="AK18" s="16"/>
-      <c r="AL18" s="16"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="20"/>
+      <c r="M18" s="20"/>
+      <c r="N18" s="20"/>
+      <c r="O18" s="20"/>
+      <c r="P18" s="20"/>
+      <c r="Q18" s="20"/>
+      <c r="R18" s="20"/>
+      <c r="S18" s="20"/>
+      <c r="T18" s="20"/>
+      <c r="U18" s="20"/>
+      <c r="V18" s="20"/>
+      <c r="W18" s="20"/>
+      <c r="X18" s="20"/>
+      <c r="Y18" s="20"/>
+      <c r="Z18" s="20"/>
+      <c r="AA18" s="20"/>
+      <c r="AB18" s="20"/>
+      <c r="AC18" s="20"/>
+      <c r="AD18" s="20"/>
+      <c r="AE18" s="20"/>
+      <c r="AF18" s="20"/>
+      <c r="AG18" s="20"/>
+      <c r="AH18" s="20"/>
+      <c r="AI18" s="20"/>
+      <c r="AJ18" s="20"/>
+      <c r="AK18" s="20"/>
+      <c r="AL18" s="20"/>
       <c r="AM18" s="12"/>
     </row>
     <row r="19" spans="1:39" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="16">
+      <c r="B19" s="20">
         <v>3</v>
       </c>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="16"/>
-      <c r="L19" s="16"/>
-      <c r="M19" s="16"/>
-      <c r="N19" s="16"/>
-      <c r="O19" s="16"/>
-      <c r="P19" s="16"/>
-      <c r="Q19" s="16"/>
-      <c r="R19" s="16"/>
-      <c r="S19" s="16"/>
-      <c r="T19" s="16"/>
-      <c r="U19" s="16"/>
-      <c r="V19" s="16"/>
-      <c r="W19" s="16"/>
-      <c r="X19" s="16"/>
-      <c r="Y19" s="16"/>
-      <c r="Z19" s="16"/>
-      <c r="AA19" s="16"/>
-      <c r="AB19" s="16"/>
-      <c r="AC19" s="16"/>
-      <c r="AD19" s="16"/>
-      <c r="AE19" s="16"/>
-      <c r="AF19" s="16"/>
-      <c r="AG19" s="16"/>
-      <c r="AH19" s="16"/>
-      <c r="AI19" s="16"/>
-      <c r="AJ19" s="16"/>
-      <c r="AK19" s="16"/>
-      <c r="AL19" s="16"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="20"/>
+      <c r="M19" s="20"/>
+      <c r="N19" s="20"/>
+      <c r="O19" s="20"/>
+      <c r="P19" s="20"/>
+      <c r="Q19" s="20"/>
+      <c r="R19" s="20"/>
+      <c r="S19" s="20"/>
+      <c r="T19" s="20"/>
+      <c r="U19" s="20"/>
+      <c r="V19" s="20"/>
+      <c r="W19" s="20"/>
+      <c r="X19" s="20"/>
+      <c r="Y19" s="20"/>
+      <c r="Z19" s="20"/>
+      <c r="AA19" s="20"/>
+      <c r="AB19" s="20"/>
+      <c r="AC19" s="20"/>
+      <c r="AD19" s="20"/>
+      <c r="AE19" s="20"/>
+      <c r="AF19" s="20"/>
+      <c r="AG19" s="20"/>
+      <c r="AH19" s="20"/>
+      <c r="AI19" s="20"/>
+      <c r="AJ19" s="20"/>
+      <c r="AK19" s="20"/>
+      <c r="AL19" s="20"/>
       <c r="AM19" s="12"/>
     </row>
     <row r="20" spans="1:39" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="16">
+      <c r="B20" s="20">
         <v>1</v>
       </c>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="16"/>
-      <c r="K20" s="16"/>
-      <c r="L20" s="16"/>
-      <c r="M20" s="16"/>
-      <c r="N20" s="16"/>
-      <c r="O20" s="16"/>
-      <c r="P20" s="16"/>
-      <c r="Q20" s="16"/>
-      <c r="R20" s="16"/>
-      <c r="S20" s="16"/>
-      <c r="T20" s="16"/>
-      <c r="U20" s="16"/>
-      <c r="V20" s="16"/>
-      <c r="W20" s="16"/>
-      <c r="X20" s="16"/>
-      <c r="Y20" s="16"/>
-      <c r="Z20" s="16"/>
-      <c r="AA20" s="16"/>
-      <c r="AB20" s="16"/>
-      <c r="AC20" s="16"/>
-      <c r="AD20" s="16"/>
-      <c r="AE20" s="16"/>
-      <c r="AF20" s="16"/>
-      <c r="AG20" s="16"/>
-      <c r="AH20" s="16"/>
-      <c r="AI20" s="16"/>
-      <c r="AJ20" s="16"/>
-      <c r="AK20" s="16"/>
-      <c r="AL20" s="16"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="20"/>
+      <c r="M20" s="20"/>
+      <c r="N20" s="20"/>
+      <c r="O20" s="20"/>
+      <c r="P20" s="20"/>
+      <c r="Q20" s="20"/>
+      <c r="R20" s="20"/>
+      <c r="S20" s="20"/>
+      <c r="T20" s="20"/>
+      <c r="U20" s="20"/>
+      <c r="V20" s="20"/>
+      <c r="W20" s="20"/>
+      <c r="X20" s="20"/>
+      <c r="Y20" s="20"/>
+      <c r="Z20" s="20"/>
+      <c r="AA20" s="20"/>
+      <c r="AB20" s="20"/>
+      <c r="AC20" s="20"/>
+      <c r="AD20" s="20"/>
+      <c r="AE20" s="20"/>
+      <c r="AF20" s="20"/>
+      <c r="AG20" s="20"/>
+      <c r="AH20" s="20"/>
+      <c r="AI20" s="20"/>
+      <c r="AJ20" s="20"/>
+      <c r="AK20" s="20"/>
+      <c r="AL20" s="20"/>
     </row>
     <row r="21" spans="1:39" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="16">
+      <c r="B21" s="20">
         <v>2</v>
       </c>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="16"/>
-      <c r="K21" s="16"/>
-      <c r="L21" s="16"/>
-      <c r="M21" s="16"/>
-      <c r="N21" s="16"/>
-      <c r="O21" s="16"/>
-      <c r="P21" s="16"/>
-      <c r="Q21" s="16"/>
-      <c r="R21" s="16"/>
-      <c r="S21" s="16"/>
-      <c r="T21" s="16"/>
-      <c r="U21" s="16"/>
-      <c r="V21" s="16"/>
-      <c r="W21" s="16"/>
-      <c r="X21" s="16"/>
-      <c r="Y21" s="16"/>
-      <c r="Z21" s="16"/>
-      <c r="AA21" s="16"/>
-      <c r="AB21" s="16"/>
-      <c r="AC21" s="16"/>
-      <c r="AD21" s="16"/>
-      <c r="AE21" s="16"/>
-      <c r="AF21" s="16"/>
-      <c r="AG21" s="16"/>
-      <c r="AH21" s="16"/>
-      <c r="AI21" s="16"/>
-      <c r="AJ21" s="16"/>
-      <c r="AK21" s="16"/>
-      <c r="AL21" s="16"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="20"/>
+      <c r="L21" s="20"/>
+      <c r="M21" s="20"/>
+      <c r="N21" s="20"/>
+      <c r="O21" s="20"/>
+      <c r="P21" s="20"/>
+      <c r="Q21" s="20"/>
+      <c r="R21" s="20"/>
+      <c r="S21" s="20"/>
+      <c r="T21" s="20"/>
+      <c r="U21" s="20"/>
+      <c r="V21" s="20"/>
+      <c r="W21" s="20"/>
+      <c r="X21" s="20"/>
+      <c r="Y21" s="20"/>
+      <c r="Z21" s="20"/>
+      <c r="AA21" s="20"/>
+      <c r="AB21" s="20"/>
+      <c r="AC21" s="20"/>
+      <c r="AD21" s="20"/>
+      <c r="AE21" s="20"/>
+      <c r="AF21" s="20"/>
+      <c r="AG21" s="20"/>
+      <c r="AH21" s="20"/>
+      <c r="AI21" s="20"/>
+      <c r="AJ21" s="20"/>
+      <c r="AK21" s="20"/>
+      <c r="AL21" s="20"/>
     </row>
     <row r="22" spans="1:39" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="16">
+      <c r="B22" s="20">
         <v>1</v>
       </c>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="16"/>
-      <c r="K22" s="16"/>
-      <c r="L22" s="16"/>
-      <c r="M22" s="16"/>
-      <c r="N22" s="16"/>
-      <c r="O22" s="16"/>
-      <c r="P22" s="16"/>
-      <c r="Q22" s="16"/>
-      <c r="R22" s="16"/>
-      <c r="S22" s="16"/>
-      <c r="T22" s="16"/>
-      <c r="U22" s="16"/>
-      <c r="V22" s="16"/>
-      <c r="W22" s="16"/>
-      <c r="X22" s="16"/>
-      <c r="Y22" s="16"/>
-      <c r="Z22" s="16"/>
-      <c r="AA22" s="16"/>
-      <c r="AB22" s="16"/>
-      <c r="AC22" s="16"/>
-      <c r="AD22" s="16"/>
-      <c r="AE22" s="16"/>
-      <c r="AF22" s="16"/>
-      <c r="AG22" s="16"/>
-      <c r="AH22" s="16"/>
-      <c r="AI22" s="16"/>
-      <c r="AJ22" s="16"/>
-      <c r="AK22" s="16"/>
-      <c r="AL22" s="16"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="20"/>
+      <c r="L22" s="20"/>
+      <c r="M22" s="20"/>
+      <c r="N22" s="20"/>
+      <c r="O22" s="20"/>
+      <c r="P22" s="20"/>
+      <c r="Q22" s="20"/>
+      <c r="R22" s="20"/>
+      <c r="S22" s="20"/>
+      <c r="T22" s="20"/>
+      <c r="U22" s="20"/>
+      <c r="V22" s="20"/>
+      <c r="W22" s="20"/>
+      <c r="X22" s="20"/>
+      <c r="Y22" s="20"/>
+      <c r="Z22" s="20"/>
+      <c r="AA22" s="20"/>
+      <c r="AB22" s="20"/>
+      <c r="AC22" s="20"/>
+      <c r="AD22" s="20"/>
+      <c r="AE22" s="20"/>
+      <c r="AF22" s="20"/>
+      <c r="AG22" s="20"/>
+      <c r="AH22" s="20"/>
+      <c r="AI22" s="20"/>
+      <c r="AJ22" s="20"/>
+      <c r="AK22" s="20"/>
+      <c r="AL22" s="20"/>
     </row>
     <row r="23" spans="1:39" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="16">
+      <c r="B23" s="20">
         <v>2</v>
       </c>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="16"/>
-      <c r="K23" s="16"/>
-      <c r="L23" s="16"/>
-      <c r="M23" s="16"/>
-      <c r="N23" s="16"/>
-      <c r="O23" s="16"/>
-      <c r="P23" s="16"/>
-      <c r="Q23" s="16"/>
-      <c r="R23" s="16"/>
-      <c r="S23" s="16"/>
-      <c r="T23" s="16"/>
-      <c r="U23" s="16"/>
-      <c r="V23" s="16"/>
-      <c r="W23" s="16"/>
-      <c r="X23" s="16"/>
-      <c r="Y23" s="16"/>
-      <c r="Z23" s="16"/>
-      <c r="AA23" s="16"/>
-      <c r="AB23" s="16"/>
-      <c r="AC23" s="16"/>
-      <c r="AD23" s="16"/>
-      <c r="AE23" s="16"/>
-      <c r="AF23" s="16"/>
-      <c r="AG23" s="16"/>
-      <c r="AH23" s="16"/>
-      <c r="AI23" s="16"/>
-      <c r="AJ23" s="16"/>
-      <c r="AK23" s="16"/>
-      <c r="AL23" s="16"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="20"/>
+      <c r="L23" s="20"/>
+      <c r="M23" s="20"/>
+      <c r="N23" s="20"/>
+      <c r="O23" s="20"/>
+      <c r="P23" s="20"/>
+      <c r="Q23" s="20"/>
+      <c r="R23" s="20"/>
+      <c r="S23" s="20"/>
+      <c r="T23" s="20"/>
+      <c r="U23" s="20"/>
+      <c r="V23" s="20"/>
+      <c r="W23" s="20"/>
+      <c r="X23" s="20"/>
+      <c r="Y23" s="20"/>
+      <c r="Z23" s="20"/>
+      <c r="AA23" s="20"/>
+      <c r="AB23" s="20"/>
+      <c r="AC23" s="20"/>
+      <c r="AD23" s="20"/>
+      <c r="AE23" s="20"/>
+      <c r="AF23" s="20"/>
+      <c r="AG23" s="20"/>
+      <c r="AH23" s="20"/>
+      <c r="AI23" s="20"/>
+      <c r="AJ23" s="20"/>
+      <c r="AK23" s="20"/>
+      <c r="AL23" s="20"/>
     </row>
     <row r="24" spans="1:39" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="16">
+      <c r="B24" s="20">
         <v>2</v>
       </c>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="16"/>
-      <c r="K24" s="16"/>
-      <c r="L24" s="16"/>
-      <c r="M24" s="16"/>
-      <c r="N24" s="16"/>
-      <c r="O24" s="16"/>
-      <c r="P24" s="16"/>
-      <c r="Q24" s="16"/>
-      <c r="R24" s="16"/>
-      <c r="S24" s="16"/>
-      <c r="T24" s="16"/>
-      <c r="U24" s="16"/>
-      <c r="V24" s="16"/>
-      <c r="W24" s="16"/>
-      <c r="X24" s="16"/>
-      <c r="Y24" s="16"/>
-      <c r="Z24" s="16"/>
-      <c r="AA24" s="16"/>
-      <c r="AB24" s="16"/>
-      <c r="AC24" s="16"/>
-      <c r="AD24" s="16"/>
-      <c r="AE24" s="16"/>
-      <c r="AF24" s="16"/>
-      <c r="AG24" s="16"/>
-      <c r="AH24" s="16"/>
-      <c r="AI24" s="16"/>
-      <c r="AJ24" s="16"/>
-      <c r="AK24" s="16"/>
-      <c r="AL24" s="16"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="20"/>
+      <c r="K24" s="20"/>
+      <c r="L24" s="20"/>
+      <c r="M24" s="20"/>
+      <c r="N24" s="20"/>
+      <c r="O24" s="20"/>
+      <c r="P24" s="20"/>
+      <c r="Q24" s="20"/>
+      <c r="R24" s="20"/>
+      <c r="S24" s="20"/>
+      <c r="T24" s="20"/>
+      <c r="U24" s="20"/>
+      <c r="V24" s="20"/>
+      <c r="W24" s="20"/>
+      <c r="X24" s="20"/>
+      <c r="Y24" s="20"/>
+      <c r="Z24" s="20"/>
+      <c r="AA24" s="20"/>
+      <c r="AB24" s="20"/>
+      <c r="AC24" s="20"/>
+      <c r="AD24" s="20"/>
+      <c r="AE24" s="20"/>
+      <c r="AF24" s="20"/>
+      <c r="AG24" s="20"/>
+      <c r="AH24" s="20"/>
+      <c r="AI24" s="20"/>
+      <c r="AJ24" s="20"/>
+      <c r="AK24" s="20"/>
+      <c r="AL24" s="20"/>
     </row>
     <row r="25" spans="1:39" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A25" s="7"/>
@@ -6159,152 +6159,161 @@
     <row r="27" spans="1:39" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
       <c r="B27" s="9"/>
-      <c r="O27" s="18" t="s">
+      <c r="O27" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="P27" s="19"/>
-      <c r="Q27" s="19"/>
-      <c r="R27" s="19"/>
-      <c r="S27" s="19"/>
-      <c r="T27" s="19"/>
-      <c r="U27" s="19"/>
-      <c r="V27" s="19"/>
+      <c r="P27" s="18"/>
+      <c r="Q27" s="18"/>
+      <c r="R27" s="18"/>
+      <c r="S27" s="18"/>
+      <c r="T27" s="18"/>
+      <c r="U27" s="18"/>
+      <c r="V27" s="18"/>
     </row>
     <row r="28" spans="1:39" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A28" s="7"/>
       <c r="B28" s="9"/>
-      <c r="O28" s="19"/>
-      <c r="P28" s="19"/>
-      <c r="Q28" s="19"/>
-      <c r="R28" s="19"/>
-      <c r="S28" s="19"/>
-      <c r="T28" s="19"/>
-      <c r="U28" s="19"/>
-      <c r="V28" s="19"/>
+      <c r="O28" s="18"/>
+      <c r="P28" s="18"/>
+      <c r="Q28" s="18"/>
+      <c r="R28" s="18"/>
+      <c r="S28" s="18"/>
+      <c r="T28" s="18"/>
+      <c r="U28" s="18"/>
+      <c r="V28" s="18"/>
     </row>
     <row r="29" spans="1:39" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A29" s="7"/>
       <c r="B29" s="9"/>
-      <c r="O29" s="19"/>
-      <c r="P29" s="19"/>
-      <c r="Q29" s="19"/>
-      <c r="R29" s="19"/>
-      <c r="S29" s="19"/>
-      <c r="T29" s="19"/>
-      <c r="U29" s="19"/>
-      <c r="V29" s="19"/>
+      <c r="O29" s="18"/>
+      <c r="P29" s="18"/>
+      <c r="Q29" s="18"/>
+      <c r="R29" s="18"/>
+      <c r="S29" s="18"/>
+      <c r="T29" s="18"/>
+      <c r="U29" s="18"/>
+      <c r="V29" s="18"/>
     </row>
     <row r="30" spans="1:39" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
       <c r="B30" s="9"/>
-      <c r="O30" s="19"/>
-      <c r="P30" s="19"/>
-      <c r="Q30" s="19"/>
-      <c r="R30" s="19"/>
-      <c r="S30" s="19"/>
-      <c r="T30" s="19"/>
-      <c r="U30" s="19"/>
-      <c r="V30" s="19"/>
+      <c r="O30" s="18"/>
+      <c r="P30" s="18"/>
+      <c r="Q30" s="18"/>
+      <c r="R30" s="18"/>
+      <c r="S30" s="18"/>
+      <c r="T30" s="18"/>
+      <c r="U30" s="18"/>
+      <c r="V30" s="18"/>
     </row>
     <row r="31" spans="1:39" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
       <c r="B31" s="9"/>
-      <c r="O31" s="19"/>
-      <c r="P31" s="19"/>
-      <c r="Q31" s="19"/>
-      <c r="R31" s="19"/>
-      <c r="S31" s="19"/>
-      <c r="T31" s="19"/>
-      <c r="U31" s="19"/>
-      <c r="V31" s="19"/>
+      <c r="O31" s="18"/>
+      <c r="P31" s="18"/>
+      <c r="Q31" s="18"/>
+      <c r="R31" s="18"/>
+      <c r="S31" s="18"/>
+      <c r="T31" s="18"/>
+      <c r="U31" s="18"/>
+      <c r="V31" s="18"/>
     </row>
     <row r="32" spans="1:39" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
       <c r="B32" s="9"/>
-      <c r="O32" s="19"/>
-      <c r="P32" s="19"/>
-      <c r="Q32" s="19"/>
-      <c r="R32" s="19"/>
-      <c r="S32" s="19"/>
-      <c r="T32" s="19"/>
-      <c r="U32" s="19"/>
-      <c r="V32" s="19"/>
+      <c r="O32" s="18"/>
+      <c r="P32" s="18"/>
+      <c r="Q32" s="18"/>
+      <c r="R32" s="18"/>
+      <c r="S32" s="18"/>
+      <c r="T32" s="18"/>
+      <c r="U32" s="18"/>
+      <c r="V32" s="18"/>
     </row>
     <row r="33" spans="1:22" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
       <c r="B33" s="9"/>
-      <c r="O33" s="19"/>
-      <c r="P33" s="19"/>
-      <c r="Q33" s="19"/>
-      <c r="R33" s="19"/>
-      <c r="S33" s="19"/>
-      <c r="T33" s="19"/>
-      <c r="U33" s="19"/>
-      <c r="V33" s="19"/>
+      <c r="O33" s="18"/>
+      <c r="P33" s="18"/>
+      <c r="Q33" s="18"/>
+      <c r="R33" s="18"/>
+      <c r="S33" s="18"/>
+      <c r="T33" s="18"/>
+      <c r="U33" s="18"/>
+      <c r="V33" s="18"/>
     </row>
     <row r="34" spans="1:22" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
       <c r="B34" s="9"/>
-      <c r="O34" s="19"/>
-      <c r="P34" s="19"/>
-      <c r="Q34" s="19"/>
-      <c r="R34" s="19"/>
-      <c r="S34" s="19"/>
-      <c r="T34" s="19"/>
-      <c r="U34" s="19"/>
-      <c r="V34" s="19"/>
+      <c r="O34" s="18"/>
+      <c r="P34" s="18"/>
+      <c r="Q34" s="18"/>
+      <c r="R34" s="18"/>
+      <c r="S34" s="18"/>
+      <c r="T34" s="18"/>
+      <c r="U34" s="18"/>
+      <c r="V34" s="18"/>
     </row>
     <row r="35" spans="1:22" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
       <c r="B35" s="9"/>
-      <c r="O35" s="19"/>
-      <c r="P35" s="19"/>
-      <c r="Q35" s="19"/>
-      <c r="R35" s="19"/>
-      <c r="S35" s="19"/>
-      <c r="T35" s="19"/>
-      <c r="U35" s="19"/>
-      <c r="V35" s="19"/>
+      <c r="O35" s="18"/>
+      <c r="P35" s="18"/>
+      <c r="Q35" s="18"/>
+      <c r="R35" s="18"/>
+      <c r="S35" s="18"/>
+      <c r="T35" s="18"/>
+      <c r="U35" s="18"/>
+      <c r="V35" s="18"/>
     </row>
     <row r="36" spans="1:22" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A36" s="7"/>
       <c r="B36" s="7"/>
-      <c r="O36" s="19"/>
-      <c r="P36" s="19"/>
-      <c r="Q36" s="19"/>
-      <c r="R36" s="19"/>
-      <c r="S36" s="19"/>
-      <c r="T36" s="19"/>
-      <c r="U36" s="19"/>
-      <c r="V36" s="19"/>
+      <c r="O36" s="18"/>
+      <c r="P36" s="18"/>
+      <c r="Q36" s="18"/>
+      <c r="R36" s="18"/>
+      <c r="S36" s="18"/>
+      <c r="T36" s="18"/>
+      <c r="U36" s="18"/>
+      <c r="V36" s="18"/>
     </row>
     <row r="37" spans="1:22" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A37" s="7"/>
       <c r="B37" s="7"/>
-      <c r="O37" s="19"/>
-      <c r="P37" s="19"/>
-      <c r="Q37" s="19"/>
-      <c r="R37" s="19"/>
-      <c r="S37" s="19"/>
-      <c r="T37" s="19"/>
-      <c r="U37" s="19"/>
-      <c r="V37" s="19"/>
+      <c r="O37" s="18"/>
+      <c r="P37" s="18"/>
+      <c r="Q37" s="18"/>
+      <c r="R37" s="18"/>
+      <c r="S37" s="18"/>
+      <c r="T37" s="18"/>
+      <c r="U37" s="18"/>
+      <c r="V37" s="18"/>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="O38" s="19"/>
-      <c r="P38" s="19"/>
-      <c r="Q38" s="19"/>
-      <c r="R38" s="19"/>
-      <c r="S38" s="19"/>
-      <c r="T38" s="19"/>
-      <c r="U38" s="19"/>
-      <c r="V38" s="19"/>
+      <c r="O38" s="18"/>
+      <c r="P38" s="18"/>
+      <c r="Q38" s="18"/>
+      <c r="R38" s="18"/>
+      <c r="S38" s="18"/>
+      <c r="T38" s="18"/>
+      <c r="U38" s="18"/>
+      <c r="V38" s="18"/>
     </row>
   </sheetData>
   <sortState ref="A2:A24">
     <sortCondition ref="A2"/>
   </sortState>
   <mergeCells count="25">
+    <mergeCell ref="B23:AL23"/>
+    <mergeCell ref="B24:AL24"/>
+    <mergeCell ref="B16:AL16"/>
+    <mergeCell ref="B9:AL9"/>
+    <mergeCell ref="B17:AL17"/>
+    <mergeCell ref="B18:AL18"/>
+    <mergeCell ref="B19:AL19"/>
+    <mergeCell ref="B20:AL20"/>
+    <mergeCell ref="B21:AL21"/>
     <mergeCell ref="B1:AL1"/>
     <mergeCell ref="O27:V38"/>
     <mergeCell ref="B2:AL2"/>
@@ -6321,15 +6330,6 @@
     <mergeCell ref="B15:AL15"/>
     <mergeCell ref="B7:AL7"/>
     <mergeCell ref="B22:AL22"/>
-    <mergeCell ref="B23:AL23"/>
-    <mergeCell ref="B24:AL24"/>
-    <mergeCell ref="B16:AL16"/>
-    <mergeCell ref="B9:AL9"/>
-    <mergeCell ref="B17:AL17"/>
-    <mergeCell ref="B18:AL18"/>
-    <mergeCell ref="B19:AL19"/>
-    <mergeCell ref="B20:AL20"/>
-    <mergeCell ref="B21:AL21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2:AL24">
